--- a/data/20210219_innovation_hubs-Almasi-v1.xlsx
+++ b/data/20210219_innovation_hubs-Almasi-v1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sirvan/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sirvan/sites/startups/psychi/innovation-hubs/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF90D2B5-1215-2B4A-8CEE-B76F7D10BEFB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5399018C-BFE6-024A-A73A-B3397D0C2053}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="500" windowWidth="28240" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,9 +49,6 @@
     <t>Location</t>
   </si>
   <si>
-    <t>4-5 Bonhill St, Shoreditch, London EC2A 4BX</t>
-  </si>
-  <si>
     <t>Level39</t>
   </si>
   <si>
@@ -61,18 +58,9 @@
     <t>cybersecurity</t>
   </si>
   <si>
-    <t>fintech,Retail, cyber security</t>
-  </si>
-  <si>
     <t>White Bear Yard(WBY)</t>
   </si>
   <si>
-    <t>3RD FLOOR, 65 CLERKENWELL ROAD, LONDON EC1R 5BL</t>
-  </si>
-  <si>
-    <t> One Canada Square, Canary Wharf, London E14 5AB</t>
-  </si>
-  <si>
     <t>Digital Tech &amp; Media</t>
   </si>
   <si>
@@ -91,9 +79,6 @@
     <t>69 Wilson Street London EC2A 2BB</t>
   </si>
   <si>
-    <t>ATIC, Oakwood Drive, LUSEP, Loughborough, LE11 3QF</t>
-  </si>
-  <si>
     <t>LU Inc.</t>
   </si>
   <si>
@@ -103,15 +88,9 @@
     <t>Cardiff Medicentre</t>
   </si>
   <si>
-    <t>life science, bio tech</t>
-  </si>
-  <si>
     <t>http://www.cardiffmedicentre.co.uk/</t>
   </si>
   <si>
-    <t>Heath Park, Cardiff CF14 4UJ</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
@@ -160,10 +139,6 @@
     <t>Medical sciences</t>
   </si>
   <si>
-    <t xml:space="preserve">Institute of Life Science 2,Swansea University,Singleton Park,Swansea,SA2 8PP
-</t>
-  </si>
-  <si>
     <t>fund and grant basis research</t>
   </si>
   <si>
@@ -173,9 +148,6 @@
     <t>https://www.csitlabs.com/</t>
   </si>
   <si>
-    <t>Queen's University,Belfast BT3 9DT</t>
-  </si>
-  <si>
     <t>3M Buckley Innovation Centre (3MBIC)</t>
   </si>
   <si>
@@ -207,9 +179,6 @@
     <t>Evolve Derby</t>
   </si>
   <si>
-    <t>R T C Business Park, The I D Centre Lathkill House,Derby DE24 8UP,</t>
-  </si>
-  <si>
     <t>businessgateway@derby.ac.uk </t>
   </si>
   <si>
@@ -231,18 +200,12 @@
     <t>126 - 128 New Kings Road London SW6 4LZ</t>
   </si>
   <si>
-    <t>fintech, cyber security</t>
-  </si>
-  <si>
     <t>Innovation Factory</t>
   </si>
   <si>
     <t>https://www.innovationfactoryni.com/</t>
   </si>
   <si>
-    <t>385 Springfield Road,Forthriver Business Park,Belfast. BT12 7DG</t>
-  </si>
-  <si>
     <t> info@innovationfactoryni.com </t>
   </si>
   <si>
@@ -255,12 +218,6 @@
     <t>https://thisisseedhaus.com/</t>
   </si>
   <si>
-    <t>Cybersecurity, Robotics, Health Tech</t>
-  </si>
-  <si>
-    <t>29-30 Maritime St, Leith, Edinburgh EH6 6SE</t>
-  </si>
-  <si>
     <t>not investing at the moment</t>
   </si>
   <si>
@@ -277,9 +234,6 @@
     <t>Imperial College White City Incubator</t>
   </si>
   <si>
-    <t>Deeptech, life science, engineering,manufacturing</t>
-  </si>
-  <si>
     <t>https://www.ncl.ac.uk/london/</t>
   </si>
   <si>
@@ -314,9 +268,6 @@
     <t>Techtopia</t>
   </si>
   <si>
-    <t>121 Great Portland St, Marylebone, London W1W 6QL</t>
-  </si>
-  <si>
     <t>Fintech</t>
   </si>
   <si>
@@ -335,9 +286,6 @@
     <t>nanohealth@swansea.ac.uk</t>
   </si>
   <si>
-    <t>ILS2, Swansea University, Singleton Park, Swansea, SA2 8PP</t>
-  </si>
-  <si>
     <t>Cloud Innovation Centre</t>
   </si>
   <si>
@@ -373,9 +321,6 @@
     <t>Tetricus Incubator</t>
   </si>
   <si>
-    <t>Porton Down, Salisbury, SP4 0JQ</t>
-  </si>
-  <si>
     <t>https://completelyoffice.co.uk/scheme/Tetricus-Science-Park-Salisbury/</t>
   </si>
   <si>
@@ -404,9 +349,6 @@
     <t>london@innovationwarehouse.org</t>
   </si>
   <si>
-    <t>1 E Poultry Avenue,London, EC1A 9PT</t>
-  </si>
-  <si>
     <t>MyIncubator</t>
   </si>
   <si>
@@ -416,9 +358,6 @@
     <t>info@wenta.co.uk</t>
   </si>
   <si>
-    <t>The Wenta Business Centre, Innova Park, Electric Avenue, Enfield, EN3 7XU</t>
-  </si>
-  <si>
     <t>ICE Accelerator</t>
   </si>
   <si>
@@ -439,9 +378,6 @@
   </si>
   <si>
     <t> info@e4f.co.uk</t>
-  </si>
-  <si>
-    <t>97 Vincent Dr, Birmingham B15 2SQ</t>
   </si>
   <si>
     <t>London Business School Incubator</t>
@@ -470,10 +406,6 @@
     <t>https://www.hw.ac.uk/ebs/business/incubator.htm</t>
   </si>
   <si>
-    <t xml:space="preserve">Edinburgh, Scotland UK EH14 4AS
-</t>
-  </si>
-  <si>
     <t>Royal Academy of Engineering’s Enterprise Hub</t>
   </si>
   <si>
@@ -506,18 +438,12 @@
     <t>CodeBase</t>
   </si>
   <si>
-    <t>CodeBase Edinburgh , 37a Castle Terrace, Edinburgh, EH1 2EL</t>
-  </si>
-  <si>
     <t>https://www.thisiscodebase.com/</t>
   </si>
   <si>
     <t>Digital tech</t>
   </si>
   <si>
-    <t>Correspondence to CodeBase Ltd, Argyle House, 3 Lady Lawson Street, Edinburgh, EH3 9DR</t>
-  </si>
-  <si>
     <t>Health Foundry</t>
   </si>
   <si>
@@ -530,19 +456,12 @@
     <t> hello@healthfoundry.org</t>
   </si>
   <si>
-    <t>Canterbury House, Ground Floor 1 Royal Street, London SE1 7LL</t>
-  </si>
-  <si>
     <t>Sussex Innovation Croydon</t>
   </si>
   <si>
     <t>https://www.sinc.co.uk/</t>
   </si>
   <si>
-    <t xml:space="preserve">12-16 Addiscombe Road Croydon, Greater London CR0 0XT
-</t>
-  </si>
-  <si>
     <t>info@sinc.co.uk</t>
   </si>
   <si>
@@ -555,9 +474,6 @@
     <t>https://www.umic.co.uk/</t>
   </si>
   <si>
-    <t>48 Grafton St, Manchester M13 9XX</t>
-  </si>
-  <si>
     <t>steve@umic.co.uk</t>
   </si>
   <si>
@@ -573,9 +489,6 @@
     <t>hello@BarnsleyBIC.co.uk</t>
   </si>
   <si>
-    <t>Barnsley, South Yorkshire. S75 1JL.</t>
-  </si>
-  <si>
     <t>Bright Red Triangle</t>
   </si>
   <si>
@@ -585,18 +498,12 @@
     <t>info@brightredtriangle.co.uk</t>
   </si>
   <si>
-    <t>9 Sighthill Ct, Edinburgh EH11 4BN</t>
-  </si>
-  <si>
     <t>The Duke of York Young Entrepreneur Centre</t>
   </si>
   <si>
     <t>https://students.hud.ac.uk/opportunities/enterprise/duke-of-york-centre/</t>
   </si>
   <si>
-    <t>82 Firth St, Huddersfield HD1 3BN</t>
-  </si>
-  <si>
     <t>Portsmouth Technopole</t>
   </si>
   <si>
@@ -612,9 +519,6 @@
     <t>enterprise@ucl.ac.uk</t>
   </si>
   <si>
-    <t>University College London, Gower Street, London, WC1E 6BT</t>
-  </si>
-  <si>
     <t>https://www.ucl.ac.uk/enterprise/</t>
   </si>
   <si>
@@ -649,10 +553,6 @@
     <t>https://surrey-research-park.com/</t>
   </si>
   <si>
-    <t xml:space="preserve">Surrey Research Park Surrey Technology Centre 40 Occam Road Guildford, Surrey GU2 7YG
-</t>
-  </si>
-  <si>
     <t>sales@surrey.ac.uk</t>
   </si>
   <si>
@@ -662,9 +562,6 @@
     <t>https://www.ocfi.co.uk/</t>
   </si>
   <si>
-    <t>Oxford Centre for Innovation, New Road, Oxford, OX1 1BY</t>
-  </si>
-  <si>
     <t>science and tech</t>
   </si>
   <si>
@@ -712,9 +609,6 @@
     <t>https://www.norwichresearchpark.com/property-and-park/accommodation-types/accelerator</t>
   </si>
   <si>
-    <t>Norwich Research Park, Norwich, NR4 7UG</t>
-  </si>
-  <si>
     <t>science</t>
   </si>
   <si>
@@ -727,18 +621,12 @@
     <t>edinburgh.innovations@ed.ac.uk</t>
   </si>
   <si>
-    <t>1st Floor Murchison House, King's Buildings 10 Max Born Crescent, Edinburgh EH9 3BF</t>
-  </si>
-  <si>
     <t>Granta Park</t>
   </si>
   <si>
     <t>https://www.babraham.ac.uk/</t>
   </si>
   <si>
-    <t>BABRAHAM INSTITUTE CAMBRIDGE, CB22 3AT</t>
-  </si>
-  <si>
     <t>Bio Tech</t>
   </si>
   <si>
@@ -748,9 +636,6 @@
     <t>https://www.heyfordpark-ic.co.uk/</t>
   </si>
   <si>
-    <t>Heyford Park Innovation Centre, 77 Heyford Park, Bicester OX25 5HD</t>
-  </si>
-  <si>
     <t>info@heyfordpark-ic.co.uk</t>
   </si>
   <si>
@@ -760,9 +645,6 @@
     <t>https://www.mhsp.co.uk/</t>
   </si>
   <si>
-    <t>MHSP, Geraldine Road, Malvern, Worcestershire, WR14 3SZ</t>
-  </si>
-  <si>
     <t>Roslin BioCentre</t>
   </si>
   <si>
@@ -772,9 +654,6 @@
     <t>enquiries@midlothiansciencezone.com</t>
   </si>
   <si>
-    <t>Roslin Innovation Centre, The University of Edinburgh, Easter Bush Campus, Midlothian, EH25 9RG, Scotland</t>
-  </si>
-  <si>
     <t>Harwell Innovation Centre</t>
   </si>
   <si>
@@ -784,18 +663,12 @@
     <t>info@harwell-ic.co.uk</t>
   </si>
   <si>
-    <t>Harwell Innovation Centre,Building 173, Curie Avenue,Harwell, Didcot Oxfordshire, OX11 0QG</t>
-  </si>
-  <si>
     <t>i-SE – Women’s Enterprise Hub</t>
   </si>
   <si>
     <t>http://www.i-se.co.uk/</t>
   </si>
   <si>
-    <t> iSE, Avoca Court, 23 Moseley Road, Digbeth, Birmingham, B12 0HJ</t>
-  </si>
-  <si>
     <t> info@i-se.co.uk</t>
   </si>
   <si>
@@ -817,9 +690,6 @@
     <t>https://www.bicester-ic.co.uk/</t>
   </si>
   <si>
-    <t>Bicester Innovation Centre, Commerce House, Telford Road, Bicester, OX26 4LD </t>
-  </si>
-  <si>
     <t>info@bicester-ic.co.uk</t>
   </si>
   <si>
@@ -829,9 +699,6 @@
     <t>http://www.culham.org.uk/</t>
   </si>
   <si>
-    <t>Culham Science Centre, Abingdon, Oxfordshire, OX14 3DB</t>
-  </si>
-  <si>
     <t>Commercial.Property@ukaea.uk</t>
   </si>
   <si>
@@ -844,9 +711,6 @@
     <t> info@thebic.co.uk</t>
   </si>
   <si>
-    <t>Studio 10 Sutherland Institute, Longton, ST3 4HY</t>
-  </si>
-  <si>
     <t>Sparkhouse</t>
   </si>
   <si>
@@ -887,10 +751,6 @@
     <t>https://www.bristolroboticslab.com/</t>
   </si>
   <si>
-    <t xml:space="preserve">             Bristol Robotics Laboratory,
-T-Block, UWE Bristol, Bristol BS16 1QY</t>
-  </si>
-  <si>
     <t> info@brl.ac.uk</t>
   </si>
   <si>
@@ -912,10 +772,6 @@
     <t>https://www.culham-ic.co.uk/</t>
   </si>
   <si>
-    <t xml:space="preserve">Culham Innovation Centre,D5 Culham Science Centre,Abingdon, Oxfordshire OX14 3DB
-</t>
-  </si>
-  <si>
     <t>info@culham-ic.co.uk</t>
   </si>
   <si>
@@ -935,9 +791,6 @@
     <t>https://www.sci-techdaresbury.com/</t>
   </si>
   <si>
-    <t>Sci-Tech Daresbury, Keckwick Lane, Daresbury WA4 4FS</t>
-  </si>
-  <si>
     <t>info@sci-techdaresbury.com</t>
   </si>
   <si>
@@ -986,10 +839,6 @@
     <t>http://www.hayesbusinessstudios.co.uk/</t>
   </si>
   <si>
-    <t xml:space="preserve">College Way Coldharbour Lane Hayes, Middlesex UB3 3BB
-</t>
-  </si>
-  <si>
     <t>Creative Enterprise</t>
   </si>
   <si>
@@ -1006,9 +855,6 @@
     <t>https://www.nucleus-dartford.co.uk/</t>
   </si>
   <si>
-    <t>The Nucleus, Brunel Way, Dartford, Kent, DA1 5GA</t>
-  </si>
-  <si>
     <t>info@nucleus-dartford.co.uk</t>
   </si>
   <si>
@@ -1021,10 +867,6 @@
     <t>enquiries@cornwallinnovation.co.uk</t>
   </si>
   <si>
-    <t xml:space="preserve">University of Plymouth Enterprise Ltd,Health &amp; Wellbeing Innovation Centre, Treliske, Truro, Cornwall TR1 3FF
-</t>
-  </si>
-  <si>
     <t>Health &amp; Wellbeing</t>
   </si>
   <si>
@@ -1037,19 +879,12 @@
     <t>ask@herts.ac.uk</t>
   </si>
   <si>
-    <t> De Havilland Campus, Mosquito Way, Hatfield AL10 9EU</t>
-  </si>
-  <si>
     <t>Ocean Village Innovation Centre</t>
   </si>
   <si>
     <t>https://www.oceanvillage-ic.co.uk/</t>
   </si>
   <si>
-    <t xml:space="preserve">Ocean Way,Southampton,Hampshire,S014 3JZ
-</t>
-  </si>
-  <si>
     <t>Info@oceanvillage-ic.co.uk</t>
   </si>
   <si>
@@ -1062,9 +897,6 @@
     <t>https://www.retfordenterprise.co.uk/</t>
   </si>
   <si>
-    <t>Bassetlaw Suite 3 Retford Enterprise Centre, Randall Way, Retford, DN22 7GRDN22 7GR for SAT Nav</t>
-  </si>
-  <si>
     <t>Good Ideas Academy</t>
   </si>
   <si>
@@ -1084,9 +916,6 @@
     <t>hic@harborough.gov.uk</t>
   </si>
   <si>
-    <t>Harborough Innovation Centre | Wellington Way | Airfield Business Park,Leicester Road, Market Harborough | Leicestershire | LE16 7WB</t>
-  </si>
-  <si>
     <t>Hethel Innovation</t>
   </si>
   <si>
@@ -1121,9 +950,6 @@
     <t>https://www.mansfield-ic.co.uk/</t>
   </si>
   <si>
-    <t>Oakham Business Park, Hamilton Way, Mansfield, NG18 5BR </t>
-  </si>
-  <si>
     <t>info@mansfield-ic.co.uk </t>
   </si>
   <si>
@@ -1149,10 +975,6 @@
     <t>https://www.qmbioenterprises.com/</t>
   </si>
   <si>
-    <t xml:space="preserve">The QMB Innovation Centre 42 New Road,London E1 2AX
-</t>
-  </si>
-  <si>
     <t>r.richmond@qmul.ac.uk</t>
   </si>
   <si>
@@ -1162,9 +984,6 @@
     <t>https://www.scottbader-ic.co.uk/</t>
   </si>
   <si>
-    <t>High Street,Wollaston,Wellingborough,Northamptonshire NN29 7RL</t>
-  </si>
-  <si>
     <t xml:space="preserve">info@scottbader-ic.co.uk </t>
   </si>
   <si>
@@ -1177,10 +996,6 @@
     <t>the.studio@lboro.ac.uk</t>
   </si>
   <si>
-    <t xml:space="preserve">Epinal Way, Loughborough Leicestershire,LE11 3TU
-</t>
-  </si>
-  <si>
     <t>Worksop Turbine Innovation Centre</t>
   </si>
   <si>
@@ -1200,10 +1015,6 @@
     <t>https://www.bracknell-hub.co.uk/</t>
   </si>
   <si>
-    <t xml:space="preserve">Bracknell Enterprise &amp; Innovation Hub, Ocean House, The Ring, Bracknell, RG12 1AX
-</t>
-  </si>
-  <si>
     <t>info@bracknell-hub.co.uk &lt;info@bracknell-hub.co.uk&gt;;</t>
   </si>
   <si>
@@ -1216,9 +1027,6 @@
     <t>info@ne-bic.co.uk</t>
   </si>
   <si>
-    <t>North East Business and Innovation Centre (BIC) Wearfield, Enterprise Park East,Sunderland, Tyne and Wear, SR5 2TA.</t>
-  </si>
-  <si>
     <t>Stevenage BioCatalyst</t>
   </si>
   <si>
@@ -1237,9 +1045,6 @@
     <t>https://www.keele.ac.uk/business/scienceandinnovationpark/</t>
   </si>
   <si>
-    <t>Keele University, Staffordshire, UK,ST5 5BG</t>
-  </si>
-  <si>
     <t>clinical education</t>
   </si>
   <si>
@@ -1255,19 +1060,12 @@
     <t> enquiries@cornwallinnovation.co.uk</t>
   </si>
   <si>
-    <t xml:space="preserve">Cornwall Innovation,University of Plymouth Enterprise Ltd,Health &amp; Wellbeing Innovation Centre, Treliske, Truro, Cornwall TR1 3FF
-</t>
-  </si>
-  <si>
     <t>Witney Business &amp; Innovation Centre</t>
   </si>
   <si>
     <t>https://www.witney-bic.co.uk/</t>
   </si>
   <si>
-    <t>Windrush House, Windrush Industrial Park, Burford Road, Witney, Oxfordshire, OX29 7DX</t>
-  </si>
-  <si>
     <t>info@witney-bic.co.uk</t>
   </si>
   <si>
@@ -1287,9 +1085,6 @@
     <t>https://www.hugedomains.com/domain_profile.cfm?d=bucfe&amp;e=com</t>
   </si>
   <si>
-    <t>Bournemouth University, Fern Barrow, Poole, Dorset, BH12 5BB, United Kingdom</t>
-  </si>
-  <si>
     <t>enquiries@bournemouth.ac.uk</t>
   </si>
   <si>
@@ -1302,19 +1097,12 @@
     <t>https://haatch.com/</t>
   </si>
   <si>
-    <t>The Hub, Blackfriars Street, Stamford, Lincolnshire, PE9 2BW.</t>
-  </si>
-  <si>
     <t>Henley Start-up Business Incubator</t>
   </si>
   <si>
     <t>https://www.escapethecity.org/organisation/henley-start-up-business-incubator</t>
   </si>
   <si>
-    <t xml:space="preserve">Platf9rm,Hove Town Hall,Hove,BN3 2AF
-</t>
-  </si>
-  <si>
     <t>Live Lab</t>
   </si>
   <si>
@@ -1324,10 +1112,6 @@
     <t>info@livelab.co.uk</t>
   </si>
   <si>
-    <t xml:space="preserve">Manton Rd, Brooke,LE15 8DF
-</t>
-  </si>
-  <si>
     <t>agriculture</t>
   </si>
   <si>
@@ -1337,10 +1121,6 @@
     <t>https://www.stockport-bic.co.uk/</t>
   </si>
   <si>
-    <t xml:space="preserve">Stockport Business &amp; Innovation Centre,Broadstone Mill,Stockport, SK5 7DL
-</t>
-  </si>
-  <si>
     <t>info@stockport-bic.co.uk</t>
   </si>
   <si>
@@ -1353,9 +1133,6 @@
     <t>info@theenterprisenetwork.co.uk</t>
   </si>
   <si>
-    <t>The Enterprise Network, Castledown Business Park, Ludgershall, Wiltshire. SP11 9FA </t>
-  </si>
-  <si>
     <t>Warwick Ventures Software Incubator</t>
   </si>
   <si>
@@ -1375,9 +1152,6 @@
     <t>http://www.c4di.co.uk/</t>
   </si>
   <si>
-    <t>31-38 QUEEN STREET, HULL, HU1 1UU</t>
-  </si>
-  <si>
     <t>info@c4di.net</t>
   </si>
   <si>
@@ -1387,9 +1161,6 @@
     <t>http://www.innospace.co.uk/</t>
   </si>
   <si>
-    <t>Turing House, 5 Archway, Manchester M15 5RL</t>
-  </si>
-  <si>
     <t>MedBIC</t>
   </si>
   <si>
@@ -1399,24 +1170,15 @@
     <t>ariseinnovation@aru.ac.uk</t>
   </si>
   <si>
-    <t>Alan Cherry Dr, Chelmsford CM1 1SQ</t>
-  </si>
-  <si>
     <t>Momentum Business Incubator</t>
   </si>
   <si>
     <t>http://www.worcesterenterprise.org/incubator-support-package/</t>
   </si>
   <si>
-    <t>business,sport &amp; creative</t>
-  </si>
-  <si>
     <t>enterprise@worc.ac.uk</t>
   </si>
   <si>
-    <t>Worcester Business School University of Worcester, City Campus, Castle St, Worcester WR1 3AS</t>
-  </si>
-  <si>
     <t>NoWFOOD Centre</t>
   </si>
   <si>
@@ -1439,10 +1201,6 @@
     <t>https://www.onestaldates.co.uk/</t>
   </si>
   <si>
-    <t xml:space="preserve">One St Aldates,St Aldates,Oxford,OX1 1DE
-</t>
-  </si>
-  <si>
     <t>info@onestaldates.co.uk &lt;info@onestaldates.co.uk&gt;;</t>
   </si>
   <si>
@@ -1478,9 +1236,6 @@
     <t>Digital Exchange</t>
   </si>
   <si>
-    <t>34 Peckover St, Bradford BD1 5BD</t>
-  </si>
-  <si>
     <t>Fareham Innovation Centre</t>
   </si>
   <si>
@@ -1490,416 +1245,655 @@
     <t>Marine Science &amp; Engineering</t>
   </si>
   <si>
-    <t xml:space="preserve">Fareham Innovation Centre, Merlin House,4 Meteor Way,Lee-On-The-Solent,
+    <t>info@fareham-ic.co.uk</t>
+  </si>
+  <si>
+    <t>High Growth Centre</t>
+  </si>
+  <si>
+    <t>https://www1.chester.ac.uk/business-growth/thornton-science-park</t>
+  </si>
+  <si>
+    <t>Bio Science</t>
+  </si>
+  <si>
+    <t>Ideas Factory Incubation Centre</t>
+  </si>
+  <si>
+    <t>https://www.nua.ac.uk/for-business/incubation-centre-facility-hire/</t>
+  </si>
+  <si>
+    <t>j.goldsmith@nua.ac.uk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Ideas Factory Norwich University of the Arts Cavendish House 28-32 St Andrews Street Norwich NR2 4AE
+</t>
+  </si>
+  <si>
+    <t>digital creative start-up</t>
+  </si>
+  <si>
+    <t>InTechnology Enterprise incubator</t>
+  </si>
+  <si>
+    <t>https://www.leeds.ac.uk/news/article/3668/young_entrepreneurs_get_a_chance_to_shine</t>
+  </si>
+  <si>
+    <t>IN Technology</t>
+  </si>
+  <si>
+    <t>Marine Robotics Innovation Centre Hub</t>
+  </si>
+  <si>
+    <t>https://noc-innovations.co.uk/marine-robotics-innovation-centre</t>
+  </si>
+  <si>
+    <t>Marine Robotics</t>
+  </si>
+  <si>
+    <t>innovationcentre@​noc‑innovations.co.uk</t>
+  </si>
+  <si>
+    <t>Rothamsted Centre for Research and Enterprise</t>
+  </si>
+  <si>
+    <t>https://www.rothamstedenterprises.com/</t>
+  </si>
+  <si>
+    <t>info@rothamstedenterprises.com</t>
+  </si>
+  <si>
+    <t>The BioHub Birmingham</t>
+  </si>
+  <si>
+    <t>https://www.birminghamresearchpark.co.uk/biohub/</t>
+  </si>
+  <si>
+    <t>biomedical</t>
+  </si>
+  <si>
+    <t>brpl@bham.ac.uk </t>
+  </si>
+  <si>
+    <t>The Ingenuity Lab</t>
+  </si>
+  <si>
+    <t>https://www.nottingham.ac.uk/business/businesscentres/hgi/ingenuity-lab/about-the-ingenuity-lab.aspx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nottingham University Business School Jubilee Campus Nottingham NG8 1BB
+</t>
+  </si>
+  <si>
+    <t>business-enquiries@nottingham.ac.uk</t>
+  </si>
+  <si>
+    <t>business start ups</t>
+  </si>
+  <si>
+    <t>UBC Leeds Digital Hub</t>
+  </si>
+  <si>
+    <t>No.1 Leeds 26 Whitehall Road Leeds</t>
+  </si>
+  <si>
+    <t>UBCLeeds@leedsbeckett.ac.uk</t>
+  </si>
+  <si>
+    <t>https://leeds.tech/workspace/the-digital-hub/</t>
+  </si>
+  <si>
+    <t>digital business</t>
+  </si>
+  <si>
+    <t>WB100</t>
+  </si>
+  <si>
+    <t>http://wosskowbrownfoundation.org.uk/</t>
+  </si>
+  <si>
+    <t>BioData Innovation Centre</t>
+  </si>
+  <si>
+    <t>https://www.sanger.ac.uk/about/campus</t>
+  </si>
+  <si>
+    <t>science and medicine</t>
+  </si>
+  <si>
+    <t>Canopy Exeter</t>
+  </si>
+  <si>
+    <t>https://www.exetersciencepark.co.uk/</t>
+  </si>
+  <si>
+    <t>Future Space</t>
+  </si>
+  <si>
+    <t>https://www.futurespacebristol.co.uk/</t>
+  </si>
+  <si>
+    <t>info@futurespacebristol.co.uk</t>
+  </si>
+  <si>
+    <t>Londoneast</t>
+  </si>
+  <si>
+    <t>https://www.londoneast-uk.com/</t>
+  </si>
+  <si>
+    <t> info@londoneast-uk.com</t>
+  </si>
+  <si>
+    <t>science park</t>
+  </si>
+  <si>
+    <t>North East Space Incubation Programme</t>
+  </si>
+  <si>
+    <t>https://www.northeasttechnologypark.com/</t>
+  </si>
+  <si>
+    <t>innovation tech</t>
+  </si>
+  <si>
+    <t>enquiries@northeasttechnologypark.com</t>
+  </si>
+  <si>
+    <t>OpTIC Space Industry Incubation Programme</t>
+  </si>
+  <si>
+    <t>http://www.glyndwrinnovations.co.uk/incubation/</t>
+  </si>
+  <si>
+    <t>spcae industry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The OpTIC Technology Centre Ffordd William Morgan St Asaph Business Park St Asaph LL17 0JD
+</t>
+  </si>
+  <si>
+    <t> opticreception@glyndwr.ac.uk</t>
+  </si>
+  <si>
+    <t>Roslin Innovation Centre</t>
+  </si>
+  <si>
+    <t>https://www.roslininnovationcentre.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The University of Edinburgh Easter Bush Campus Midlothian EH25 9RG
+</t>
+  </si>
+  <si>
+    <t>live stock and vet</t>
+  </si>
+  <si>
+    <t>john.mackenzie@roslin.ed.ac.uk</t>
+  </si>
+  <si>
+    <t>Serendip</t>
+  </si>
+  <si>
+    <t>https://serendip.co/</t>
+  </si>
+  <si>
+    <t>hello@serendip.co</t>
+  </si>
+  <si>
+    <t>Space Incubator</t>
+  </si>
+  <si>
+    <t>The Tontine</t>
+  </si>
+  <si>
+    <t>https://www.tontineglasgow.co.uk/</t>
+  </si>
+  <si>
+    <t>Ashton Old Baths Innovation Centre</t>
+  </si>
+  <si>
+    <t>https://www.ashtonoldbaths.co.uk/</t>
+  </si>
+  <si>
+    <t>digital market</t>
+  </si>
+  <si>
+    <t>info@ashtonoldbaths.co.uk</t>
+  </si>
+  <si>
+    <t>Aurora Cambridge</t>
+  </si>
+  <si>
+    <t>https://www.bas.ac.uk/science/science-and-innovation/aurora-cambridge/</t>
+  </si>
+  <si>
+    <t>envoirmental tech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">British Antarctic Survey High Cross Madingley Road CAMBRIDGE CB3 0ET
+</t>
+  </si>
+  <si>
+    <t>information@bas.ac.uk</t>
+  </si>
+  <si>
+    <t>Charnwood Campus</t>
+  </si>
+  <si>
+    <t>http://charnwoodcampus.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main Entrance Bakewell Road Loughborough LE11 5RB
+</t>
+  </si>
+  <si>
+    <t>The Spot Hive</t>
+  </si>
+  <si>
+    <t>https://www.sportingchanceinitiative.co.uk/the-sport-hive</t>
+  </si>
+  <si>
+    <t>SPORTS BUSINESS</t>
+  </si>
+  <si>
+    <t>STEAMHouse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 Bartholomew Row Birmingham B5 5JU
+</t>
+  </si>
+  <si>
+    <t>https://www.bcu.ac.uk/business/steam/steamhouse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leeds Beckett University City Campus Leeds LS1 3HE
+</t>
+  </si>
+  <si>
+    <t>https://www.leedsbeckett.ac.uk/</t>
+  </si>
+  <si>
+    <t>UBC Creative Fashion and Textile Hub</t>
+  </si>
+  <si>
+    <t>UNIT DX</t>
+  </si>
+  <si>
+    <t>https://sciencecreates.co.uk/</t>
+  </si>
+  <si>
+    <t>science and engineering</t>
+  </si>
+  <si>
+    <t>Guildhall Creative Entrepreneurs</t>
+  </si>
+  <si>
+    <t>https://www.gsmd.ac.uk/youth_adult_learning/creative_business_support/guildhall_creative_entrepreneurs/</t>
+  </si>
+  <si>
+    <t>creative and arts</t>
+  </si>
+  <si>
+    <t>C11 Cyber Security and Digital Centre</t>
+  </si>
+  <si>
+    <t>https://www.glos.ac.uk/business-and-partnerships/c11-cyber-security-and-digital-innovation-centre/</t>
+  </si>
+  <si>
+    <t>digital security</t>
+  </si>
+  <si>
+    <t>Barclays Labs</t>
+  </si>
+  <si>
+    <t>https://labs.uk.barclays/</t>
+  </si>
+  <si>
+    <t>Accelerator</t>
+  </si>
+  <si>
+    <t>ConceptionX</t>
+  </si>
+  <si>
+    <t>https://conceptionx.org/</t>
+  </si>
+  <si>
+    <t>Deeptech</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>https://innovation.ox.ac.uk/startupincubator/</t>
+  </si>
+  <si>
+    <t>http://www.oxfordaccelerator.com/</t>
+  </si>
+  <si>
+    <t>Oxford Accelerator</t>
+  </si>
+  <si>
+    <t>Network</t>
+  </si>
+  <si>
+    <t>Various</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>University</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>4-5 Bonhill St; Shoreditch; London EC2A 4BX</t>
+  </si>
+  <si>
+    <t>fintech;Retail; cyber security</t>
+  </si>
+  <si>
+    <t> One Canada Square; Canary Wharf; London E14 5AB</t>
+  </si>
+  <si>
+    <t>Hub; co-working</t>
+  </si>
+  <si>
+    <t>3RD FLOOR; 65 CLERKENWELL ROAD; LONDON EC1R 5BL</t>
+  </si>
+  <si>
+    <t>ATIC; Oakwood Drive; LUSEP; Loughborough; LE11 3QF</t>
+  </si>
+  <si>
+    <t>life science; bio tech</t>
+  </si>
+  <si>
+    <t>Heath Park; Cardiff CF14 4UJ</t>
+  </si>
+  <si>
+    <t>Queen's University;Belfast BT3 9DT</t>
+  </si>
+  <si>
+    <t>R T C Business Park; The I D Centre Lathkill House;Derby DE24 8UP;</t>
+  </si>
+  <si>
+    <t>fintech; cyber security</t>
+  </si>
+  <si>
+    <t>385 Springfield Road;Forthriver Business Park;Belfast. BT12 7DG</t>
+  </si>
+  <si>
+    <t>Cybersecurity; Robotics; Health Tech</t>
+  </si>
+  <si>
+    <t>29-30 Maritime St; Leith; Edinburgh EH6 6SE</t>
+  </si>
+  <si>
+    <t>Deeptech; life science; engineering;manufacturing</t>
+  </si>
+  <si>
+    <t>121 Great Portland St; Marylebone; London W1W 6QL</t>
+  </si>
+  <si>
+    <t>ILS2; Swansea University; Singleton Park; Swansea; SA2 8PP</t>
+  </si>
+  <si>
+    <t>Porton Down; Salisbury; SP4 0JQ</t>
+  </si>
+  <si>
+    <t>1 E Poultry Avenue;London; EC1A 9PT</t>
+  </si>
+  <si>
+    <t>The Wenta Business Centre; Innova Park; Electric Avenue; Enfield; EN3 7XU</t>
+  </si>
+  <si>
+    <t>97 Vincent Dr; Birmingham B15 2SQ</t>
+  </si>
+  <si>
+    <t>CodeBase Edinburgh ; 37a Castle Terrace; Edinburgh; EH1 2EL</t>
+  </si>
+  <si>
+    <t>Correspondence to CodeBase Ltd; Argyle House; 3 Lady Lawson Street; Edinburgh; EH3 9DR</t>
+  </si>
+  <si>
+    <t>Canterbury House; Ground Floor 1 Royal Street; London SE1 7LL</t>
+  </si>
+  <si>
+    <t>48 Grafton St; Manchester M13 9XX</t>
+  </si>
+  <si>
+    <t>Barnsley; South Yorkshire. S75 1JL.</t>
+  </si>
+  <si>
+    <t>9 Sighthill Ct; Edinburgh EH11 4BN</t>
+  </si>
+  <si>
+    <t>82 Firth St; Huddersfield HD1 3BN</t>
+  </si>
+  <si>
+    <t>University College London; Gower Street; London; WC1E 6BT</t>
+  </si>
+  <si>
+    <t>Oxford Centre for Innovation; New Road; Oxford; OX1 1BY</t>
+  </si>
+  <si>
+    <t>Norwich Research Park; Norwich; NR4 7UG</t>
+  </si>
+  <si>
+    <t>1st Floor Murchison House; King's Buildings 10 Max Born Crescent; Edinburgh EH9 3BF</t>
+  </si>
+  <si>
+    <t>BABRAHAM INSTITUTE CAMBRIDGE; CB22 3AT</t>
+  </si>
+  <si>
+    <t>Heyford Park Innovation Centre; 77 Heyford Park; Bicester OX25 5HD</t>
+  </si>
+  <si>
+    <t>MHSP; Geraldine Road; Malvern; Worcestershire; WR14 3SZ</t>
+  </si>
+  <si>
+    <t>Roslin Innovation Centre; The University of Edinburgh; Easter Bush Campus; Midlothian; EH25 9RG; Scotland</t>
+  </si>
+  <si>
+    <t>Harwell Innovation Centre;Building 173; Curie Avenue;Harwell; Didcot Oxfordshire; OX11 0QG</t>
+  </si>
+  <si>
+    <t> iSE; Avoca Court; 23 Moseley Road; Digbeth; Birmingham; B12 0HJ</t>
+  </si>
+  <si>
+    <t>Bicester Innovation Centre; Commerce House; Telford Road; Bicester; OX26 4LD </t>
+  </si>
+  <si>
+    <t>Culham Science Centre; Abingdon; Oxfordshire; OX14 3DB</t>
+  </si>
+  <si>
+    <t>Studio 10 Sutherland Institute; Longton; ST3 4HY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             Bristol Robotics Laboratory;
+T-Block; UWE Bristol; Bristol BS16 1QY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Culham Innovation Centre;D5 Culham Science Centre;Abingdon; Oxfordshire OX14 3DB
+</t>
+  </si>
+  <si>
+    <t>Sci-Tech Daresbury; Keckwick Lane; Daresbury WA4 4FS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">College Way Coldharbour Lane Hayes; Middlesex UB3 3BB
+</t>
+  </si>
+  <si>
+    <t>The Nucleus; Brunel Way; Dartford; Kent; DA1 5GA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Plymouth Enterprise Ltd;Health &amp; Wellbeing Innovation Centre; Treliske; Truro; Cornwall TR1 3FF
+</t>
+  </si>
+  <si>
+    <t> De Havilland Campus; Mosquito Way; Hatfield AL10 9EU</t>
+  </si>
+  <si>
+    <t>Bassetlaw Suite 3 Retford Enterprise Centre; Randall Way; Retford; DN22 7GRDN22 7GR for SAT Nav</t>
+  </si>
+  <si>
+    <t>Harborough Innovation Centre | Wellington Way | Airfield Business Park;Leicester Road; Market Harborough | Leicestershire | LE16 7WB</t>
+  </si>
+  <si>
+    <t>Oakham Business Park; Hamilton Way; Mansfield; NG18 5BR </t>
+  </si>
+  <si>
+    <t>High Street;Wollaston;Wellingborough;Northamptonshire NN29 7RL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epinal Way; Loughborough Leicestershire;LE11 3TU
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bracknell Enterprise &amp; Innovation Hub; Ocean House; The Ring; Bracknell; RG12 1AX
+</t>
+  </si>
+  <si>
+    <t>North East Business and Innovation Centre (BIC) Wearfield; Enterprise Park East;Sunderland; Tyne and Wear; SR5 2TA.</t>
+  </si>
+  <si>
+    <t>Keele University; Staffordshire; UK;ST5 5BG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cornwall Innovation;University of Plymouth Enterprise Ltd;Health &amp; Wellbeing Innovation Centre; Treliske; Truro; Cornwall TR1 3FF
+</t>
+  </si>
+  <si>
+    <t>Windrush House; Windrush Industrial Park; Burford Road; Witney; Oxfordshire; OX29 7DX</t>
+  </si>
+  <si>
+    <t>Bournemouth University; Fern Barrow; Poole; Dorset; BH12 5BB; United Kingdom</t>
+  </si>
+  <si>
+    <t>The Hub; Blackfriars Street; Stamford; Lincolnshire; PE9 2BW.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Platf9rm;Hove Town Hall;Hove;BN3 2AF
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manton Rd; Brooke;LE15 8DF
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stockport Business &amp; Innovation Centre;Broadstone Mill;Stockport; SK5 7DL
+</t>
+  </si>
+  <si>
+    <t>The Enterprise Network; Castledown Business Park; Ludgershall; Wiltshire. SP11 9FA </t>
+  </si>
+  <si>
+    <t>31-38 QUEEN STREET; HULL; HU1 1UU</t>
+  </si>
+  <si>
+    <t>Turing House; 5 Archway; Manchester M15 5RL</t>
+  </si>
+  <si>
+    <t>Alan Cherry Dr; Chelmsford CM1 1SQ</t>
+  </si>
+  <si>
+    <t>business;sport &amp; creative</t>
+  </si>
+  <si>
+    <t>Worcester Business School University of Worcester; City Campus; Castle St; Worcester WR1 3AS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One St Aldates;St Aldates;Oxford;OX1 1DE
+</t>
+  </si>
+  <si>
+    <t>34 Peckover St; Bradford BD1 5BD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fareham Innovation Centre; Merlin House;4 Meteor Way;Lee-On-The-Solent;
 PO13 9FU
 </t>
   </si>
   <si>
-    <t>info@fareham-ic.co.uk</t>
-  </si>
-  <si>
-    <t>High Growth Centre</t>
-  </si>
-  <si>
-    <t>https://www1.chester.ac.uk/business-growth/thornton-science-park</t>
-  </si>
-  <si>
-    <t>Bio Science</t>
-  </si>
-  <si>
-    <t>Ideas Factory Incubation Centre</t>
-  </si>
-  <si>
-    <t>https://www.nua.ac.uk/for-business/incubation-centre-facility-hire/</t>
-  </si>
-  <si>
-    <t>j.goldsmith@nua.ac.uk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Ideas Factory Norwich University of the Arts Cavendish House 28-32 St Andrews Street Norwich NR2 4AE
-</t>
-  </si>
-  <si>
-    <t>digital creative start-up</t>
-  </si>
-  <si>
-    <t>InTechnology Enterprise incubator</t>
-  </si>
-  <si>
-    <t>https://www.leeds.ac.uk/news/article/3668/young_entrepreneurs_get_a_chance_to_shine</t>
-  </si>
-  <si>
-    <t>IN Technology</t>
-  </si>
-  <si>
-    <t>University of Leeds, Leeds, LS2 9JT, UK</t>
-  </si>
-  <si>
-    <t>Marine Robotics Innovation Centre Hub</t>
-  </si>
-  <si>
-    <t>https://noc-innovations.co.uk/marine-robotics-innovation-centre</t>
-  </si>
-  <si>
-    <t>Marine Robotics</t>
-  </si>
-  <si>
-    <t>innovationcentre@​noc‑innovations.co.uk</t>
-  </si>
-  <si>
-    <t>European Way, Southampton  SO14 3ZH</t>
-  </si>
-  <si>
-    <t>Rothamsted Centre for Research and Enterprise</t>
-  </si>
-  <si>
-    <t>https://www.rothamstedenterprises.com/</t>
-  </si>
-  <si>
-    <t>Harpenden, Hertfordshire, AL5 2JQ</t>
-  </si>
-  <si>
-    <t>info@rothamstedenterprises.com</t>
-  </si>
-  <si>
-    <t>The BioHub Birmingham</t>
-  </si>
-  <si>
-    <t>https://www.birminghamresearchpark.co.uk/biohub/</t>
-  </si>
-  <si>
-    <t>biomedical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Birmingham Enterprise Vincent Drive,Birmingham B15 2SQ
-</t>
-  </si>
-  <si>
-    <t>brpl@bham.ac.uk </t>
-  </si>
-  <si>
-    <t>The Ingenuity Lab</t>
-  </si>
-  <si>
-    <t>https://www.nottingham.ac.uk/business/businesscentres/hgi/ingenuity-lab/about-the-ingenuity-lab.aspx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nottingham University Business School Jubilee Campus Nottingham NG8 1BB
-</t>
-  </si>
-  <si>
-    <t>business-enquiries@nottingham.ac.uk</t>
-  </si>
-  <si>
-    <t>business start ups</t>
-  </si>
-  <si>
-    <t>UBC Leeds Digital Hub</t>
-  </si>
-  <si>
-    <t>No.1 Leeds 26 Whitehall Road Leeds</t>
-  </si>
-  <si>
-    <t>UBCLeeds@leedsbeckett.ac.uk</t>
-  </si>
-  <si>
-    <t>https://leeds.tech/workspace/the-digital-hub/</t>
-  </si>
-  <si>
-    <t>digital business</t>
-  </si>
-  <si>
-    <t>WB100</t>
-  </si>
-  <si>
-    <t>http://wosskowbrownfoundation.org.uk/</t>
-  </si>
-  <si>
-    <t>Chippingham Pl, Sheffield S9 3SH</t>
-  </si>
-  <si>
-    <t>BioData Innovation Centre</t>
-  </si>
-  <si>
-    <t>https://www.sanger.ac.uk/about/campus</t>
-  </si>
-  <si>
-    <t>science and medicine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wellcome Genome Campus,Hinxton, Cambridgeshire, CB10 1SA
-</t>
-  </si>
-  <si>
-    <t>Canopy Exeter</t>
-  </si>
-  <si>
-    <t>https://www.exetersciencepark.co.uk/</t>
-  </si>
-  <si>
-    <t>Science Park Centre, Babbage Way, Exeter Science Park, Clyst Honiton, Exeter, EX5 2FN</t>
-  </si>
-  <si>
-    <t>Future Space</t>
-  </si>
-  <si>
-    <t>https://www.futurespacebristol.co.uk/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North Gate (UWE) Filton Road, Stoke Gifford Bristol, BS34 8RB 
-</t>
-  </si>
-  <si>
-    <t>info@futurespacebristol.co.uk</t>
-  </si>
-  <si>
-    <t>Londoneast</t>
-  </si>
-  <si>
-    <t>https://www.londoneast-uk.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yew Tree Avenue, Dagenham, RM10 7FN For Sat Nav: RM10 7XS
-</t>
-  </si>
-  <si>
-    <t> info@londoneast-uk.com</t>
-  </si>
-  <si>
-    <t>science park</t>
-  </si>
-  <si>
-    <t>North East Space Incubation Programme</t>
-  </si>
-  <si>
-    <t>https://www.northeasttechnologypark.com/</t>
-  </si>
-  <si>
-    <t>innovation tech</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NETPark, North East Technology Park,Sedgefield, County Durham TS21 3FD
-</t>
-  </si>
-  <si>
-    <t>enquiries@northeasttechnologypark.com</t>
-  </si>
-  <si>
-    <t>OpTIC Space Industry Incubation Programme</t>
-  </si>
-  <si>
-    <t>http://www.glyndwrinnovations.co.uk/incubation/</t>
-  </si>
-  <si>
-    <t>spcae industry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The OpTIC Technology Centre Ffordd William Morgan St Asaph Business Park St Asaph LL17 0JD
-</t>
-  </si>
-  <si>
-    <t> opticreception@glyndwr.ac.uk</t>
-  </si>
-  <si>
-    <t>Roslin Innovation Centre</t>
-  </si>
-  <si>
-    <t>https://www.roslininnovationcentre.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The University of Edinburgh Easter Bush Campus Midlothian EH25 9RG
-</t>
-  </si>
-  <si>
-    <t>live stock and vet</t>
-  </si>
-  <si>
-    <t>john.mackenzie@roslin.ed.ac.uk</t>
-  </si>
-  <si>
-    <t>Serendip</t>
-  </si>
-  <si>
-    <t>https://serendip.co/</t>
-  </si>
-  <si>
-    <t>hello@serendip.co</t>
-  </si>
-  <si>
-    <t>Space Incubator</t>
-  </si>
-  <si>
-    <t>Loughborough University Science and Enterprise Park, Loughborough, Leicestershire, LE11 3QF</t>
-  </si>
-  <si>
-    <t>The Tontine</t>
-  </si>
-  <si>
-    <t>https://www.tontineglasgow.co.uk/</t>
-  </si>
-  <si>
-    <t>Tontine Building, 20 Trongate, Glasgow, G1 5ES</t>
-  </si>
-  <si>
-    <t>Ashton Old Baths Innovation Centre</t>
-  </si>
-  <si>
-    <t>https://www.ashtonoldbaths.co.uk/</t>
-  </si>
-  <si>
-    <t>digital market</t>
-  </si>
-  <si>
-    <t>Stamford Street, West Ashton-under-Lyne, OL6 7FW Directions</t>
-  </si>
-  <si>
-    <t>info@ashtonoldbaths.co.uk</t>
-  </si>
-  <si>
-    <t>Aurora Cambridge</t>
-  </si>
-  <si>
-    <t>https://www.bas.ac.uk/science/science-and-innovation/aurora-cambridge/</t>
-  </si>
-  <si>
-    <t>envoirmental tech</t>
-  </si>
-  <si>
-    <t xml:space="preserve">British Antarctic Survey High Cross Madingley Road CAMBRIDGE CB3 0ET
-</t>
-  </si>
-  <si>
-    <t>information@bas.ac.uk</t>
-  </si>
-  <si>
-    <t>Charnwood Campus</t>
-  </si>
-  <si>
-    <t>http://charnwoodcampus.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Main Entrance Bakewell Road Loughborough LE11 5RB
-</t>
-  </si>
-  <si>
-    <t>The Spot Hive</t>
-  </si>
-  <si>
-    <t>https://www.sportingchanceinitiative.co.uk/the-sport-hive</t>
-  </si>
-  <si>
-    <t>SPORTS BUSINESS</t>
-  </si>
-  <si>
-    <t>STEAMHouse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15 Bartholomew Row Birmingham B5 5JU
-</t>
-  </si>
-  <si>
-    <t>https://www.bcu.ac.uk/business/steam/steamhouse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Steam </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leeds Beckett University City Campus Leeds LS1 3HE
-</t>
-  </si>
-  <si>
-    <t>https://www.leedsbeckett.ac.uk/</t>
-  </si>
-  <si>
-    <t>UBC Creative Fashion and Textile Hub</t>
-  </si>
-  <si>
-    <t>UNIT DX</t>
-  </si>
-  <si>
-    <t>https://sciencecreates.co.uk/</t>
-  </si>
-  <si>
-    <t>science and engineering</t>
-  </si>
-  <si>
-    <t>Unit DX,St Philips Central,Albert Road,Bristol BS2 0XJ</t>
-  </si>
-  <si>
-    <t>Guildhall Creative Entrepreneurs</t>
-  </si>
-  <si>
-    <t>https://www.gsmd.ac.uk/youth_adult_learning/creative_business_support/guildhall_creative_entrepreneurs/</t>
-  </si>
-  <si>
-    <t>creative and arts</t>
-  </si>
-  <si>
-    <t>Silk Street, Barbican, EC2Y 8DT</t>
-  </si>
-  <si>
-    <t>C11 Cyber Security and Digital Centre</t>
-  </si>
-  <si>
-    <t>https://www.glos.ac.uk/business-and-partnerships/c11-cyber-security-and-digital-innovation-centre/</t>
-  </si>
-  <si>
-    <t>digital security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Gloucestershire,The Park,Cheltenham,GL50 2RH.
-</t>
-  </si>
-  <si>
-    <t>Barclays Labs</t>
-  </si>
-  <si>
-    <t>Union, Albert Square, Manchester M2 6LW</t>
-  </si>
-  <si>
-    <t>https://labs.uk.barclays/</t>
-  </si>
-  <si>
-    <t>Accelerator</t>
-  </si>
-  <si>
-    <t>ConceptionX</t>
-  </si>
-  <si>
-    <t>https://conceptionx.org/</t>
-  </si>
-  <si>
-    <t>Deeptech</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>https://innovation.ox.ac.uk/startupincubator/</t>
-  </si>
-  <si>
-    <t>http://www.oxfordaccelerator.com/</t>
-  </si>
-  <si>
-    <t>Oxford Accelerator</t>
-  </si>
-  <si>
-    <t>Network</t>
-  </si>
-  <si>
-    <t>Various</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>University</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Hub, co-working</t>
+    <t>University of Leeds; Leeds; LS2 9JT; UK</t>
+  </si>
+  <si>
+    <t>European Way; Southampton  SO14 3ZH</t>
+  </si>
+  <si>
+    <t>Harpenden; Hertfordshire; AL5 2JQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Birmingham Enterprise Vincent Drive;Birmingham B15 2SQ
+</t>
+  </si>
+  <si>
+    <t>Chippingham Pl; Sheffield S9 3SH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wellcome Genome Campus;Hinxton; Cambridgeshire; CB10 1SA
+</t>
+  </si>
+  <si>
+    <t>Science Park Centre; Babbage Way; Exeter Science Park; Clyst Honiton; Exeter; EX5 2FN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Gate (UWE) Filton Road; Stoke Gifford Bristol; BS34 8RB 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yew Tree Avenue; Dagenham; RM10 7FN For Sat Nav: RM10 7XS
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NETPark; North East Technology Park;Sedgefield; County Durham TS21 3FD
+</t>
+  </si>
+  <si>
+    <t>Loughborough University Science and Enterprise Park; Loughborough; Leicestershire; LE11 3QF</t>
+  </si>
+  <si>
+    <t>Tontine Building; 20 Trongate; Glasgow; G1 5ES</t>
+  </si>
+  <si>
+    <t>Stamford Street; West Ashton-under-Lyne; OL6 7FW Directions</t>
+  </si>
+  <si>
+    <t>Unit DX;St Philips Central;Albert Road;Bristol BS2 0XJ</t>
+  </si>
+  <si>
+    <t>Silk Street; Barbican; EC2Y 8DT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Gloucestershire;The Park;Cheltenham;GL50 2RH.
+</t>
+  </si>
+  <si>
+    <t>Union; Albert Square; Manchester M2 6LW</t>
+  </si>
+  <si>
+    <t>Edinburgh; Scotland UK EH14 4AS</t>
+  </si>
+  <si>
+    <t>12-16 Addiscombe Road Croydon; Greater London CR0 0XT</t>
+  </si>
+  <si>
+    <t>Institute of Life Science 2;Swansea University;Singleton Park;Swansea;SA2 8PP</t>
+  </si>
+  <si>
+    <t>Surrey Research Park Surrey Technology Centre 40 Occam Road Guildford; Surrey GU2 7YG</t>
+  </si>
+  <si>
+    <t>Ocean Way;Southampton;Hampshire;S014 3JZ</t>
+  </si>
+  <si>
+    <t>The QMB Innovation Centre 42 New Road;London E1 2AX</t>
   </si>
 </sst>
 </file>
@@ -2008,7 +2002,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2039,6 +2033,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2382,7 +2379,7 @@
   <dimension ref="A1:F147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2398,7 +2395,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>603</v>
+        <v>509</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>2</v>
@@ -2428,2592 +2425,2592 @@
         <v>1</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>8</v>
+        <v>510</v>
       </c>
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>12</v>
+        <v>511</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>15</v>
+        <v>512</v>
       </c>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>604</v>
+        <v>513</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>14</v>
+        <v>514</v>
       </c>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>591</v>
+        <v>497</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>592</v>
+        <v>498</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>593</v>
+        <v>499</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>594</v>
+        <v>500</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>595</v>
+        <v>501</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>22</v>
+        <v>515</v>
       </c>
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>26</v>
+        <v>516</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>28</v>
+        <v>517</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>45</v>
+        <v>37</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>601</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>49</v>
+        <v>518</v>
       </c>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>60</v>
+        <v>519</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>68</v>
+        <v>520</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>71</v>
+        <v>521</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>76</v>
+        <v>522</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>77</v>
+        <v>523</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>83</v>
+        <v>524</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>95</v>
+        <v>525</v>
       </c>
       <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>102</v>
+        <v>526</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>114</v>
+        <v>527</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="4" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>124</v>
+        <v>528</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>128</v>
+        <v>529</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="4" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>136</v>
+        <v>530</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="4" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>145</v>
+        <v>120</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>599</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="4" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>156</v>
+        <v>531</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>159</v>
+        <v>532</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>164</v>
+        <v>533</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>167</v>
+        <v>143</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>600</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>172</v>
+        <v>534</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>178</v>
+        <v>535</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>182</v>
+        <v>536</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
-        <v>185</v>
+        <v>537</v>
       </c>
       <c r="F43" s="4"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="B44" s="4" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>602</v>
+        <v>508</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>191</v>
+        <v>538</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
       <c r="B46" s="4" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>596</v>
+        <v>502</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>191</v>
+        <v>538</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>599</v>
+        <v>505</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>598</v>
+        <v>504</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>597</v>
+        <v>503</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>600</v>
+        <v>506</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>601</v>
+        <v>507</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="B48" s="4" t="s">
-        <v>194</v>
+        <v>163</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>196</v>
+        <v>165</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" s="4" t="s">
-        <v>198</v>
+        <v>167</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>199</v>
+        <v>168</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="B50" s="4" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>202</v>
+        <v>171</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>203</v>
+        <v>80</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>602</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="B51" s="4" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>207</v>
+        <v>539</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
       <c r="B52" s="4" t="s">
-        <v>209</v>
+        <v>176</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>212</v>
+        <v>179</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>211</v>
+        <v>178</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="B53" s="4" t="s">
-        <v>213</v>
+        <v>180</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>214</v>
+        <v>181</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4" t="s">
-        <v>215</v>
+        <v>182</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>216</v>
+        <v>183</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="B54" s="4" t="s">
-        <v>217</v>
+        <v>184</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>218</v>
+        <v>185</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>220</v>
+        <v>187</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
       <c r="B55" s="4" t="s">
-        <v>221</v>
+        <v>188</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>222</v>
+        <v>189</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>223</v>
+        <v>540</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="B56" s="4" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>228</v>
+        <v>541</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>227</v>
+        <v>193</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57" s="4" t="s">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>232</v>
+        <v>196</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>231</v>
+        <v>542</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
       <c r="B58" s="4" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>234</v>
+        <v>198</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4" t="s">
-        <v>235</v>
+        <v>543</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>236</v>
+        <v>199</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
       <c r="B59" s="4" t="s">
-        <v>237</v>
+        <v>200</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>238</v>
+        <v>201</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>239</v>
+        <v>544</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
       <c r="B60" s="4" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>243</v>
+        <v>545</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>242</v>
+        <v>204</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
       <c r="B61" s="4" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>247</v>
+        <v>546</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
       <c r="B62" s="4" t="s">
-        <v>248</v>
+        <v>208</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>249</v>
+        <v>209</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>252</v>
+        <v>211</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>250</v>
+        <v>547</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>251</v>
+        <v>210</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
       <c r="B63" s="4" t="s">
-        <v>253</v>
+        <v>212</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>254</v>
+        <v>213</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>255</v>
+        <v>214</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
       <c r="B64" s="4" t="s">
-        <v>256</v>
+        <v>215</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>257</v>
+        <v>216</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>258</v>
+        <v>548</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>259</v>
+        <v>217</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
       <c r="B65" s="4" t="s">
-        <v>260</v>
+        <v>218</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>261</v>
+        <v>219</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>262</v>
+        <v>549</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>263</v>
+        <v>220</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
       <c r="B66" s="4" t="s">
-        <v>264</v>
+        <v>221</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>265</v>
+        <v>222</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>267</v>
+        <v>550</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>266</v>
+        <v>223</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
       <c r="B67" s="4" t="s">
-        <v>268</v>
+        <v>224</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>269</v>
+        <v>225</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>271</v>
+        <v>227</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>270</v>
+        <v>226</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="4"/>
       <c r="B68" s="4" t="s">
-        <v>272</v>
+        <v>228</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>273</v>
+        <v>229</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>274</v>
+        <v>230</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
       <c r="B69" s="4" t="s">
-        <v>275</v>
+        <v>231</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>276</v>
+        <v>232</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
       <c r="B70" s="4" t="s">
-        <v>279</v>
+        <v>235</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>280</v>
+        <v>236</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>281</v>
+        <v>175</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>551</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>282</v>
+        <v>237</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="4"/>
       <c r="B71" s="4" t="s">
-        <v>283</v>
+        <v>238</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>284</v>
+        <v>239</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>286</v>
+        <v>241</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>285</v>
+        <v>240</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
       <c r="B72" s="4" t="s">
-        <v>287</v>
+        <v>242</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>288</v>
+        <v>243</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>289</v>
+        <v>175</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>552</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>290</v>
+        <v>244</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="4"/>
       <c r="B73" s="4" t="s">
-        <v>291</v>
+        <v>245</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>292</v>
+        <v>246</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>232</v>
+        <v>196</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>293</v>
+        <v>247</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
       <c r="B74" s="4" t="s">
-        <v>294</v>
+        <v>248</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>295</v>
+        <v>249</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>298</v>
+        <v>251</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>296</v>
+        <v>553</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>297</v>
+        <v>250</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="4"/>
       <c r="B75" s="4" t="s">
-        <v>299</v>
+        <v>252</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>300</v>
+        <v>253</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>301</v>
+        <v>254</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="4"/>
       <c r="B76" s="4" t="s">
-        <v>305</v>
+        <v>258</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>302</v>
+        <v>255</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>303</v>
+        <v>256</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>304</v>
+        <v>257</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="4"/>
       <c r="B77" s="4" t="s">
-        <v>308</v>
+        <v>261</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>306</v>
+        <v>259</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>309</v>
+        <v>262</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
       <c r="B78" s="4" t="s">
-        <v>310</v>
+        <v>263</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>311</v>
+        <v>264</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>312</v>
+        <v>168</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>554</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="4"/>
       <c r="B79" s="4" t="s">
-        <v>313</v>
+        <v>265</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>314</v>
+        <v>266</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>199</v>
+        <v>168</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>315</v>
+        <v>267</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="4"/>
       <c r="B80" s="4" t="s">
-        <v>316</v>
+        <v>268</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>317</v>
+        <v>269</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>318</v>
+        <v>555</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
       <c r="B81" s="4" t="s">
-        <v>321</v>
+        <v>272</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>320</v>
+        <v>271</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>323</v>
+        <v>274</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>556</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>322</v>
+        <v>273</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="4"/>
       <c r="B82" s="4" t="s">
-        <v>325</v>
+        <v>275</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>326</v>
+        <v>276</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>328</v>
+        <v>557</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="4"/>
       <c r="B83" s="4" t="s">
-        <v>329</v>
+        <v>278</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>330</v>
+        <v>279</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>331</v>
+        <v>77</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>603</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>332</v>
+        <v>280</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
       <c r="B84" s="4" t="s">
-        <v>333</v>
+        <v>281</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>335</v>
+        <v>283</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>336</v>
+        <v>558</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>334</v>
+        <v>282</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
       <c r="B85" s="4" t="s">
-        <v>337</v>
+        <v>284</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>338</v>
+        <v>285</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>339</v>
+        <v>286</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="4"/>
       <c r="B86" s="4" t="s">
-        <v>340</v>
+        <v>287</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>341</v>
+        <v>288</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>343</v>
+        <v>559</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>342</v>
+        <v>289</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="4"/>
       <c r="B87" s="4" t="s">
-        <v>344</v>
+        <v>290</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>345</v>
+        <v>291</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>348</v>
+        <v>294</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>347</v>
+        <v>293</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>346</v>
+        <v>292</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="4"/>
       <c r="B88" s="4" t="s">
-        <v>349</v>
+        <v>295</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>350</v>
+        <v>296</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>348</v>
+        <v>294</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>352</v>
+        <v>298</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>351</v>
+        <v>297</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="4"/>
       <c r="B89" s="4" t="s">
-        <v>353</v>
+        <v>299</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>354</v>
+        <v>300</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>357</v>
+        <v>302</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>355</v>
+        <v>560</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>356</v>
+        <v>301</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="4"/>
       <c r="B90" s="4" t="s">
-        <v>358</v>
+        <v>303</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>359</v>
+        <v>304</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>361</v>
+        <v>306</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="4"/>
       <c r="B91" s="4" t="s">
-        <v>362</v>
+        <v>307</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>363</v>
+        <v>308</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>364</v>
+        <v>196</v>
+      </c>
+      <c r="E91" s="11" t="s">
+        <v>604</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>365</v>
+        <v>309</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
       <c r="B92" s="4" t="s">
-        <v>366</v>
+        <v>310</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>367</v>
+        <v>311</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>368</v>
+        <v>561</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A93" s="4"/>
       <c r="B93" s="4" t="s">
-        <v>370</v>
+        <v>313</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>371</v>
+        <v>314</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>373</v>
+        <v>77</v>
+      </c>
+      <c r="E93" s="11" t="s">
+        <v>562</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>372</v>
+        <v>315</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="4"/>
       <c r="B94" s="4" t="s">
-        <v>374</v>
+        <v>316</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>375</v>
+        <v>317</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>376</v>
+        <v>318</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A95" s="4"/>
       <c r="B95" s="4" t="s">
-        <v>378</v>
+        <v>320</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>379</v>
+        <v>321</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>380</v>
+        <v>77</v>
+      </c>
+      <c r="E95" s="11" t="s">
+        <v>563</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>381</v>
+        <v>322</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="4"/>
       <c r="B96" s="4" t="s">
-        <v>382</v>
+        <v>323</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>383</v>
+        <v>324</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>385</v>
+        <v>564</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>384</v>
+        <v>325</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="4"/>
       <c r="B97" s="4" t="s">
-        <v>386</v>
+        <v>326</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>387</v>
+        <v>327</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>388</v>
+        <v>328</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>389</v>
+        <v>329</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="4"/>
       <c r="B98" s="4" t="s">
-        <v>390</v>
+        <v>330</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>391</v>
+        <v>331</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>393</v>
+        <v>332</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>392</v>
+        <v>565</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="96" x14ac:dyDescent="0.2">
       <c r="A99" s="4"/>
       <c r="B99" s="4" t="s">
-        <v>395</v>
+        <v>334</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>396</v>
+        <v>335</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>398</v>
+        <v>137</v>
+      </c>
+      <c r="E99" s="11" t="s">
+        <v>566</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>397</v>
+        <v>336</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="4"/>
       <c r="B100" s="4" t="s">
-        <v>399</v>
+        <v>337</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>400</v>
+        <v>338</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>410</v>
+        <v>346</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>401</v>
+        <v>567</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>402</v>
+        <v>339</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="4"/>
       <c r="B101" s="4" t="s">
-        <v>403</v>
+        <v>340</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>404</v>
+        <v>341</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>405</v>
+        <v>342</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="4"/>
       <c r="B102" s="4" t="s">
-        <v>406</v>
+        <v>343</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>407</v>
+        <v>344</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>410</v>
+        <v>346</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>408</v>
+        <v>568</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>409</v>
+        <v>345</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
       <c r="B103" s="4" t="s">
-        <v>411</v>
+        <v>347</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>412</v>
+        <v>348</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>413</v>
+        <v>569</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A104" s="4"/>
       <c r="B104" s="4" t="s">
-        <v>414</v>
+        <v>349</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>415</v>
+        <v>350</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E104" s="4" t="s">
-        <v>416</v>
+        <v>77</v>
+      </c>
+      <c r="E104" s="11" t="s">
+        <v>570</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A105" s="4"/>
       <c r="B105" s="4" t="s">
-        <v>417</v>
+        <v>351</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>418</v>
+        <v>352</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="E105" s="4" t="s">
-        <v>420</v>
+        <v>354</v>
+      </c>
+      <c r="E105" s="11" t="s">
+        <v>571</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A106" s="4"/>
       <c r="B106" s="4" t="s">
-        <v>422</v>
+        <v>355</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>423</v>
+        <v>356</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E106" s="4" t="s">
-        <v>424</v>
+        <v>61</v>
+      </c>
+      <c r="E106" s="11" t="s">
+        <v>572</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>425</v>
+        <v>357</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="4"/>
       <c r="B107" s="4" t="s">
-        <v>426</v>
+        <v>358</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>427</v>
+        <v>359</v>
       </c>
       <c r="D107" s="4"/>
       <c r="E107" s="4" t="s">
-        <v>429</v>
+        <v>573</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>428</v>
+        <v>360</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="4"/>
       <c r="B108" s="4" t="s">
-        <v>430</v>
+        <v>361</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>431</v>
+        <v>362</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>433</v>
+        <v>364</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>432</v>
+        <v>363</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="4"/>
       <c r="B109" s="4" t="s">
-        <v>434</v>
+        <v>365</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>435</v>
+        <v>366</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>436</v>
+        <v>574</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>437</v>
+        <v>367</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="4"/>
       <c r="B110" s="4" t="s">
-        <v>438</v>
+        <v>368</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>439</v>
+        <v>369</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>440</v>
+        <v>575</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="4"/>
       <c r="B111" s="4" t="s">
-        <v>441</v>
+        <v>370</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>442</v>
+        <v>371</v>
       </c>
       <c r="D111" s="4"/>
       <c r="E111" s="4" t="s">
-        <v>444</v>
+        <v>576</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>443</v>
+        <v>372</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="4"/>
       <c r="B112" s="4" t="s">
-        <v>445</v>
+        <v>373</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>446</v>
+        <v>374</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>447</v>
+        <v>577</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>449</v>
+        <v>578</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>448</v>
+        <v>375</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="4"/>
       <c r="B113" s="4" t="s">
-        <v>450</v>
+        <v>376</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>451</v>
+        <v>377</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>452</v>
+        <v>378</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>453</v>
+        <v>379</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="96" x14ac:dyDescent="0.2">
       <c r="A114" s="4"/>
       <c r="B114" s="4" t="s">
-        <v>455</v>
+        <v>381</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>456</v>
+        <v>382</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E114" s="4" t="s">
-        <v>457</v>
+        <v>80</v>
+      </c>
+      <c r="E114" s="11" t="s">
+        <v>579</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>458</v>
+        <v>383</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="4"/>
       <c r="B115" s="4" t="s">
-        <v>459</v>
+        <v>384</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>460</v>
+        <v>385</v>
       </c>
       <c r="D115" s="4"/>
       <c r="E115" s="4" t="s">
-        <v>461</v>
+        <v>386</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>462</v>
+        <v>387</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="4"/>
       <c r="B116" s="4" t="s">
-        <v>463</v>
+        <v>388</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>464</v>
+        <v>389</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>467</v>
+        <v>392</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>465</v>
+        <v>390</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>466</v>
+        <v>391</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="4"/>
       <c r="B117" s="4" t="s">
-        <v>468</v>
+        <v>393</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>469</v>
+        <v>580</v>
       </c>
       <c r="F117" s="4"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" ht="112" x14ac:dyDescent="0.2">
       <c r="A118" s="4"/>
       <c r="B118" s="4" t="s">
-        <v>470</v>
+        <v>394</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>471</v>
+        <v>395</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>472</v>
-      </c>
-      <c r="E118" s="4" t="s">
-        <v>473</v>
+        <v>396</v>
+      </c>
+      <c r="E118" s="11" t="s">
+        <v>581</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>474</v>
+        <v>397</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="4"/>
       <c r="B119" s="4" t="s">
-        <v>475</v>
+        <v>398</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>476</v>
+        <v>399</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>477</v>
+        <v>400</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>453</v>
+        <v>379</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>454</v>
+        <v>380</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="4"/>
       <c r="B120" s="4" t="s">
-        <v>478</v>
+        <v>401</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>479</v>
+        <v>402</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>482</v>
+        <v>405</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>481</v>
+        <v>404</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>480</v>
+        <v>403</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="4"/>
       <c r="B121" s="4" t="s">
-        <v>483</v>
+        <v>406</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>484</v>
+        <v>407</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>485</v>
+        <v>408</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>486</v>
+        <v>582</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
       <c r="B122" s="4" t="s">
-        <v>487</v>
+        <v>409</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>488</v>
+        <v>410</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>489</v>
+        <v>411</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>491</v>
+        <v>583</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>490</v>
+        <v>412</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="4"/>
       <c r="B123" s="4" t="s">
-        <v>492</v>
+        <v>413</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>493</v>
+        <v>414</v>
       </c>
       <c r="D123" s="4"/>
       <c r="E123" s="4" t="s">
-        <v>494</v>
+        <v>584</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A124" s="4"/>
       <c r="B124" s="4" t="s">
-        <v>496</v>
+        <v>416</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>497</v>
+        <v>417</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>498</v>
-      </c>
-      <c r="E124" s="4" t="s">
-        <v>499</v>
+        <v>418</v>
+      </c>
+      <c r="E124" s="11" t="s">
+        <v>585</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>500</v>
+        <v>419</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="4"/>
       <c r="B125" s="4" t="s">
-        <v>501</v>
+        <v>420</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>502</v>
+        <v>421</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>505</v>
+        <v>424</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>503</v>
+        <v>422</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>504</v>
+        <v>423</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="4"/>
       <c r="B126" s="4" t="s">
-        <v>506</v>
+        <v>425</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>509</v>
+        <v>428</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>510</v>
+        <v>429</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>507</v>
+        <v>426</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>508</v>
+        <v>427</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="4"/>
       <c r="B127" s="4" t="s">
-        <v>511</v>
+        <v>430</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>512</v>
+        <v>431</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>505</v>
+        <v>424</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>513</v>
+        <v>586</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A128" s="4"/>
       <c r="B128" s="4" t="s">
-        <v>514</v>
+        <v>432</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>515</v>
+        <v>433</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>516</v>
-      </c>
-      <c r="E128" s="4" t="s">
-        <v>517</v>
+        <v>434</v>
+      </c>
+      <c r="E128" s="11" t="s">
+        <v>587</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="4"/>
       <c r="B129" s="4" t="s">
-        <v>518</v>
+        <v>435</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>519</v>
+        <v>436</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>516</v>
+        <v>434</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>520</v>
+        <v>588</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A130" s="4"/>
       <c r="B130" s="4" t="s">
-        <v>521</v>
+        <v>437</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>522</v>
+        <v>438</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E130" s="4" t="s">
-        <v>523</v>
+        <v>9</v>
+      </c>
+      <c r="E130" s="11" t="s">
+        <v>589</v>
       </c>
       <c r="F130" s="7" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A131" s="4"/>
       <c r="B131" s="4" t="s">
-        <v>525</v>
+        <v>440</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>526</v>
+        <v>441</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="E131" s="4" t="s">
-        <v>527</v>
+        <v>443</v>
+      </c>
+      <c r="E131" s="11" t="s">
+        <v>590</v>
       </c>
       <c r="F131" s="7" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A132" s="4"/>
       <c r="B132" s="4" t="s">
-        <v>530</v>
+        <v>444</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>531</v>
+        <v>445</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>532</v>
-      </c>
-      <c r="E132" s="4" t="s">
-        <v>533</v>
+        <v>446</v>
+      </c>
+      <c r="E132" s="11" t="s">
+        <v>591</v>
       </c>
       <c r="F132" s="7" t="s">
-        <v>534</v>
+        <v>447</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="4"/>
       <c r="B133" s="4" t="s">
-        <v>535</v>
+        <v>448</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>536</v>
+        <v>449</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>537</v>
+        <v>450</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>538</v>
+        <v>451</v>
       </c>
       <c r="F133" s="7" t="s">
-        <v>539</v>
+        <v>452</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="4"/>
       <c r="B134" s="4" t="s">
-        <v>540</v>
+        <v>453</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>541</v>
+        <v>454</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>543</v>
+        <v>456</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>542</v>
+        <v>455</v>
       </c>
       <c r="F134" s="7" t="s">
-        <v>544</v>
+        <v>457</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="4"/>
       <c r="B135" s="4" t="s">
-        <v>545</v>
+        <v>458</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>546</v>
+        <v>459</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F135" s="7" t="s">
-        <v>547</v>
+        <v>460</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="4"/>
       <c r="B136" s="4" t="s">
-        <v>548</v>
+        <v>461</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>529</v>
+        <v>443</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>549</v>
+        <v>592</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="4"/>
       <c r="B137" s="4" t="s">
-        <v>550</v>
+        <v>462</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>551</v>
+        <v>463</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>552</v>
+        <v>593</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="4"/>
       <c r="B138" s="4" t="s">
-        <v>553</v>
+        <v>464</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>554</v>
+        <v>465</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>555</v>
+        <v>466</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>556</v>
+        <v>594</v>
       </c>
       <c r="F138" s="7" t="s">
-        <v>557</v>
+        <v>467</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="4"/>
       <c r="B139" s="4" t="s">
-        <v>558</v>
+        <v>468</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>559</v>
+        <v>469</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>560</v>
+        <v>470</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>561</v>
+        <v>471</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>562</v>
+        <v>472</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="4"/>
       <c r="B140" s="4" t="s">
-        <v>563</v>
+        <v>473</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>564</v>
+        <v>474</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>529</v>
+        <v>443</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>565</v>
+        <v>475</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="4"/>
       <c r="B141" s="4" t="s">
-        <v>566</v>
+        <v>476</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>567</v>
+        <v>477</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>568</v>
+        <v>478</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="4"/>
       <c r="B142" s="4" t="s">
-        <v>569</v>
+        <v>479</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>571</v>
+        <v>481</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>572</v>
+        <v>482</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>570</v>
+        <v>480</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="4"/>
       <c r="B143" s="4" t="s">
-        <v>575</v>
+        <v>485</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>574</v>
+        <v>484</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>199</v>
+        <v>168</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>573</v>
+        <v>483</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="4"/>
       <c r="B144" s="4" t="s">
-        <v>576</v>
+        <v>486</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>577</v>
+        <v>487</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>578</v>
+        <v>488</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>579</v>
+        <v>595</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="4"/>
       <c r="B145" s="4" t="s">
-        <v>580</v>
+        <v>489</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>581</v>
+        <v>490</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>582</v>
+        <v>491</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A146" s="4"/>
       <c r="B146" s="4" t="s">
-        <v>584</v>
+        <v>492</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>585</v>
+        <v>493</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>586</v>
-      </c>
-      <c r="E146" s="4" t="s">
-        <v>587</v>
+        <v>494</v>
+      </c>
+      <c r="E146" s="11" t="s">
+        <v>597</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="4"/>
       <c r="B147" s="4" t="s">
-        <v>588</v>
+        <v>495</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>590</v>
+        <v>496</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>589</v>
+        <v>598</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/data/20210219_innovation_hubs-Almasi-v1.xlsx
+++ b/data/20210219_innovation_hubs-Almasi-v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sirvan/sites/startups/psychi/innovation-hubs/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34894476-A790-D742-B7EE-D1C58A078AD7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58084A9B-3FDC-654E-A607-C8C27AC9F79D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="500" windowWidth="28240" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,18 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2244,24 +2255,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F147"/>
+  <dimension ref="A1:G147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="D143" sqref="D143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="44.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.6640625" style="2"/>
+    <col min="3" max="4" width="44.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>469</v>
       </c>
@@ -2271,17 +2282,18 @@
       <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2"/>
       <c r="B2" t="s">
         <v>0</v>
@@ -2289,15 +2301,19 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="str">
+        <f>CONCATENATE("* [",B2,"](",C2,")")</f>
+        <v>* [Google Campus London](https://www.campus.co/london/)</v>
+      </c>
+      <c r="E2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>470</v>
       </c>
-      <c r="F2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3"/>
       <c r="B3" t="s">
         <v>7</v>
@@ -2305,15 +2321,19 @@
       <c r="C3" t="s">
         <v>72</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D66" si="0">CONCATENATE("* [",B3,"](",C3,")")</f>
+        <v>* [Level39](https://www.level39.co/)</v>
+      </c>
+      <c r="E3" t="s">
         <v>471</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>472</v>
       </c>
-      <c r="F3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>473</v>
       </c>
@@ -2323,15 +2343,19 @@
       <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>* [White Bear Yard(WBY)](http://wbyspace.com/)</v>
+      </c>
+      <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>474</v>
       </c>
-      <c r="F4"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5"/>
       <c r="B5" t="s">
         <v>12</v>
@@ -2339,15 +2363,19 @@
       <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>* [IDEALondon](https://www.idealondon.co.uk/)</v>
+      </c>
+      <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>16</v>
       </c>
-      <c r="F5"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>457</v>
       </c>
@@ -2357,17 +2385,21 @@
       <c r="C6" t="s">
         <v>459</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>* [ConceptionX](https://conceptionx.org/)</v>
+      </c>
+      <c r="E6" t="s">
         <v>460</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>16</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7"/>
       <c r="B7" t="s">
         <v>17</v>
@@ -2375,15 +2407,19 @@
       <c r="C7" t="s">
         <v>18</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>* [LU Inc.](https://www.lusep.co.uk/)</v>
+      </c>
+      <c r="E7" t="s">
         <v>8</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>475</v>
       </c>
-      <c r="F7"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8"/>
       <c r="B8" t="s">
         <v>19</v>
@@ -2391,17 +2427,21 @@
       <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>* [Cardiff Medicentre](http://www.cardiffmedicentre.co.uk/)</v>
+      </c>
+      <c r="E8" t="s">
         <v>476</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>477</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9"/>
       <c r="B9" t="s">
         <v>22</v>
@@ -2409,17 +2449,21 @@
       <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>* [London BioScience Innovation Centre (LBIC)](https://www.lbic.com/)</v>
+      </c>
+      <c r="E9" t="s">
         <v>24</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>25</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10"/>
       <c r="B10" t="s">
         <v>27</v>
@@ -2427,15 +2471,19 @@
       <c r="C10" t="s">
         <v>28</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>* [The Hive](https://www.ntu.ac.uk/ntu-enterprise)</v>
+      </c>
+      <c r="E10" t="s">
         <v>73</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>74</v>
       </c>
-      <c r="F10"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11"/>
       <c r="B11" t="s">
         <v>29</v>
@@ -2443,17 +2491,21 @@
       <c r="C11" t="s">
         <v>30</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>* [European Marine Science Park](http://www.europeanmarinesciencepark.co.uk/)</v>
+      </c>
+      <c r="E11" t="s">
         <v>31</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>33</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12"/>
       <c r="B12" t="s">
         <v>34</v>
@@ -2461,17 +2513,21 @@
       <c r="C12" t="s">
         <v>35</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>* [Institute of Life Science Incubator](https://www.swansea.ac.uk/medicine/enterprise-and-innovation/)</v>
+      </c>
+      <c r="E12" t="s">
         <v>36</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>543</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13"/>
       <c r="B13" t="s">
         <v>38</v>
@@ -2479,15 +2535,19 @@
       <c r="C13" t="s">
         <v>39</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>* [Centre for Secure Information Technologies (CSIT)](https://www.csitlabs.com/)</v>
+      </c>
+      <c r="E13" t="s">
         <v>9</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>478</v>
       </c>
-      <c r="F13"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14"/>
       <c r="B14" t="s">
         <v>40</v>
@@ -2495,17 +2555,21 @@
       <c r="C14" t="s">
         <v>41</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>* [3M Buckley Innovation Centre (3MBIC)](https://3mbic.com/)</v>
+      </c>
+      <c r="E14" t="s">
         <v>42</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>548</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15"/>
       <c r="B15" t="s">
         <v>44</v>
@@ -2513,17 +2577,21 @@
       <c r="C15" t="s">
         <v>45</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>* [London Cleantech Cluster](https://www.londoncleantechcluster.co.uk/)</v>
+      </c>
+      <c r="E15" t="s">
         <v>46</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>21</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16"/>
       <c r="B16" t="s">
         <v>48</v>
@@ -2531,17 +2599,21 @@
       <c r="C16" t="s">
         <v>50</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>* [Evolve Derby](https://www.derby.ac.uk/business-services/facilities-and-services/starting-a-new-business/)</v>
+      </c>
+      <c r="E16" t="s">
         <v>51</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>479</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17"/>
       <c r="B17" t="s">
         <v>52</v>
@@ -2549,17 +2621,21 @@
       <c r="C17" t="s">
         <v>53</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>* [Seedcloud](https://www.seedcloud.com/)</v>
+      </c>
+      <c r="E17" t="s">
         <v>480</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>55</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18"/>
       <c r="B18" t="s">
         <v>56</v>
@@ -2567,17 +2643,21 @@
       <c r="C18" t="s">
         <v>57</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>* [Innovation Factory](https://www.innovationfactoryni.com/)</v>
+      </c>
+      <c r="E18" t="s">
         <v>59</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>481</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19"/>
       <c r="B19" t="s">
         <v>60</v>
@@ -2585,17 +2665,21 @@
       <c r="C19" t="s">
         <v>61</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>* [Seed Haus](https://thisisseedhaus.com/)</v>
+      </c>
+      <c r="E19" t="s">
         <v>482</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>483</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20"/>
       <c r="B20" t="s">
         <v>63</v>
@@ -2603,17 +2687,21 @@
       <c r="C20" t="s">
         <v>66</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>* [Newcastle Bio-Incubator](https://www.ncl.ac.uk/london/)</v>
+      </c>
+      <c r="E20" t="s">
         <v>36</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>549</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21"/>
       <c r="B21" t="s">
         <v>65</v>
@@ -2621,17 +2709,21 @@
       <c r="C21" t="s">
         <v>67</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>* [Imperial College White City Incubator](http://www.imperial.ac.uk/enterprise/business/incubator/)</v>
+      </c>
+      <c r="E21" t="s">
         <v>484</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>550</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="B22" t="s">
         <v>68</v>
@@ -2639,17 +2731,21 @@
       <c r="C22" t="s">
         <v>70</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>* [MedTech Incubator](http://www.manchestertechtrust.com/directory/workspace/msp-medtech/)</v>
+      </c>
+      <c r="E22" t="s">
         <v>71</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>69</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23"/>
       <c r="B23" t="s">
         <v>75</v>
@@ -2657,15 +2753,19 @@
       <c r="C23" t="s">
         <v>77</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>* [Techtopia](https://www.crunchbase.com/organization/techtopia/technology)</v>
+      </c>
+      <c r="E23" t="s">
         <v>76</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>485</v>
       </c>
-      <c r="F23"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24"/>
       <c r="B24" t="s">
         <v>78</v>
@@ -2673,17 +2773,21 @@
       <c r="C24" t="s">
         <v>79</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>* [Centre for Nanohealth Incubator](https://www.swansea.ac.uk/nanohealth/)</v>
+      </c>
+      <c r="E24" t="s">
         <v>80</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>486</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25"/>
       <c r="B25" t="s">
         <v>82</v>
@@ -2691,17 +2795,21 @@
       <c r="C25" t="s">
         <v>83</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>* [Cloud Innovation Centre](http://www.cloudcentres.co.uk/)</v>
+      </c>
+      <c r="E25" t="s">
         <v>84</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>551</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26"/>
       <c r="B26" t="s">
         <v>86</v>
@@ -2709,17 +2817,21 @@
       <c r="C26" t="s">
         <v>87</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>* [Nest](https://myport.port.ac.uk/guidance-and-support/careers-support/student-startup-support)</v>
+      </c>
+      <c r="E26" t="s">
         <v>88</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>552</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27"/>
       <c r="B27" t="s">
         <v>90</v>
@@ -2727,17 +2839,21 @@
       <c r="C27" t="s">
         <v>91</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>* [Tetricus Incubator](https://completelyoffice.co.uk/scheme/Tetricus-Science-Park-Salisbury/)</v>
+      </c>
+      <c r="E27" t="s">
         <v>92</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>487</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28"/>
       <c r="B28" t="s">
         <v>93</v>
@@ -2745,17 +2861,21 @@
       <c r="C28" t="s">
         <v>94</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>* [Tech Hub](https://london.techhub.com/)</v>
+      </c>
+      <c r="E28" t="s">
         <v>76</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>553</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29"/>
       <c r="B29" t="s">
         <v>96</v>
@@ -2763,17 +2883,21 @@
       <c r="C29" t="s">
         <v>97</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>* [Innovation Warehouse](https://innovationwarehouse.org/)</v>
+      </c>
+      <c r="E29" t="s">
         <v>76</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>488</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30"/>
       <c r="B30" t="s">
         <v>99</v>
@@ -2781,17 +2905,21 @@
       <c r="C30" t="s">
         <v>100</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>* [MyIncubator](https://wenta.co.uk/about-wenta/)</v>
+      </c>
+      <c r="E30" t="s">
         <v>76</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>489</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31"/>
       <c r="B31" t="s">
         <v>102</v>
@@ -2799,17 +2927,21 @@
       <c r="C31" t="s">
         <v>104</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v>* [ICE Accelerator](https://welshice.org/blog/welsh-ice-launch-accelerator)</v>
+      </c>
+      <c r="E31" t="s">
         <v>103</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>554</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32"/>
       <c r="B32" t="s">
         <v>105</v>
@@ -2817,17 +2949,21 @@
       <c r="C32" t="s">
         <v>106</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" t="str">
+        <f t="shared" si="0"/>
+        <v>* [Entrepreneurs for the future](https://e4f.co.uk/)</v>
+      </c>
+      <c r="E32" t="s">
         <v>8</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>490</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33"/>
       <c r="B33" t="s">
         <v>108</v>
@@ -2835,17 +2971,21 @@
       <c r="C33" t="s">
         <v>109</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" t="str">
+        <f t="shared" si="0"/>
+        <v>* [London Business School Incubator](https://www.london.edu/faculty-and-research/institute-of-innovation-and-entrepreneurship/opportunities-and-resources/scale/incubator-programme)</v>
+      </c>
+      <c r="E33" t="s">
         <v>111</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>555</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34"/>
       <c r="B34" t="s">
         <v>112</v>
@@ -2853,17 +2993,21 @@
       <c r="C34" t="s">
         <v>114</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" t="str">
+        <f t="shared" si="0"/>
+        <v>* [Edinburgh Business School Incubator](https://www.hw.ac.uk/ebs/business/incubator.htm)</v>
+      </c>
+      <c r="E34" t="s">
         <v>111</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>541</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35"/>
       <c r="B35" t="s">
         <v>115</v>
@@ -2871,17 +3015,21 @@
       <c r="C35" t="s">
         <v>116</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v>* [Royal Academy of Engineering’s Enterprise Hub](https://enterprisehub.raeng.org.uk/)</v>
+      </c>
+      <c r="E35" t="s">
         <v>117</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>556</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36"/>
       <c r="B36" t="s">
         <v>119</v>
@@ -2889,17 +3037,21 @@
       <c r="C36" t="s">
         <v>121</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" t="str">
+        <f t="shared" si="0"/>
+        <v>* [Bathtub 2 Boardroom](https://www.bathtub2boardroom.com/)</v>
+      </c>
+      <c r="E36" t="s">
         <v>111</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>557</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37"/>
       <c r="B37" t="s">
         <v>122</v>
@@ -2907,17 +3059,21 @@
       <c r="C37" t="s">
         <v>123</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" t="str">
+        <f t="shared" si="0"/>
+        <v>* [CodeBase](https://www.thisiscodebase.com/)</v>
+      </c>
+      <c r="E37" t="s">
         <v>124</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>491</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38"/>
       <c r="B38" t="s">
         <v>125</v>
@@ -2925,17 +3081,21 @@
       <c r="C38" t="s">
         <v>127</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" t="str">
+        <f t="shared" si="0"/>
+        <v>* [Health Foundry](http://www.healthfoundry.org/)</v>
+      </c>
+      <c r="E38" t="s">
         <v>126</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>493</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39"/>
       <c r="B39" t="s">
         <v>129</v>
@@ -2943,17 +3103,21 @@
       <c r="C39" t="s">
         <v>130</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" t="str">
+        <f t="shared" si="0"/>
+        <v>* [Sussex Innovation Croydon](https://www.sinc.co.uk/)</v>
+      </c>
+      <c r="E39" t="s">
         <v>132</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>542</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40"/>
       <c r="B40" t="s">
         <v>133</v>
@@ -2961,17 +3125,21 @@
       <c r="C40" t="s">
         <v>134</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" t="str">
+        <f t="shared" si="0"/>
+        <v>* [Manchester Incubator Building](https://www.umic.co.uk/)</v>
+      </c>
+      <c r="E40" t="s">
         <v>80</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>494</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41"/>
       <c r="B41" t="s">
         <v>136</v>
@@ -2979,17 +3147,21 @@
       <c r="C41" t="s">
         <v>138</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" t="str">
+        <f t="shared" si="0"/>
+        <v>* [Genesis](https://www.barnsleybic.co.uk/)</v>
+      </c>
+      <c r="E41" t="s">
         <v>137</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>495</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42"/>
       <c r="B42" t="s">
         <v>140</v>
@@ -2997,17 +3169,21 @@
       <c r="C42" t="s">
         <v>141</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" t="str">
+        <f t="shared" si="0"/>
+        <v>* [Bright Red Triangle](https://brightredtriangle.co.uk/)</v>
+      </c>
+      <c r="E42" t="s">
         <v>132</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>496</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43"/>
       <c r="B43" t="s">
         <v>143</v>
@@ -3015,13 +3191,17 @@
       <c r="C43" t="s">
         <v>144</v>
       </c>
-      <c r="D43"/>
-      <c r="E43" t="s">
+      <c r="D43" t="str">
+        <f t="shared" si="0"/>
+        <v>* [The Duke of York Young Entrepreneur Centre](https://students.hud.ac.uk/opportunities/enterprise/duke-of-york-centre/)</v>
+      </c>
+      <c r="E43"/>
+      <c r="F43" t="s">
         <v>497</v>
       </c>
-      <c r="F43"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G43"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44"/>
       <c r="B44" t="s">
         <v>145</v>
@@ -3029,17 +3209,21 @@
       <c r="C44" t="s">
         <v>146</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" t="str">
+        <f t="shared" si="0"/>
+        <v>* [Portsmouth Technopole](https://www.port.ac.uk/collaborate/coworking-and-office-space)</v>
+      </c>
+      <c r="E44" t="s">
         <v>59</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>552</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>468</v>
       </c>
@@ -3049,17 +3233,21 @@
       <c r="C45" t="s">
         <v>150</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" t="str">
+        <f t="shared" si="0"/>
+        <v>* [UCL BaseKX](https://www.ucl.ac.uk/enterprise/)</v>
+      </c>
+      <c r="E45" t="s">
         <v>132</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>498</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46"/>
       <c r="B46" t="s">
         <v>151</v>
@@ -3067,17 +3255,21 @@
       <c r="C46" t="s">
         <v>462</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" t="str">
+        <f t="shared" si="0"/>
+        <v>* [Oxford Startup Incubator](https://innovation.ox.ac.uk/startupincubator/)</v>
+      </c>
+      <c r="E46" t="s">
         <v>76</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>498</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>465</v>
       </c>
@@ -3087,17 +3279,21 @@
       <c r="C47" t="s">
         <v>463</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" t="str">
+        <f t="shared" si="0"/>
+        <v>* [Oxford Accelerator](http://www.oxfordaccelerator.com/)</v>
+      </c>
+      <c r="E47" t="s">
         <v>466</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>467</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48"/>
       <c r="B48" t="s">
         <v>152</v>
@@ -3105,17 +3301,21 @@
       <c r="C48" t="s">
         <v>153</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" t="str">
+        <f t="shared" si="0"/>
+        <v>* [RGU Incubator](https://www.comp.rgu.ac.uk/digital-incubator/)</v>
+      </c>
+      <c r="E48" t="s">
         <v>76</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>558</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49"/>
       <c r="B49" t="s">
         <v>155</v>
@@ -3123,15 +3323,19 @@
       <c r="C49" t="s">
         <v>157</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" t="str">
+        <f t="shared" si="0"/>
+        <v>* [Open Education Challenge](https://www.startus.cc/company/open-education-challenge)</v>
+      </c>
+      <c r="E49" t="s">
         <v>156</v>
       </c>
-      <c r="E49"/>
-      <c r="F49" t="s">
+      <c r="F49"/>
+      <c r="G49" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50"/>
       <c r="B50" t="s">
         <v>158</v>
@@ -3139,17 +3343,21 @@
       <c r="C50" t="s">
         <v>159</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" t="str">
+        <f t="shared" si="0"/>
+        <v>* [Surrey Research Park](https://surrey-research-park.com/)</v>
+      </c>
+      <c r="E50" t="s">
         <v>76</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>544</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51"/>
       <c r="B51" t="s">
         <v>161</v>
@@ -3157,17 +3365,21 @@
       <c r="C51" t="s">
         <v>162</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" t="str">
+        <f t="shared" si="0"/>
+        <v>* [Oxford Centre for Innovation](https://www.ocfi.co.uk/)</v>
+      </c>
+      <c r="E51" t="s">
         <v>163</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>499</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52"/>
       <c r="B52" t="s">
         <v>164</v>
@@ -3175,17 +3387,21 @@
       <c r="C52" t="s">
         <v>165</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" t="str">
+        <f t="shared" si="0"/>
+        <v>* [St Johns Innovation Centre](https://stjohns.co.uk/)</v>
+      </c>
+      <c r="E52" t="s">
         <v>76</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>167</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53"/>
       <c r="B53" t="s">
         <v>168</v>
@@ -3193,15 +3409,19 @@
       <c r="C53" t="s">
         <v>169</v>
       </c>
-      <c r="D53"/>
-      <c r="E53" t="s">
+      <c r="D53" t="str">
+        <f t="shared" si="0"/>
+        <v>* [Strathclyde University Incubator](http://www.suilimited.com/)</v>
+      </c>
+      <c r="E53"/>
+      <c r="F53" t="s">
         <v>559</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54"/>
       <c r="B54" t="s">
         <v>171</v>
@@ -3209,17 +3429,21 @@
       <c r="C54" t="s">
         <v>172</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" t="str">
+        <f t="shared" si="0"/>
+        <v>* [Magdalen Centre](https://oxfordsp.com/)</v>
+      </c>
+      <c r="E54" t="s">
         <v>163</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>560</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55"/>
       <c r="B55" t="s">
         <v>174</v>
@@ -3227,17 +3451,21 @@
       <c r="C55" t="s">
         <v>175</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" t="str">
+        <f t="shared" si="0"/>
+        <v>* [Norwich Research Park Accelerator](https://www.norwichresearchpark.com/property-and-park/accommodation-types/accelerator)</v>
+      </c>
+      <c r="E55" t="s">
         <v>176</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>500</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56"/>
       <c r="B56" t="s">
         <v>177</v>
@@ -3245,17 +3473,21 @@
       <c r="C56" t="s">
         <v>178</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" t="str">
+        <f t="shared" si="0"/>
+        <v>* [Edinburgh Research and Innovation](https://edinburgh-innovations.ed.ac.uk/)</v>
+      </c>
+      <c r="E56" t="s">
         <v>76</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>501</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57"/>
       <c r="B57" t="s">
         <v>180</v>
@@ -3263,17 +3495,21 @@
       <c r="C57" t="s">
         <v>181</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" t="str">
+        <f t="shared" si="0"/>
+        <v>* [Granta Park](https://www.babraham.ac.uk/)</v>
+      </c>
+      <c r="E57" t="s">
         <v>182</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>502</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58"/>
       <c r="B58" t="s">
         <v>183</v>
@@ -3281,15 +3517,19 @@
       <c r="C58" t="s">
         <v>184</v>
       </c>
-      <c r="D58"/>
-      <c r="E58" t="s">
+      <c r="D58" t="str">
+        <f t="shared" si="0"/>
+        <v>* [Cherwell Innovation Centre](https://www.heyfordpark-ic.co.uk/)</v>
+      </c>
+      <c r="E58"/>
+      <c r="F58" t="s">
         <v>503</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59"/>
       <c r="B59" t="s">
         <v>186</v>
@@ -3297,17 +3537,21 @@
       <c r="C59" t="s">
         <v>187</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" t="str">
+        <f t="shared" si="0"/>
+        <v>* [Malvern Hills Science Park](https://www.mhsp.co.uk/)</v>
+      </c>
+      <c r="E59" t="s">
         <v>176</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>504</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60"/>
       <c r="B60" t="s">
         <v>188</v>
@@ -3315,17 +3559,21 @@
       <c r="C60" t="s">
         <v>189</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" t="str">
+        <f t="shared" si="0"/>
+        <v>* [Roslin BioCentre](https://midlothiansciencezone.com/)</v>
+      </c>
+      <c r="E60" t="s">
         <v>163</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>505</v>
       </c>
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61"/>
       <c r="B61" t="s">
         <v>191</v>
@@ -3333,17 +3581,21 @@
       <c r="C61" t="s">
         <v>192</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" t="str">
+        <f t="shared" si="0"/>
+        <v>* [Harwell Innovation Centre](https://www.harwell-ic.co.uk/)</v>
+      </c>
+      <c r="E61" t="s">
         <v>163</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>506</v>
       </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62"/>
       <c r="B62" t="s">
         <v>194</v>
@@ -3351,17 +3603,21 @@
       <c r="C62" t="s">
         <v>195</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" t="str">
+        <f t="shared" si="0"/>
+        <v>* [i-SE – Women’s Enterprise Hub](http://www.i-se.co.uk/)</v>
+      </c>
+      <c r="E62" t="s">
         <v>197</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>507</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63"/>
       <c r="B63" t="s">
         <v>198</v>
@@ -3369,17 +3625,21 @@
       <c r="C63" t="s">
         <v>199</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" t="str">
+        <f t="shared" si="0"/>
+        <v>* [Scottish Microelectronics Centre](https://www.eng.ed.ac.uk/research/facilities-and-resources/resources/scottish-microelectronics-centre)</v>
+      </c>
+      <c r="E63" t="s">
         <v>117</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>200</v>
       </c>
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64"/>
       <c r="B64" t="s">
         <v>201</v>
@@ -3387,17 +3647,21 @@
       <c r="C64" t="s">
         <v>202</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" t="str">
+        <f t="shared" si="0"/>
+        <v>* [Bicester Innovation Centre](https://www.bicester-ic.co.uk/)</v>
+      </c>
+      <c r="E64" t="s">
         <v>76</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>508</v>
       </c>
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65"/>
       <c r="B65" t="s">
         <v>204</v>
@@ -3405,17 +3669,21 @@
       <c r="C65" t="s">
         <v>205</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" t="str">
+        <f t="shared" si="0"/>
+        <v>* [Culham Science Centre](http://www.culham.org.uk/)</v>
+      </c>
+      <c r="E65" t="s">
         <v>163</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>509</v>
       </c>
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66"/>
       <c r="B66" t="s">
         <v>207</v>
@@ -3423,17 +3691,21 @@
       <c r="C66" t="s">
         <v>208</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" t="str">
+        <f t="shared" si="0"/>
+        <v>* [Staffordshire BIC](https://thebic.co.uk/)</v>
+      </c>
+      <c r="E66" t="s">
         <v>8</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>510</v>
       </c>
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67"/>
       <c r="B67" t="s">
         <v>210</v>
@@ -3441,17 +3713,21 @@
       <c r="C67" t="s">
         <v>211</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" t="str">
+        <f t="shared" ref="D67:D130" si="1">CONCATENATE("* [",B67,"](",C67,")")</f>
+        <v>* [Sparkhouse](https://www.sparkhouselincoln.co.uk/)</v>
+      </c>
+      <c r="E67" t="s">
         <v>8</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>561</v>
       </c>
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68"/>
       <c r="B68" t="s">
         <v>213</v>
@@ -3459,17 +3735,21 @@
       <c r="C68" t="s">
         <v>214</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" t="str">
+        <f t="shared" si="1"/>
+        <v>* [Sussex Innovation Centre](https://www.sinc.co.uk)</v>
+      </c>
+      <c r="E68" t="s">
         <v>73</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>215</v>
       </c>
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69"/>
       <c r="B69" t="s">
         <v>216</v>
@@ -3477,17 +3757,21 @@
       <c r="C69" t="s">
         <v>217</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" t="str">
+        <f t="shared" si="1"/>
+        <v>* [SPARK Business Incubation Centre](https://www.sparkspace.co.uk/)</v>
+      </c>
+      <c r="E69" t="s">
         <v>73</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>562</v>
       </c>
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70"/>
       <c r="B70" t="s">
         <v>219</v>
@@ -3495,17 +3779,21 @@
       <c r="C70" t="s">
         <v>220</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" t="str">
+        <f t="shared" si="1"/>
+        <v>* [BRL Technology Business Incubator](https://www.bristolroboticslab.com/)</v>
+      </c>
+      <c r="E70" t="s">
         <v>163</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>563</v>
       </c>
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71"/>
       <c r="B71" t="s">
         <v>222</v>
@@ -3513,17 +3801,21 @@
       <c r="C71" t="s">
         <v>223</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" t="str">
+        <f t="shared" si="1"/>
+        <v>* [Cranfield University Business Incubation Centre (CUBIC)](https://www.cranfield.ac.uk/business/access-our-world-class-facilities/business-incubation)</v>
+      </c>
+      <c r="E71" t="s">
         <v>225</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>224</v>
       </c>
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72"/>
       <c r="B72" t="s">
         <v>226</v>
@@ -3531,17 +3823,21 @@
       <c r="C72" t="s">
         <v>227</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" t="str">
+        <f t="shared" si="1"/>
+        <v>* [Culham Innovation Centre](https://www.culham-ic.co.uk/)</v>
+      </c>
+      <c r="E72" t="s">
         <v>163</v>
       </c>
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>564</v>
       </c>
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73"/>
       <c r="B73" t="s">
         <v>229</v>
@@ -3549,17 +3845,21 @@
       <c r="C73" t="s">
         <v>230</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" t="str">
+        <f t="shared" si="1"/>
+        <v>* [Hub for Innovation and Enterprise](https://www.kent.ac.uk/enterprise/student-talent)</v>
+      </c>
+      <c r="E73" t="s">
         <v>182</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>565</v>
       </c>
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74"/>
       <c r="B74" t="s">
         <v>231</v>
@@ -3567,17 +3867,21 @@
       <c r="C74" t="s">
         <v>232</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" t="str">
+        <f t="shared" si="1"/>
+        <v>* [Sci-Tech Daresbury](https://www.sci-techdaresbury.com/)</v>
+      </c>
+      <c r="E74" t="s">
         <v>234</v>
       </c>
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>511</v>
       </c>
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75"/>
       <c r="B75" t="s">
         <v>235</v>
@@ -3585,17 +3889,21 @@
       <c r="C75" t="s">
         <v>236</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" t="str">
+        <f t="shared" si="1"/>
+        <v>* [Sheffield Bioincubator](http://www.innovation.group.shef.ac.uk/)</v>
+      </c>
+      <c r="E75" t="s">
         <v>73</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>566</v>
       </c>
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76"/>
       <c r="B76" t="s">
         <v>239</v>
@@ -3603,17 +3911,21 @@
       <c r="C76" t="s">
         <v>237</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" t="str">
+        <f t="shared" si="1"/>
+        <v>* [Bridge Innovation Centre](https://www.bridgeinnovation.co.uk/)</v>
+      </c>
+      <c r="E76" t="s">
         <v>163</v>
       </c>
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>567</v>
       </c>
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77"/>
       <c r="B77" t="s">
         <v>242</v>
@@ -3621,17 +3933,21 @@
       <c r="C77" t="s">
         <v>240</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" t="str">
+        <f t="shared" si="1"/>
+        <v>* [Dundee University Incubator](https://www.dundeeincubator.com/)</v>
+      </c>
+      <c r="E77" t="s">
         <v>8</v>
       </c>
-      <c r="E77" t="s">
+      <c r="F77" t="s">
         <v>568</v>
       </c>
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78"/>
       <c r="B78" t="s">
         <v>243</v>
@@ -3639,17 +3955,21 @@
       <c r="C78" t="s">
         <v>244</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" t="str">
+        <f t="shared" si="1"/>
+        <v>* [Hayes Business Studios](http://www.hayesbusinessstudios.co.uk/)</v>
+      </c>
+      <c r="E78" t="s">
         <v>156</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>569</v>
       </c>
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79"/>
       <c r="B79" t="s">
         <v>245</v>
@@ -3657,17 +3977,21 @@
       <c r="C79" t="s">
         <v>246</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" t="str">
+        <f t="shared" si="1"/>
+        <v>* [Creative Enterprise](https://www.uca.ac.uk/creative-enterprise-development/)</v>
+      </c>
+      <c r="E79" t="s">
         <v>156</v>
       </c>
-      <c r="E79" t="s">
+      <c r="F79" t="s">
         <v>570</v>
       </c>
-      <c r="F79" t="s">
+      <c r="G79" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80"/>
       <c r="B80" t="s">
         <v>247</v>
@@ -3675,17 +3999,21 @@
       <c r="C80" t="s">
         <v>248</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" t="str">
+        <f t="shared" si="1"/>
+        <v>* [Nucleus Business &amp; Innovation Centre](https://www.nucleus-dartford.co.uk/)</v>
+      </c>
+      <c r="E80" t="s">
         <v>8</v>
       </c>
-      <c r="E80" t="s">
+      <c r="F80" t="s">
         <v>512</v>
       </c>
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81"/>
       <c r="B81" t="s">
         <v>251</v>
@@ -3693,17 +4021,21 @@
       <c r="C81" t="s">
         <v>250</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" t="str">
+        <f t="shared" si="1"/>
+        <v>* [Cornwall Innovation](http://cornwallinnovation.co.uk/health-wellbeing-centre)</v>
+      </c>
+      <c r="E81" t="s">
         <v>253</v>
       </c>
-      <c r="E81" t="s">
+      <c r="F81" t="s">
         <v>571</v>
       </c>
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82"/>
       <c r="B82" t="s">
         <v>254</v>
@@ -3711,17 +4043,21 @@
       <c r="C82" t="s">
         <v>255</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" t="str">
+        <f t="shared" si="1"/>
+        <v>* [Enterprise Incubation Centre](https://www.herts.ac.uk/enterprise-zone/grow-your-business/business-support/business-incubation)</v>
+      </c>
+      <c r="E82" t="s">
         <v>73</v>
       </c>
-      <c r="E82" t="s">
+      <c r="F82" t="s">
         <v>513</v>
       </c>
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83"/>
       <c r="B83" t="s">
         <v>257</v>
@@ -3729,17 +4065,21 @@
       <c r="C83" t="s">
         <v>258</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" t="str">
+        <f t="shared" si="1"/>
+        <v>* [Ocean Village Innovation Centre](https://www.oceanvillage-ic.co.uk/)</v>
+      </c>
+      <c r="E83" t="s">
         <v>73</v>
       </c>
-      <c r="E83" t="s">
+      <c r="F83" t="s">
         <v>545</v>
       </c>
-      <c r="F83" t="s">
+      <c r="G83" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84"/>
       <c r="B84" t="s">
         <v>260</v>
@@ -3747,17 +4087,21 @@
       <c r="C84" t="s">
         <v>262</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" t="str">
+        <f t="shared" si="1"/>
+        <v>* [Retford Enterprise Centre](https://www.retfordenterprise.co.uk/)</v>
+      </c>
+      <c r="E84" t="s">
         <v>73</v>
       </c>
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>514</v>
       </c>
-      <c r="F84" t="s">
+      <c r="G84" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85"/>
       <c r="B85" t="s">
         <v>263</v>
@@ -3765,17 +4109,21 @@
       <c r="C85" t="s">
         <v>264</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" t="str">
+        <f t="shared" si="1"/>
+        <v>* [Good Ideas Academy](https://www.themeltingpotedinburgh.org.uk/good-ideas/)</v>
+      </c>
+      <c r="E85" t="s">
         <v>73</v>
       </c>
-      <c r="E85" t="s">
+      <c r="F85" t="s">
         <v>572</v>
       </c>
-      <c r="F85" t="s">
+      <c r="G85" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86"/>
       <c r="B86" t="s">
         <v>265</v>
@@ -3783,17 +4131,21 @@
       <c r="C86" t="s">
         <v>266</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" t="str">
+        <f t="shared" si="1"/>
+        <v>* [Harborough Innovation Centre](https://www.harborough-ic.co.uk/)</v>
+      </c>
+      <c r="E86" t="s">
         <v>73</v>
       </c>
-      <c r="E86" t="s">
+      <c r="F86" t="s">
         <v>515</v>
       </c>
-      <c r="F86" t="s">
+      <c r="G86" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87"/>
       <c r="B87" t="s">
         <v>268</v>
@@ -3801,17 +4153,21 @@
       <c r="C87" t="s">
         <v>269</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" t="str">
+        <f t="shared" si="1"/>
+        <v>* [Hethel Innovation](https://hethelinnovation.com/)</v>
+      </c>
+      <c r="E87" t="s">
         <v>272</v>
       </c>
-      <c r="E87" t="s">
+      <c r="F87" t="s">
         <v>271</v>
       </c>
-      <c r="F87" t="s">
+      <c r="G87" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88"/>
       <c r="B88" t="s">
         <v>273</v>
@@ -3819,17 +4175,21 @@
       <c r="C88" t="s">
         <v>274</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" t="str">
+        <f t="shared" si="1"/>
+        <v>* [Innovation Martlesham Incubator Facility](https://atadastral.co.uk/)</v>
+      </c>
+      <c r="E88" t="s">
         <v>272</v>
       </c>
-      <c r="E88" t="s">
+      <c r="F88" t="s">
         <v>573</v>
       </c>
-      <c r="F88" t="s">
+      <c r="G88" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89"/>
       <c r="B89" t="s">
         <v>276</v>
@@ -3837,17 +4197,21 @@
       <c r="C89" t="s">
         <v>277</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" t="str">
+        <f t="shared" si="1"/>
+        <v>* [Mansfield i-Centre](https://www.mansfield-ic.co.uk/)</v>
+      </c>
+      <c r="E89" t="s">
         <v>279</v>
       </c>
-      <c r="E89" t="s">
+      <c r="F89" t="s">
         <v>516</v>
       </c>
-      <c r="F89" t="s">
+      <c r="G89" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90"/>
       <c r="B90" t="s">
         <v>280</v>
@@ -3855,17 +4219,21 @@
       <c r="C90" t="s">
         <v>281</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" t="str">
+        <f t="shared" si="1"/>
+        <v>* [Newark Beacon](http://www.newark-beacon.co.uk/)</v>
+      </c>
+      <c r="E90" t="s">
         <v>73</v>
       </c>
-      <c r="E90" t="s">
+      <c r="F90" t="s">
         <v>574</v>
       </c>
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91"/>
       <c r="B91" t="s">
         <v>283</v>
@@ -3873,17 +4241,21 @@
       <c r="C91" t="s">
         <v>284</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" t="str">
+        <f t="shared" si="1"/>
+        <v>* [Queen Mary BioEnterprises Innovation Centre](https://www.qmbioenterprises.com/)</v>
+      </c>
+      <c r="E91" t="s">
         <v>182</v>
       </c>
-      <c r="E91" t="s">
+      <c r="F91" t="s">
         <v>546</v>
       </c>
-      <c r="F91" t="s">
+      <c r="G91" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92"/>
       <c r="B92" t="s">
         <v>286</v>
@@ -3891,17 +4263,21 @@
       <c r="C92" t="s">
         <v>287</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" t="str">
+        <f t="shared" si="1"/>
+        <v>* [Scott Bader Innovation Centre](https://www.scottbader-ic.co.uk/)</v>
+      </c>
+      <c r="E92" t="s">
         <v>163</v>
       </c>
-      <c r="E92" t="s">
+      <c r="F92" t="s">
         <v>517</v>
       </c>
-      <c r="F92" t="s">
+      <c r="G92" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93"/>
       <c r="B93" t="s">
         <v>288</v>
@@ -3909,17 +4285,21 @@
       <c r="C93" t="s">
         <v>289</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" t="str">
+        <f t="shared" si="1"/>
+        <v>* [The Studio](https://www.lboro.ac.uk/services/the-studio/)</v>
+      </c>
+      <c r="E93" t="s">
         <v>73</v>
       </c>
-      <c r="E93" t="s">
+      <c r="F93" t="s">
         <v>576</v>
       </c>
-      <c r="F93" t="s">
+      <c r="G93" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94"/>
       <c r="B94" t="s">
         <v>291</v>
@@ -3927,17 +4307,21 @@
       <c r="C94" t="s">
         <v>292</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" t="str">
+        <f t="shared" si="1"/>
+        <v>* [Worksop Turbine Innovation Centre](https://worksopturbine.nottinghamshire.gov.uk/)</v>
+      </c>
+      <c r="E94" t="s">
         <v>73</v>
       </c>
-      <c r="E94" t="s">
+      <c r="F94" t="s">
         <v>577</v>
       </c>
-      <c r="F94" t="s">
+      <c r="G94" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95"/>
       <c r="B95" t="s">
         <v>294</v>
@@ -3945,17 +4329,21 @@
       <c r="C95" t="s">
         <v>295</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" t="str">
+        <f t="shared" si="1"/>
+        <v>* [Bracknell Enterprise &amp; Innovation Hub](https://www.bracknell-hub.co.uk/)</v>
+      </c>
+      <c r="E95" t="s">
         <v>73</v>
       </c>
-      <c r="E95" t="s">
+      <c r="F95" t="s">
         <v>578</v>
       </c>
-      <c r="F95" t="s">
+      <c r="G95" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96"/>
       <c r="B96" t="s">
         <v>297</v>
@@ -3963,17 +4351,21 @@
       <c r="C96" t="s">
         <v>298</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" t="str">
+        <f t="shared" si="1"/>
+        <v>* [Innovation Programme](https://www.ne-bic.co.uk/)</v>
+      </c>
+      <c r="E96" t="s">
         <v>73</v>
       </c>
-      <c r="E96" t="s">
+      <c r="F96" t="s">
         <v>518</v>
       </c>
-      <c r="F96" t="s">
+      <c r="G96" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97"/>
       <c r="B97" t="s">
         <v>300</v>
@@ -3981,17 +4373,21 @@
       <c r="C97" t="s">
         <v>301</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" t="str">
+        <f t="shared" si="1"/>
+        <v>* [Stevenage BioCatalyst](https://www.stevenagecatalyst.com/)</v>
+      </c>
+      <c r="E97" t="s">
         <v>36</v>
       </c>
-      <c r="E97" t="s">
+      <c r="F97" t="s">
         <v>302</v>
       </c>
-      <c r="F97" t="s">
+      <c r="G97" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98"/>
       <c r="B98" t="s">
         <v>304</v>
@@ -3999,17 +4395,21 @@
       <c r="C98" t="s">
         <v>305</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" t="str">
+        <f t="shared" si="1"/>
+        <v>* [The Nova Centre](https://www.keele.ac.uk/business/scienceandinnovationpark/)</v>
+      </c>
+      <c r="E98" t="s">
         <v>306</v>
       </c>
-      <c r="E98" t="s">
+      <c r="F98" t="s">
         <v>519</v>
       </c>
-      <c r="F98" t="s">
+      <c r="G98" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99"/>
       <c r="B99" t="s">
         <v>308</v>
@@ -4017,17 +4417,21 @@
       <c r="C99" t="s">
         <v>309</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" t="str">
+        <f t="shared" si="1"/>
+        <v>* [Tremough Innovation Centre](https://cornwallinnovation.co.uk/centre/tremough-innovation-centre/)</v>
+      </c>
+      <c r="E99" t="s">
         <v>126</v>
       </c>
-      <c r="E99" t="s">
+      <c r="F99" t="s">
         <v>579</v>
       </c>
-      <c r="F99" t="s">
+      <c r="G99" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100"/>
       <c r="B100" t="s">
         <v>311</v>
@@ -4035,17 +4439,21 @@
       <c r="C100" t="s">
         <v>312</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" t="str">
+        <f t="shared" si="1"/>
+        <v>* [Witney Business &amp; Innovation Centre](https://www.witney-bic.co.uk/)</v>
+      </c>
+      <c r="E100" t="s">
         <v>319</v>
       </c>
-      <c r="E100" t="s">
+      <c r="F100" t="s">
         <v>520</v>
       </c>
-      <c r="F100" t="s">
+      <c r="G100" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101"/>
       <c r="B101" t="s">
         <v>314</v>
@@ -4053,17 +4461,21 @@
       <c r="C101" t="s">
         <v>315</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" t="str">
+        <f t="shared" si="1"/>
+        <v>* [BizzInn Business Incubator](https://www.birmingham.ac.uk/partners/enterprise/businesssupport.aspx/)</v>
+      </c>
+      <c r="E101" t="s">
         <v>73</v>
       </c>
-      <c r="E101" t="s">
+      <c r="F101" t="s">
         <v>580</v>
       </c>
-      <c r="F101" t="s">
+      <c r="G101" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102"/>
       <c r="B102" t="s">
         <v>316</v>
@@ -4071,17 +4483,21 @@
       <c r="C102" t="s">
         <v>317</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102" t="str">
+        <f t="shared" si="1"/>
+        <v>* [BU Student Incubation Centre (BUSI)](https://www.hugedomains.com/domain_profile.cfm?d=bucfe&amp;e=com)</v>
+      </c>
+      <c r="E102" t="s">
         <v>319</v>
       </c>
-      <c r="E102" t="s">
+      <c r="F102" t="s">
         <v>521</v>
       </c>
-      <c r="F102" t="s">
+      <c r="G102" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103"/>
       <c r="B103" t="s">
         <v>320</v>
@@ -4089,17 +4505,21 @@
       <c r="C103" t="s">
         <v>321</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D103" t="str">
+        <f t="shared" si="1"/>
+        <v>* [Haatch](https://haatch.com/)</v>
+      </c>
+      <c r="E103" t="s">
         <v>73</v>
       </c>
-      <c r="E103" t="s">
+      <c r="F103" t="s">
         <v>522</v>
       </c>
-      <c r="F103" t="s">
+      <c r="G103" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104"/>
       <c r="B104" t="s">
         <v>322</v>
@@ -4107,17 +4527,21 @@
       <c r="C104" t="s">
         <v>323</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" t="str">
+        <f t="shared" si="1"/>
+        <v>* [Henley Start-up Business Incubator](https://www.escapethecity.org/organisation/henley-start-up-business-incubator)</v>
+      </c>
+      <c r="E104" t="s">
         <v>73</v>
       </c>
-      <c r="E104" t="s">
+      <c r="F104" t="s">
         <v>581</v>
       </c>
-      <c r="F104" t="s">
+      <c r="G104" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105"/>
       <c r="B105" t="s">
         <v>324</v>
@@ -4125,17 +4549,21 @@
       <c r="C105" t="s">
         <v>325</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" t="str">
+        <f t="shared" si="1"/>
+        <v>* [Live Lab](https://www.livelab.co.uk/)</v>
+      </c>
+      <c r="E105" t="s">
         <v>327</v>
       </c>
-      <c r="E105" t="s">
+      <c r="F105" t="s">
         <v>582</v>
       </c>
-      <c r="F105" t="s">
+      <c r="G105" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106"/>
       <c r="B106" t="s">
         <v>328</v>
@@ -4143,17 +4571,21 @@
       <c r="C106" t="s">
         <v>329</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" t="str">
+        <f t="shared" si="1"/>
+        <v>* [Stockport Business &amp; Innovation Centre](https://www.stockport-bic.co.uk/)</v>
+      </c>
+      <c r="E106" t="s">
         <v>59</v>
       </c>
-      <c r="E106" t="s">
+      <c r="F106" t="s">
         <v>583</v>
       </c>
-      <c r="F106" t="s">
+      <c r="G106" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107"/>
       <c r="B107" t="s">
         <v>331</v>
@@ -4161,15 +4593,19 @@
       <c r="C107" t="s">
         <v>332</v>
       </c>
-      <c r="D107"/>
-      <c r="E107" t="s">
+      <c r="D107" t="str">
+        <f t="shared" si="1"/>
+        <v>* [The Enterprise Network](https://www.theenterprisenetwork.co.uk/)</v>
+      </c>
+      <c r="E107"/>
+      <c r="F107" t="s">
         <v>523</v>
       </c>
-      <c r="F107" t="s">
+      <c r="G107" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108"/>
       <c r="B108" t="s">
         <v>334</v>
@@ -4177,17 +4613,21 @@
       <c r="C108" t="s">
         <v>335</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" t="str">
+        <f t="shared" si="1"/>
+        <v>* [Warwick Ventures Software Incubator](https://warwick.ac.uk/services/innovations/softwareincubator)</v>
+      </c>
+      <c r="E108" t="s">
         <v>8</v>
       </c>
-      <c r="E108" t="s">
+      <c r="F108" t="s">
         <v>584</v>
       </c>
-      <c r="F108" t="s">
+      <c r="G108" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109"/>
       <c r="B109" t="s">
         <v>337</v>
@@ -4195,17 +4635,21 @@
       <c r="C109" t="s">
         <v>338</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" t="str">
+        <f t="shared" si="1"/>
+        <v>* [Centre for Digital Innovation (C4DI)](http://www.c4di.co.uk/)</v>
+      </c>
+      <c r="E109" t="s">
         <v>73</v>
       </c>
-      <c r="E109" t="s">
+      <c r="F109" t="s">
         <v>524</v>
       </c>
-      <c r="F109" t="s">
+      <c r="G109" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110"/>
       <c r="B110" t="s">
         <v>340</v>
@@ -4213,17 +4657,21 @@
       <c r="C110" t="s">
         <v>341</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110" t="str">
+        <f t="shared" si="1"/>
+        <v>* [Innospace](http://www.innospace.co.uk/)</v>
+      </c>
+      <c r="E110" t="s">
         <v>73</v>
       </c>
-      <c r="E110" t="s">
+      <c r="F110" t="s">
         <v>525</v>
       </c>
-      <c r="F110" t="s">
+      <c r="G110" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111"/>
       <c r="B111" t="s">
         <v>342</v>
@@ -4231,15 +4679,19 @@
       <c r="C111" t="s">
         <v>343</v>
       </c>
-      <c r="D111"/>
-      <c r="E111" t="s">
+      <c r="D111" t="str">
+        <f t="shared" si="1"/>
+        <v>* [MedBIC](https://aru.ac.uk/arise)</v>
+      </c>
+      <c r="E111"/>
+      <c r="F111" t="s">
         <v>526</v>
       </c>
-      <c r="F111" t="s">
+      <c r="G111" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112"/>
       <c r="B112" t="s">
         <v>345</v>
@@ -4247,17 +4699,21 @@
       <c r="C112" t="s">
         <v>346</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D112" t="str">
+        <f t="shared" si="1"/>
+        <v>* [Momentum Business Incubator](http://www.worcesterenterprise.org/incubator-support-package/)</v>
+      </c>
+      <c r="E112" t="s">
         <v>527</v>
       </c>
-      <c r="E112" t="s">
+      <c r="F112" t="s">
         <v>528</v>
       </c>
-      <c r="F112" t="s">
+      <c r="G112" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113"/>
       <c r="B113" t="s">
         <v>348</v>
@@ -4265,17 +4721,21 @@
       <c r="C113" t="s">
         <v>349</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D113" t="str">
+        <f t="shared" si="1"/>
+        <v>* [NoWFOOD Centre](https://www1.chester.ac.uk/business-growth/nowfood)</v>
+      </c>
+      <c r="E113" t="s">
         <v>350</v>
       </c>
-      <c r="E113" t="s">
+      <c r="F113" t="s">
         <v>585</v>
       </c>
-      <c r="F113" t="s">
+      <c r="G113" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114"/>
       <c r="B114" t="s">
         <v>352</v>
@@ -4283,17 +4743,21 @@
       <c r="C114" t="s">
         <v>353</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D114" t="str">
+        <f t="shared" si="1"/>
+        <v>* [One St. Aldates](https://www.onestaldates.co.uk/)</v>
+      </c>
+      <c r="E114" t="s">
         <v>76</v>
       </c>
-      <c r="E114" t="s">
+      <c r="F114" t="s">
         <v>586</v>
       </c>
-      <c r="F114" t="s">
+      <c r="G114" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115"/>
       <c r="B115" t="s">
         <v>355</v>
@@ -4301,15 +4765,19 @@
       <c r="C115" t="s">
         <v>356</v>
       </c>
-      <c r="D115"/>
-      <c r="E115" t="s">
+      <c r="D115" t="str">
+        <f t="shared" si="1"/>
+        <v>* [SPACE at Hoo Farm](http://www.wyreforestspace.co.uk/space-at-hoo-farm.aspx)</v>
+      </c>
+      <c r="E115"/>
+      <c r="F115" t="s">
         <v>587</v>
       </c>
-      <c r="F115" t="s">
+      <c r="G115" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116"/>
       <c r="B116" t="s">
         <v>358</v>
@@ -4317,17 +4785,21 @@
       <c r="C116" t="s">
         <v>359</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D116" t="str">
+        <f t="shared" si="1"/>
+        <v>* [UHatch](https://www.gcu.ac.uk/uhatch/)</v>
+      </c>
+      <c r="E116" t="s">
         <v>361</v>
       </c>
-      <c r="E116" t="s">
+      <c r="F116" t="s">
         <v>588</v>
       </c>
-      <c r="F116" t="s">
+      <c r="G116" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117"/>
       <c r="B117" t="s">
         <v>362</v>
@@ -4335,15 +4807,19 @@
       <c r="C117" t="s">
         <v>21</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D117" t="str">
+        <f t="shared" si="1"/>
+        <v>* [Digital Exchange](NA)</v>
+      </c>
+      <c r="E117" t="s">
         <v>21</v>
       </c>
-      <c r="E117" t="s">
+      <c r="F117" t="s">
         <v>529</v>
       </c>
-      <c r="F117"/>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G117"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118"/>
       <c r="B118" t="s">
         <v>363</v>
@@ -4351,17 +4827,21 @@
       <c r="C118" t="s">
         <v>364</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D118" t="str">
+        <f t="shared" si="1"/>
+        <v>* [Fareham Innovation Centre](https://www.fareham-ic.co.uk/)</v>
+      </c>
+      <c r="E118" t="s">
         <v>365</v>
       </c>
-      <c r="E118" t="s">
+      <c r="F118" t="s">
         <v>589</v>
       </c>
-      <c r="F118" t="s">
+      <c r="G118" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119"/>
       <c r="B119" t="s">
         <v>367</v>
@@ -4369,17 +4849,21 @@
       <c r="C119" t="s">
         <v>368</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D119" t="str">
+        <f t="shared" si="1"/>
+        <v>* [High Growth Centre](https://www1.chester.ac.uk/business-growth/thornton-science-park)</v>
+      </c>
+      <c r="E119" t="s">
         <v>369</v>
       </c>
-      <c r="E119" t="s">
+      <c r="F119" t="s">
         <v>585</v>
       </c>
-      <c r="F119" t="s">
+      <c r="G119" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120"/>
       <c r="B120" t="s">
         <v>370</v>
@@ -4387,17 +4871,21 @@
       <c r="C120" t="s">
         <v>371</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D120" t="str">
+        <f t="shared" si="1"/>
+        <v>* [Ideas Factory Incubation Centre](https://www.nua.ac.uk/for-business/incubation-centre-facility-hire/)</v>
+      </c>
+      <c r="E120" t="s">
         <v>373</v>
       </c>
-      <c r="E120" t="s">
+      <c r="F120" t="s">
         <v>590</v>
       </c>
-      <c r="F120" t="s">
+      <c r="G120" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121"/>
       <c r="B121" t="s">
         <v>374</v>
@@ -4405,17 +4893,21 @@
       <c r="C121" t="s">
         <v>375</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D121" t="str">
+        <f t="shared" si="1"/>
+        <v>* [InTechnology Enterprise incubator](https://www.leeds.ac.uk/news/article/3668/young_entrepreneurs_get_a_chance_to_shine)</v>
+      </c>
+      <c r="E121" t="s">
         <v>376</v>
       </c>
-      <c r="E121" t="s">
+      <c r="F121" t="s">
         <v>530</v>
       </c>
-      <c r="F121" t="s">
+      <c r="G121" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122"/>
       <c r="B122" t="s">
         <v>377</v>
@@ -4423,17 +4915,21 @@
       <c r="C122" t="s">
         <v>378</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D122" t="str">
+        <f t="shared" si="1"/>
+        <v>* [Marine Robotics Innovation Centre Hub](https://noc-innovations.co.uk/marine-robotics-innovation-centre)</v>
+      </c>
+      <c r="E122" t="s">
         <v>379</v>
       </c>
-      <c r="E122" t="s">
+      <c r="F122" t="s">
         <v>531</v>
       </c>
-      <c r="F122" t="s">
+      <c r="G122" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123"/>
       <c r="B123" t="s">
         <v>381</v>
@@ -4441,15 +4937,19 @@
       <c r="C123" t="s">
         <v>382</v>
       </c>
-      <c r="D123"/>
-      <c r="E123" t="s">
+      <c r="D123" t="str">
+        <f t="shared" si="1"/>
+        <v>* [Rothamsted Centre for Research and Enterprise](https://www.rothamstedenterprises.com/)</v>
+      </c>
+      <c r="E123"/>
+      <c r="F123" t="s">
         <v>532</v>
       </c>
-      <c r="F123" t="s">
+      <c r="G123" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124"/>
       <c r="B124" t="s">
         <v>384</v>
@@ -4457,17 +4957,21 @@
       <c r="C124" t="s">
         <v>385</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D124" t="str">
+        <f t="shared" si="1"/>
+        <v>* [The BioHub Birmingham](https://www.birminghamresearchpark.co.uk/biohub/)</v>
+      </c>
+      <c r="E124" t="s">
         <v>386</v>
       </c>
-      <c r="E124" t="s">
+      <c r="F124" t="s">
         <v>591</v>
       </c>
-      <c r="F124" t="s">
+      <c r="G124" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125"/>
       <c r="B125" t="s">
         <v>388</v>
@@ -4475,17 +4979,21 @@
       <c r="C125" t="s">
         <v>389</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D125" t="str">
+        <f t="shared" si="1"/>
+        <v>* [The Ingenuity Lab](https://www.nottingham.ac.uk/business/businesscentres/hgi/ingenuity-lab/about-the-ingenuity-lab.aspx)</v>
+      </c>
+      <c r="E125" t="s">
         <v>391</v>
       </c>
-      <c r="E125" t="s">
+      <c r="F125" t="s">
         <v>592</v>
       </c>
-      <c r="F125" t="s">
+      <c r="G125" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126"/>
       <c r="B126" t="s">
         <v>392</v>
@@ -4493,17 +5001,21 @@
       <c r="C126" t="s">
         <v>395</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D126" t="str">
+        <f t="shared" si="1"/>
+        <v>* [UBC Leeds Digital Hub](https://leeds.tech/workspace/the-digital-hub/)</v>
+      </c>
+      <c r="E126" t="s">
         <v>396</v>
       </c>
-      <c r="E126" t="s">
+      <c r="F126" t="s">
         <v>393</v>
       </c>
-      <c r="F126" t="s">
+      <c r="G126" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127"/>
       <c r="B127" t="s">
         <v>397</v>
@@ -4511,17 +5023,21 @@
       <c r="C127" t="s">
         <v>398</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D127" t="str">
+        <f t="shared" si="1"/>
+        <v>* [WB100](http://wosskowbrownfoundation.org.uk/)</v>
+      </c>
+      <c r="E127" t="s">
         <v>391</v>
       </c>
-      <c r="E127" t="s">
+      <c r="F127" t="s">
         <v>533</v>
       </c>
-      <c r="F127" t="s">
+      <c r="G127" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128"/>
       <c r="B128" t="s">
         <v>399</v>
@@ -4529,17 +5045,21 @@
       <c r="C128" t="s">
         <v>400</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D128" t="str">
+        <f t="shared" si="1"/>
+        <v>* [BioData Innovation Centre](https://www.sanger.ac.uk/about/campus)</v>
+      </c>
+      <c r="E128" t="s">
         <v>401</v>
       </c>
-      <c r="E128" t="s">
+      <c r="F128" t="s">
         <v>593</v>
       </c>
-      <c r="F128" t="s">
+      <c r="G128" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129"/>
       <c r="B129" t="s">
         <v>402</v>
@@ -4547,17 +5067,21 @@
       <c r="C129" t="s">
         <v>403</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D129" t="str">
+        <f t="shared" si="1"/>
+        <v>* [Canopy Exeter](https://www.exetersciencepark.co.uk/)</v>
+      </c>
+      <c r="E129" t="s">
         <v>401</v>
       </c>
-      <c r="E129" t="s">
+      <c r="F129" t="s">
         <v>534</v>
       </c>
-      <c r="F129" t="s">
+      <c r="G129" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130"/>
       <c r="B130" t="s">
         <v>404</v>
@@ -4565,17 +5089,21 @@
       <c r="C130" t="s">
         <v>405</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D130" t="str">
+        <f t="shared" si="1"/>
+        <v>* [Future Space](https://www.futurespacebristol.co.uk/)</v>
+      </c>
+      <c r="E130" t="s">
         <v>8</v>
       </c>
-      <c r="E130" t="s">
+      <c r="F130" t="s">
         <v>594</v>
       </c>
-      <c r="F130" t="s">
+      <c r="G130" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131"/>
       <c r="B131" t="s">
         <v>407</v>
@@ -4583,17 +5111,21 @@
       <c r="C131" t="s">
         <v>408</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D131" t="str">
+        <f t="shared" ref="D131:D147" si="2">CONCATENATE("* [",B131,"](",C131,")")</f>
+        <v>* [Londoneast](https://www.londoneast-uk.com/)</v>
+      </c>
+      <c r="E131" t="s">
         <v>410</v>
       </c>
-      <c r="E131" t="s">
+      <c r="F131" t="s">
         <v>595</v>
       </c>
-      <c r="F131" t="s">
+      <c r="G131" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132"/>
       <c r="B132" t="s">
         <v>411</v>
@@ -4601,17 +5133,21 @@
       <c r="C132" t="s">
         <v>412</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D132" t="str">
+        <f t="shared" si="2"/>
+        <v>* [North East Space Incubation Programme](https://www.northeasttechnologypark.com/)</v>
+      </c>
+      <c r="E132" t="s">
         <v>413</v>
       </c>
-      <c r="E132" t="s">
+      <c r="F132" t="s">
         <v>596</v>
       </c>
-      <c r="F132" t="s">
+      <c r="G132" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133"/>
       <c r="B133" t="s">
         <v>415</v>
@@ -4619,17 +5155,21 @@
       <c r="C133" t="s">
         <v>416</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D133" t="str">
+        <f t="shared" si="2"/>
+        <v>* [OpTIC Space Industry Incubation Programme](http://www.glyndwrinnovations.co.uk/incubation/)</v>
+      </c>
+      <c r="E133" t="s">
         <v>417</v>
       </c>
-      <c r="E133" t="s">
+      <c r="F133" t="s">
         <v>597</v>
       </c>
-      <c r="F133" t="s">
+      <c r="G133" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134"/>
       <c r="B134" t="s">
         <v>419</v>
@@ -4637,17 +5177,21 @@
       <c r="C134" t="s">
         <v>420</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D134" t="str">
+        <f t="shared" si="2"/>
+        <v>* [Roslin Innovation Centre](https://www.roslininnovationcentre.com/)</v>
+      </c>
+      <c r="E134" t="s">
         <v>421</v>
       </c>
-      <c r="E134" t="s">
+      <c r="F134" t="s">
         <v>598</v>
       </c>
-      <c r="F134" t="s">
+      <c r="G134" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135"/>
       <c r="B135" t="s">
         <v>423</v>
@@ -4655,17 +5199,21 @@
       <c r="C135" t="s">
         <v>424</v>
       </c>
-      <c r="D135" t="s">
-        <v>21</v>
+      <c r="D135" t="str">
+        <f t="shared" si="2"/>
+        <v>* [Serendip](https://serendip.co/)</v>
       </c>
       <c r="E135" t="s">
         <v>21</v>
       </c>
       <c r="F135" t="s">
+        <v>21</v>
+      </c>
+      <c r="G135" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136"/>
       <c r="B136" t="s">
         <v>426</v>
@@ -4673,17 +5221,21 @@
       <c r="C136" t="s">
         <v>18</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D136" t="str">
+        <f t="shared" si="2"/>
+        <v>* [Space Incubator](https://www.lusep.co.uk/)</v>
+      </c>
+      <c r="E136" t="s">
         <v>410</v>
       </c>
-      <c r="E136" t="s">
+      <c r="F136" t="s">
         <v>535</v>
       </c>
-      <c r="F136" t="s">
+      <c r="G136" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137"/>
       <c r="B137" t="s">
         <v>427</v>
@@ -4691,17 +5243,21 @@
       <c r="C137" t="s">
         <v>428</v>
       </c>
-      <c r="D137" t="s">
+      <c r="D137" t="str">
+        <f t="shared" si="2"/>
+        <v>* [The Tontine](https://www.tontineglasgow.co.uk/)</v>
+      </c>
+      <c r="E137" t="s">
         <v>8</v>
       </c>
-      <c r="E137" t="s">
+      <c r="F137" t="s">
         <v>536</v>
       </c>
-      <c r="F137" t="s">
+      <c r="G137" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138"/>
       <c r="B138" t="s">
         <v>429</v>
@@ -4709,17 +5265,21 @@
       <c r="C138" t="s">
         <v>430</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D138" t="str">
+        <f t="shared" si="2"/>
+        <v>* [Ashton Old Baths Innovation Centre](https://www.ashtonoldbaths.co.uk/)</v>
+      </c>
+      <c r="E138" t="s">
         <v>431</v>
       </c>
-      <c r="E138" t="s">
+      <c r="F138" t="s">
         <v>537</v>
       </c>
-      <c r="F138" t="s">
+      <c r="G138" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139"/>
       <c r="B139" t="s">
         <v>433</v>
@@ -4727,17 +5287,21 @@
       <c r="C139" t="s">
         <v>434</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D139" t="str">
+        <f t="shared" si="2"/>
+        <v>* [Aurora Cambridge](https://www.bas.ac.uk/science/science-and-innovation/aurora-cambridge/)</v>
+      </c>
+      <c r="E139" t="s">
         <v>435</v>
       </c>
-      <c r="E139" t="s">
+      <c r="F139" t="s">
         <v>599</v>
       </c>
-      <c r="F139" t="s">
+      <c r="G139" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140"/>
       <c r="B140" t="s">
         <v>437</v>
@@ -4745,17 +5309,21 @@
       <c r="C140" t="s">
         <v>438</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D140" t="str">
+        <f t="shared" si="2"/>
+        <v>* [Charnwood Campus](http://charnwoodcampus.com/)</v>
+      </c>
+      <c r="E140" t="s">
         <v>410</v>
       </c>
-      <c r="E140" t="s">
+      <c r="F140" t="s">
         <v>600</v>
       </c>
-      <c r="F140" t="s">
+      <c r="G140" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141"/>
       <c r="B141" t="s">
         <v>439</v>
@@ -4763,17 +5331,21 @@
       <c r="C141" t="s">
         <v>440</v>
       </c>
-      <c r="D141" t="s">
+      <c r="D141" t="str">
+        <f t="shared" si="2"/>
+        <v>* [The Spot Hive](https://www.sportingchanceinitiative.co.uk/the-sport-hive)</v>
+      </c>
+      <c r="E141" t="s">
         <v>441</v>
       </c>
-      <c r="E141" t="s">
+      <c r="F141" t="s">
         <v>21</v>
       </c>
-      <c r="F141" t="s">
+      <c r="G141" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142"/>
       <c r="B142" t="s">
         <v>442</v>
@@ -4781,17 +5353,21 @@
       <c r="C142" t="s">
         <v>443</v>
       </c>
-      <c r="D142" t="s">
+      <c r="D142" t="str">
+        <f t="shared" si="2"/>
+        <v>* [STEAMHouse](https://www.bcu.ac.uk/business/steam/steamhouse)</v>
+      </c>
+      <c r="E142" t="s">
         <v>601</v>
       </c>
-      <c r="E142" t="s">
+      <c r="F142" t="s">
         <v>602</v>
       </c>
-      <c r="F142" t="s">
+      <c r="G142" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143"/>
       <c r="B143" t="s">
         <v>445</v>
@@ -4799,17 +5375,21 @@
       <c r="C143" t="s">
         <v>444</v>
       </c>
-      <c r="D143" t="s">
+      <c r="D143" t="str">
+        <f t="shared" si="2"/>
+        <v>* [UBC Creative Fashion and Textile Hub](https://www.leedsbeckett.ac.uk/)</v>
+      </c>
+      <c r="E143" t="s">
         <v>156</v>
       </c>
-      <c r="E143" t="s">
+      <c r="F143" t="s">
         <v>603</v>
       </c>
-      <c r="F143" t="s">
+      <c r="G143" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144"/>
       <c r="B144" t="s">
         <v>446</v>
@@ -4817,17 +5397,21 @@
       <c r="C144" t="s">
         <v>447</v>
       </c>
-      <c r="D144" t="s">
+      <c r="D144" t="str">
+        <f t="shared" si="2"/>
+        <v>* [UNIT DX](https://sciencecreates.co.uk/)</v>
+      </c>
+      <c r="E144" t="s">
         <v>448</v>
       </c>
-      <c r="E144" t="s">
+      <c r="F144" t="s">
         <v>538</v>
       </c>
-      <c r="F144" t="s">
+      <c r="G144" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145"/>
       <c r="B145" t="s">
         <v>449</v>
@@ -4835,17 +5419,21 @@
       <c r="C145" t="s">
         <v>450</v>
       </c>
-      <c r="D145" t="s">
+      <c r="D145" t="str">
+        <f t="shared" si="2"/>
+        <v>* [Guildhall Creative Entrepreneurs](https://www.gsmd.ac.uk/youth_adult_learning/creative_business_support/guildhall_creative_entrepreneurs/)</v>
+      </c>
+      <c r="E145" t="s">
         <v>451</v>
       </c>
-      <c r="E145" t="s">
+      <c r="F145" t="s">
         <v>539</v>
       </c>
-      <c r="F145" t="s">
+      <c r="G145" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146"/>
       <c r="B146" t="s">
         <v>452</v>
@@ -4853,17 +5441,21 @@
       <c r="C146" t="s">
         <v>453</v>
       </c>
-      <c r="D146" t="s">
+      <c r="D146" t="str">
+        <f t="shared" si="2"/>
+        <v>* [C11 Cyber Security and Digital Centre](https://www.glos.ac.uk/business-and-partnerships/c11-cyber-security-and-digital-innovation-centre/)</v>
+      </c>
+      <c r="E146" t="s">
         <v>454</v>
       </c>
-      <c r="E146" t="s">
+      <c r="F146" t="s">
         <v>604</v>
       </c>
-      <c r="F146" t="s">
+      <c r="G146" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147"/>
       <c r="B147" t="s">
         <v>455</v>
@@ -4871,13 +5463,17 @@
       <c r="C147" t="s">
         <v>456</v>
       </c>
-      <c r="D147" t="s">
+      <c r="D147" t="str">
+        <f t="shared" si="2"/>
+        <v>* [Barclays Labs](https://labs.uk.barclays/)</v>
+      </c>
+      <c r="E147" t="s">
         <v>73</v>
       </c>
-      <c r="E147" t="s">
+      <c r="F147" t="s">
         <v>540</v>
       </c>
-      <c r="F147" t="s">
+      <c r="G147" t="s">
         <v>54</v>
       </c>
     </row>

--- a/data/20210219_innovation_hubs-Almasi-v1.xlsx
+++ b/data/20210219_innovation_hubs-Almasi-v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sirvan/sites/startups/psychi/innovation-hubs/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58084A9B-3FDC-654E-A607-C8C27AC9F79D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0B260D-8228-8E47-BDA6-76BC94977EC6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="500" windowWidth="28240" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="619">
   <si>
     <t>Google Campus London</t>
   </si>
@@ -1849,13 +1849,55 @@
   </si>
   <si>
     <t>University of Gloucestershire;The Park;Cheltenham;GL50 2RH.</t>
+  </si>
+  <si>
+    <t>https://ktn-uk.org/programme/cyberasap/</t>
+  </si>
+  <si>
+    <t>CyberASAP</t>
+  </si>
+  <si>
+    <t>Pre-seed</t>
+  </si>
+  <si>
+    <t>CyberASAP is funded by the UK Government Department for Digital, Culture Media &amp; Sport (DCMS) and delivered through KTN and Innovate UK.</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Digital Catapult</t>
+  </si>
+  <si>
+    <t>https://www.digicatapult.org.uk/</t>
+  </si>
+  <si>
+    <t>info@digicatapult.org.uk</t>
+  </si>
+  <si>
+    <t>Hub</t>
+  </si>
+  <si>
+    <t>101 Euston Road; London; NW1 2RA</t>
+  </si>
+  <si>
+    <t>AI; VR; AR; IoT; 5G</t>
+  </si>
+  <si>
+    <t>London; Endinbugh</t>
+  </si>
+  <si>
+    <t>Accelerating early adoption of advanced digital technology. Digital Catapult specialises in Future Networks, AI and Immersive.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1884,6 +1926,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1902,10 +1952,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1917,8 +1968,12 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2255,10 +2310,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G147"/>
+  <dimension ref="A1:H149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="D143" sqref="D143"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B152" sqref="B152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2272,7 +2327,7 @@
     <col min="8" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>469</v>
       </c>
@@ -2292,8 +2347,11 @@
       <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2"/>
       <c r="B2" t="s">
         <v>0</v>
@@ -2312,8 +2370,11 @@
         <v>470</v>
       </c>
       <c r="G2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" s="2" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3"/>
       <c r="B3" t="s">
         <v>7</v>
@@ -2333,7 +2394,7 @@
       </c>
       <c r="G3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>473</v>
       </c>
@@ -2355,7 +2416,7 @@
       </c>
       <c r="G4"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5"/>
       <c r="B5" t="s">
         <v>12</v>
@@ -2375,7 +2436,7 @@
       </c>
       <c r="G5"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>457</v>
       </c>
@@ -2399,7 +2460,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7"/>
       <c r="B7" t="s">
         <v>17</v>
@@ -2419,7 +2480,7 @@
       </c>
       <c r="G7"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8"/>
       <c r="B8" t="s">
         <v>19</v>
@@ -2441,7 +2502,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9"/>
       <c r="B9" t="s">
         <v>22</v>
@@ -2463,7 +2524,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10"/>
       <c r="B10" t="s">
         <v>27</v>
@@ -2483,7 +2544,7 @@
       </c>
       <c r="G10"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11"/>
       <c r="B11" t="s">
         <v>29</v>
@@ -2505,7 +2566,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12"/>
       <c r="B12" t="s">
         <v>34</v>
@@ -2527,7 +2588,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13"/>
       <c r="B13" t="s">
         <v>38</v>
@@ -2547,7 +2608,7 @@
       </c>
       <c r="G13"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14"/>
       <c r="B14" t="s">
         <v>40</v>
@@ -2569,7 +2630,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15"/>
       <c r="B15" t="s">
         <v>44</v>
@@ -2591,7 +2652,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16"/>
       <c r="B16" t="s">
         <v>48</v>
@@ -5112,7 +5173,7 @@
         <v>408</v>
       </c>
       <c r="D131" t="str">
-        <f t="shared" ref="D131:D147" si="2">CONCATENATE("* [",B131,"](",C131,")")</f>
+        <f t="shared" ref="D131:D149" si="2">CONCATENATE("* [",B131,"](",C131,")")</f>
         <v>* [Londoneast](https://www.londoneast-uk.com/)</v>
       </c>
       <c r="E131" t="s">
@@ -5411,7 +5472,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145"/>
       <c r="B145" t="s">
         <v>449</v>
@@ -5433,7 +5494,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146"/>
       <c r="B146" t="s">
         <v>452</v>
@@ -5455,7 +5516,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147"/>
       <c r="B147" t="s">
         <v>455</v>
@@ -5477,9 +5538,66 @@
         <v>54</v>
       </c>
     </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A148" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="D148" t="str">
+        <f t="shared" si="2"/>
+        <v>* [CyberASAP](https://ktn-uk.org/programme/cyberasap/)</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="G148" t="s">
+        <v>54</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A149" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="D149" t="str">
+        <f t="shared" si="2"/>
+        <v>* [Digital Catapult](https://www.digicatapult.org.uk/)</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="G149" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>618</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G149" r:id="rId1" xr:uid="{5DEB78D7-D928-2C42-A7E2-04D9DE29B9C3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/data/20210219_innovation_hubs-Almasi-v1.xlsx
+++ b/data/20210219_innovation_hubs-Almasi-v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sirvan/sites/startups/psychi/innovation-hubs/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0B260D-8228-8E47-BDA6-76BC94977EC6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1236063-1601-2940-8AC3-5C4A4CA247D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="500" windowWidth="28240" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="647">
   <si>
     <t>Google Campus London</t>
   </si>
@@ -1887,10 +1887,94 @@
     <t>AI; VR; AR; IoT; 5G</t>
   </si>
   <si>
-    <t>London; Endinbugh</t>
-  </si>
-  <si>
     <t>Accelerating early adoption of advanced digital technology. Digital Catapult specialises in Future Networks, AI and Immersive.</t>
+  </si>
+  <si>
+    <t>ktn</t>
+  </si>
+  <si>
+    <t>Hub; Gov; Fund; Accelerator</t>
+  </si>
+  <si>
+    <t>https://ktn-uk.org/</t>
+  </si>
+  <si>
+    <t>Twitter</t>
+  </si>
+  <si>
+    <t>KTNUK</t>
+  </si>
+  <si>
+    <t>London; Endinbugh; Oxford</t>
+  </si>
+  <si>
+    <t>London (N1 0QH); Endinbugh (EH2 2PJ); Oxford (OX11 0GD)</t>
+  </si>
+  <si>
+    <t>(+44) 03333 403250</t>
+  </si>
+  <si>
+    <t>Gov; Fund</t>
+  </si>
+  <si>
+    <t>innovateuk</t>
+  </si>
+  <si>
+    <t>UK’s Innovation agency. We fund business &amp; research collaborations to accelerate innovation &amp; drive business</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/organisations/innovate-uk</t>
+  </si>
+  <si>
+    <t>https://www.ukri.org/</t>
+  </si>
+  <si>
+    <t>UK Research and Innovation (UKRI)</t>
+  </si>
+  <si>
+    <t>Innovate UK (part of UKRI)</t>
+  </si>
+  <si>
+    <t>Polaris House; North Star Avenue; Swindon; Wiltshire; SN2 1FL</t>
+  </si>
+  <si>
+    <t>UKRI_News</t>
+  </si>
+  <si>
+    <t>UK Research and Innovation (UKRI) is the national funding agency investing in science and research in the UK. Operating across the whole of the UK with a combined budget of more than £6 billion, UKRI brings together the 7 Research Councils, Innovate UK and Research England.</t>
+  </si>
+  <si>
+    <t>58 Victoria Embankment; London; EC4Y 0DS</t>
+  </si>
+  <si>
+    <t>Nicholson House; Lime Kiln Close; Stoke Gifford; Bristol; BS34 8SR</t>
+  </si>
+  <si>
+    <t>UKRI London Office</t>
+  </si>
+  <si>
+    <t>UKRI Bristol Office</t>
+  </si>
+  <si>
+    <t>Association</t>
+  </si>
+  <si>
+    <t>UK Business Angels</t>
+  </si>
+  <si>
+    <t>https://www.ukbaa.org.uk/</t>
+  </si>
+  <si>
+    <t>Chancery House; Chancery Lane; London; WC2A 1QS</t>
+  </si>
+  <si>
+    <t>enquiries@ukbaa.org.uk</t>
+  </si>
+  <si>
+    <t>UKBAngels</t>
+  </si>
+  <si>
+    <t>The Trade Body for Angel and Early Stage Investing.</t>
   </si>
 </sst>
 </file>
@@ -2310,15 +2394,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H149"/>
+  <dimension ref="A1:I155"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B152" sqref="B152"/>
+    <sheetView tabSelected="1" topLeftCell="C133" workbookViewId="0">
+      <selection activeCell="H150" sqref="H150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.33203125" style="2" customWidth="1"/>
     <col min="3" max="4" width="44.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
@@ -2327,7 +2411,7 @@
     <col min="8" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>469</v>
       </c>
@@ -2350,8 +2434,11 @@
       <c r="H1" s="1" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="1" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2"/>
       <c r="B2" t="s">
         <v>0</v>
@@ -2374,7 +2461,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3"/>
       <c r="B3" t="s">
         <v>7</v>
@@ -2394,7 +2481,7 @@
       </c>
       <c r="G3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>473</v>
       </c>
@@ -2416,7 +2503,7 @@
       </c>
       <c r="G4"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5"/>
       <c r="B5" t="s">
         <v>12</v>
@@ -2436,7 +2523,7 @@
       </c>
       <c r="G5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>457</v>
       </c>
@@ -2460,7 +2547,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7"/>
       <c r="B7" t="s">
         <v>17</v>
@@ -2480,7 +2567,7 @@
       </c>
       <c r="G7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8"/>
       <c r="B8" t="s">
         <v>19</v>
@@ -2502,7 +2589,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9"/>
       <c r="B9" t="s">
         <v>22</v>
@@ -2524,7 +2611,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10"/>
       <c r="B10" t="s">
         <v>27</v>
@@ -2544,7 +2631,7 @@
       </c>
       <c r="G10"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11"/>
       <c r="B11" t="s">
         <v>29</v>
@@ -2566,7 +2653,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12"/>
       <c r="B12" t="s">
         <v>34</v>
@@ -2588,7 +2675,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13"/>
       <c r="B13" t="s">
         <v>38</v>
@@ -2608,7 +2695,7 @@
       </c>
       <c r="G13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14"/>
       <c r="B14" t="s">
         <v>40</v>
@@ -2630,7 +2717,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15"/>
       <c r="B15" t="s">
         <v>44</v>
@@ -2652,7 +2739,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16"/>
       <c r="B16" t="s">
         <v>48</v>
@@ -5173,7 +5260,7 @@
         <v>408</v>
       </c>
       <c r="D131" t="str">
-        <f t="shared" ref="D131:D149" si="2">CONCATENATE("* [",B131,"](",C131,")")</f>
+        <f t="shared" ref="D131:D155" si="2">CONCATENATE("* [",B131,"](",C131,")")</f>
         <v>* [Londoneast](https://www.londoneast-uk.com/)</v>
       </c>
       <c r="E131" t="s">
@@ -5472,7 +5559,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145"/>
       <c r="B145" t="s">
         <v>449</v>
@@ -5494,7 +5581,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146"/>
       <c r="B146" t="s">
         <v>452</v>
@@ -5516,7 +5603,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147"/>
       <c r="B147" t="s">
         <v>455</v>
@@ -5538,7 +5625,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>607</v>
       </c>
@@ -5556,7 +5643,7 @@
         <v>9</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="G148" t="s">
         <v>54</v>
@@ -5565,7 +5652,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>614</v>
       </c>
@@ -5589,15 +5676,199 @@
         <v>613</v>
       </c>
       <c r="H149" s="2" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A150" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="B150" s="2" t="s">
         <v>618</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="D150" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>* [ktn](https://ktn-uk.org/)</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A151" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="D151" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>* [Innovate UK (part of UKRI)](https://www.gov.uk/government/organisations/innovate-uk)</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="G151" t="s">
+        <v>54</v>
+      </c>
+      <c r="H151" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="I151" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A152" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="D152" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>* [UK Research and Innovation (UKRI)](https://www.ukri.org/)</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="G152" t="s">
+        <v>54</v>
+      </c>
+      <c r="H152" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="I152" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A153" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="D153" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>* [UKRI London Office](https://www.ukri.org/)</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="G153" t="s">
+        <v>54</v>
+      </c>
+      <c r="H153" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="I153" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A154" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="D154" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>* [UKRI Bristol Office](https://www.ukri.org/)</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="G154" t="s">
+        <v>54</v>
+      </c>
+      <c r="H154" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="I154" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A155" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="D155" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>* [UK Business Angels](https://www.ukbaa.org.uk/)</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="G155" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="H155" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="I155" s="2" t="s">
+        <v>645</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G149" r:id="rId1" xr:uid="{5DEB78D7-D928-2C42-A7E2-04D9DE29B9C3}"/>
+    <hyperlink ref="C150" r:id="rId2" xr:uid="{EBB988EE-9912-0949-ACEA-06FDF2FBFD29}"/>
+    <hyperlink ref="C151" r:id="rId3" xr:uid="{02B07F5C-084D-6C4A-BE49-66BE933E0C9C}"/>
+    <hyperlink ref="B152" r:id="rId4" display="https://www.ukri.org/" xr:uid="{916092C3-8665-F644-BBAF-0D339DA25E20}"/>
+    <hyperlink ref="B153" r:id="rId5" display="https://www.ukri.org/" xr:uid="{F71EA6AE-25FC-0643-B32F-0D7D1E7A3FFA}"/>
+    <hyperlink ref="B154" r:id="rId6" display="https://www.ukri.org/" xr:uid="{79805B14-AB51-844B-906C-76DB0A3D2308}"/>
+    <hyperlink ref="C155" r:id="rId7" xr:uid="{3662B43C-1CFF-6E45-B695-7DF9A558B0AC}"/>
+    <hyperlink ref="G155" r:id="rId8" xr:uid="{693D2C18-D32F-6043-81C1-485C2ADE2807}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 

--- a/data/20210219_innovation_hubs-Almasi-v1.xlsx
+++ b/data/20210219_innovation_hubs-Almasi-v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sirvan/sites/startups/psychi/innovation-hubs/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1236063-1601-2940-8AC3-5C4A4CA247D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44AC1C99-F9C0-9143-A55F-3E5DEC160F78}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="500" windowWidth="28240" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="651">
   <si>
     <t>Google Campus London</t>
   </si>
@@ -1866,9 +1866,6 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>Digital Catapult</t>
   </si>
   <si>
@@ -1975,6 +1972,21 @@
   </si>
   <si>
     <t>The Trade Body for Angel and Early Stage Investing.</t>
+  </si>
+  <si>
+    <t>conceptionxtech</t>
+  </si>
+  <si>
+    <t>Science Park</t>
+  </si>
+  <si>
+    <t>University Park</t>
+  </si>
+  <si>
+    <t>GoogleStartupUK</t>
+  </si>
+  <si>
+    <t>Level39CW</t>
   </si>
 </sst>
 </file>
@@ -2396,8 +2408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C133" workbookViewId="0">
-      <selection activeCell="H150" sqref="H150"/>
+    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2408,7 +2420,9 @@
     <col min="5" max="5" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="47.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="36.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.6640625" style="2"/>
+    <col min="8" max="8" width="8.6640625" style="2"/>
+    <col min="9" max="9" width="14" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2435,11 +2449,13 @@
         <v>609</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2"/>
+      <c r="A2" t="s">
+        <v>613</v>
+      </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2456,1158 +2472,1234 @@
       <c r="F2" t="s">
         <v>470</v>
       </c>
-      <c r="G2"/>
-      <c r="H2" s="2" t="s">
+      <c r="G2" t="s">
+        <v>467</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="D3" t="str">
+        <f>CONCATENATE("* [",B3,"](",C3,")")</f>
+        <v>* [CyberASAP](https://ktn-uk.org/programme/cyberasap/)</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="G3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3"/>
-      <c r="B3" t="s">
+      <c r="C4" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="D4" t="str">
+        <f>CONCATENATE("* [",B4,"](",C4,")")</f>
+        <v>* [Digital Catapult](https://www.digicatapult.org.uk/)</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f>CONCATENATE("* [",B5,"](",C5,")")</f>
+        <v>* [ktn](https://ktn-uk.org/)</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f>CONCATENATE("* [",B6,"](",C6,")")</f>
+        <v>* [Innovate UK (part of UKRI)](https://www.gov.uk/government/organisations/innovate-uk)</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="G6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f>CONCATENATE("* [",B7,"](",C7,")")</f>
+        <v>* [UK Research and Innovation (UKRI)](https://www.ukri.org/)</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="G7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="D8" s="2" t="str">
+        <f>CONCATENATE("* [",B8,"](",C8,")")</f>
+        <v>* [UKRI London Office](https://www.ukri.org/)</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="G8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="D9" s="2" t="str">
+        <f>CONCATENATE("* [",B9,"](",C9,")")</f>
+        <v>* [UKRI Bristol Office](https://www.ukri.org/)</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="G9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="D10" s="2" t="str">
+        <f>CONCATENATE("* [",B10,"](",C10,")")</f>
+        <v>* [UK Business Angels](https://www.ukbaa.org.uk/)</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C11" t="s">
         <v>72</v>
       </c>
-      <c r="D3" t="str">
-        <f t="shared" ref="D3:D66" si="0">CONCATENATE("* [",B3,"](",C3,")")</f>
+      <c r="D11" t="str">
+        <f t="shared" ref="D11:D74" si="0">CONCATENATE("* [",B11,"](",C11,")")</f>
         <v>* [Level39](https://www.level39.co/)</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E11" t="s">
         <v>471</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F11" t="s">
         <v>472</v>
       </c>
-      <c r="G3"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="G11"/>
+      <c r="I11" s="2" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>473</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C12" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="str">
+      <c r="D12" t="str">
         <f t="shared" si="0"/>
         <v>* [White Bear Yard(WBY)](http://wbyspace.com/)</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E12" t="s">
         <v>11</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F12" t="s">
         <v>474</v>
       </c>
-      <c r="G4"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5"/>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="str">
-        <f t="shared" si="0"/>
-        <v>* [IDEALondon](https://www.idealondon.co.uk/)</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>457</v>
-      </c>
-      <c r="B6" t="s">
-        <v>458</v>
-      </c>
-      <c r="C6" t="s">
-        <v>459</v>
-      </c>
-      <c r="D6" t="str">
-        <f t="shared" si="0"/>
-        <v>* [ConceptionX](https://conceptionx.org/)</v>
-      </c>
-      <c r="E6" t="s">
-        <v>460</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7"/>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="str">
-        <f t="shared" si="0"/>
-        <v>* [LU Inc.](https://www.lusep.co.uk/)</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>475</v>
-      </c>
-      <c r="G7"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8"/>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" t="str">
-        <f t="shared" si="0"/>
-        <v>* [Cardiff Medicentre](http://www.cardiffmedicentre.co.uk/)</v>
-      </c>
-      <c r="E8" t="s">
-        <v>476</v>
-      </c>
-      <c r="F8" t="s">
-        <v>477</v>
-      </c>
-      <c r="G8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9"/>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="str">
-        <f t="shared" si="0"/>
-        <v>* [London BioScience Innovation Centre (LBIC)](https://www.lbic.com/)</v>
-      </c>
-      <c r="E9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10"/>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" t="str">
-        <f t="shared" si="0"/>
-        <v>* [The Hive](https://www.ntu.ac.uk/ntu-enterprise)</v>
-      </c>
-      <c r="E10" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" t="s">
-        <v>74</v>
-      </c>
-      <c r="G10"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11"/>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" t="str">
-        <f t="shared" si="0"/>
-        <v>* [European Marine Science Park](http://www.europeanmarinesciencepark.co.uk/)</v>
-      </c>
-      <c r="E11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12"/>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" t="str">
-        <f t="shared" si="0"/>
-        <v>* [Institute of Life Science Incubator](https://www.swansea.ac.uk/medicine/enterprise-and-innovation/)</v>
-      </c>
-      <c r="E12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" t="s">
-        <v>543</v>
-      </c>
-      <c r="G12" t="s">
-        <v>37</v>
-      </c>
+      <c r="G12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
-        <v>* [Centre for Secure Information Technologies (CSIT)](https://www.csitlabs.com/)</v>
+        <v>* [IDEALondon](https://www.idealondon.co.uk/)</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>478</v>
+        <v>16</v>
       </c>
       <c r="G13"/>
+      <c r="I13" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14"/>
+      <c r="A14" t="s">
+        <v>457</v>
+      </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>458</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>459</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
-        <v>* [3M Buckley Innovation Centre (3MBIC)](https://3mbic.com/)</v>
+        <v>* [ConceptionX](https://conceptionx.org/)</v>
       </c>
       <c r="E14" t="s">
-        <v>42</v>
+        <v>460</v>
       </c>
       <c r="F14" t="s">
-        <v>548</v>
+        <v>16</v>
       </c>
       <c r="G14" t="s">
-        <v>43</v>
+        <v>461</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15"/>
+      <c r="A15" t="s">
+        <v>647</v>
+      </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
-        <v>* [London Cleantech Cluster](https://www.londoncleantechcluster.co.uk/)</v>
+        <v>* [LU Inc.](https://www.lusep.co.uk/)</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F15" t="s">
+        <v>475</v>
+      </c>
+      <c r="G15"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>648</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>* [Cardiff Medicentre](http://www.cardiffmedicentre.co.uk/)</v>
+      </c>
+      <c r="E16" t="s">
+        <v>476</v>
+      </c>
+      <c r="F16" t="s">
+        <v>477</v>
+      </c>
+      <c r="G16" t="s">
         <v>21</v>
-      </c>
-      <c r="G15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16"/>
-      <c r="B16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" t="str">
-        <f t="shared" si="0"/>
-        <v>* [Evolve Derby](https://www.derby.ac.uk/business-services/facilities-and-services/starting-a-new-business/)</v>
-      </c>
-      <c r="E16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" t="s">
-        <v>479</v>
-      </c>
-      <c r="G16" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
-        <v>* [Seedcloud](https://www.seedcloud.com/)</v>
+        <v>* [London BioScience Innovation Centre (LBIC)](https://www.lbic.com/)</v>
       </c>
       <c r="E17" t="s">
-        <v>480</v>
+        <v>24</v>
       </c>
       <c r="F17" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="G17" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
-        <v>* [Innovation Factory](https://www.innovationfactoryni.com/)</v>
+        <v>* [The Hive](https://www.ntu.ac.uk/ntu-enterprise)</v>
       </c>
       <c r="E18" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="F18" t="s">
-        <v>481</v>
-      </c>
-      <c r="G18" t="s">
-        <v>58</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G18"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19"/>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
-        <v>* [Seed Haus](https://thisisseedhaus.com/)</v>
+        <v>* [European Marine Science Park](http://www.europeanmarinesciencepark.co.uk/)</v>
       </c>
       <c r="E19" t="s">
-        <v>482</v>
+        <v>31</v>
       </c>
       <c r="F19" t="s">
-        <v>483</v>
+        <v>33</v>
       </c>
       <c r="G19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
-        <v>* [Newcastle Bio-Incubator](https://www.ncl.ac.uk/london/)</v>
+        <v>* [Institute of Life Science Incubator](https://www.swansea.ac.uk/medicine/enterprise-and-innovation/)</v>
       </c>
       <c r="E20" t="s">
         <v>36</v>
       </c>
       <c r="F20" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="G20" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21"/>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
-        <v>* [Imperial College White City Incubator](http://www.imperial.ac.uk/enterprise/business/incubator/)</v>
+        <v>* [Centre for Secure Information Technologies (CSIT)](https://www.csitlabs.com/)</v>
       </c>
       <c r="E21" t="s">
-        <v>484</v>
+        <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>550</v>
-      </c>
-      <c r="G21" t="s">
-        <v>54</v>
-      </c>
+        <v>478</v>
+      </c>
+      <c r="G21"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
-        <v>* [MedTech Incubator](http://www.manchestertechtrust.com/directory/workspace/msp-medtech/)</v>
+        <v>* [3M Buckley Innovation Centre (3MBIC)](https://3mbic.com/)</v>
       </c>
       <c r="E22" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="F22" t="s">
-        <v>69</v>
+        <v>548</v>
       </c>
       <c r="G22" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="0"/>
-        <v>* [Techtopia](https://www.crunchbase.com/organization/techtopia/technology)</v>
+        <v>* [London Cleantech Cluster](https://www.londoncleantechcluster.co.uk/)</v>
       </c>
       <c r="E23" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="F23" t="s">
-        <v>485</v>
-      </c>
-      <c r="G23"/>
+        <v>21</v>
+      </c>
+      <c r="G23" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="C24" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="0"/>
-        <v>* [Centre for Nanohealth Incubator](https://www.swansea.ac.uk/nanohealth/)</v>
+        <v>* [Evolve Derby](https://www.derby.ac.uk/business-services/facilities-and-services/starting-a-new-business/)</v>
       </c>
       <c r="E24" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="F24" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="G24" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="0"/>
-        <v>* [Cloud Innovation Centre](http://www.cloudcentres.co.uk/)</v>
+        <v>* [Seedcloud](https://www.seedcloud.com/)</v>
       </c>
       <c r="E25" t="s">
-        <v>84</v>
+        <v>480</v>
       </c>
       <c r="F25" t="s">
-        <v>551</v>
+        <v>55</v>
       </c>
       <c r="G25" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="C26" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="0"/>
-        <v>* [Nest](https://myport.port.ac.uk/guidance-and-support/careers-support/student-startup-support)</v>
+        <v>* [Innovation Factory](https://www.innovationfactoryni.com/)</v>
       </c>
       <c r="E26" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="F26" t="s">
-        <v>552</v>
+        <v>481</v>
       </c>
       <c r="G26" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C27" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="0"/>
-        <v>* [Tetricus Incubator](https://completelyoffice.co.uk/scheme/Tetricus-Science-Park-Salisbury/)</v>
+        <v>* [Seed Haus](https://thisisseedhaus.com/)</v>
       </c>
       <c r="E27" t="s">
-        <v>92</v>
+        <v>482</v>
       </c>
       <c r="F27" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="G27" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="0"/>
-        <v>* [Tech Hub](https://london.techhub.com/)</v>
+        <v>* [Newcastle Bio-Incubator](https://www.ncl.ac.uk/london/)</v>
       </c>
       <c r="E28" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="F28" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="G28" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="C29" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="0"/>
-        <v>* [Innovation Warehouse](https://innovationwarehouse.org/)</v>
+        <v>* [Imperial College White City Incubator](http://www.imperial.ac.uk/enterprise/business/incubator/)</v>
       </c>
       <c r="E29" t="s">
-        <v>76</v>
+        <v>484</v>
       </c>
       <c r="F29" t="s">
-        <v>488</v>
+        <v>550</v>
       </c>
       <c r="G29" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30"/>
       <c r="B30" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="C30" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="0"/>
-        <v>* [MyIncubator](https://wenta.co.uk/about-wenta/)</v>
+        <v>* [MedTech Incubator](http://www.manchestertechtrust.com/directory/workspace/msp-medtech/)</v>
       </c>
       <c r="E30" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F30" t="s">
-        <v>489</v>
+        <v>69</v>
       </c>
       <c r="G30" t="s">
-        <v>101</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31"/>
       <c r="B31" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="C31" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="0"/>
-        <v>* [ICE Accelerator](https://welshice.org/blog/welsh-ice-launch-accelerator)</v>
+        <v>* [Techtopia](https://www.crunchbase.com/organization/techtopia/technology)</v>
       </c>
       <c r="E31" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="F31" t="s">
-        <v>554</v>
-      </c>
-      <c r="G31" t="s">
-        <v>54</v>
-      </c>
+        <v>485</v>
+      </c>
+      <c r="G31"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32"/>
       <c r="B32" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="C32" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="0"/>
-        <v>* [Entrepreneurs for the future](https://e4f.co.uk/)</v>
+        <v>* [Centre for Nanohealth Incubator](https://www.swansea.ac.uk/nanohealth/)</v>
       </c>
       <c r="E32" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="F32" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="G32" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33"/>
       <c r="B33" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C33" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" si="0"/>
-        <v>* [London Business School Incubator](https://www.london.edu/faculty-and-research/institute-of-innovation-and-entrepreneurship/opportunities-and-resources/scale/incubator-programme)</v>
+        <v>* [Cloud Innovation Centre](http://www.cloudcentres.co.uk/)</v>
       </c>
       <c r="E33" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="F33" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="G33" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34"/>
       <c r="B34" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="C34" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" si="0"/>
-        <v>* [Edinburgh Business School Incubator](https://www.hw.ac.uk/ebs/business/incubator.htm)</v>
+        <v>* [Nest](https://myport.port.ac.uk/guidance-and-support/careers-support/student-startup-support)</v>
       </c>
       <c r="E34" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="F34" t="s">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="G34" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35"/>
       <c r="B35" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="C35" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" si="0"/>
-        <v>* [Royal Academy of Engineering’s Enterprise Hub](https://enterprisehub.raeng.org.uk/)</v>
+        <v>* [Tetricus Incubator](https://completelyoffice.co.uk/scheme/Tetricus-Science-Park-Salisbury/)</v>
       </c>
       <c r="E35" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="F35" t="s">
-        <v>556</v>
+        <v>487</v>
       </c>
       <c r="G35" t="s">
-        <v>118</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36"/>
       <c r="B36" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="C36" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="0"/>
-        <v>* [Bathtub 2 Boardroom](https://www.bathtub2boardroom.com/)</v>
+        <v>* [Tech Hub](https://london.techhub.com/)</v>
       </c>
       <c r="E36" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="F36" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="G36" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37"/>
       <c r="B37" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="C37" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="0"/>
-        <v>* [CodeBase](https://www.thisiscodebase.com/)</v>
+        <v>* [Innovation Warehouse](https://innovationwarehouse.org/)</v>
       </c>
       <c r="E37" t="s">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="F37" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="G37" t="s">
-        <v>492</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38"/>
       <c r="B38" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="C38" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="0"/>
-        <v>* [Health Foundry](http://www.healthfoundry.org/)</v>
+        <v>* [MyIncubator](https://wenta.co.uk/about-wenta/)</v>
       </c>
       <c r="E38" t="s">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="F38" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="G38" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39"/>
       <c r="B39" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="C39" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" si="0"/>
-        <v>* [Sussex Innovation Croydon](https://www.sinc.co.uk/)</v>
+        <v>* [ICE Accelerator](https://welshice.org/blog/welsh-ice-launch-accelerator)</v>
       </c>
       <c r="E39" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="F39" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="G39" t="s">
-        <v>131</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40"/>
       <c r="B40" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="C40" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="0"/>
-        <v>* [Manchester Incubator Building](https://www.umic.co.uk/)</v>
+        <v>* [Entrepreneurs for the future](https://e4f.co.uk/)</v>
       </c>
       <c r="E40" t="s">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="F40" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G40" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41"/>
       <c r="B41" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="C41" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="0"/>
-        <v>* [Genesis](https://www.barnsleybic.co.uk/)</v>
+        <v>* [London Business School Incubator](https://www.london.edu/faculty-and-research/institute-of-innovation-and-entrepreneurship/opportunities-and-resources/scale/incubator-programme)</v>
       </c>
       <c r="E41" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="F41" t="s">
-        <v>495</v>
+        <v>555</v>
       </c>
       <c r="G41" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42"/>
       <c r="B42" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="C42" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" si="0"/>
-        <v>* [Bright Red Triangle](https://brightredtriangle.co.uk/)</v>
+        <v>* [Edinburgh Business School Incubator](https://www.hw.ac.uk/ebs/business/incubator.htm)</v>
       </c>
       <c r="E42" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="F42" t="s">
-        <v>496</v>
+        <v>541</v>
       </c>
       <c r="G42" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43"/>
       <c r="B43" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="C43" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="D43" t="str">
         <f t="shared" si="0"/>
-        <v>* [The Duke of York Young Entrepreneur Centre](https://students.hud.ac.uk/opportunities/enterprise/duke-of-york-centre/)</v>
-      </c>
-      <c r="E43"/>
+        <v>* [Royal Academy of Engineering’s Enterprise Hub](https://enterprisehub.raeng.org.uk/)</v>
+      </c>
+      <c r="E43" t="s">
+        <v>117</v>
+      </c>
       <c r="F43" t="s">
-        <v>497</v>
-      </c>
-      <c r="G43"/>
+        <v>556</v>
+      </c>
+      <c r="G43" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44"/>
       <c r="B44" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="C44" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="D44" t="str">
         <f t="shared" si="0"/>
-        <v>* [Portsmouth Technopole](https://www.port.ac.uk/collaborate/coworking-and-office-space)</v>
+        <v>* [Bathtub 2 Boardroom](https://www.bathtub2boardroom.com/)</v>
       </c>
       <c r="E44" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="F44" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="G44" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>468</v>
-      </c>
+      <c r="A45"/>
       <c r="B45" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="C45" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="D45" t="str">
         <f t="shared" si="0"/>
-        <v>* [UCL BaseKX](https://www.ucl.ac.uk/enterprise/)</v>
+        <v>* [CodeBase](https://www.thisiscodebase.com/)</v>
       </c>
       <c r="E45" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="F45" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="G45" t="s">
-        <v>149</v>
+        <v>492</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46"/>
       <c r="B46" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="C46" t="s">
-        <v>462</v>
+        <v>127</v>
       </c>
       <c r="D46" t="str">
         <f t="shared" si="0"/>
-        <v>* [Oxford Startup Incubator](https://innovation.ox.ac.uk/startupincubator/)</v>
+        <v>* [Health Foundry](http://www.healthfoundry.org/)</v>
       </c>
       <c r="E46" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="F46" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="G46" t="s">
-        <v>54</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>465</v>
-      </c>
+      <c r="A47"/>
       <c r="B47" t="s">
-        <v>464</v>
+        <v>129</v>
       </c>
       <c r="C47" t="s">
-        <v>463</v>
+        <v>130</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" si="0"/>
-        <v>* [Oxford Accelerator](http://www.oxfordaccelerator.com/)</v>
+        <v>* [Sussex Innovation Croydon](https://www.sinc.co.uk/)</v>
       </c>
       <c r="E47" t="s">
-        <v>466</v>
+        <v>132</v>
       </c>
       <c r="F47" t="s">
-        <v>467</v>
+        <v>542</v>
       </c>
       <c r="G47" t="s">
-        <v>54</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48"/>
       <c r="B48" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="C48" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="D48" t="str">
         <f t="shared" si="0"/>
-        <v>* [RGU Incubator](https://www.comp.rgu.ac.uk/digital-incubator/)</v>
+        <v>* [Manchester Incubator Building](https://www.umic.co.uk/)</v>
       </c>
       <c r="E48" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F48" t="s">
-        <v>558</v>
+        <v>494</v>
       </c>
       <c r="G48" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49"/>
       <c r="B49" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="C49" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="D49" t="str">
         <f t="shared" si="0"/>
-        <v>* [Open Education Challenge](https://www.startus.cc/company/open-education-challenge)</v>
+        <v>* [Genesis](https://www.barnsleybic.co.uk/)</v>
       </c>
       <c r="E49" t="s">
-        <v>156</v>
-      </c>
-      <c r="F49"/>
+        <v>137</v>
+      </c>
+      <c r="F49" t="s">
+        <v>495</v>
+      </c>
       <c r="G49" t="s">
-        <v>54</v>
+        <v>139</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50"/>
       <c r="B50" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="C50" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="D50" t="str">
         <f t="shared" si="0"/>
-        <v>* [Surrey Research Park](https://surrey-research-park.com/)</v>
+        <v>* [Bright Red Triangle](https://brightredtriangle.co.uk/)</v>
       </c>
       <c r="E50" t="s">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="F50" t="s">
-        <v>544</v>
+        <v>496</v>
       </c>
       <c r="G50" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51"/>
       <c r="B51" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="C51" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="D51" t="str">
         <f t="shared" si="0"/>
-        <v>* [Oxford Centre for Innovation](https://www.ocfi.co.uk/)</v>
-      </c>
-      <c r="E51" t="s">
-        <v>163</v>
-      </c>
+        <v>* [The Duke of York Young Entrepreneur Centre](https://students.hud.ac.uk/opportunities/enterprise/duke-of-york-centre/)</v>
+      </c>
+      <c r="E51"/>
       <c r="F51" t="s">
-        <v>499</v>
-      </c>
-      <c r="G51" t="s">
-        <v>54</v>
-      </c>
+        <v>497</v>
+      </c>
+      <c r="G51"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52"/>
       <c r="B52" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="C52" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="D52" t="str">
         <f t="shared" si="0"/>
-        <v>* [St Johns Innovation Centre](https://stjohns.co.uk/)</v>
+        <v>* [Portsmouth Technopole](https://www.port.ac.uk/collaborate/coworking-and-office-space)</v>
       </c>
       <c r="E52" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="F52" t="s">
-        <v>167</v>
+        <v>552</v>
       </c>
       <c r="G52" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53"/>
+      <c r="A53" t="s">
+        <v>468</v>
+      </c>
       <c r="B53" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="C53" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="D53" t="str">
         <f t="shared" si="0"/>
-        <v>* [Strathclyde University Incubator](http://www.suilimited.com/)</v>
-      </c>
-      <c r="E53"/>
+        <v>* [UCL BaseKX](https://www.ucl.ac.uk/enterprise/)</v>
+      </c>
+      <c r="E53" t="s">
+        <v>132</v>
+      </c>
       <c r="F53" t="s">
-        <v>559</v>
+        <v>498</v>
       </c>
       <c r="G53" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54"/>
       <c r="B54" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="C54" t="s">
-        <v>172</v>
+        <v>462</v>
       </c>
       <c r="D54" t="str">
         <f t="shared" si="0"/>
-        <v>* [Magdalen Centre](https://oxfordsp.com/)</v>
+        <v>* [Oxford Startup Incubator](https://innovation.ox.ac.uk/startupincubator/)</v>
       </c>
       <c r="E54" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="F54" t="s">
-        <v>560</v>
+        <v>498</v>
       </c>
       <c r="G54" t="s">
-        <v>173</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55"/>
+      <c r="A55" t="s">
+        <v>465</v>
+      </c>
       <c r="B55" t="s">
-        <v>174</v>
+        <v>464</v>
       </c>
       <c r="C55" t="s">
-        <v>175</v>
+        <v>463</v>
       </c>
       <c r="D55" t="str">
         <f t="shared" si="0"/>
-        <v>* [Norwich Research Park Accelerator](https://www.norwichresearchpark.com/property-and-park/accommodation-types/accelerator)</v>
+        <v>* [Oxford Accelerator](http://www.oxfordaccelerator.com/)</v>
       </c>
       <c r="E55" t="s">
-        <v>176</v>
+        <v>466</v>
       </c>
       <c r="F55" t="s">
-        <v>500</v>
+        <v>467</v>
       </c>
       <c r="G55" t="s">
         <v>54</v>
@@ -3616,43 +3708,41 @@
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56"/>
       <c r="B56" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="C56" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" si="0"/>
-        <v>* [Edinburgh Research and Innovation](https://edinburgh-innovations.ed.ac.uk/)</v>
+        <v>* [RGU Incubator](https://www.comp.rgu.ac.uk/digital-incubator/)</v>
       </c>
       <c r="E56" t="s">
         <v>76</v>
       </c>
       <c r="F56" t="s">
-        <v>501</v>
+        <v>558</v>
       </c>
       <c r="G56" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57"/>
       <c r="B57" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="C57" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="D57" t="str">
         <f t="shared" si="0"/>
-        <v>* [Granta Park](https://www.babraham.ac.uk/)</v>
+        <v>* [Open Education Challenge](https://www.startus.cc/company/open-education-challenge)</v>
       </c>
       <c r="E57" t="s">
-        <v>182</v>
-      </c>
-      <c r="F57" t="s">
-        <v>502</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="F57"/>
       <c r="G57" t="s">
         <v>54</v>
       </c>
@@ -3660,40 +3750,42 @@
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58"/>
       <c r="B58" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="C58" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="D58" t="str">
         <f t="shared" si="0"/>
-        <v>* [Cherwell Innovation Centre](https://www.heyfordpark-ic.co.uk/)</v>
-      </c>
-      <c r="E58"/>
+        <v>* [Surrey Research Park](https://surrey-research-park.com/)</v>
+      </c>
+      <c r="E58" t="s">
+        <v>76</v>
+      </c>
       <c r="F58" t="s">
-        <v>503</v>
+        <v>544</v>
       </c>
       <c r="G58" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59"/>
       <c r="B59" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="C59" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="D59" t="str">
         <f t="shared" si="0"/>
-        <v>* [Malvern Hills Science Park](https://www.mhsp.co.uk/)</v>
+        <v>* [Oxford Centre for Innovation](https://www.ocfi.co.uk/)</v>
       </c>
       <c r="E59" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="F59" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="G59" t="s">
         <v>54</v>
@@ -3702,86 +3794,84 @@
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60"/>
       <c r="B60" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="C60" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="D60" t="str">
         <f t="shared" si="0"/>
-        <v>* [Roslin BioCentre](https://midlothiansciencezone.com/)</v>
+        <v>* [St Johns Innovation Centre](https://stjohns.co.uk/)</v>
       </c>
       <c r="E60" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="F60" t="s">
-        <v>505</v>
+        <v>167</v>
       </c>
       <c r="G60" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61"/>
       <c r="B61" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="C61" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="D61" t="str">
         <f t="shared" si="0"/>
-        <v>* [Harwell Innovation Centre](https://www.harwell-ic.co.uk/)</v>
-      </c>
-      <c r="E61" t="s">
-        <v>163</v>
-      </c>
+        <v>* [Strathclyde University Incubator](http://www.suilimited.com/)</v>
+      </c>
+      <c r="E61"/>
       <c r="F61" t="s">
-        <v>506</v>
+        <v>559</v>
       </c>
       <c r="G61" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62"/>
       <c r="B62" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="C62" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="D62" t="str">
         <f t="shared" si="0"/>
-        <v>* [i-SE – Women’s Enterprise Hub](http://www.i-se.co.uk/)</v>
+        <v>* [Magdalen Centre](https://oxfordsp.com/)</v>
       </c>
       <c r="E62" t="s">
-        <v>197</v>
+        <v>163</v>
       </c>
       <c r="F62" t="s">
-        <v>507</v>
+        <v>560</v>
       </c>
       <c r="G62" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63"/>
       <c r="B63" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="C63" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="D63" t="str">
         <f t="shared" si="0"/>
-        <v>* [Scottish Microelectronics Centre](https://www.eng.ed.ac.uk/research/facilities-and-resources/resources/scottish-microelectronics-centre)</v>
+        <v>* [Norwich Research Park Accelerator](https://www.norwichresearchpark.com/property-and-park/accommodation-types/accelerator)</v>
       </c>
       <c r="E63" t="s">
-        <v>117</v>
+        <v>176</v>
       </c>
       <c r="F63" t="s">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G63" t="s">
         <v>54</v>
@@ -3790,174 +3880,172 @@
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64"/>
       <c r="B64" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="C64" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="D64" t="str">
         <f t="shared" si="0"/>
-        <v>* [Bicester Innovation Centre](https://www.bicester-ic.co.uk/)</v>
+        <v>* [Edinburgh Research and Innovation](https://edinburgh-innovations.ed.ac.uk/)</v>
       </c>
       <c r="E64" t="s">
         <v>76</v>
       </c>
       <c r="F64" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="G64" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65"/>
       <c r="B65" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="C65" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="D65" t="str">
         <f t="shared" si="0"/>
-        <v>* [Culham Science Centre](http://www.culham.org.uk/)</v>
+        <v>* [Granta Park](https://www.babraham.ac.uk/)</v>
       </c>
       <c r="E65" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="F65" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="G65" t="s">
-        <v>206</v>
+        <v>54</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66"/>
       <c r="B66" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="C66" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="D66" t="str">
         <f t="shared" si="0"/>
-        <v>* [Staffordshire BIC](https://thebic.co.uk/)</v>
-      </c>
-      <c r="E66" t="s">
-        <v>8</v>
-      </c>
+        <v>* [Cherwell Innovation Centre](https://www.heyfordpark-ic.co.uk/)</v>
+      </c>
+      <c r="E66"/>
       <c r="F66" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="G66" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67"/>
       <c r="B67" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="C67" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="D67" t="str">
-        <f t="shared" ref="D67:D130" si="1">CONCATENATE("* [",B67,"](",C67,")")</f>
-        <v>* [Sparkhouse](https://www.sparkhouselincoln.co.uk/)</v>
+        <f t="shared" si="0"/>
+        <v>* [Malvern Hills Science Park](https://www.mhsp.co.uk/)</v>
       </c>
       <c r="E67" t="s">
-        <v>8</v>
+        <v>176</v>
       </c>
       <c r="F67" t="s">
-        <v>561</v>
+        <v>504</v>
       </c>
       <c r="G67" t="s">
-        <v>212</v>
+        <v>54</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68"/>
       <c r="B68" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="C68" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="D68" t="str">
-        <f t="shared" si="1"/>
-        <v>* [Sussex Innovation Centre](https://www.sinc.co.uk)</v>
+        <f t="shared" si="0"/>
+        <v>* [Roslin BioCentre](https://midlothiansciencezone.com/)</v>
       </c>
       <c r="E68" t="s">
-        <v>73</v>
+        <v>163</v>
       </c>
       <c r="F68" t="s">
-        <v>215</v>
+        <v>505</v>
       </c>
       <c r="G68" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69"/>
       <c r="B69" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="C69" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="D69" t="str">
-        <f t="shared" si="1"/>
-        <v>* [SPARK Business Incubation Centre](https://www.sparkspace.co.uk/)</v>
+        <f t="shared" si="0"/>
+        <v>* [Harwell Innovation Centre](https://www.harwell-ic.co.uk/)</v>
       </c>
       <c r="E69" t="s">
-        <v>73</v>
+        <v>163</v>
       </c>
       <c r="F69" t="s">
-        <v>562</v>
+        <v>506</v>
       </c>
       <c r="G69" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70"/>
       <c r="B70" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="C70" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="D70" t="str">
-        <f t="shared" si="1"/>
-        <v>* [BRL Technology Business Incubator](https://www.bristolroboticslab.com/)</v>
+        <f t="shared" si="0"/>
+        <v>* [i-SE – Women’s Enterprise Hub](http://www.i-se.co.uk/)</v>
       </c>
       <c r="E70" t="s">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="F70" t="s">
-        <v>563</v>
+        <v>507</v>
       </c>
       <c r="G70" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71"/>
       <c r="B71" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="C71" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="D71" t="str">
-        <f t="shared" si="1"/>
-        <v>* [Cranfield University Business Incubation Centre (CUBIC)](https://www.cranfield.ac.uk/business/access-our-world-class-facilities/business-incubation)</v>
+        <f t="shared" si="0"/>
+        <v>* [Scottish Microelectronics Centre](https://www.eng.ed.ac.uk/research/facilities-and-resources/resources/scottish-microelectronics-centre)</v>
       </c>
       <c r="E71" t="s">
-        <v>225</v>
+        <v>117</v>
       </c>
       <c r="F71" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="G71" t="s">
         <v>54</v>
@@ -3966,174 +4054,174 @@
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72"/>
       <c r="B72" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="C72" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="D72" t="str">
-        <f t="shared" si="1"/>
-        <v>* [Culham Innovation Centre](https://www.culham-ic.co.uk/)</v>
+        <f t="shared" si="0"/>
+        <v>* [Bicester Innovation Centre](https://www.bicester-ic.co.uk/)</v>
       </c>
       <c r="E72" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="F72" t="s">
-        <v>564</v>
+        <v>508</v>
       </c>
       <c r="G72" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73"/>
       <c r="B73" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="C73" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="D73" t="str">
-        <f t="shared" si="1"/>
-        <v>* [Hub for Innovation and Enterprise](https://www.kent.ac.uk/enterprise/student-talent)</v>
+        <f t="shared" si="0"/>
+        <v>* [Culham Science Centre](http://www.culham.org.uk/)</v>
       </c>
       <c r="E73" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="F73" t="s">
-        <v>565</v>
+        <v>509</v>
       </c>
       <c r="G73" t="s">
-        <v>54</v>
+        <v>206</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74"/>
       <c r="B74" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="C74" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="D74" t="str">
-        <f t="shared" si="1"/>
-        <v>* [Sci-Tech Daresbury](https://www.sci-techdaresbury.com/)</v>
+        <f t="shared" si="0"/>
+        <v>* [Staffordshire BIC](https://thebic.co.uk/)</v>
       </c>
       <c r="E74" t="s">
-        <v>234</v>
+        <v>8</v>
       </c>
       <c r="F74" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G74" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75"/>
       <c r="B75" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="C75" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="D75" t="str">
-        <f t="shared" si="1"/>
-        <v>* [Sheffield Bioincubator](http://www.innovation.group.shef.ac.uk/)</v>
+        <f t="shared" ref="D75:D138" si="1">CONCATENATE("* [",B75,"](",C75,")")</f>
+        <v>* [Sparkhouse](https://www.sparkhouselincoln.co.uk/)</v>
       </c>
       <c r="E75" t="s">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="F75" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="G75" t="s">
-        <v>54</v>
+        <v>212</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76"/>
       <c r="B76" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="C76" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="D76" t="str">
         <f t="shared" si="1"/>
-        <v>* [Bridge Innovation Centre](https://www.bridgeinnovation.co.uk/)</v>
+        <v>* [Sussex Innovation Centre](https://www.sinc.co.uk)</v>
       </c>
       <c r="E76" t="s">
-        <v>163</v>
+        <v>73</v>
       </c>
       <c r="F76" t="s">
-        <v>567</v>
+        <v>215</v>
       </c>
       <c r="G76" t="s">
-        <v>238</v>
+        <v>131</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77"/>
       <c r="B77" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="C77" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="D77" t="str">
         <f t="shared" si="1"/>
-        <v>* [Dundee University Incubator](https://www.dundeeincubator.com/)</v>
+        <v>* [SPARK Business Incubation Centre](https://www.sparkspace.co.uk/)</v>
       </c>
       <c r="E77" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="F77" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="G77" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78"/>
       <c r="B78" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="C78" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="D78" t="str">
         <f t="shared" si="1"/>
-        <v>* [Hayes Business Studios](http://www.hayesbusinessstudios.co.uk/)</v>
+        <v>* [BRL Technology Business Incubator](https://www.bristolroboticslab.com/)</v>
       </c>
       <c r="E78" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="F78" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="G78" t="s">
-        <v>54</v>
+        <v>221</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79"/>
       <c r="B79" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="C79" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="D79" t="str">
         <f t="shared" si="1"/>
-        <v>* [Creative Enterprise](https://www.uca.ac.uk/creative-enterprise-development/)</v>
+        <v>* [Cranfield University Business Incubation Centre (CUBIC)](https://www.cranfield.ac.uk/business/access-our-world-class-facilities/business-incubation)</v>
       </c>
       <c r="E79" t="s">
-        <v>156</v>
+        <v>225</v>
       </c>
       <c r="F79" t="s">
-        <v>570</v>
+        <v>224</v>
       </c>
       <c r="G79" t="s">
         <v>54</v>
@@ -4142,1242 +4230,1242 @@
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80"/>
       <c r="B80" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="C80" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="D80" t="str">
         <f t="shared" si="1"/>
-        <v>* [Nucleus Business &amp; Innovation Centre](https://www.nucleus-dartford.co.uk/)</v>
+        <v>* [Culham Innovation Centre](https://www.culham-ic.co.uk/)</v>
       </c>
       <c r="E80" t="s">
-        <v>8</v>
+        <v>163</v>
       </c>
       <c r="F80" t="s">
-        <v>512</v>
+        <v>564</v>
       </c>
       <c r="G80" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81"/>
       <c r="B81" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="C81" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="D81" t="str">
         <f t="shared" si="1"/>
-        <v>* [Cornwall Innovation](http://cornwallinnovation.co.uk/health-wellbeing-centre)</v>
+        <v>* [Hub for Innovation and Enterprise](https://www.kent.ac.uk/enterprise/student-talent)</v>
       </c>
       <c r="E81" t="s">
-        <v>253</v>
+        <v>182</v>
       </c>
       <c r="F81" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="G81" t="s">
-        <v>252</v>
+        <v>54</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82"/>
       <c r="B82" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="C82" t="s">
-        <v>255</v>
+        <v>232</v>
       </c>
       <c r="D82" t="str">
         <f t="shared" si="1"/>
-        <v>* [Enterprise Incubation Centre](https://www.herts.ac.uk/enterprise-zone/grow-your-business/business-support/business-incubation)</v>
+        <v>* [Sci-Tech Daresbury](https://www.sci-techdaresbury.com/)</v>
       </c>
       <c r="E82" t="s">
-        <v>73</v>
+        <v>234</v>
       </c>
       <c r="F82" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G82" t="s">
-        <v>256</v>
+        <v>233</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83"/>
       <c r="B83" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="C83" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="D83" t="str">
         <f t="shared" si="1"/>
-        <v>* [Ocean Village Innovation Centre](https://www.oceanvillage-ic.co.uk/)</v>
+        <v>* [Sheffield Bioincubator](http://www.innovation.group.shef.ac.uk/)</v>
       </c>
       <c r="E83" t="s">
         <v>73</v>
       </c>
       <c r="F83" t="s">
-        <v>545</v>
+        <v>566</v>
       </c>
       <c r="G83" t="s">
-        <v>259</v>
+        <v>54</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84"/>
       <c r="B84" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="C84" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c r="D84" t="str">
         <f t="shared" si="1"/>
-        <v>* [Retford Enterprise Centre](https://www.retfordenterprise.co.uk/)</v>
+        <v>* [Bridge Innovation Centre](https://www.bridgeinnovation.co.uk/)</v>
       </c>
       <c r="E84" t="s">
-        <v>73</v>
+        <v>163</v>
       </c>
       <c r="F84" t="s">
-        <v>514</v>
+        <v>567</v>
       </c>
       <c r="G84" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85"/>
       <c r="B85" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="C85" t="s">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="D85" t="str">
         <f t="shared" si="1"/>
-        <v>* [Good Ideas Academy](https://www.themeltingpotedinburgh.org.uk/good-ideas/)</v>
+        <v>* [Dundee University Incubator](https://www.dundeeincubator.com/)</v>
       </c>
       <c r="E85" t="s">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="F85" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="G85" t="s">
-        <v>54</v>
+        <v>241</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86"/>
       <c r="B86" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="C86" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="D86" t="str">
         <f t="shared" si="1"/>
-        <v>* [Harborough Innovation Centre](https://www.harborough-ic.co.uk/)</v>
+        <v>* [Hayes Business Studios](http://www.hayesbusinessstudios.co.uk/)</v>
       </c>
       <c r="E86" t="s">
-        <v>73</v>
+        <v>156</v>
       </c>
       <c r="F86" t="s">
-        <v>515</v>
+        <v>569</v>
       </c>
       <c r="G86" t="s">
-        <v>267</v>
+        <v>54</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87"/>
       <c r="B87" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="C87" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="D87" t="str">
         <f t="shared" si="1"/>
-        <v>* [Hethel Innovation](https://hethelinnovation.com/)</v>
+        <v>* [Creative Enterprise](https://www.uca.ac.uk/creative-enterprise-development/)</v>
       </c>
       <c r="E87" t="s">
-        <v>272</v>
+        <v>156</v>
       </c>
       <c r="F87" t="s">
-        <v>271</v>
+        <v>570</v>
       </c>
       <c r="G87" t="s">
-        <v>270</v>
+        <v>54</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88"/>
       <c r="B88" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="C88" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="D88" t="str">
         <f t="shared" si="1"/>
-        <v>* [Innovation Martlesham Incubator Facility](https://atadastral.co.uk/)</v>
+        <v>* [Nucleus Business &amp; Innovation Centre](https://www.nucleus-dartford.co.uk/)</v>
       </c>
       <c r="E88" t="s">
-        <v>272</v>
+        <v>8</v>
       </c>
       <c r="F88" t="s">
-        <v>573</v>
+        <v>512</v>
       </c>
       <c r="G88" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89"/>
       <c r="B89" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="C89" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="D89" t="str">
         <f t="shared" si="1"/>
-        <v>* [Mansfield i-Centre](https://www.mansfield-ic.co.uk/)</v>
+        <v>* [Cornwall Innovation](http://cornwallinnovation.co.uk/health-wellbeing-centre)</v>
       </c>
       <c r="E89" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="F89" t="s">
-        <v>516</v>
+        <v>571</v>
       </c>
       <c r="G89" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90"/>
       <c r="B90" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="C90" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="D90" t="str">
         <f t="shared" si="1"/>
-        <v>* [Newark Beacon](http://www.newark-beacon.co.uk/)</v>
+        <v>* [Enterprise Incubation Centre](https://www.herts.ac.uk/enterprise-zone/grow-your-business/business-support/business-incubation)</v>
       </c>
       <c r="E90" t="s">
         <v>73</v>
       </c>
       <c r="F90" t="s">
-        <v>574</v>
+        <v>513</v>
       </c>
       <c r="G90" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91"/>
       <c r="B91" t="s">
-        <v>283</v>
+        <v>257</v>
       </c>
       <c r="C91" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="D91" t="str">
         <f t="shared" si="1"/>
-        <v>* [Queen Mary BioEnterprises Innovation Centre](https://www.qmbioenterprises.com/)</v>
+        <v>* [Ocean Village Innovation Centre](https://www.oceanvillage-ic.co.uk/)</v>
       </c>
       <c r="E91" t="s">
-        <v>182</v>
+        <v>73</v>
       </c>
       <c r="F91" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G91" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92"/>
       <c r="B92" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="C92" t="s">
-        <v>287</v>
+        <v>262</v>
       </c>
       <c r="D92" t="str">
         <f t="shared" si="1"/>
-        <v>* [Scott Bader Innovation Centre](https://www.scottbader-ic.co.uk/)</v>
+        <v>* [Retford Enterprise Centre](https://www.retfordenterprise.co.uk/)</v>
       </c>
       <c r="E92" t="s">
-        <v>163</v>
+        <v>73</v>
       </c>
       <c r="F92" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="G92" t="s">
-        <v>575</v>
+        <v>261</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93"/>
       <c r="B93" t="s">
-        <v>288</v>
+        <v>263</v>
       </c>
       <c r="C93" t="s">
-        <v>289</v>
+        <v>264</v>
       </c>
       <c r="D93" t="str">
         <f t="shared" si="1"/>
-        <v>* [The Studio](https://www.lboro.ac.uk/services/the-studio/)</v>
+        <v>* [Good Ideas Academy](https://www.themeltingpotedinburgh.org.uk/good-ideas/)</v>
       </c>
       <c r="E93" t="s">
         <v>73</v>
       </c>
       <c r="F93" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="G93" t="s">
-        <v>290</v>
+        <v>54</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94"/>
       <c r="B94" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="C94" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="D94" t="str">
         <f t="shared" si="1"/>
-        <v>* [Worksop Turbine Innovation Centre](https://worksopturbine.nottinghamshire.gov.uk/)</v>
+        <v>* [Harborough Innovation Centre](https://www.harborough-ic.co.uk/)</v>
       </c>
       <c r="E94" t="s">
         <v>73</v>
       </c>
       <c r="F94" t="s">
-        <v>577</v>
+        <v>515</v>
       </c>
       <c r="G94" t="s">
-        <v>293</v>
+        <v>267</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95"/>
       <c r="B95" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="C95" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="D95" t="str">
         <f t="shared" si="1"/>
-        <v>* [Bracknell Enterprise &amp; Innovation Hub](https://www.bracknell-hub.co.uk/)</v>
+        <v>* [Hethel Innovation](https://hethelinnovation.com/)</v>
       </c>
       <c r="E95" t="s">
-        <v>73</v>
+        <v>272</v>
       </c>
       <c r="F95" t="s">
-        <v>578</v>
+        <v>271</v>
       </c>
       <c r="G95" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96"/>
       <c r="B96" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="C96" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="D96" t="str">
         <f t="shared" si="1"/>
-        <v>* [Innovation Programme](https://www.ne-bic.co.uk/)</v>
+        <v>* [Innovation Martlesham Incubator Facility](https://atadastral.co.uk/)</v>
       </c>
       <c r="E96" t="s">
-        <v>73</v>
+        <v>272</v>
       </c>
       <c r="F96" t="s">
-        <v>518</v>
+        <v>573</v>
       </c>
       <c r="G96" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97"/>
       <c r="B97" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="C97" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="D97" t="str">
         <f t="shared" si="1"/>
-        <v>* [Stevenage BioCatalyst](https://www.stevenagecatalyst.com/)</v>
+        <v>* [Mansfield i-Centre](https://www.mansfield-ic.co.uk/)</v>
       </c>
       <c r="E97" t="s">
-        <v>36</v>
+        <v>279</v>
       </c>
       <c r="F97" t="s">
-        <v>302</v>
+        <v>516</v>
       </c>
       <c r="G97" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98"/>
       <c r="B98" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
       <c r="C98" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="D98" t="str">
         <f t="shared" si="1"/>
-        <v>* [The Nova Centre](https://www.keele.ac.uk/business/scienceandinnovationpark/)</v>
+        <v>* [Newark Beacon](http://www.newark-beacon.co.uk/)</v>
       </c>
       <c r="E98" t="s">
-        <v>306</v>
+        <v>73</v>
       </c>
       <c r="F98" t="s">
-        <v>519</v>
+        <v>574</v>
       </c>
       <c r="G98" t="s">
-        <v>307</v>
+        <v>282</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99"/>
       <c r="B99" t="s">
-        <v>308</v>
+        <v>283</v>
       </c>
       <c r="C99" t="s">
-        <v>309</v>
+        <v>284</v>
       </c>
       <c r="D99" t="str">
         <f t="shared" si="1"/>
-        <v>* [Tremough Innovation Centre](https://cornwallinnovation.co.uk/centre/tremough-innovation-centre/)</v>
+        <v>* [Queen Mary BioEnterprises Innovation Centre](https://www.qmbioenterprises.com/)</v>
       </c>
       <c r="E99" t="s">
-        <v>126</v>
+        <v>182</v>
       </c>
       <c r="F99" t="s">
-        <v>579</v>
+        <v>546</v>
       </c>
       <c r="G99" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100"/>
       <c r="B100" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="C100" t="s">
-        <v>312</v>
+        <v>287</v>
       </c>
       <c r="D100" t="str">
         <f t="shared" si="1"/>
-        <v>* [Witney Business &amp; Innovation Centre](https://www.witney-bic.co.uk/)</v>
+        <v>* [Scott Bader Innovation Centre](https://www.scottbader-ic.co.uk/)</v>
       </c>
       <c r="E100" t="s">
-        <v>319</v>
+        <v>163</v>
       </c>
       <c r="F100" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="G100" t="s">
-        <v>313</v>
+        <v>575</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101"/>
       <c r="B101" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="C101" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="D101" t="str">
         <f t="shared" si="1"/>
-        <v>* [BizzInn Business Incubator](https://www.birmingham.ac.uk/partners/enterprise/businesssupport.aspx/)</v>
+        <v>* [The Studio](https://www.lboro.ac.uk/services/the-studio/)</v>
       </c>
       <c r="E101" t="s">
         <v>73</v>
       </c>
       <c r="F101" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="G101" t="s">
-        <v>54</v>
+        <v>290</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102"/>
       <c r="B102" t="s">
-        <v>316</v>
+        <v>291</v>
       </c>
       <c r="C102" t="s">
-        <v>317</v>
+        <v>292</v>
       </c>
       <c r="D102" t="str">
         <f t="shared" si="1"/>
-        <v>* [BU Student Incubation Centre (BUSI)](https://www.hugedomains.com/domain_profile.cfm?d=bucfe&amp;e=com)</v>
+        <v>* [Worksop Turbine Innovation Centre](https://worksopturbine.nottinghamshire.gov.uk/)</v>
       </c>
       <c r="E102" t="s">
-        <v>319</v>
+        <v>73</v>
       </c>
       <c r="F102" t="s">
-        <v>521</v>
+        <v>577</v>
       </c>
       <c r="G102" t="s">
-        <v>318</v>
+        <v>293</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103"/>
       <c r="B103" t="s">
-        <v>320</v>
+        <v>294</v>
       </c>
       <c r="C103" t="s">
-        <v>321</v>
+        <v>295</v>
       </c>
       <c r="D103" t="str">
         <f t="shared" si="1"/>
-        <v>* [Haatch](https://haatch.com/)</v>
+        <v>* [Bracknell Enterprise &amp; Innovation Hub](https://www.bracknell-hub.co.uk/)</v>
       </c>
       <c r="E103" t="s">
         <v>73</v>
       </c>
       <c r="F103" t="s">
-        <v>522</v>
+        <v>578</v>
       </c>
       <c r="G103" t="s">
-        <v>54</v>
+        <v>296</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104"/>
       <c r="B104" t="s">
-        <v>322</v>
+        <v>297</v>
       </c>
       <c r="C104" t="s">
-        <v>323</v>
+        <v>298</v>
       </c>
       <c r="D104" t="str">
         <f t="shared" si="1"/>
-        <v>* [Henley Start-up Business Incubator](https://www.escapethecity.org/organisation/henley-start-up-business-incubator)</v>
+        <v>* [Innovation Programme](https://www.ne-bic.co.uk/)</v>
       </c>
       <c r="E104" t="s">
         <v>73</v>
       </c>
       <c r="F104" t="s">
-        <v>581</v>
+        <v>518</v>
       </c>
       <c r="G104" t="s">
-        <v>54</v>
+        <v>299</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105"/>
       <c r="B105" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="C105" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="D105" t="str">
         <f t="shared" si="1"/>
-        <v>* [Live Lab](https://www.livelab.co.uk/)</v>
+        <v>* [Stevenage BioCatalyst](https://www.stevenagecatalyst.com/)</v>
       </c>
       <c r="E105" t="s">
-        <v>327</v>
+        <v>36</v>
       </c>
       <c r="F105" t="s">
-        <v>582</v>
+        <v>302</v>
       </c>
       <c r="G105" t="s">
-        <v>326</v>
+        <v>303</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106"/>
       <c r="B106" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="C106" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="D106" t="str">
         <f t="shared" si="1"/>
-        <v>* [Stockport Business &amp; Innovation Centre](https://www.stockport-bic.co.uk/)</v>
+        <v>* [The Nova Centre](https://www.keele.ac.uk/business/scienceandinnovationpark/)</v>
       </c>
       <c r="E106" t="s">
-        <v>59</v>
+        <v>306</v>
       </c>
       <c r="F106" t="s">
-        <v>583</v>
+        <v>519</v>
       </c>
       <c r="G106" t="s">
-        <v>330</v>
+        <v>307</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107"/>
       <c r="B107" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="C107" t="s">
-        <v>332</v>
+        <v>309</v>
       </c>
       <c r="D107" t="str">
         <f t="shared" si="1"/>
-        <v>* [The Enterprise Network](https://www.theenterprisenetwork.co.uk/)</v>
-      </c>
-      <c r="E107"/>
+        <v>* [Tremough Innovation Centre](https://cornwallinnovation.co.uk/centre/tremough-innovation-centre/)</v>
+      </c>
+      <c r="E107" t="s">
+        <v>126</v>
+      </c>
       <c r="F107" t="s">
-        <v>523</v>
+        <v>579</v>
       </c>
       <c r="G107" t="s">
-        <v>333</v>
+        <v>310</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108"/>
       <c r="B108" t="s">
-        <v>334</v>
+        <v>311</v>
       </c>
       <c r="C108" t="s">
-        <v>335</v>
+        <v>312</v>
       </c>
       <c r="D108" t="str">
         <f t="shared" si="1"/>
-        <v>* [Warwick Ventures Software Incubator](https://warwick.ac.uk/services/innovations/softwareincubator)</v>
+        <v>* [Witney Business &amp; Innovation Centre](https://www.witney-bic.co.uk/)</v>
       </c>
       <c r="E108" t="s">
-        <v>8</v>
+        <v>319</v>
       </c>
       <c r="F108" t="s">
-        <v>584</v>
+        <v>520</v>
       </c>
       <c r="G108" t="s">
-        <v>336</v>
+        <v>313</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109"/>
       <c r="B109" t="s">
-        <v>337</v>
+        <v>314</v>
       </c>
       <c r="C109" t="s">
-        <v>338</v>
+        <v>315</v>
       </c>
       <c r="D109" t="str">
         <f t="shared" si="1"/>
-        <v>* [Centre for Digital Innovation (C4DI)](http://www.c4di.co.uk/)</v>
+        <v>* [BizzInn Business Incubator](https://www.birmingham.ac.uk/partners/enterprise/businesssupport.aspx/)</v>
       </c>
       <c r="E109" t="s">
         <v>73</v>
       </c>
       <c r="F109" t="s">
-        <v>524</v>
+        <v>580</v>
       </c>
       <c r="G109" t="s">
-        <v>339</v>
+        <v>54</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110"/>
       <c r="B110" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="C110" t="s">
-        <v>341</v>
+        <v>317</v>
       </c>
       <c r="D110" t="str">
         <f t="shared" si="1"/>
-        <v>* [Innospace](http://www.innospace.co.uk/)</v>
+        <v>* [BU Student Incubation Centre (BUSI)](https://www.hugedomains.com/domain_profile.cfm?d=bucfe&amp;e=com)</v>
       </c>
       <c r="E110" t="s">
-        <v>73</v>
+        <v>319</v>
       </c>
       <c r="F110" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="G110" t="s">
-        <v>54</v>
+        <v>318</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111"/>
       <c r="B111" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="C111" t="s">
-        <v>343</v>
+        <v>321</v>
       </c>
       <c r="D111" t="str">
         <f t="shared" si="1"/>
-        <v>* [MedBIC](https://aru.ac.uk/arise)</v>
-      </c>
-      <c r="E111"/>
+        <v>* [Haatch](https://haatch.com/)</v>
+      </c>
+      <c r="E111" t="s">
+        <v>73</v>
+      </c>
       <c r="F111" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="G111" t="s">
-        <v>344</v>
+        <v>54</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112"/>
       <c r="B112" t="s">
-        <v>345</v>
+        <v>322</v>
       </c>
       <c r="C112" t="s">
-        <v>346</v>
+        <v>323</v>
       </c>
       <c r="D112" t="str">
         <f t="shared" si="1"/>
-        <v>* [Momentum Business Incubator](http://www.worcesterenterprise.org/incubator-support-package/)</v>
+        <v>* [Henley Start-up Business Incubator](https://www.escapethecity.org/organisation/henley-start-up-business-incubator)</v>
       </c>
       <c r="E112" t="s">
-        <v>527</v>
+        <v>73</v>
       </c>
       <c r="F112" t="s">
-        <v>528</v>
+        <v>581</v>
       </c>
       <c r="G112" t="s">
-        <v>347</v>
+        <v>54</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113"/>
       <c r="B113" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="C113" t="s">
-        <v>349</v>
+        <v>325</v>
       </c>
       <c r="D113" t="str">
         <f t="shared" si="1"/>
-        <v>* [NoWFOOD Centre](https://www1.chester.ac.uk/business-growth/nowfood)</v>
+        <v>* [Live Lab](https://www.livelab.co.uk/)</v>
       </c>
       <c r="E113" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
       <c r="F113" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="G113" t="s">
-        <v>351</v>
+        <v>326</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114"/>
       <c r="B114" t="s">
-        <v>352</v>
+        <v>328</v>
       </c>
       <c r="C114" t="s">
-        <v>353</v>
+        <v>329</v>
       </c>
       <c r="D114" t="str">
         <f t="shared" si="1"/>
-        <v>* [One St. Aldates](https://www.onestaldates.co.uk/)</v>
+        <v>* [Stockport Business &amp; Innovation Centre](https://www.stockport-bic.co.uk/)</v>
       </c>
       <c r="E114" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="F114" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="G114" t="s">
-        <v>354</v>
+        <v>330</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115"/>
       <c r="B115" t="s">
-        <v>355</v>
+        <v>331</v>
       </c>
       <c r="C115" t="s">
-        <v>356</v>
+        <v>332</v>
       </c>
       <c r="D115" t="str">
         <f t="shared" si="1"/>
-        <v>* [SPACE at Hoo Farm](http://www.wyreforestspace.co.uk/space-at-hoo-farm.aspx)</v>
+        <v>* [The Enterprise Network](https://www.theenterprisenetwork.co.uk/)</v>
       </c>
       <c r="E115"/>
       <c r="F115" t="s">
-        <v>587</v>
+        <v>523</v>
       </c>
       <c r="G115" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116"/>
       <c r="B116" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="C116" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="D116" t="str">
         <f t="shared" si="1"/>
-        <v>* [UHatch](https://www.gcu.ac.uk/uhatch/)</v>
+        <v>* [Warwick Ventures Software Incubator](https://warwick.ac.uk/services/innovations/softwareincubator)</v>
       </c>
       <c r="E116" t="s">
-        <v>361</v>
+        <v>8</v>
       </c>
       <c r="F116" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="G116" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117"/>
       <c r="B117" t="s">
-        <v>362</v>
+        <v>337</v>
       </c>
       <c r="C117" t="s">
-        <v>21</v>
+        <v>338</v>
       </c>
       <c r="D117" t="str">
         <f t="shared" si="1"/>
-        <v>* [Digital Exchange](NA)</v>
+        <v>* [Centre for Digital Innovation (C4DI)](http://www.c4di.co.uk/)</v>
       </c>
       <c r="E117" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="F117" t="s">
-        <v>529</v>
-      </c>
-      <c r="G117"/>
+        <v>524</v>
+      </c>
+      <c r="G117" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118"/>
       <c r="B118" t="s">
-        <v>363</v>
+        <v>340</v>
       </c>
       <c r="C118" t="s">
-        <v>364</v>
+        <v>341</v>
       </c>
       <c r="D118" t="str">
         <f t="shared" si="1"/>
-        <v>* [Fareham Innovation Centre](https://www.fareham-ic.co.uk/)</v>
+        <v>* [Innospace](http://www.innospace.co.uk/)</v>
       </c>
       <c r="E118" t="s">
-        <v>365</v>
+        <v>73</v>
       </c>
       <c r="F118" t="s">
-        <v>589</v>
+        <v>525</v>
       </c>
       <c r="G118" t="s">
-        <v>366</v>
+        <v>54</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119"/>
       <c r="B119" t="s">
-        <v>367</v>
+        <v>342</v>
       </c>
       <c r="C119" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
       <c r="D119" t="str">
         <f t="shared" si="1"/>
-        <v>* [High Growth Centre](https://www1.chester.ac.uk/business-growth/thornton-science-park)</v>
-      </c>
-      <c r="E119" t="s">
-        <v>369</v>
-      </c>
+        <v>* [MedBIC](https://aru.ac.uk/arise)</v>
+      </c>
+      <c r="E119"/>
       <c r="F119" t="s">
-        <v>585</v>
+        <v>526</v>
       </c>
       <c r="G119" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120"/>
       <c r="B120" t="s">
-        <v>370</v>
+        <v>345</v>
       </c>
       <c r="C120" t="s">
-        <v>371</v>
+        <v>346</v>
       </c>
       <c r="D120" t="str">
         <f t="shared" si="1"/>
-        <v>* [Ideas Factory Incubation Centre](https://www.nua.ac.uk/for-business/incubation-centre-facility-hire/)</v>
+        <v>* [Momentum Business Incubator](http://www.worcesterenterprise.org/incubator-support-package/)</v>
       </c>
       <c r="E120" t="s">
-        <v>373</v>
+        <v>527</v>
       </c>
       <c r="F120" t="s">
-        <v>590</v>
+        <v>528</v>
       </c>
       <c r="G120" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121"/>
       <c r="B121" t="s">
-        <v>374</v>
+        <v>348</v>
       </c>
       <c r="C121" t="s">
-        <v>375</v>
+        <v>349</v>
       </c>
       <c r="D121" t="str">
         <f t="shared" si="1"/>
-        <v>* [InTechnology Enterprise incubator](https://www.leeds.ac.uk/news/article/3668/young_entrepreneurs_get_a_chance_to_shine)</v>
+        <v>* [NoWFOOD Centre](https://www1.chester.ac.uk/business-growth/nowfood)</v>
       </c>
       <c r="E121" t="s">
-        <v>376</v>
+        <v>350</v>
       </c>
       <c r="F121" t="s">
-        <v>530</v>
+        <v>585</v>
       </c>
       <c r="G121" t="s">
-        <v>54</v>
+        <v>351</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122"/>
       <c r="B122" t="s">
-        <v>377</v>
+        <v>352</v>
       </c>
       <c r="C122" t="s">
-        <v>378</v>
+        <v>353</v>
       </c>
       <c r="D122" t="str">
         <f t="shared" si="1"/>
-        <v>* [Marine Robotics Innovation Centre Hub](https://noc-innovations.co.uk/marine-robotics-innovation-centre)</v>
+        <v>* [One St. Aldates](https://www.onestaldates.co.uk/)</v>
       </c>
       <c r="E122" t="s">
-        <v>379</v>
+        <v>76</v>
       </c>
       <c r="F122" t="s">
-        <v>531</v>
+        <v>586</v>
       </c>
       <c r="G122" t="s">
-        <v>380</v>
+        <v>354</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123"/>
       <c r="B123" t="s">
-        <v>381</v>
+        <v>355</v>
       </c>
       <c r="C123" t="s">
-        <v>382</v>
+        <v>356</v>
       </c>
       <c r="D123" t="str">
         <f t="shared" si="1"/>
-        <v>* [Rothamsted Centre for Research and Enterprise](https://www.rothamstedenterprises.com/)</v>
+        <v>* [SPACE at Hoo Farm](http://www.wyreforestspace.co.uk/space-at-hoo-farm.aspx)</v>
       </c>
       <c r="E123"/>
       <c r="F123" t="s">
-        <v>532</v>
+        <v>587</v>
       </c>
       <c r="G123" t="s">
-        <v>383</v>
+        <v>357</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124"/>
       <c r="B124" t="s">
-        <v>384</v>
+        <v>358</v>
       </c>
       <c r="C124" t="s">
-        <v>385</v>
+        <v>359</v>
       </c>
       <c r="D124" t="str">
         <f t="shared" si="1"/>
-        <v>* [The BioHub Birmingham](https://www.birminghamresearchpark.co.uk/biohub/)</v>
+        <v>* [UHatch](https://www.gcu.ac.uk/uhatch/)</v>
       </c>
       <c r="E124" t="s">
-        <v>386</v>
+        <v>361</v>
       </c>
       <c r="F124" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="G124" t="s">
-        <v>387</v>
+        <v>360</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125"/>
       <c r="B125" t="s">
-        <v>388</v>
+        <v>362</v>
       </c>
       <c r="C125" t="s">
-        <v>389</v>
+        <v>21</v>
       </c>
       <c r="D125" t="str">
         <f t="shared" si="1"/>
-        <v>* [The Ingenuity Lab](https://www.nottingham.ac.uk/business/businesscentres/hgi/ingenuity-lab/about-the-ingenuity-lab.aspx)</v>
+        <v>* [Digital Exchange](NA)</v>
       </c>
       <c r="E125" t="s">
-        <v>391</v>
+        <v>21</v>
       </c>
       <c r="F125" t="s">
-        <v>592</v>
-      </c>
-      <c r="G125" t="s">
-        <v>390</v>
-      </c>
+        <v>529</v>
+      </c>
+      <c r="G125"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126"/>
       <c r="B126" t="s">
-        <v>392</v>
+        <v>363</v>
       </c>
       <c r="C126" t="s">
-        <v>395</v>
+        <v>364</v>
       </c>
       <c r="D126" t="str">
         <f t="shared" si="1"/>
-        <v>* [UBC Leeds Digital Hub](https://leeds.tech/workspace/the-digital-hub/)</v>
+        <v>* [Fareham Innovation Centre](https://www.fareham-ic.co.uk/)</v>
       </c>
       <c r="E126" t="s">
-        <v>396</v>
+        <v>365</v>
       </c>
       <c r="F126" t="s">
-        <v>393</v>
+        <v>589</v>
       </c>
       <c r="G126" t="s">
-        <v>394</v>
+        <v>366</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127"/>
       <c r="B127" t="s">
-        <v>397</v>
+        <v>367</v>
       </c>
       <c r="C127" t="s">
-        <v>398</v>
+        <v>368</v>
       </c>
       <c r="D127" t="str">
         <f t="shared" si="1"/>
-        <v>* [WB100](http://wosskowbrownfoundation.org.uk/)</v>
+        <v>* [High Growth Centre](https://www1.chester.ac.uk/business-growth/thornton-science-park)</v>
       </c>
       <c r="E127" t="s">
-        <v>391</v>
+        <v>369</v>
       </c>
       <c r="F127" t="s">
-        <v>533</v>
+        <v>585</v>
       </c>
       <c r="G127" t="s">
-        <v>54</v>
+        <v>351</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128"/>
       <c r="B128" t="s">
-        <v>399</v>
+        <v>370</v>
       </c>
       <c r="C128" t="s">
-        <v>400</v>
+        <v>371</v>
       </c>
       <c r="D128" t="str">
         <f t="shared" si="1"/>
-        <v>* [BioData Innovation Centre](https://www.sanger.ac.uk/about/campus)</v>
+        <v>* [Ideas Factory Incubation Centre](https://www.nua.ac.uk/for-business/incubation-centre-facility-hire/)</v>
       </c>
       <c r="E128" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="F128" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="G128" t="s">
-        <v>54</v>
+        <v>372</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129"/>
       <c r="B129" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="C129" t="s">
-        <v>403</v>
+        <v>375</v>
       </c>
       <c r="D129" t="str">
         <f t="shared" si="1"/>
-        <v>* [Canopy Exeter](https://www.exetersciencepark.co.uk/)</v>
+        <v>* [InTechnology Enterprise incubator](https://www.leeds.ac.uk/news/article/3668/young_entrepreneurs_get_a_chance_to_shine)</v>
       </c>
       <c r="E129" t="s">
-        <v>401</v>
+        <v>376</v>
       </c>
       <c r="F129" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="G129" t="s">
-        <v>403</v>
+        <v>54</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130"/>
       <c r="B130" t="s">
-        <v>404</v>
+        <v>377</v>
       </c>
       <c r="C130" t="s">
-        <v>405</v>
+        <v>378</v>
       </c>
       <c r="D130" t="str">
         <f t="shared" si="1"/>
-        <v>* [Future Space](https://www.futurespacebristol.co.uk/)</v>
+        <v>* [Marine Robotics Innovation Centre Hub](https://noc-innovations.co.uk/marine-robotics-innovation-centre)</v>
       </c>
       <c r="E130" t="s">
-        <v>8</v>
+        <v>379</v>
       </c>
       <c r="F130" t="s">
-        <v>594</v>
+        <v>531</v>
       </c>
       <c r="G130" t="s">
-        <v>406</v>
+        <v>380</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131"/>
       <c r="B131" t="s">
-        <v>407</v>
+        <v>381</v>
       </c>
       <c r="C131" t="s">
-        <v>408</v>
+        <v>382</v>
       </c>
       <c r="D131" t="str">
-        <f t="shared" ref="D131:D155" si="2">CONCATENATE("* [",B131,"](",C131,")")</f>
-        <v>* [Londoneast](https://www.londoneast-uk.com/)</v>
-      </c>
-      <c r="E131" t="s">
-        <v>410</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>* [Rothamsted Centre for Research and Enterprise](https://www.rothamstedenterprises.com/)</v>
+      </c>
+      <c r="E131"/>
       <c r="F131" t="s">
-        <v>595</v>
+        <v>532</v>
       </c>
       <c r="G131" t="s">
-        <v>409</v>
+        <v>383</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132"/>
       <c r="B132" t="s">
-        <v>411</v>
+        <v>384</v>
       </c>
       <c r="C132" t="s">
-        <v>412</v>
+        <v>385</v>
       </c>
       <c r="D132" t="str">
-        <f t="shared" si="2"/>
-        <v>* [North East Space Incubation Programme](https://www.northeasttechnologypark.com/)</v>
+        <f t="shared" si="1"/>
+        <v>* [The BioHub Birmingham](https://www.birminghamresearchpark.co.uk/biohub/)</v>
       </c>
       <c r="E132" t="s">
-        <v>413</v>
+        <v>386</v>
       </c>
       <c r="F132" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="G132" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133"/>
       <c r="B133" t="s">
-        <v>415</v>
+        <v>388</v>
       </c>
       <c r="C133" t="s">
-        <v>416</v>
+        <v>389</v>
       </c>
       <c r="D133" t="str">
-        <f t="shared" si="2"/>
-        <v>* [OpTIC Space Industry Incubation Programme](http://www.glyndwrinnovations.co.uk/incubation/)</v>
+        <f t="shared" si="1"/>
+        <v>* [The Ingenuity Lab](https://www.nottingham.ac.uk/business/businesscentres/hgi/ingenuity-lab/about-the-ingenuity-lab.aspx)</v>
       </c>
       <c r="E133" t="s">
-        <v>417</v>
+        <v>391</v>
       </c>
       <c r="F133" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="G133" t="s">
-        <v>418</v>
+        <v>390</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134"/>
       <c r="B134" t="s">
-        <v>419</v>
+        <v>392</v>
       </c>
       <c r="C134" t="s">
-        <v>420</v>
+        <v>395</v>
       </c>
       <c r="D134" t="str">
-        <f t="shared" si="2"/>
-        <v>* [Roslin Innovation Centre](https://www.roslininnovationcentre.com/)</v>
+        <f t="shared" si="1"/>
+        <v>* [UBC Leeds Digital Hub](https://leeds.tech/workspace/the-digital-hub/)</v>
       </c>
       <c r="E134" t="s">
-        <v>421</v>
+        <v>396</v>
       </c>
       <c r="F134" t="s">
-        <v>598</v>
+        <v>393</v>
       </c>
       <c r="G134" t="s">
-        <v>422</v>
+        <v>394</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135"/>
       <c r="B135" t="s">
-        <v>423</v>
+        <v>397</v>
       </c>
       <c r="C135" t="s">
-        <v>424</v>
+        <v>398</v>
       </c>
       <c r="D135" t="str">
-        <f t="shared" si="2"/>
-        <v>* [Serendip](https://serendip.co/)</v>
+        <f t="shared" si="1"/>
+        <v>* [WB100](http://wosskowbrownfoundation.org.uk/)</v>
       </c>
       <c r="E135" t="s">
-        <v>21</v>
+        <v>391</v>
       </c>
       <c r="F135" t="s">
-        <v>21</v>
+        <v>533</v>
       </c>
       <c r="G135" t="s">
-        <v>425</v>
+        <v>54</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136"/>
       <c r="B136" t="s">
-        <v>426</v>
+        <v>399</v>
       </c>
       <c r="C136" t="s">
-        <v>18</v>
+        <v>400</v>
       </c>
       <c r="D136" t="str">
-        <f t="shared" si="2"/>
-        <v>* [Space Incubator](https://www.lusep.co.uk/)</v>
+        <f t="shared" si="1"/>
+        <v>* [BioData Innovation Centre](https://www.sanger.ac.uk/about/campus)</v>
       </c>
       <c r="E136" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="F136" t="s">
-        <v>535</v>
+        <v>593</v>
       </c>
       <c r="G136" t="s">
         <v>54</v>
@@ -5386,486 +5474,431 @@
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137"/>
       <c r="B137" t="s">
-        <v>427</v>
+        <v>402</v>
       </c>
       <c r="C137" t="s">
-        <v>428</v>
+        <v>403</v>
       </c>
       <c r="D137" t="str">
-        <f t="shared" si="2"/>
-        <v>* [The Tontine](https://www.tontineglasgow.co.uk/)</v>
+        <f t="shared" si="1"/>
+        <v>* [Canopy Exeter](https://www.exetersciencepark.co.uk/)</v>
       </c>
       <c r="E137" t="s">
-        <v>8</v>
+        <v>401</v>
       </c>
       <c r="F137" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G137" t="s">
-        <v>54</v>
+        <v>403</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138"/>
       <c r="B138" t="s">
-        <v>429</v>
+        <v>404</v>
       </c>
       <c r="C138" t="s">
-        <v>430</v>
+        <v>405</v>
       </c>
       <c r="D138" t="str">
-        <f t="shared" si="2"/>
-        <v>* [Ashton Old Baths Innovation Centre](https://www.ashtonoldbaths.co.uk/)</v>
+        <f t="shared" si="1"/>
+        <v>* [Future Space](https://www.futurespacebristol.co.uk/)</v>
       </c>
       <c r="E138" t="s">
-        <v>431</v>
+        <v>8</v>
       </c>
       <c r="F138" t="s">
-        <v>537</v>
+        <v>594</v>
       </c>
       <c r="G138" t="s">
-        <v>432</v>
+        <v>406</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139"/>
       <c r="B139" t="s">
-        <v>433</v>
+        <v>407</v>
       </c>
       <c r="C139" t="s">
-        <v>434</v>
+        <v>408</v>
       </c>
       <c r="D139" t="str">
-        <f t="shared" si="2"/>
-        <v>* [Aurora Cambridge](https://www.bas.ac.uk/science/science-and-innovation/aurora-cambridge/)</v>
+        <f t="shared" ref="D139:D155" si="2">CONCATENATE("* [",B139,"](",C139,")")</f>
+        <v>* [Londoneast](https://www.londoneast-uk.com/)</v>
       </c>
       <c r="E139" t="s">
-        <v>435</v>
+        <v>410</v>
       </c>
       <c r="F139" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="G139" t="s">
-        <v>436</v>
+        <v>409</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140"/>
       <c r="B140" t="s">
-        <v>437</v>
+        <v>411</v>
       </c>
       <c r="C140" t="s">
-        <v>438</v>
+        <v>412</v>
       </c>
       <c r="D140" t="str">
         <f t="shared" si="2"/>
-        <v>* [Charnwood Campus](http://charnwoodcampus.com/)</v>
+        <v>* [North East Space Incubation Programme](https://www.northeasttechnologypark.com/)</v>
       </c>
       <c r="E140" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="F140" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="G140" t="s">
-        <v>54</v>
+        <v>414</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141"/>
       <c r="B141" t="s">
-        <v>439</v>
+        <v>415</v>
       </c>
       <c r="C141" t="s">
-        <v>440</v>
+        <v>416</v>
       </c>
       <c r="D141" t="str">
         <f t="shared" si="2"/>
-        <v>* [The Spot Hive](https://www.sportingchanceinitiative.co.uk/the-sport-hive)</v>
+        <v>* [OpTIC Space Industry Incubation Programme](http://www.glyndwrinnovations.co.uk/incubation/)</v>
       </c>
       <c r="E141" t="s">
-        <v>441</v>
+        <v>417</v>
       </c>
       <c r="F141" t="s">
-        <v>21</v>
+        <v>597</v>
       </c>
       <c r="G141" t="s">
-        <v>54</v>
+        <v>418</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142"/>
       <c r="B142" t="s">
-        <v>442</v>
+        <v>419</v>
       </c>
       <c r="C142" t="s">
-        <v>443</v>
+        <v>420</v>
       </c>
       <c r="D142" t="str">
         <f t="shared" si="2"/>
-        <v>* [STEAMHouse](https://www.bcu.ac.uk/business/steam/steamhouse)</v>
+        <v>* [Roslin Innovation Centre](https://www.roslininnovationcentre.com/)</v>
       </c>
       <c r="E142" t="s">
-        <v>601</v>
+        <v>421</v>
       </c>
       <c r="F142" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="G142" t="s">
-        <v>54</v>
+        <v>422</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143"/>
       <c r="B143" t="s">
-        <v>445</v>
+        <v>423</v>
       </c>
       <c r="C143" t="s">
-        <v>444</v>
+        <v>424</v>
       </c>
       <c r="D143" t="str">
         <f t="shared" si="2"/>
-        <v>* [UBC Creative Fashion and Textile Hub](https://www.leedsbeckett.ac.uk/)</v>
+        <v>* [Serendip](https://serendip.co/)</v>
       </c>
       <c r="E143" t="s">
-        <v>156</v>
+        <v>21</v>
       </c>
       <c r="F143" t="s">
-        <v>603</v>
+        <v>21</v>
       </c>
       <c r="G143" t="s">
-        <v>54</v>
+        <v>425</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144"/>
       <c r="B144" t="s">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="C144" t="s">
-        <v>447</v>
+        <v>18</v>
       </c>
       <c r="D144" t="str">
         <f t="shared" si="2"/>
-        <v>* [UNIT DX](https://sciencecreates.co.uk/)</v>
+        <v>* [Space Incubator](https://www.lusep.co.uk/)</v>
       </c>
       <c r="E144" t="s">
-        <v>448</v>
+        <v>410</v>
       </c>
       <c r="F144" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G144" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145"/>
       <c r="B145" t="s">
-        <v>449</v>
+        <v>427</v>
       </c>
       <c r="C145" t="s">
-        <v>450</v>
+        <v>428</v>
       </c>
       <c r="D145" t="str">
         <f t="shared" si="2"/>
-        <v>* [Guildhall Creative Entrepreneurs](https://www.gsmd.ac.uk/youth_adult_learning/creative_business_support/guildhall_creative_entrepreneurs/)</v>
+        <v>* [The Tontine](https://www.tontineglasgow.co.uk/)</v>
       </c>
       <c r="E145" t="s">
-        <v>451</v>
+        <v>8</v>
       </c>
       <c r="F145" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="G145" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146"/>
       <c r="B146" t="s">
-        <v>452</v>
+        <v>429</v>
       </c>
       <c r="C146" t="s">
-        <v>453</v>
+        <v>430</v>
       </c>
       <c r="D146" t="str">
         <f t="shared" si="2"/>
-        <v>* [C11 Cyber Security and Digital Centre](https://www.glos.ac.uk/business-and-partnerships/c11-cyber-security-and-digital-innovation-centre/)</v>
+        <v>* [Ashton Old Baths Innovation Centre](https://www.ashtonoldbaths.co.uk/)</v>
       </c>
       <c r="E146" t="s">
-        <v>454</v>
+        <v>431</v>
       </c>
       <c r="F146" t="s">
-        <v>604</v>
+        <v>537</v>
       </c>
       <c r="G146" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147"/>
       <c r="B147" t="s">
-        <v>455</v>
+        <v>433</v>
       </c>
       <c r="C147" t="s">
-        <v>456</v>
+        <v>434</v>
       </c>
       <c r="D147" t="str">
         <f t="shared" si="2"/>
-        <v>* [Barclays Labs](https://labs.uk.barclays/)</v>
+        <v>* [Aurora Cambridge](https://www.bas.ac.uk/science/science-and-innovation/aurora-cambridge/)</v>
       </c>
       <c r="E147" t="s">
-        <v>73</v>
+        <v>435</v>
       </c>
       <c r="F147" t="s">
-        <v>540</v>
+        <v>599</v>
       </c>
       <c r="G147" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A148" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>605</v>
+        <v>436</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A148"/>
+      <c r="B148" t="s">
+        <v>437</v>
+      </c>
+      <c r="C148" t="s">
+        <v>438</v>
       </c>
       <c r="D148" t="str">
         <f t="shared" si="2"/>
-        <v>* [CyberASAP](https://ktn-uk.org/programme/cyberasap/)</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>623</v>
+        <v>* [Charnwood Campus](http://charnwoodcampus.com/)</v>
+      </c>
+      <c r="E148" t="s">
+        <v>410</v>
+      </c>
+      <c r="F148" t="s">
+        <v>600</v>
       </c>
       <c r="G148" t="s">
         <v>54</v>
       </c>
-      <c r="H148" s="2" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A149" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>612</v>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A149"/>
+      <c r="B149" t="s">
+        <v>439</v>
+      </c>
+      <c r="C149" t="s">
+        <v>440</v>
       </c>
       <c r="D149" t="str">
         <f t="shared" si="2"/>
-        <v>* [Digital Catapult](https://www.digicatapult.org.uk/)</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="G149" s="5" t="s">
-        <v>613</v>
-      </c>
-      <c r="H149" s="2" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A150" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="C150" s="5" t="s">
-        <v>620</v>
-      </c>
-      <c r="D150" s="2" t="str">
+        <v>* [The Spot Hive](https://www.sportingchanceinitiative.co.uk/the-sport-hive)</v>
+      </c>
+      <c r="E149" t="s">
+        <v>441</v>
+      </c>
+      <c r="F149" t="s">
+        <v>21</v>
+      </c>
+      <c r="G149" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A150"/>
+      <c r="B150" t="s">
+        <v>442</v>
+      </c>
+      <c r="C150" t="s">
+        <v>443</v>
+      </c>
+      <c r="D150" t="str">
         <f t="shared" si="2"/>
-        <v>* [ktn](https://ktn-uk.org/)</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="G150" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="I150" s="1" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A151" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="C151" s="5" t="s">
-        <v>629</v>
-      </c>
-      <c r="D151" s="2" t="str">
+        <v>* [STEAMHouse](https://www.bcu.ac.uk/business/steam/steamhouse)</v>
+      </c>
+      <c r="E150" t="s">
+        <v>601</v>
+      </c>
+      <c r="F150" t="s">
+        <v>602</v>
+      </c>
+      <c r="G150" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151"/>
+      <c r="B151" t="s">
+        <v>445</v>
+      </c>
+      <c r="C151" t="s">
+        <v>444</v>
+      </c>
+      <c r="D151" t="str">
         <f t="shared" si="2"/>
-        <v>* [Innovate UK (part of UKRI)](https://www.gov.uk/government/organisations/innovate-uk)</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>633</v>
+        <v>* [UBC Creative Fashion and Textile Hub](https://www.leedsbeckett.ac.uk/)</v>
+      </c>
+      <c r="E151" t="s">
+        <v>156</v>
+      </c>
+      <c r="F151" t="s">
+        <v>603</v>
       </c>
       <c r="G151" t="s">
         <v>54</v>
       </c>
-      <c r="H151" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="I151" s="2" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A152" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="B152" s="5" t="s">
-        <v>631</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="D152" s="2" t="str">
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A152"/>
+      <c r="B152" t="s">
+        <v>446</v>
+      </c>
+      <c r="C152" t="s">
+        <v>447</v>
+      </c>
+      <c r="D152" t="str">
         <f t="shared" si="2"/>
-        <v>* [UK Research and Innovation (UKRI)](https://www.ukri.org/)</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>633</v>
+        <v>* [UNIT DX](https://sciencecreates.co.uk/)</v>
+      </c>
+      <c r="E152" t="s">
+        <v>448</v>
+      </c>
+      <c r="F152" t="s">
+        <v>538</v>
       </c>
       <c r="G152" t="s">
         <v>54</v>
       </c>
-      <c r="H152" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="I152" s="2" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A153" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="B153" s="5" t="s">
-        <v>638</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="D153" s="2" t="str">
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A153"/>
+      <c r="B153" t="s">
+        <v>449</v>
+      </c>
+      <c r="C153" t="s">
+        <v>450</v>
+      </c>
+      <c r="D153" t="str">
         <f t="shared" si="2"/>
-        <v>* [UKRI London Office](https://www.ukri.org/)</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>636</v>
+        <v>* [Guildhall Creative Entrepreneurs](https://www.gsmd.ac.uk/youth_adult_learning/creative_business_support/guildhall_creative_entrepreneurs/)</v>
+      </c>
+      <c r="E153" t="s">
+        <v>451</v>
+      </c>
+      <c r="F153" t="s">
+        <v>539</v>
       </c>
       <c r="G153" t="s">
         <v>54</v>
       </c>
-      <c r="H153" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="I153" s="2" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A154" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="B154" s="5" t="s">
-        <v>639</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="D154" s="2" t="str">
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A154"/>
+      <c r="B154" t="s">
+        <v>452</v>
+      </c>
+      <c r="C154" t="s">
+        <v>453</v>
+      </c>
+      <c r="D154" t="str">
         <f t="shared" si="2"/>
-        <v>* [UKRI Bristol Office](https://www.ukri.org/)</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>637</v>
+        <v>* [C11 Cyber Security and Digital Centre](https://www.glos.ac.uk/business-and-partnerships/c11-cyber-security-and-digital-innovation-centre/)</v>
+      </c>
+      <c r="E154" t="s">
+        <v>454</v>
+      </c>
+      <c r="F154" t="s">
+        <v>604</v>
       </c>
       <c r="G154" t="s">
         <v>54</v>
       </c>
-      <c r="H154" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="I154" s="2" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A155" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="C155" s="5" t="s">
-        <v>642</v>
-      </c>
-      <c r="D155" s="2" t="str">
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A155"/>
+      <c r="B155" t="s">
+        <v>455</v>
+      </c>
+      <c r="C155" t="s">
+        <v>456</v>
+      </c>
+      <c r="D155" t="str">
         <f t="shared" si="2"/>
-        <v>* [UK Business Angels](https://www.ukbaa.org.uk/)</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="G155" s="5" t="s">
-        <v>644</v>
-      </c>
-      <c r="H155" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="I155" s="2" t="s">
-        <v>645</v>
+        <v>* [Barclays Labs](https://labs.uk.barclays/)</v>
+      </c>
+      <c r="E155" t="s">
+        <v>73</v>
+      </c>
+      <c r="F155" t="s">
+        <v>540</v>
+      </c>
+      <c r="G155" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G149" r:id="rId1" xr:uid="{5DEB78D7-D928-2C42-A7E2-04D9DE29B9C3}"/>
-    <hyperlink ref="C150" r:id="rId2" xr:uid="{EBB988EE-9912-0949-ACEA-06FDF2FBFD29}"/>
-    <hyperlink ref="C151" r:id="rId3" xr:uid="{02B07F5C-084D-6C4A-BE49-66BE933E0C9C}"/>
-    <hyperlink ref="B152" r:id="rId4" display="https://www.ukri.org/" xr:uid="{916092C3-8665-F644-BBAF-0D339DA25E20}"/>
-    <hyperlink ref="B153" r:id="rId5" display="https://www.ukri.org/" xr:uid="{F71EA6AE-25FC-0643-B32F-0D7D1E7A3FFA}"/>
-    <hyperlink ref="B154" r:id="rId6" display="https://www.ukri.org/" xr:uid="{79805B14-AB51-844B-906C-76DB0A3D2308}"/>
-    <hyperlink ref="C155" r:id="rId7" xr:uid="{3662B43C-1CFF-6E45-B695-7DF9A558B0AC}"/>
-    <hyperlink ref="G155" r:id="rId8" xr:uid="{693D2C18-D32F-6043-81C1-485C2ADE2807}"/>
+    <hyperlink ref="G4" r:id="rId1" xr:uid="{5DEB78D7-D928-2C42-A7E2-04D9DE29B9C3}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{EBB988EE-9912-0949-ACEA-06FDF2FBFD29}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{02B07F5C-084D-6C4A-BE49-66BE933E0C9C}"/>
+    <hyperlink ref="B7" r:id="rId4" display="https://www.ukri.org/" xr:uid="{916092C3-8665-F644-BBAF-0D339DA25E20}"/>
+    <hyperlink ref="B8" r:id="rId5" display="https://www.ukri.org/" xr:uid="{F71EA6AE-25FC-0643-B32F-0D7D1E7A3FFA}"/>
+    <hyperlink ref="B9" r:id="rId6" display="https://www.ukri.org/" xr:uid="{79805B14-AB51-844B-906C-76DB0A3D2308}"/>
+    <hyperlink ref="C10" r:id="rId7" xr:uid="{3662B43C-1CFF-6E45-B695-7DF9A558B0AC}"/>
+    <hyperlink ref="G10" r:id="rId8" xr:uid="{693D2C18-D32F-6043-81C1-485C2ADE2807}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId9"/>

--- a/data/20210219_innovation_hubs-Almasi-v1.xlsx
+++ b/data/20210219_innovation_hubs-Almasi-v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sirvan/sites/startups/psychi/innovation-hubs/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44AC1C99-F9C0-9143-A55F-3E5DEC160F78}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C272212-9A63-C54F-BE3F-D90F95188BB2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="500" windowWidth="28240" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="656">
   <si>
     <t>Google Campus London</t>
   </si>
@@ -1987,6 +1987,21 @@
   </si>
   <si>
     <t>Level39CW</t>
+  </si>
+  <si>
+    <t>https://fi.co/overview</t>
+  </si>
+  <si>
+    <t>Founders Institute London</t>
+  </si>
+  <si>
+    <t>Pre-seed Accelerator</t>
+  </si>
+  <si>
+    <t>founding</t>
+  </si>
+  <si>
+    <t>Global pre-seed accelerator.</t>
   </si>
 </sst>
 </file>
@@ -2406,10 +2421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I155"/>
+  <dimension ref="A1:I157"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="C147" zoomScale="109" workbookViewId="0">
+      <selection activeCell="H157" sqref="H157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2463,7 +2478,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="str">
-        <f>CONCATENATE("* [",B2,"](",C2,")")</f>
+        <f t="shared" ref="D2:D10" si="0">CONCATENATE("* [",B2,"](",C2,")")</f>
         <v>* [Google Campus London](https://www.campus.co/london/)</v>
       </c>
       <c r="E2" t="s">
@@ -2490,7 +2505,7 @@
         <v>605</v>
       </c>
       <c r="D3" t="str">
-        <f>CONCATENATE("* [",B3,"](",C3,")")</f>
+        <f t="shared" si="0"/>
         <v>* [CyberASAP](https://ktn-uk.org/programme/cyberasap/)</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -2517,7 +2532,7 @@
         <v>611</v>
       </c>
       <c r="D4" t="str">
-        <f>CONCATENATE("* [",B4,"](",C4,")")</f>
+        <f t="shared" si="0"/>
         <v>* [Digital Catapult](https://www.digicatapult.org.uk/)</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -2544,7 +2559,7 @@
         <v>619</v>
       </c>
       <c r="D5" s="2" t="str">
-        <f>CONCATENATE("* [",B5,"](",C5,")")</f>
+        <f t="shared" si="0"/>
         <v>* [ktn](https://ktn-uk.org/)</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -2571,7 +2586,7 @@
         <v>628</v>
       </c>
       <c r="D6" s="2" t="str">
-        <f>CONCATENATE("* [",B6,"](",C6,")")</f>
+        <f t="shared" si="0"/>
         <v>* [Innovate UK (part of UKRI)](https://www.gov.uk/government/organisations/innovate-uk)</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -2601,7 +2616,7 @@
         <v>629</v>
       </c>
       <c r="D7" s="2" t="str">
-        <f>CONCATENATE("* [",B7,"](",C7,")")</f>
+        <f t="shared" si="0"/>
         <v>* [UK Research and Innovation (UKRI)](https://www.ukri.org/)</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -2631,7 +2646,7 @@
         <v>629</v>
       </c>
       <c r="D8" s="2" t="str">
-        <f>CONCATENATE("* [",B8,"](",C8,")")</f>
+        <f t="shared" si="0"/>
         <v>* [UKRI London Office](https://www.ukri.org/)</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -2661,7 +2676,7 @@
         <v>629</v>
       </c>
       <c r="D9" s="2" t="str">
-        <f>CONCATENATE("* [",B9,"](",C9,")")</f>
+        <f t="shared" si="0"/>
         <v>* [UKRI Bristol Office](https://www.ukri.org/)</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -2691,7 +2706,7 @@
         <v>641</v>
       </c>
       <c r="D10" s="2" t="str">
-        <f>CONCATENATE("* [",B10,"](",C10,")")</f>
+        <f t="shared" si="0"/>
         <v>* [UK Business Angels](https://www.ukbaa.org.uk/)</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -2721,7 +2736,7 @@
         <v>72</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" ref="D11:D74" si="0">CONCATENATE("* [",B11,"](",C11,")")</f>
+        <f t="shared" ref="D11:D74" si="1">CONCATENATE("* [",B11,"](",C11,")")</f>
         <v>* [Level39](https://www.level39.co/)</v>
       </c>
       <c r="E11" t="s">
@@ -2746,7 +2761,7 @@
         <v>14</v>
       </c>
       <c r="D12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>* [White Bear Yard(WBY)](http://wbyspace.com/)</v>
       </c>
       <c r="E12" t="s">
@@ -2766,7 +2781,7 @@
         <v>15</v>
       </c>
       <c r="D13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>* [IDEALondon](https://www.idealondon.co.uk/)</v>
       </c>
       <c r="E13" t="s">
@@ -2791,7 +2806,7 @@
         <v>459</v>
       </c>
       <c r="D14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>* [ConceptionX](https://conceptionx.org/)</v>
       </c>
       <c r="E14" t="s">
@@ -2818,7 +2833,7 @@
         <v>18</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>* [LU Inc.](https://www.lusep.co.uk/)</v>
       </c>
       <c r="E15" t="s">
@@ -2840,7 +2855,7 @@
         <v>20</v>
       </c>
       <c r="D16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>* [Cardiff Medicentre](http://www.cardiffmedicentre.co.uk/)</v>
       </c>
       <c r="E16" t="s">
@@ -2862,7 +2877,7 @@
         <v>23</v>
       </c>
       <c r="D17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>* [London BioScience Innovation Centre (LBIC)](https://www.lbic.com/)</v>
       </c>
       <c r="E17" t="s">
@@ -2884,7 +2899,7 @@
         <v>28</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>* [The Hive](https://www.ntu.ac.uk/ntu-enterprise)</v>
       </c>
       <c r="E18" t="s">
@@ -2904,7 +2919,7 @@
         <v>30</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>* [European Marine Science Park](http://www.europeanmarinesciencepark.co.uk/)</v>
       </c>
       <c r="E19" t="s">
@@ -2926,7 +2941,7 @@
         <v>35</v>
       </c>
       <c r="D20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>* [Institute of Life Science Incubator](https://www.swansea.ac.uk/medicine/enterprise-and-innovation/)</v>
       </c>
       <c r="E20" t="s">
@@ -2948,7 +2963,7 @@
         <v>39</v>
       </c>
       <c r="D21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>* [Centre for Secure Information Technologies (CSIT)](https://www.csitlabs.com/)</v>
       </c>
       <c r="E21" t="s">
@@ -2968,7 +2983,7 @@
         <v>41</v>
       </c>
       <c r="D22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>* [3M Buckley Innovation Centre (3MBIC)](https://3mbic.com/)</v>
       </c>
       <c r="E22" t="s">
@@ -2990,7 +3005,7 @@
         <v>45</v>
       </c>
       <c r="D23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>* [London Cleantech Cluster](https://www.londoncleantechcluster.co.uk/)</v>
       </c>
       <c r="E23" t="s">
@@ -3012,7 +3027,7 @@
         <v>50</v>
       </c>
       <c r="D24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>* [Evolve Derby](https://www.derby.ac.uk/business-services/facilities-and-services/starting-a-new-business/)</v>
       </c>
       <c r="E24" t="s">
@@ -3034,7 +3049,7 @@
         <v>53</v>
       </c>
       <c r="D25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>* [Seedcloud](https://www.seedcloud.com/)</v>
       </c>
       <c r="E25" t="s">
@@ -3056,7 +3071,7 @@
         <v>57</v>
       </c>
       <c r="D26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>* [Innovation Factory](https://www.innovationfactoryni.com/)</v>
       </c>
       <c r="E26" t="s">
@@ -3078,7 +3093,7 @@
         <v>61</v>
       </c>
       <c r="D27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>* [Seed Haus](https://thisisseedhaus.com/)</v>
       </c>
       <c r="E27" t="s">
@@ -3100,7 +3115,7 @@
         <v>66</v>
       </c>
       <c r="D28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>* [Newcastle Bio-Incubator](https://www.ncl.ac.uk/london/)</v>
       </c>
       <c r="E28" t="s">
@@ -3122,7 +3137,7 @@
         <v>67</v>
       </c>
       <c r="D29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>* [Imperial College White City Incubator](http://www.imperial.ac.uk/enterprise/business/incubator/)</v>
       </c>
       <c r="E29" t="s">
@@ -3144,7 +3159,7 @@
         <v>70</v>
       </c>
       <c r="D30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>* [MedTech Incubator](http://www.manchestertechtrust.com/directory/workspace/msp-medtech/)</v>
       </c>
       <c r="E30" t="s">
@@ -3166,7 +3181,7 @@
         <v>77</v>
       </c>
       <c r="D31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>* [Techtopia](https://www.crunchbase.com/organization/techtopia/technology)</v>
       </c>
       <c r="E31" t="s">
@@ -3186,7 +3201,7 @@
         <v>79</v>
       </c>
       <c r="D32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>* [Centre for Nanohealth Incubator](https://www.swansea.ac.uk/nanohealth/)</v>
       </c>
       <c r="E32" t="s">
@@ -3208,7 +3223,7 @@
         <v>83</v>
       </c>
       <c r="D33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>* [Cloud Innovation Centre](http://www.cloudcentres.co.uk/)</v>
       </c>
       <c r="E33" t="s">
@@ -3230,7 +3245,7 @@
         <v>87</v>
       </c>
       <c r="D34" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>* [Nest](https://myport.port.ac.uk/guidance-and-support/careers-support/student-startup-support)</v>
       </c>
       <c r="E34" t="s">
@@ -3252,7 +3267,7 @@
         <v>91</v>
       </c>
       <c r="D35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>* [Tetricus Incubator](https://completelyoffice.co.uk/scheme/Tetricus-Science-Park-Salisbury/)</v>
       </c>
       <c r="E35" t="s">
@@ -3274,7 +3289,7 @@
         <v>94</v>
       </c>
       <c r="D36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>* [Tech Hub](https://london.techhub.com/)</v>
       </c>
       <c r="E36" t="s">
@@ -3296,7 +3311,7 @@
         <v>97</v>
       </c>
       <c r="D37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>* [Innovation Warehouse](https://innovationwarehouse.org/)</v>
       </c>
       <c r="E37" t="s">
@@ -3318,7 +3333,7 @@
         <v>100</v>
       </c>
       <c r="D38" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>* [MyIncubator](https://wenta.co.uk/about-wenta/)</v>
       </c>
       <c r="E38" t="s">
@@ -3340,7 +3355,7 @@
         <v>104</v>
       </c>
       <c r="D39" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>* [ICE Accelerator](https://welshice.org/blog/welsh-ice-launch-accelerator)</v>
       </c>
       <c r="E39" t="s">
@@ -3362,7 +3377,7 @@
         <v>106</v>
       </c>
       <c r="D40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>* [Entrepreneurs for the future](https://e4f.co.uk/)</v>
       </c>
       <c r="E40" t="s">
@@ -3384,7 +3399,7 @@
         <v>109</v>
       </c>
       <c r="D41" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>* [London Business School Incubator](https://www.london.edu/faculty-and-research/institute-of-innovation-and-entrepreneurship/opportunities-and-resources/scale/incubator-programme)</v>
       </c>
       <c r="E41" t="s">
@@ -3406,7 +3421,7 @@
         <v>114</v>
       </c>
       <c r="D42" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>* [Edinburgh Business School Incubator](https://www.hw.ac.uk/ebs/business/incubator.htm)</v>
       </c>
       <c r="E42" t="s">
@@ -3428,7 +3443,7 @@
         <v>116</v>
       </c>
       <c r="D43" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>* [Royal Academy of Engineering’s Enterprise Hub](https://enterprisehub.raeng.org.uk/)</v>
       </c>
       <c r="E43" t="s">
@@ -3450,7 +3465,7 @@
         <v>121</v>
       </c>
       <c r="D44" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>* [Bathtub 2 Boardroom](https://www.bathtub2boardroom.com/)</v>
       </c>
       <c r="E44" t="s">
@@ -3472,7 +3487,7 @@
         <v>123</v>
       </c>
       <c r="D45" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>* [CodeBase](https://www.thisiscodebase.com/)</v>
       </c>
       <c r="E45" t="s">
@@ -3494,7 +3509,7 @@
         <v>127</v>
       </c>
       <c r="D46" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>* [Health Foundry](http://www.healthfoundry.org/)</v>
       </c>
       <c r="E46" t="s">
@@ -3516,7 +3531,7 @@
         <v>130</v>
       </c>
       <c r="D47" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>* [Sussex Innovation Croydon](https://www.sinc.co.uk/)</v>
       </c>
       <c r="E47" t="s">
@@ -3538,7 +3553,7 @@
         <v>134</v>
       </c>
       <c r="D48" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>* [Manchester Incubator Building](https://www.umic.co.uk/)</v>
       </c>
       <c r="E48" t="s">
@@ -3560,7 +3575,7 @@
         <v>138</v>
       </c>
       <c r="D49" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>* [Genesis](https://www.barnsleybic.co.uk/)</v>
       </c>
       <c r="E49" t="s">
@@ -3582,7 +3597,7 @@
         <v>141</v>
       </c>
       <c r="D50" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>* [Bright Red Triangle](https://brightredtriangle.co.uk/)</v>
       </c>
       <c r="E50" t="s">
@@ -3604,7 +3619,7 @@
         <v>144</v>
       </c>
       <c r="D51" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>* [The Duke of York Young Entrepreneur Centre](https://students.hud.ac.uk/opportunities/enterprise/duke-of-york-centre/)</v>
       </c>
       <c r="E51"/>
@@ -3622,7 +3637,7 @@
         <v>146</v>
       </c>
       <c r="D52" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>* [Portsmouth Technopole](https://www.port.ac.uk/collaborate/coworking-and-office-space)</v>
       </c>
       <c r="E52" t="s">
@@ -3646,7 +3661,7 @@
         <v>150</v>
       </c>
       <c r="D53" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>* [UCL BaseKX](https://www.ucl.ac.uk/enterprise/)</v>
       </c>
       <c r="E53" t="s">
@@ -3668,7 +3683,7 @@
         <v>462</v>
       </c>
       <c r="D54" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>* [Oxford Startup Incubator](https://innovation.ox.ac.uk/startupincubator/)</v>
       </c>
       <c r="E54" t="s">
@@ -3692,7 +3707,7 @@
         <v>463</v>
       </c>
       <c r="D55" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>* [Oxford Accelerator](http://www.oxfordaccelerator.com/)</v>
       </c>
       <c r="E55" t="s">
@@ -3714,7 +3729,7 @@
         <v>153</v>
       </c>
       <c r="D56" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>* [RGU Incubator](https://www.comp.rgu.ac.uk/digital-incubator/)</v>
       </c>
       <c r="E56" t="s">
@@ -3736,7 +3751,7 @@
         <v>157</v>
       </c>
       <c r="D57" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>* [Open Education Challenge](https://www.startus.cc/company/open-education-challenge)</v>
       </c>
       <c r="E57" t="s">
@@ -3756,7 +3771,7 @@
         <v>159</v>
       </c>
       <c r="D58" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>* [Surrey Research Park](https://surrey-research-park.com/)</v>
       </c>
       <c r="E58" t="s">
@@ -3778,7 +3793,7 @@
         <v>162</v>
       </c>
       <c r="D59" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>* [Oxford Centre for Innovation](https://www.ocfi.co.uk/)</v>
       </c>
       <c r="E59" t="s">
@@ -3800,7 +3815,7 @@
         <v>165</v>
       </c>
       <c r="D60" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>* [St Johns Innovation Centre](https://stjohns.co.uk/)</v>
       </c>
       <c r="E60" t="s">
@@ -3822,7 +3837,7 @@
         <v>169</v>
       </c>
       <c r="D61" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>* [Strathclyde University Incubator](http://www.suilimited.com/)</v>
       </c>
       <c r="E61"/>
@@ -3842,7 +3857,7 @@
         <v>172</v>
       </c>
       <c r="D62" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>* [Magdalen Centre](https://oxfordsp.com/)</v>
       </c>
       <c r="E62" t="s">
@@ -3864,7 +3879,7 @@
         <v>175</v>
       </c>
       <c r="D63" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>* [Norwich Research Park Accelerator](https://www.norwichresearchpark.com/property-and-park/accommodation-types/accelerator)</v>
       </c>
       <c r="E63" t="s">
@@ -3886,7 +3901,7 @@
         <v>178</v>
       </c>
       <c r="D64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>* [Edinburgh Research and Innovation](https://edinburgh-innovations.ed.ac.uk/)</v>
       </c>
       <c r="E64" t="s">
@@ -3908,7 +3923,7 @@
         <v>181</v>
       </c>
       <c r="D65" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>* [Granta Park](https://www.babraham.ac.uk/)</v>
       </c>
       <c r="E65" t="s">
@@ -3930,7 +3945,7 @@
         <v>184</v>
       </c>
       <c r="D66" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>* [Cherwell Innovation Centre](https://www.heyfordpark-ic.co.uk/)</v>
       </c>
       <c r="E66"/>
@@ -3950,7 +3965,7 @@
         <v>187</v>
       </c>
       <c r="D67" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>* [Malvern Hills Science Park](https://www.mhsp.co.uk/)</v>
       </c>
       <c r="E67" t="s">
@@ -3972,7 +3987,7 @@
         <v>189</v>
       </c>
       <c r="D68" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>* [Roslin BioCentre](https://midlothiansciencezone.com/)</v>
       </c>
       <c r="E68" t="s">
@@ -3994,7 +4009,7 @@
         <v>192</v>
       </c>
       <c r="D69" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>* [Harwell Innovation Centre](https://www.harwell-ic.co.uk/)</v>
       </c>
       <c r="E69" t="s">
@@ -4016,7 +4031,7 @@
         <v>195</v>
       </c>
       <c r="D70" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>* [i-SE – Women’s Enterprise Hub](http://www.i-se.co.uk/)</v>
       </c>
       <c r="E70" t="s">
@@ -4038,7 +4053,7 @@
         <v>199</v>
       </c>
       <c r="D71" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>* [Scottish Microelectronics Centre](https://www.eng.ed.ac.uk/research/facilities-and-resources/resources/scottish-microelectronics-centre)</v>
       </c>
       <c r="E71" t="s">
@@ -4060,7 +4075,7 @@
         <v>202</v>
       </c>
       <c r="D72" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>* [Bicester Innovation Centre](https://www.bicester-ic.co.uk/)</v>
       </c>
       <c r="E72" t="s">
@@ -4082,7 +4097,7 @@
         <v>205</v>
       </c>
       <c r="D73" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>* [Culham Science Centre](http://www.culham.org.uk/)</v>
       </c>
       <c r="E73" t="s">
@@ -4104,7 +4119,7 @@
         <v>208</v>
       </c>
       <c r="D74" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>* [Staffordshire BIC](https://thebic.co.uk/)</v>
       </c>
       <c r="E74" t="s">
@@ -4126,7 +4141,7 @@
         <v>211</v>
       </c>
       <c r="D75" t="str">
-        <f t="shared" ref="D75:D138" si="1">CONCATENATE("* [",B75,"](",C75,")")</f>
+        <f t="shared" ref="D75:D138" si="2">CONCATENATE("* [",B75,"](",C75,")")</f>
         <v>* [Sparkhouse](https://www.sparkhouselincoln.co.uk/)</v>
       </c>
       <c r="E75" t="s">
@@ -4148,7 +4163,7 @@
         <v>214</v>
       </c>
       <c r="D76" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>* [Sussex Innovation Centre](https://www.sinc.co.uk)</v>
       </c>
       <c r="E76" t="s">
@@ -4170,7 +4185,7 @@
         <v>217</v>
       </c>
       <c r="D77" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>* [SPARK Business Incubation Centre](https://www.sparkspace.co.uk/)</v>
       </c>
       <c r="E77" t="s">
@@ -4192,7 +4207,7 @@
         <v>220</v>
       </c>
       <c r="D78" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>* [BRL Technology Business Incubator](https://www.bristolroboticslab.com/)</v>
       </c>
       <c r="E78" t="s">
@@ -4214,7 +4229,7 @@
         <v>223</v>
       </c>
       <c r="D79" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>* [Cranfield University Business Incubation Centre (CUBIC)](https://www.cranfield.ac.uk/business/access-our-world-class-facilities/business-incubation)</v>
       </c>
       <c r="E79" t="s">
@@ -4236,7 +4251,7 @@
         <v>227</v>
       </c>
       <c r="D80" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>* [Culham Innovation Centre](https://www.culham-ic.co.uk/)</v>
       </c>
       <c r="E80" t="s">
@@ -4258,7 +4273,7 @@
         <v>230</v>
       </c>
       <c r="D81" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>* [Hub for Innovation and Enterprise](https://www.kent.ac.uk/enterprise/student-talent)</v>
       </c>
       <c r="E81" t="s">
@@ -4280,7 +4295,7 @@
         <v>232</v>
       </c>
       <c r="D82" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>* [Sci-Tech Daresbury](https://www.sci-techdaresbury.com/)</v>
       </c>
       <c r="E82" t="s">
@@ -4302,7 +4317,7 @@
         <v>236</v>
       </c>
       <c r="D83" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>* [Sheffield Bioincubator](http://www.innovation.group.shef.ac.uk/)</v>
       </c>
       <c r="E83" t="s">
@@ -4324,7 +4339,7 @@
         <v>237</v>
       </c>
       <c r="D84" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>* [Bridge Innovation Centre](https://www.bridgeinnovation.co.uk/)</v>
       </c>
       <c r="E84" t="s">
@@ -4346,7 +4361,7 @@
         <v>240</v>
       </c>
       <c r="D85" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>* [Dundee University Incubator](https://www.dundeeincubator.com/)</v>
       </c>
       <c r="E85" t="s">
@@ -4368,7 +4383,7 @@
         <v>244</v>
       </c>
       <c r="D86" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>* [Hayes Business Studios](http://www.hayesbusinessstudios.co.uk/)</v>
       </c>
       <c r="E86" t="s">
@@ -4390,7 +4405,7 @@
         <v>246</v>
       </c>
       <c r="D87" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>* [Creative Enterprise](https://www.uca.ac.uk/creative-enterprise-development/)</v>
       </c>
       <c r="E87" t="s">
@@ -4412,7 +4427,7 @@
         <v>248</v>
       </c>
       <c r="D88" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>* [Nucleus Business &amp; Innovation Centre](https://www.nucleus-dartford.co.uk/)</v>
       </c>
       <c r="E88" t="s">
@@ -4434,7 +4449,7 @@
         <v>250</v>
       </c>
       <c r="D89" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>* [Cornwall Innovation](http://cornwallinnovation.co.uk/health-wellbeing-centre)</v>
       </c>
       <c r="E89" t="s">
@@ -4456,7 +4471,7 @@
         <v>255</v>
       </c>
       <c r="D90" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>* [Enterprise Incubation Centre](https://www.herts.ac.uk/enterprise-zone/grow-your-business/business-support/business-incubation)</v>
       </c>
       <c r="E90" t="s">
@@ -4478,7 +4493,7 @@
         <v>258</v>
       </c>
       <c r="D91" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>* [Ocean Village Innovation Centre](https://www.oceanvillage-ic.co.uk/)</v>
       </c>
       <c r="E91" t="s">
@@ -4500,7 +4515,7 @@
         <v>262</v>
       </c>
       <c r="D92" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>* [Retford Enterprise Centre](https://www.retfordenterprise.co.uk/)</v>
       </c>
       <c r="E92" t="s">
@@ -4522,7 +4537,7 @@
         <v>264</v>
       </c>
       <c r="D93" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>* [Good Ideas Academy](https://www.themeltingpotedinburgh.org.uk/good-ideas/)</v>
       </c>
       <c r="E93" t="s">
@@ -4544,7 +4559,7 @@
         <v>266</v>
       </c>
       <c r="D94" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>* [Harborough Innovation Centre](https://www.harborough-ic.co.uk/)</v>
       </c>
       <c r="E94" t="s">
@@ -4566,7 +4581,7 @@
         <v>269</v>
       </c>
       <c r="D95" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>* [Hethel Innovation](https://hethelinnovation.com/)</v>
       </c>
       <c r="E95" t="s">
@@ -4588,7 +4603,7 @@
         <v>274</v>
       </c>
       <c r="D96" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>* [Innovation Martlesham Incubator Facility](https://atadastral.co.uk/)</v>
       </c>
       <c r="E96" t="s">
@@ -4610,7 +4625,7 @@
         <v>277</v>
       </c>
       <c r="D97" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>* [Mansfield i-Centre](https://www.mansfield-ic.co.uk/)</v>
       </c>
       <c r="E97" t="s">
@@ -4632,7 +4647,7 @@
         <v>281</v>
       </c>
       <c r="D98" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>* [Newark Beacon](http://www.newark-beacon.co.uk/)</v>
       </c>
       <c r="E98" t="s">
@@ -4654,7 +4669,7 @@
         <v>284</v>
       </c>
       <c r="D99" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>* [Queen Mary BioEnterprises Innovation Centre](https://www.qmbioenterprises.com/)</v>
       </c>
       <c r="E99" t="s">
@@ -4676,7 +4691,7 @@
         <v>287</v>
       </c>
       <c r="D100" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>* [Scott Bader Innovation Centre](https://www.scottbader-ic.co.uk/)</v>
       </c>
       <c r="E100" t="s">
@@ -4698,7 +4713,7 @@
         <v>289</v>
       </c>
       <c r="D101" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>* [The Studio](https://www.lboro.ac.uk/services/the-studio/)</v>
       </c>
       <c r="E101" t="s">
@@ -4720,7 +4735,7 @@
         <v>292</v>
       </c>
       <c r="D102" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>* [Worksop Turbine Innovation Centre](https://worksopturbine.nottinghamshire.gov.uk/)</v>
       </c>
       <c r="E102" t="s">
@@ -4742,7 +4757,7 @@
         <v>295</v>
       </c>
       <c r="D103" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>* [Bracknell Enterprise &amp; Innovation Hub](https://www.bracknell-hub.co.uk/)</v>
       </c>
       <c r="E103" t="s">
@@ -4764,7 +4779,7 @@
         <v>298</v>
       </c>
       <c r="D104" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>* [Innovation Programme](https://www.ne-bic.co.uk/)</v>
       </c>
       <c r="E104" t="s">
@@ -4786,7 +4801,7 @@
         <v>301</v>
       </c>
       <c r="D105" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>* [Stevenage BioCatalyst](https://www.stevenagecatalyst.com/)</v>
       </c>
       <c r="E105" t="s">
@@ -4808,7 +4823,7 @@
         <v>305</v>
       </c>
       <c r="D106" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>* [The Nova Centre](https://www.keele.ac.uk/business/scienceandinnovationpark/)</v>
       </c>
       <c r="E106" t="s">
@@ -4830,7 +4845,7 @@
         <v>309</v>
       </c>
       <c r="D107" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>* [Tremough Innovation Centre](https://cornwallinnovation.co.uk/centre/tremough-innovation-centre/)</v>
       </c>
       <c r="E107" t="s">
@@ -4852,7 +4867,7 @@
         <v>312</v>
       </c>
       <c r="D108" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>* [Witney Business &amp; Innovation Centre](https://www.witney-bic.co.uk/)</v>
       </c>
       <c r="E108" t="s">
@@ -4874,7 +4889,7 @@
         <v>315</v>
       </c>
       <c r="D109" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>* [BizzInn Business Incubator](https://www.birmingham.ac.uk/partners/enterprise/businesssupport.aspx/)</v>
       </c>
       <c r="E109" t="s">
@@ -4896,7 +4911,7 @@
         <v>317</v>
       </c>
       <c r="D110" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>* [BU Student Incubation Centre (BUSI)](https://www.hugedomains.com/domain_profile.cfm?d=bucfe&amp;e=com)</v>
       </c>
       <c r="E110" t="s">
@@ -4918,7 +4933,7 @@
         <v>321</v>
       </c>
       <c r="D111" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>* [Haatch](https://haatch.com/)</v>
       </c>
       <c r="E111" t="s">
@@ -4940,7 +4955,7 @@
         <v>323</v>
       </c>
       <c r="D112" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>* [Henley Start-up Business Incubator](https://www.escapethecity.org/organisation/henley-start-up-business-incubator)</v>
       </c>
       <c r="E112" t="s">
@@ -4962,7 +4977,7 @@
         <v>325</v>
       </c>
       <c r="D113" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>* [Live Lab](https://www.livelab.co.uk/)</v>
       </c>
       <c r="E113" t="s">
@@ -4984,7 +4999,7 @@
         <v>329</v>
       </c>
       <c r="D114" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>* [Stockport Business &amp; Innovation Centre](https://www.stockport-bic.co.uk/)</v>
       </c>
       <c r="E114" t="s">
@@ -5006,7 +5021,7 @@
         <v>332</v>
       </c>
       <c r="D115" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>* [The Enterprise Network](https://www.theenterprisenetwork.co.uk/)</v>
       </c>
       <c r="E115"/>
@@ -5026,7 +5041,7 @@
         <v>335</v>
       </c>
       <c r="D116" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>* [Warwick Ventures Software Incubator](https://warwick.ac.uk/services/innovations/softwareincubator)</v>
       </c>
       <c r="E116" t="s">
@@ -5048,7 +5063,7 @@
         <v>338</v>
       </c>
       <c r="D117" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>* [Centre for Digital Innovation (C4DI)](http://www.c4di.co.uk/)</v>
       </c>
       <c r="E117" t="s">
@@ -5070,7 +5085,7 @@
         <v>341</v>
       </c>
       <c r="D118" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>* [Innospace](http://www.innospace.co.uk/)</v>
       </c>
       <c r="E118" t="s">
@@ -5092,7 +5107,7 @@
         <v>343</v>
       </c>
       <c r="D119" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>* [MedBIC](https://aru.ac.uk/arise)</v>
       </c>
       <c r="E119"/>
@@ -5112,7 +5127,7 @@
         <v>346</v>
       </c>
       <c r="D120" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>* [Momentum Business Incubator](http://www.worcesterenterprise.org/incubator-support-package/)</v>
       </c>
       <c r="E120" t="s">
@@ -5134,7 +5149,7 @@
         <v>349</v>
       </c>
       <c r="D121" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>* [NoWFOOD Centre](https://www1.chester.ac.uk/business-growth/nowfood)</v>
       </c>
       <c r="E121" t="s">
@@ -5156,7 +5171,7 @@
         <v>353</v>
       </c>
       <c r="D122" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>* [One St. Aldates](https://www.onestaldates.co.uk/)</v>
       </c>
       <c r="E122" t="s">
@@ -5178,7 +5193,7 @@
         <v>356</v>
       </c>
       <c r="D123" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>* [SPACE at Hoo Farm](http://www.wyreforestspace.co.uk/space-at-hoo-farm.aspx)</v>
       </c>
       <c r="E123"/>
@@ -5198,7 +5213,7 @@
         <v>359</v>
       </c>
       <c r="D124" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>* [UHatch](https://www.gcu.ac.uk/uhatch/)</v>
       </c>
       <c r="E124" t="s">
@@ -5220,7 +5235,7 @@
         <v>21</v>
       </c>
       <c r="D125" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>* [Digital Exchange](NA)</v>
       </c>
       <c r="E125" t="s">
@@ -5240,7 +5255,7 @@
         <v>364</v>
       </c>
       <c r="D126" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>* [Fareham Innovation Centre](https://www.fareham-ic.co.uk/)</v>
       </c>
       <c r="E126" t="s">
@@ -5262,7 +5277,7 @@
         <v>368</v>
       </c>
       <c r="D127" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>* [High Growth Centre](https://www1.chester.ac.uk/business-growth/thornton-science-park)</v>
       </c>
       <c r="E127" t="s">
@@ -5284,7 +5299,7 @@
         <v>371</v>
       </c>
       <c r="D128" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>* [Ideas Factory Incubation Centre](https://www.nua.ac.uk/for-business/incubation-centre-facility-hire/)</v>
       </c>
       <c r="E128" t="s">
@@ -5306,7 +5321,7 @@
         <v>375</v>
       </c>
       <c r="D129" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>* [InTechnology Enterprise incubator](https://www.leeds.ac.uk/news/article/3668/young_entrepreneurs_get_a_chance_to_shine)</v>
       </c>
       <c r="E129" t="s">
@@ -5328,7 +5343,7 @@
         <v>378</v>
       </c>
       <c r="D130" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>* [Marine Robotics Innovation Centre Hub](https://noc-innovations.co.uk/marine-robotics-innovation-centre)</v>
       </c>
       <c r="E130" t="s">
@@ -5350,7 +5365,7 @@
         <v>382</v>
       </c>
       <c r="D131" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>* [Rothamsted Centre for Research and Enterprise](https://www.rothamstedenterprises.com/)</v>
       </c>
       <c r="E131"/>
@@ -5370,7 +5385,7 @@
         <v>385</v>
       </c>
       <c r="D132" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>* [The BioHub Birmingham](https://www.birminghamresearchpark.co.uk/biohub/)</v>
       </c>
       <c r="E132" t="s">
@@ -5392,7 +5407,7 @@
         <v>389</v>
       </c>
       <c r="D133" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>* [The Ingenuity Lab](https://www.nottingham.ac.uk/business/businesscentres/hgi/ingenuity-lab/about-the-ingenuity-lab.aspx)</v>
       </c>
       <c r="E133" t="s">
@@ -5414,7 +5429,7 @@
         <v>395</v>
       </c>
       <c r="D134" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>* [UBC Leeds Digital Hub](https://leeds.tech/workspace/the-digital-hub/)</v>
       </c>
       <c r="E134" t="s">
@@ -5436,7 +5451,7 @@
         <v>398</v>
       </c>
       <c r="D135" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>* [WB100](http://wosskowbrownfoundation.org.uk/)</v>
       </c>
       <c r="E135" t="s">
@@ -5458,7 +5473,7 @@
         <v>400</v>
       </c>
       <c r="D136" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>* [BioData Innovation Centre](https://www.sanger.ac.uk/about/campus)</v>
       </c>
       <c r="E136" t="s">
@@ -5480,7 +5495,7 @@
         <v>403</v>
       </c>
       <c r="D137" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>* [Canopy Exeter](https://www.exetersciencepark.co.uk/)</v>
       </c>
       <c r="E137" t="s">
@@ -5502,7 +5517,7 @@
         <v>405</v>
       </c>
       <c r="D138" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>* [Future Space](https://www.futurespacebristol.co.uk/)</v>
       </c>
       <c r="E138" t="s">
@@ -5524,7 +5539,7 @@
         <v>408</v>
       </c>
       <c r="D139" t="str">
-        <f t="shared" ref="D139:D155" si="2">CONCATENATE("* [",B139,"](",C139,")")</f>
+        <f t="shared" ref="D139:D156" si="3">CONCATENATE("* [",B139,"](",C139,")")</f>
         <v>* [Londoneast](https://www.londoneast-uk.com/)</v>
       </c>
       <c r="E139" t="s">
@@ -5546,7 +5561,7 @@
         <v>412</v>
       </c>
       <c r="D140" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>* [North East Space Incubation Programme](https://www.northeasttechnologypark.com/)</v>
       </c>
       <c r="E140" t="s">
@@ -5568,7 +5583,7 @@
         <v>416</v>
       </c>
       <c r="D141" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>* [OpTIC Space Industry Incubation Programme](http://www.glyndwrinnovations.co.uk/incubation/)</v>
       </c>
       <c r="E141" t="s">
@@ -5590,7 +5605,7 @@
         <v>420</v>
       </c>
       <c r="D142" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>* [Roslin Innovation Centre](https://www.roslininnovationcentre.com/)</v>
       </c>
       <c r="E142" t="s">
@@ -5612,7 +5627,7 @@
         <v>424</v>
       </c>
       <c r="D143" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>* [Serendip](https://serendip.co/)</v>
       </c>
       <c r="E143" t="s">
@@ -5634,7 +5649,7 @@
         <v>18</v>
       </c>
       <c r="D144" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>* [Space Incubator](https://www.lusep.co.uk/)</v>
       </c>
       <c r="E144" t="s">
@@ -5647,7 +5662,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145"/>
       <c r="B145" t="s">
         <v>427</v>
@@ -5656,7 +5671,7 @@
         <v>428</v>
       </c>
       <c r="D145" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>* [The Tontine](https://www.tontineglasgow.co.uk/)</v>
       </c>
       <c r="E145" t="s">
@@ -5669,7 +5684,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146"/>
       <c r="B146" t="s">
         <v>429</v>
@@ -5678,7 +5693,7 @@
         <v>430</v>
       </c>
       <c r="D146" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>* [Ashton Old Baths Innovation Centre](https://www.ashtonoldbaths.co.uk/)</v>
       </c>
       <c r="E146" t="s">
@@ -5691,7 +5706,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147"/>
       <c r="B147" t="s">
         <v>433</v>
@@ -5700,7 +5715,7 @@
         <v>434</v>
       </c>
       <c r="D147" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>* [Aurora Cambridge](https://www.bas.ac.uk/science/science-and-innovation/aurora-cambridge/)</v>
       </c>
       <c r="E147" t="s">
@@ -5713,7 +5728,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148"/>
       <c r="B148" t="s">
         <v>437</v>
@@ -5722,7 +5737,7 @@
         <v>438</v>
       </c>
       <c r="D148" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>* [Charnwood Campus](http://charnwoodcampus.com/)</v>
       </c>
       <c r="E148" t="s">
@@ -5735,7 +5750,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149"/>
       <c r="B149" t="s">
         <v>439</v>
@@ -5744,7 +5759,7 @@
         <v>440</v>
       </c>
       <c r="D149" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>* [The Spot Hive](https://www.sportingchanceinitiative.co.uk/the-sport-hive)</v>
       </c>
       <c r="E149" t="s">
@@ -5757,7 +5772,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150"/>
       <c r="B150" t="s">
         <v>442</v>
@@ -5766,7 +5781,7 @@
         <v>443</v>
       </c>
       <c r="D150" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>* [STEAMHouse](https://www.bcu.ac.uk/business/steam/steamhouse)</v>
       </c>
       <c r="E150" t="s">
@@ -5779,7 +5794,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151"/>
       <c r="B151" t="s">
         <v>445</v>
@@ -5788,7 +5803,7 @@
         <v>444</v>
       </c>
       <c r="D151" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>* [UBC Creative Fashion and Textile Hub](https://www.leedsbeckett.ac.uk/)</v>
       </c>
       <c r="E151" t="s">
@@ -5801,7 +5816,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152"/>
       <c r="B152" t="s">
         <v>446</v>
@@ -5810,7 +5825,7 @@
         <v>447</v>
       </c>
       <c r="D152" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>* [UNIT DX](https://sciencecreates.co.uk/)</v>
       </c>
       <c r="E152" t="s">
@@ -5823,7 +5838,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153"/>
       <c r="B153" t="s">
         <v>449</v>
@@ -5832,7 +5847,7 @@
         <v>450</v>
       </c>
       <c r="D153" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>* [Guildhall Creative Entrepreneurs](https://www.gsmd.ac.uk/youth_adult_learning/creative_business_support/guildhall_creative_entrepreneurs/)</v>
       </c>
       <c r="E153" t="s">
@@ -5845,7 +5860,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154"/>
       <c r="B154" t="s">
         <v>452</v>
@@ -5854,7 +5869,7 @@
         <v>453</v>
       </c>
       <c r="D154" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>* [C11 Cyber Security and Digital Centre](https://www.glos.ac.uk/business-and-partnerships/c11-cyber-security-and-digital-innovation-centre/)</v>
       </c>
       <c r="E154" t="s">
@@ -5867,7 +5882,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155"/>
       <c r="B155" t="s">
         <v>455</v>
@@ -5876,7 +5891,7 @@
         <v>456</v>
       </c>
       <c r="D155" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>* [Barclays Labs](https://labs.uk.barclays/)</v>
       </c>
       <c r="E155" t="s">
@@ -5888,6 +5903,39 @@
       <c r="G155" t="s">
         <v>54</v>
       </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A156" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="D156" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>* [Founders Institute London](https://fi.co/overview)</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="G156" t="s">
+        <v>54</v>
+      </c>
+      <c r="H156" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="I156" s="2" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G157"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5899,9 +5947,11 @@
     <hyperlink ref="B9" r:id="rId6" display="https://www.ukri.org/" xr:uid="{79805B14-AB51-844B-906C-76DB0A3D2308}"/>
     <hyperlink ref="C10" r:id="rId7" xr:uid="{3662B43C-1CFF-6E45-B695-7DF9A558B0AC}"/>
     <hyperlink ref="G10" r:id="rId8" xr:uid="{693D2C18-D32F-6043-81C1-485C2ADE2807}"/>
+    <hyperlink ref="B156" r:id="rId9" display="https://fi.co/overview" xr:uid="{227F239B-D453-2341-8396-ADA1A068571F}"/>
+    <hyperlink ref="C156" r:id="rId10" xr:uid="{002C2069-BE7C-A04F-89CE-F870C479440F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
 

--- a/data/20210219_innovation_hubs-Almasi-v1.xlsx
+++ b/data/20210219_innovation_hubs-Almasi-v1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sirvan/sites/startups/psychi/innovation-hubs/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C272212-9A63-C54F-BE3F-D90F95188BB2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0BC927-F300-C24E-883F-FA0386386232}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="500" windowWidth="28240" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33040" yWindow="2860" windowWidth="43800" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="657">
   <si>
     <t>Google Campus London</t>
   </si>
@@ -1488,9 +1488,6 @@
     <t>29-30 Maritime St; Leith; Edinburgh EH6 6SE</t>
   </si>
   <si>
-    <t>Deeptech; life science; engineering;manufacturing</t>
-  </si>
-  <si>
     <t>121 Great Portland St; Marylebone; London W1W 6QL</t>
   </si>
   <si>
@@ -1686,9 +1683,6 @@
     <t>Newcastle upon Tyne NE1 7RU</t>
   </si>
   <si>
-    <t>Translation and I-HUB Imperial College London White City W12 0BZ</t>
-  </si>
-  <si>
     <t>Station Road Church Village CF38 1AF</t>
   </si>
   <si>
@@ -2002,6 +1996,15 @@
   </si>
   <si>
     <t>Global pre-seed accelerator.</t>
+  </si>
+  <si>
+    <t>University; Incubator</t>
+  </si>
+  <si>
+    <t>Imperial College London; White City; W12 0BZ</t>
+  </si>
+  <si>
+    <t>Deeptech; life science; engineering; manufacturing</t>
   </si>
 </sst>
 </file>
@@ -2423,8 +2426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C147" zoomScale="109" workbookViewId="0">
-      <selection activeCell="H157" sqref="H157"/>
+    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2452,7 +2455,7 @@
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>6</v>
@@ -2461,15 +2464,15 @@
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -2491,18 +2494,18 @@
         <v>467</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" si="0"/>
@@ -2512,51 +2515,51 @@
         <v>9</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="G3" t="s">
         <v>54</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
         <v>* [Digital Catapult](https://www.digicatapult.org.uk/)</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>614</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>612</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>617</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>619</v>
       </c>
       <c r="D5" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2566,24 +2569,24 @@
         <v>466</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D6" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2593,27 +2596,27 @@
         <v>466</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G6" t="s">
         <v>54</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2623,27 +2626,27 @@
         <v>466</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G7" t="s">
         <v>54</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2653,27 +2656,27 @@
         <v>466</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="G8" t="s">
         <v>54</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D9" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2683,27 +2686,27 @@
         <v>466</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G9" t="s">
         <v>54</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>639</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>641</v>
       </c>
       <c r="D10" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2713,16 +2716,16 @@
         <v>466</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>642</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>643</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2747,7 +2750,7 @@
       </c>
       <c r="G11"/>
       <c r="I11" s="2" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2819,12 +2822,12 @@
         <v>461</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
@@ -2846,7 +2849,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
@@ -2948,7 +2951,7 @@
         <v>36</v>
       </c>
       <c r="F20" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G20" t="s">
         <v>37</v>
@@ -2990,7 +2993,7 @@
         <v>42</v>
       </c>
       <c r="F22" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G22" t="s">
         <v>43</v>
@@ -3122,14 +3125,16 @@
         <v>36</v>
       </c>
       <c r="F28" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G28" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29"/>
+      <c r="A29" t="s">
+        <v>654</v>
+      </c>
       <c r="B29" t="s">
         <v>65</v>
       </c>
@@ -3141,10 +3146,10 @@
         <v>* [Imperial College White City Incubator](http://www.imperial.ac.uk/enterprise/business/incubator/)</v>
       </c>
       <c r="E29" t="s">
-        <v>484</v>
+        <v>656</v>
       </c>
       <c r="F29" t="s">
-        <v>550</v>
+        <v>655</v>
       </c>
       <c r="G29" t="s">
         <v>54</v>
@@ -3188,7 +3193,7 @@
         <v>76</v>
       </c>
       <c r="F31" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G31"/>
     </row>
@@ -3208,7 +3213,7 @@
         <v>80</v>
       </c>
       <c r="F32" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G32" t="s">
         <v>81</v>
@@ -3230,7 +3235,7 @@
         <v>84</v>
       </c>
       <c r="F33" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="G33" t="s">
         <v>85</v>
@@ -3252,7 +3257,7 @@
         <v>88</v>
       </c>
       <c r="F34" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G34" t="s">
         <v>89</v>
@@ -3274,7 +3279,7 @@
         <v>92</v>
       </c>
       <c r="F35" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G35" t="s">
         <v>54</v>
@@ -3296,7 +3301,7 @@
         <v>76</v>
       </c>
       <c r="F36" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="G36" t="s">
         <v>95</v>
@@ -3318,7 +3323,7 @@
         <v>76</v>
       </c>
       <c r="F37" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G37" t="s">
         <v>98</v>
@@ -3340,7 +3345,7 @@
         <v>76</v>
       </c>
       <c r="F38" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G38" t="s">
         <v>101</v>
@@ -3362,7 +3367,7 @@
         <v>103</v>
       </c>
       <c r="F39" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="G39" t="s">
         <v>54</v>
@@ -3384,7 +3389,7 @@
         <v>8</v>
       </c>
       <c r="F40" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G40" t="s">
         <v>107</v>
@@ -3406,7 +3411,7 @@
         <v>111</v>
       </c>
       <c r="F41" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="G41" t="s">
         <v>110</v>
@@ -3428,7 +3433,7 @@
         <v>111</v>
       </c>
       <c r="F42" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G42" t="s">
         <v>113</v>
@@ -3450,7 +3455,7 @@
         <v>117</v>
       </c>
       <c r="F43" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G43" t="s">
         <v>118</v>
@@ -3472,7 +3477,7 @@
         <v>111</v>
       </c>
       <c r="F44" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="G44" t="s">
         <v>120</v>
@@ -3494,10 +3499,10 @@
         <v>124</v>
       </c>
       <c r="F45" t="s">
+        <v>490</v>
+      </c>
+      <c r="G45" t="s">
         <v>491</v>
-      </c>
-      <c r="G45" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -3516,7 +3521,7 @@
         <v>126</v>
       </c>
       <c r="F46" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G46" t="s">
         <v>128</v>
@@ -3538,7 +3543,7 @@
         <v>132</v>
       </c>
       <c r="F47" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G47" t="s">
         <v>131</v>
@@ -3560,7 +3565,7 @@
         <v>80</v>
       </c>
       <c r="F48" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G48" t="s">
         <v>135</v>
@@ -3582,7 +3587,7 @@
         <v>137</v>
       </c>
       <c r="F49" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G49" t="s">
         <v>139</v>
@@ -3604,7 +3609,7 @@
         <v>132</v>
       </c>
       <c r="F50" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G50" t="s">
         <v>142</v>
@@ -3624,7 +3629,7 @@
       </c>
       <c r="E51"/>
       <c r="F51" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G51"/>
     </row>
@@ -3644,7 +3649,7 @@
         <v>59</v>
       </c>
       <c r="F52" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G52" t="s">
         <v>147</v>
@@ -3668,7 +3673,7 @@
         <v>132</v>
       </c>
       <c r="F53" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G53" t="s">
         <v>149</v>
@@ -3690,7 +3695,7 @@
         <v>76</v>
       </c>
       <c r="F54" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G54" t="s">
         <v>54</v>
@@ -3736,7 +3741,7 @@
         <v>76</v>
       </c>
       <c r="F56" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G56" t="s">
         <v>154</v>
@@ -3778,7 +3783,7 @@
         <v>76</v>
       </c>
       <c r="F58" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G58" t="s">
         <v>160</v>
@@ -3800,7 +3805,7 @@
         <v>163</v>
       </c>
       <c r="F59" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G59" t="s">
         <v>54</v>
@@ -3842,7 +3847,7 @@
       </c>
       <c r="E61"/>
       <c r="F61" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="G61" t="s">
         <v>170</v>
@@ -3864,7 +3869,7 @@
         <v>163</v>
       </c>
       <c r="F62" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G62" t="s">
         <v>173</v>
@@ -3886,7 +3891,7 @@
         <v>176</v>
       </c>
       <c r="F63" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G63" t="s">
         <v>54</v>
@@ -3908,7 +3913,7 @@
         <v>76</v>
       </c>
       <c r="F64" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G64" t="s">
         <v>179</v>
@@ -3930,7 +3935,7 @@
         <v>182</v>
       </c>
       <c r="F65" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G65" t="s">
         <v>54</v>
@@ -3950,7 +3955,7 @@
       </c>
       <c r="E66"/>
       <c r="F66" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G66" t="s">
         <v>185</v>
@@ -3972,7 +3977,7 @@
         <v>176</v>
       </c>
       <c r="F67" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G67" t="s">
         <v>54</v>
@@ -3994,7 +3999,7 @@
         <v>163</v>
       </c>
       <c r="F68" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G68" t="s">
         <v>190</v>
@@ -4016,7 +4021,7 @@
         <v>163</v>
       </c>
       <c r="F69" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G69" t="s">
         <v>193</v>
@@ -4038,7 +4043,7 @@
         <v>197</v>
       </c>
       <c r="F70" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G70" t="s">
         <v>196</v>
@@ -4082,7 +4087,7 @@
         <v>76</v>
       </c>
       <c r="F72" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G72" t="s">
         <v>203</v>
@@ -4104,7 +4109,7 @@
         <v>163</v>
       </c>
       <c r="F73" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G73" t="s">
         <v>206</v>
@@ -4126,7 +4131,7 @@
         <v>8</v>
       </c>
       <c r="F74" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G74" t="s">
         <v>209</v>
@@ -4148,7 +4153,7 @@
         <v>8</v>
       </c>
       <c r="F75" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="G75" t="s">
         <v>212</v>
@@ -4192,7 +4197,7 @@
         <v>73</v>
       </c>
       <c r="F77" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="G77" t="s">
         <v>218</v>
@@ -4214,7 +4219,7 @@
         <v>163</v>
       </c>
       <c r="F78" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G78" t="s">
         <v>221</v>
@@ -4258,7 +4263,7 @@
         <v>163</v>
       </c>
       <c r="F80" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G80" t="s">
         <v>228</v>
@@ -4280,7 +4285,7 @@
         <v>182</v>
       </c>
       <c r="F81" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="G81" t="s">
         <v>54</v>
@@ -4302,7 +4307,7 @@
         <v>234</v>
       </c>
       <c r="F82" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G82" t="s">
         <v>233</v>
@@ -4324,7 +4329,7 @@
         <v>73</v>
       </c>
       <c r="F83" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G83" t="s">
         <v>54</v>
@@ -4346,7 +4351,7 @@
         <v>163</v>
       </c>
       <c r="F84" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="G84" t="s">
         <v>238</v>
@@ -4368,7 +4373,7 @@
         <v>8</v>
       </c>
       <c r="F85" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G85" t="s">
         <v>241</v>
@@ -4390,7 +4395,7 @@
         <v>156</v>
       </c>
       <c r="F86" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="G86" t="s">
         <v>54</v>
@@ -4412,7 +4417,7 @@
         <v>156</v>
       </c>
       <c r="F87" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G87" t="s">
         <v>54</v>
@@ -4434,7 +4439,7 @@
         <v>8</v>
       </c>
       <c r="F88" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G88" t="s">
         <v>249</v>
@@ -4456,7 +4461,7 @@
         <v>253</v>
       </c>
       <c r="F89" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G89" t="s">
         <v>252</v>
@@ -4478,7 +4483,7 @@
         <v>73</v>
       </c>
       <c r="F90" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G90" t="s">
         <v>256</v>
@@ -4500,7 +4505,7 @@
         <v>73</v>
       </c>
       <c r="F91" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G91" t="s">
         <v>259</v>
@@ -4522,7 +4527,7 @@
         <v>73</v>
       </c>
       <c r="F92" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G92" t="s">
         <v>261</v>
@@ -4544,7 +4549,7 @@
         <v>73</v>
       </c>
       <c r="F93" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G93" t="s">
         <v>54</v>
@@ -4566,7 +4571,7 @@
         <v>73</v>
       </c>
       <c r="F94" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G94" t="s">
         <v>267</v>
@@ -4610,7 +4615,7 @@
         <v>272</v>
       </c>
       <c r="F96" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="G96" t="s">
         <v>275</v>
@@ -4632,7 +4637,7 @@
         <v>279</v>
       </c>
       <c r="F97" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G97" t="s">
         <v>278</v>
@@ -4654,7 +4659,7 @@
         <v>73</v>
       </c>
       <c r="F98" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G98" t="s">
         <v>282</v>
@@ -4676,7 +4681,7 @@
         <v>182</v>
       </c>
       <c r="F99" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G99" t="s">
         <v>285</v>
@@ -4698,10 +4703,10 @@
         <v>163</v>
       </c>
       <c r="F100" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G100" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
@@ -4720,7 +4725,7 @@
         <v>73</v>
       </c>
       <c r="F101" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G101" t="s">
         <v>290</v>
@@ -4742,7 +4747,7 @@
         <v>73</v>
       </c>
       <c r="F102" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="G102" t="s">
         <v>293</v>
@@ -4764,7 +4769,7 @@
         <v>73</v>
       </c>
       <c r="F103" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G103" t="s">
         <v>296</v>
@@ -4786,7 +4791,7 @@
         <v>73</v>
       </c>
       <c r="F104" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G104" t="s">
         <v>299</v>
@@ -4830,7 +4835,7 @@
         <v>306</v>
       </c>
       <c r="F106" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G106" t="s">
         <v>307</v>
@@ -4852,7 +4857,7 @@
         <v>126</v>
       </c>
       <c r="F107" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G107" t="s">
         <v>310</v>
@@ -4874,7 +4879,7 @@
         <v>319</v>
       </c>
       <c r="F108" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G108" t="s">
         <v>313</v>
@@ -4896,7 +4901,7 @@
         <v>73</v>
       </c>
       <c r="F109" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G109" t="s">
         <v>54</v>
@@ -4918,7 +4923,7 @@
         <v>319</v>
       </c>
       <c r="F110" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G110" t="s">
         <v>318</v>
@@ -4940,7 +4945,7 @@
         <v>73</v>
       </c>
       <c r="F111" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G111" t="s">
         <v>54</v>
@@ -4962,7 +4967,7 @@
         <v>73</v>
       </c>
       <c r="F112" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="G112" t="s">
         <v>54</v>
@@ -4984,7 +4989,7 @@
         <v>327</v>
       </c>
       <c r="F113" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G113" t="s">
         <v>326</v>
@@ -5006,7 +5011,7 @@
         <v>59</v>
       </c>
       <c r="F114" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="G114" t="s">
         <v>330</v>
@@ -5026,7 +5031,7 @@
       </c>
       <c r="E115"/>
       <c r="F115" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G115" t="s">
         <v>333</v>
@@ -5048,7 +5053,7 @@
         <v>8</v>
       </c>
       <c r="F116" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="G116" t="s">
         <v>336</v>
@@ -5070,7 +5075,7 @@
         <v>73</v>
       </c>
       <c r="F117" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G117" t="s">
         <v>339</v>
@@ -5092,7 +5097,7 @@
         <v>73</v>
       </c>
       <c r="F118" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G118" t="s">
         <v>54</v>
@@ -5112,7 +5117,7 @@
       </c>
       <c r="E119"/>
       <c r="F119" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G119" t="s">
         <v>344</v>
@@ -5131,10 +5136,10 @@
         <v>* [Momentum Business Incubator](http://www.worcesterenterprise.org/incubator-support-package/)</v>
       </c>
       <c r="E120" t="s">
+        <v>526</v>
+      </c>
+      <c r="F120" t="s">
         <v>527</v>
-      </c>
-      <c r="F120" t="s">
-        <v>528</v>
       </c>
       <c r="G120" t="s">
         <v>347</v>
@@ -5156,7 +5161,7 @@
         <v>350</v>
       </c>
       <c r="F121" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="G121" t="s">
         <v>351</v>
@@ -5178,7 +5183,7 @@
         <v>76</v>
       </c>
       <c r="F122" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="G122" t="s">
         <v>354</v>
@@ -5198,7 +5203,7 @@
       </c>
       <c r="E123"/>
       <c r="F123" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="G123" t="s">
         <v>357</v>
@@ -5220,7 +5225,7 @@
         <v>361</v>
       </c>
       <c r="F124" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G124" t="s">
         <v>360</v>
@@ -5242,7 +5247,7 @@
         <v>21</v>
       </c>
       <c r="F125" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G125"/>
     </row>
@@ -5262,7 +5267,7 @@
         <v>365</v>
       </c>
       <c r="F126" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="G126" t="s">
         <v>366</v>
@@ -5284,7 +5289,7 @@
         <v>369</v>
       </c>
       <c r="F127" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="G127" t="s">
         <v>351</v>
@@ -5306,7 +5311,7 @@
         <v>373</v>
       </c>
       <c r="F128" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="G128" t="s">
         <v>372</v>
@@ -5328,7 +5333,7 @@
         <v>376</v>
       </c>
       <c r="F129" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G129" t="s">
         <v>54</v>
@@ -5350,7 +5355,7 @@
         <v>379</v>
       </c>
       <c r="F130" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G130" t="s">
         <v>380</v>
@@ -5370,7 +5375,7 @@
       </c>
       <c r="E131"/>
       <c r="F131" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G131" t="s">
         <v>383</v>
@@ -5392,7 +5397,7 @@
         <v>386</v>
       </c>
       <c r="F132" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="G132" t="s">
         <v>387</v>
@@ -5414,7 +5419,7 @@
         <v>391</v>
       </c>
       <c r="F133" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="G133" t="s">
         <v>390</v>
@@ -5458,7 +5463,7 @@
         <v>391</v>
       </c>
       <c r="F135" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G135" t="s">
         <v>54</v>
@@ -5480,7 +5485,7 @@
         <v>401</v>
       </c>
       <c r="F136" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="G136" t="s">
         <v>54</v>
@@ -5502,7 +5507,7 @@
         <v>401</v>
       </c>
       <c r="F137" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G137" t="s">
         <v>403</v>
@@ -5524,7 +5529,7 @@
         <v>8</v>
       </c>
       <c r="F138" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G138" t="s">
         <v>406</v>
@@ -5546,7 +5551,7 @@
         <v>410</v>
       </c>
       <c r="F139" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="G139" t="s">
         <v>409</v>
@@ -5568,7 +5573,7 @@
         <v>413</v>
       </c>
       <c r="F140" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="G140" t="s">
         <v>414</v>
@@ -5590,7 +5595,7 @@
         <v>417</v>
       </c>
       <c r="F141" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="G141" t="s">
         <v>418</v>
@@ -5612,7 +5617,7 @@
         <v>421</v>
       </c>
       <c r="F142" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G142" t="s">
         <v>422</v>
@@ -5656,7 +5661,7 @@
         <v>410</v>
       </c>
       <c r="F144" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G144" t="s">
         <v>54</v>
@@ -5678,7 +5683,7 @@
         <v>8</v>
       </c>
       <c r="F145" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G145" t="s">
         <v>54</v>
@@ -5700,7 +5705,7 @@
         <v>431</v>
       </c>
       <c r="F146" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G146" t="s">
         <v>432</v>
@@ -5722,7 +5727,7 @@
         <v>435</v>
       </c>
       <c r="F147" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="G147" t="s">
         <v>436</v>
@@ -5744,7 +5749,7 @@
         <v>410</v>
       </c>
       <c r="F148" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G148" t="s">
         <v>54</v>
@@ -5785,10 +5790,10 @@
         <v>* [STEAMHouse](https://www.bcu.ac.uk/business/steam/steamhouse)</v>
       </c>
       <c r="E150" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F150" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="G150" t="s">
         <v>54</v>
@@ -5810,7 +5815,7 @@
         <v>156</v>
       </c>
       <c r="F151" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="G151" t="s">
         <v>54</v>
@@ -5832,7 +5837,7 @@
         <v>448</v>
       </c>
       <c r="F152" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G152" t="s">
         <v>54</v>
@@ -5854,7 +5859,7 @@
         <v>451</v>
       </c>
       <c r="F153" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G153" t="s">
         <v>54</v>
@@ -5876,7 +5881,7 @@
         <v>454</v>
       </c>
       <c r="F154" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="G154" t="s">
         <v>54</v>
@@ -5898,7 +5903,7 @@
         <v>73</v>
       </c>
       <c r="F155" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G155" t="s">
         <v>54</v>
@@ -5906,13 +5911,13 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="D156" s="2" t="str">
         <f t="shared" si="3"/>
@@ -5928,10 +5933,10 @@
         <v>54</v>
       </c>
       <c r="H156" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.2">

--- a/data/20210219_innovation_hubs-Almasi-v1.xlsx
+++ b/data/20210219_innovation_hubs-Almasi-v1.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sirvan/sites/startups/psychi/innovation-hubs/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0BC927-F300-C24E-883F-FA0386386232}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316FEDAE-DE3A-F446-A9A3-26AAB95A9B99}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33040" yWindow="2860" windowWidth="43800" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="main" sheetId="1" r:id="rId1"/>
-    <sheet name="info" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="UK" sheetId="1" r:id="rId1"/>
+    <sheet name="US" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="659">
   <si>
     <t>Google Campus London</t>
   </si>
@@ -942,9 +941,6 @@
     <t>https://www.stevenagecatalyst.com/</t>
   </si>
   <si>
-    <t>Stevenage Bioscience Catalyst Gunnels Wood Road Stevenage Herts SG1 2FX</t>
-  </si>
-  <si>
     <t>comms@stevenagecatalyst.com</t>
   </si>
   <si>
@@ -2005,6 +2001,15 @@
   </si>
   <si>
     <t>Deeptech; life science; engineering; manufacturing</t>
+  </si>
+  <si>
+    <t>Stanford Digital Economy Lab</t>
+  </si>
+  <si>
+    <t>https://twitter.com/DigEconLab</t>
+  </si>
+  <si>
+    <t>Stevenage Bioscience Catalyst; Gunnels Wood Road; Stevenage Herts SG1 2FX</t>
   </si>
 </sst>
 </file>
@@ -2426,8 +2431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I157"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A135" zoomScale="109" workbookViewId="0">
+      <selection activeCell="C149" sqref="C149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2438,14 +2443,14 @@
     <col min="5" max="5" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="47.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="36.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" style="2"/>
+    <col min="8" max="8" width="13.5" style="2" customWidth="1"/>
     <col min="9" max="9" width="14" style="2" customWidth="1"/>
     <col min="10" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>2</v>
@@ -2455,7 +2460,7 @@
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>6</v>
@@ -2464,15 +2469,15 @@
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -2488,24 +2493,24 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" si="0"/>
@@ -2515,222 +2520,222 @@
         <v>9</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G3" t="s">
         <v>54</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>608</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>609</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
         <v>* [Digital Catapult](https://www.digicatapult.org.uk/)</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>613</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>610</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>616</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>617</v>
       </c>
       <c r="D5" s="2" t="str">
         <f t="shared" si="0"/>
         <v>* [ktn](https://ktn-uk.org/)</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>622</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>* [Innovate UK (part of UKRI)](https://www.gov.uk/government/organisations/innovate-uk)</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G6" t="s">
         <v>54</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>* [UK Research and Innovation (UKRI)](https://www.ukri.org/)</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G7" t="s">
         <v>54</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>* [UKRI London Office](https://www.ukri.org/)</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G8" t="s">
         <v>54</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>* [UKRI Bristol Office](https://www.ukri.org/)</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G9" t="s">
         <v>54</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="5" t="s">
         <v>638</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>639</v>
       </c>
       <c r="D10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>* [UK Business Angels](https://www.ukbaa.org.uk/)</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>640</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="H10" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>641</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
@@ -2743,19 +2748,19 @@
         <v>* [Level39](https://www.level39.co/)</v>
       </c>
       <c r="E11" t="s">
+        <v>470</v>
+      </c>
+      <c r="F11" t="s">
         <v>471</v>
-      </c>
-      <c r="F11" t="s">
-        <v>472</v>
       </c>
       <c r="G11"/>
       <c r="I11" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -2771,7 +2776,7 @@
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G12"/>
     </row>
@@ -2800,34 +2805,34 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>456</v>
+      </c>
+      <c r="B14" t="s">
         <v>457</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>458</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="str">
+        <f t="shared" si="1"/>
+        <v>* [ConceptionX](https://conceptionx.org/)</v>
+      </c>
+      <c r="E14" t="s">
         <v>459</v>
-      </c>
-      <c r="D14" t="str">
-        <f t="shared" si="1"/>
-        <v>* [ConceptionX](https://conceptionx.org/)</v>
-      </c>
-      <c r="E14" t="s">
-        <v>460</v>
       </c>
       <c r="F14" t="s">
         <v>16</v>
       </c>
       <c r="G14" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
@@ -2843,13 +2848,13 @@
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G15"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
@@ -2862,10 +2867,10 @@
         <v>* [Cardiff Medicentre](http://www.cardiffmedicentre.co.uk/)</v>
       </c>
       <c r="E16" t="s">
+        <v>475</v>
+      </c>
+      <c r="F16" t="s">
         <v>476</v>
-      </c>
-      <c r="F16" t="s">
-        <v>477</v>
       </c>
       <c r="G16" t="s">
         <v>21</v>
@@ -2951,7 +2956,7 @@
         <v>36</v>
       </c>
       <c r="F20" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G20" t="s">
         <v>37</v>
@@ -2973,7 +2978,7 @@
         <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G21"/>
     </row>
@@ -2993,7 +2998,7 @@
         <v>42</v>
       </c>
       <c r="F22" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G22" t="s">
         <v>43</v>
@@ -3015,7 +3020,7 @@
         <v>46</v>
       </c>
       <c r="F23" t="s">
-        <v>21</v>
+        <v>466</v>
       </c>
       <c r="G23" t="s">
         <v>47</v>
@@ -3037,7 +3042,7 @@
         <v>51</v>
       </c>
       <c r="F24" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G24" t="s">
         <v>49</v>
@@ -3056,7 +3061,7 @@
         <v>* [Seedcloud](https://www.seedcloud.com/)</v>
       </c>
       <c r="E25" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F25" t="s">
         <v>55</v>
@@ -3081,7 +3086,7 @@
         <v>59</v>
       </c>
       <c r="F26" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G26" t="s">
         <v>58</v>
@@ -3100,10 +3105,10 @@
         <v>* [Seed Haus](https://thisisseedhaus.com/)</v>
       </c>
       <c r="E27" t="s">
+        <v>481</v>
+      </c>
+      <c r="F27" t="s">
         <v>482</v>
-      </c>
-      <c r="F27" t="s">
-        <v>483</v>
       </c>
       <c r="G27" t="s">
         <v>62</v>
@@ -3125,7 +3130,7 @@
         <v>36</v>
       </c>
       <c r="F28" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G28" t="s">
         <v>64</v>
@@ -3133,7 +3138,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B29" t="s">
         <v>65</v>
@@ -3146,10 +3151,10 @@
         <v>* [Imperial College White City Incubator](http://www.imperial.ac.uk/enterprise/business/incubator/)</v>
       </c>
       <c r="E29" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F29" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G29" t="s">
         <v>54</v>
@@ -3193,7 +3198,7 @@
         <v>76</v>
       </c>
       <c r="F31" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G31"/>
     </row>
@@ -3213,7 +3218,7 @@
         <v>80</v>
       </c>
       <c r="F32" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G32" t="s">
         <v>81</v>
@@ -3235,7 +3240,7 @@
         <v>84</v>
       </c>
       <c r="F33" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G33" t="s">
         <v>85</v>
@@ -3257,7 +3262,7 @@
         <v>88</v>
       </c>
       <c r="F34" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G34" t="s">
         <v>89</v>
@@ -3279,7 +3284,7 @@
         <v>92</v>
       </c>
       <c r="F35" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G35" t="s">
         <v>54</v>
@@ -3301,7 +3306,7 @@
         <v>76</v>
       </c>
       <c r="F36" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G36" t="s">
         <v>95</v>
@@ -3323,7 +3328,7 @@
         <v>76</v>
       </c>
       <c r="F37" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G37" t="s">
         <v>98</v>
@@ -3345,7 +3350,7 @@
         <v>76</v>
       </c>
       <c r="F38" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G38" t="s">
         <v>101</v>
@@ -3367,7 +3372,7 @@
         <v>103</v>
       </c>
       <c r="F39" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G39" t="s">
         <v>54</v>
@@ -3389,7 +3394,7 @@
         <v>8</v>
       </c>
       <c r="F40" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G40" t="s">
         <v>107</v>
@@ -3411,7 +3416,7 @@
         <v>111</v>
       </c>
       <c r="F41" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G41" t="s">
         <v>110</v>
@@ -3433,7 +3438,7 @@
         <v>111</v>
       </c>
       <c r="F42" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G42" t="s">
         <v>113</v>
@@ -3455,7 +3460,7 @@
         <v>117</v>
       </c>
       <c r="F43" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G43" t="s">
         <v>118</v>
@@ -3477,7 +3482,7 @@
         <v>111</v>
       </c>
       <c r="F44" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G44" t="s">
         <v>120</v>
@@ -3499,10 +3504,10 @@
         <v>124</v>
       </c>
       <c r="F45" t="s">
+        <v>489</v>
+      </c>
+      <c r="G45" t="s">
         <v>490</v>
-      </c>
-      <c r="G45" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -3521,7 +3526,7 @@
         <v>126</v>
       </c>
       <c r="F46" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G46" t="s">
         <v>128</v>
@@ -3543,7 +3548,7 @@
         <v>132</v>
       </c>
       <c r="F47" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G47" t="s">
         <v>131</v>
@@ -3565,7 +3570,7 @@
         <v>80</v>
       </c>
       <c r="F48" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G48" t="s">
         <v>135</v>
@@ -3587,7 +3592,7 @@
         <v>137</v>
       </c>
       <c r="F49" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G49" t="s">
         <v>139</v>
@@ -3609,7 +3614,7 @@
         <v>132</v>
       </c>
       <c r="F50" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G50" t="s">
         <v>142</v>
@@ -3629,7 +3634,7 @@
       </c>
       <c r="E51"/>
       <c r="F51" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G51"/>
     </row>
@@ -3649,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="F52" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G52" t="s">
         <v>147</v>
@@ -3657,7 +3662,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B53" t="s">
         <v>148</v>
@@ -3673,7 +3678,7 @@
         <v>132</v>
       </c>
       <c r="F53" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G53" t="s">
         <v>149</v>
@@ -3685,7 +3690,7 @@
         <v>151</v>
       </c>
       <c r="C54" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D54" t="str">
         <f t="shared" si="1"/>
@@ -3695,7 +3700,7 @@
         <v>76</v>
       </c>
       <c r="F54" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G54" t="s">
         <v>54</v>
@@ -3703,23 +3708,23 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>464</v>
+      </c>
+      <c r="B55" t="s">
+        <v>463</v>
+      </c>
+      <c r="C55" t="s">
+        <v>462</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="1"/>
+        <v>* [Oxford Accelerator](http://www.oxfordaccelerator.com/)</v>
+      </c>
+      <c r="E55" t="s">
         <v>465</v>
       </c>
-      <c r="B55" t="s">
-        <v>464</v>
-      </c>
-      <c r="C55" t="s">
-        <v>463</v>
-      </c>
-      <c r="D55" t="str">
-        <f t="shared" si="1"/>
-        <v>* [Oxford Accelerator](http://www.oxfordaccelerator.com/)</v>
-      </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>466</v>
-      </c>
-      <c r="F55" t="s">
-        <v>467</v>
       </c>
       <c r="G55" t="s">
         <v>54</v>
@@ -3741,7 +3746,7 @@
         <v>76</v>
       </c>
       <c r="F56" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G56" t="s">
         <v>154</v>
@@ -3762,7 +3767,9 @@
       <c r="E57" t="s">
         <v>156</v>
       </c>
-      <c r="F57"/>
+      <c r="F57" t="s">
+        <v>466</v>
+      </c>
       <c r="G57" t="s">
         <v>54</v>
       </c>
@@ -3783,7 +3790,7 @@
         <v>76</v>
       </c>
       <c r="F58" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G58" t="s">
         <v>160</v>
@@ -3805,7 +3812,7 @@
         <v>163</v>
       </c>
       <c r="F59" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G59" t="s">
         <v>54</v>
@@ -3847,7 +3854,7 @@
       </c>
       <c r="E61"/>
       <c r="F61" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G61" t="s">
         <v>170</v>
@@ -3869,7 +3876,7 @@
         <v>163</v>
       </c>
       <c r="F62" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G62" t="s">
         <v>173</v>
@@ -3891,7 +3898,7 @@
         <v>176</v>
       </c>
       <c r="F63" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G63" t="s">
         <v>54</v>
@@ -3913,7 +3920,7 @@
         <v>76</v>
       </c>
       <c r="F64" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G64" t="s">
         <v>179</v>
@@ -3935,7 +3942,7 @@
         <v>182</v>
       </c>
       <c r="F65" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G65" t="s">
         <v>54</v>
@@ -3955,7 +3962,7 @@
       </c>
       <c r="E66"/>
       <c r="F66" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G66" t="s">
         <v>185</v>
@@ -3977,7 +3984,7 @@
         <v>176</v>
       </c>
       <c r="F67" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G67" t="s">
         <v>54</v>
@@ -3999,7 +4006,7 @@
         <v>163</v>
       </c>
       <c r="F68" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G68" t="s">
         <v>190</v>
@@ -4021,7 +4028,7 @@
         <v>163</v>
       </c>
       <c r="F69" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G69" t="s">
         <v>193</v>
@@ -4043,7 +4050,7 @@
         <v>197</v>
       </c>
       <c r="F70" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G70" t="s">
         <v>196</v>
@@ -4087,7 +4094,7 @@
         <v>76</v>
       </c>
       <c r="F72" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G72" t="s">
         <v>203</v>
@@ -4109,7 +4116,7 @@
         <v>163</v>
       </c>
       <c r="F73" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G73" t="s">
         <v>206</v>
@@ -4131,7 +4138,7 @@
         <v>8</v>
       </c>
       <c r="F74" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G74" t="s">
         <v>209</v>
@@ -4153,7 +4160,7 @@
         <v>8</v>
       </c>
       <c r="F75" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G75" t="s">
         <v>212</v>
@@ -4197,7 +4204,7 @@
         <v>73</v>
       </c>
       <c r="F77" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G77" t="s">
         <v>218</v>
@@ -4219,7 +4226,7 @@
         <v>163</v>
       </c>
       <c r="F78" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="G78" t="s">
         <v>221</v>
@@ -4263,7 +4270,7 @@
         <v>163</v>
       </c>
       <c r="F80" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G80" t="s">
         <v>228</v>
@@ -4285,7 +4292,7 @@
         <v>182</v>
       </c>
       <c r="F81" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G81" t="s">
         <v>54</v>
@@ -4307,7 +4314,7 @@
         <v>234</v>
       </c>
       <c r="F82" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G82" t="s">
         <v>233</v>
@@ -4329,7 +4336,7 @@
         <v>73</v>
       </c>
       <c r="F83" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G83" t="s">
         <v>54</v>
@@ -4351,7 +4358,7 @@
         <v>163</v>
       </c>
       <c r="F84" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="G84" t="s">
         <v>238</v>
@@ -4373,7 +4380,7 @@
         <v>8</v>
       </c>
       <c r="F85" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="G85" t="s">
         <v>241</v>
@@ -4395,7 +4402,7 @@
         <v>156</v>
       </c>
       <c r="F86" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G86" t="s">
         <v>54</v>
@@ -4417,7 +4424,7 @@
         <v>156</v>
       </c>
       <c r="F87" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G87" t="s">
         <v>54</v>
@@ -4439,7 +4446,7 @@
         <v>8</v>
       </c>
       <c r="F88" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G88" t="s">
         <v>249</v>
@@ -4461,7 +4468,7 @@
         <v>253</v>
       </c>
       <c r="F89" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G89" t="s">
         <v>252</v>
@@ -4483,7 +4490,7 @@
         <v>73</v>
       </c>
       <c r="F90" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G90" t="s">
         <v>256</v>
@@ -4505,7 +4512,7 @@
         <v>73</v>
       </c>
       <c r="F91" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G91" t="s">
         <v>259</v>
@@ -4527,7 +4534,7 @@
         <v>73</v>
       </c>
       <c r="F92" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G92" t="s">
         <v>261</v>
@@ -4549,7 +4556,7 @@
         <v>73</v>
       </c>
       <c r="F93" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G93" t="s">
         <v>54</v>
@@ -4571,7 +4578,7 @@
         <v>73</v>
       </c>
       <c r="F94" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G94" t="s">
         <v>267</v>
@@ -4615,7 +4622,7 @@
         <v>272</v>
       </c>
       <c r="F96" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G96" t="s">
         <v>275</v>
@@ -4637,7 +4644,7 @@
         <v>279</v>
       </c>
       <c r="F97" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G97" t="s">
         <v>278</v>
@@ -4659,7 +4666,7 @@
         <v>73</v>
       </c>
       <c r="F98" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G98" t="s">
         <v>282</v>
@@ -4681,7 +4688,7 @@
         <v>182</v>
       </c>
       <c r="F99" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G99" t="s">
         <v>285</v>
@@ -4703,10 +4710,10 @@
         <v>163</v>
       </c>
       <c r="F100" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G100" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
@@ -4725,7 +4732,7 @@
         <v>73</v>
       </c>
       <c r="F101" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G101" t="s">
         <v>290</v>
@@ -4747,7 +4754,7 @@
         <v>73</v>
       </c>
       <c r="F102" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G102" t="s">
         <v>293</v>
@@ -4769,7 +4776,7 @@
         <v>73</v>
       </c>
       <c r="F103" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G103" t="s">
         <v>296</v>
@@ -4791,7 +4798,7 @@
         <v>73</v>
       </c>
       <c r="F104" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G104" t="s">
         <v>299</v>
@@ -4813,41 +4820,41 @@
         <v>36</v>
       </c>
       <c r="F105" t="s">
+        <v>658</v>
+      </c>
+      <c r="G105" t="s">
         <v>302</v>
-      </c>
-      <c r="G105" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106"/>
       <c r="B106" t="s">
+        <v>303</v>
+      </c>
+      <c r="C106" t="s">
         <v>304</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" t="str">
+        <f t="shared" si="2"/>
+        <v>* [The Nova Centre](https://www.keele.ac.uk/business/scienceandinnovationpark/)</v>
+      </c>
+      <c r="E106" t="s">
         <v>305</v>
       </c>
-      <c r="D106" t="str">
-        <f t="shared" si="2"/>
-        <v>* [The Nova Centre](https://www.keele.ac.uk/business/scienceandinnovationpark/)</v>
-      </c>
-      <c r="E106" t="s">
+      <c r="F106" t="s">
+        <v>517</v>
+      </c>
+      <c r="G106" t="s">
         <v>306</v>
-      </c>
-      <c r="F106" t="s">
-        <v>518</v>
-      </c>
-      <c r="G106" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107"/>
       <c r="B107" t="s">
+        <v>307</v>
+      </c>
+      <c r="C107" t="s">
         <v>308</v>
-      </c>
-      <c r="C107" t="s">
-        <v>309</v>
       </c>
       <c r="D107" t="str">
         <f t="shared" si="2"/>
@@ -4857,41 +4864,41 @@
         <v>126</v>
       </c>
       <c r="F107" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G107" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108"/>
       <c r="B108" t="s">
+        <v>310</v>
+      </c>
+      <c r="C108" t="s">
         <v>311</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" t="str">
+        <f t="shared" si="2"/>
+        <v>* [Witney Business &amp; Innovation Centre](https://www.witney-bic.co.uk/)</v>
+      </c>
+      <c r="E108" t="s">
+        <v>318</v>
+      </c>
+      <c r="F108" t="s">
+        <v>518</v>
+      </c>
+      <c r="G108" t="s">
         <v>312</v>
-      </c>
-      <c r="D108" t="str">
-        <f t="shared" si="2"/>
-        <v>* [Witney Business &amp; Innovation Centre](https://www.witney-bic.co.uk/)</v>
-      </c>
-      <c r="E108" t="s">
-        <v>319</v>
-      </c>
-      <c r="F108" t="s">
-        <v>519</v>
-      </c>
-      <c r="G108" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109"/>
       <c r="B109" t="s">
+        <v>313</v>
+      </c>
+      <c r="C109" t="s">
         <v>314</v>
-      </c>
-      <c r="C109" t="s">
-        <v>315</v>
       </c>
       <c r="D109" t="str">
         <f t="shared" si="2"/>
@@ -4901,7 +4908,7 @@
         <v>73</v>
       </c>
       <c r="F109" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G109" t="s">
         <v>54</v>
@@ -4910,32 +4917,32 @@
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110"/>
       <c r="B110" t="s">
+        <v>315</v>
+      </c>
+      <c r="C110" t="s">
         <v>316</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" t="str">
+        <f t="shared" si="2"/>
+        <v>* [BU Student Incubation Centre (BUSI)](https://www.hugedomains.com/domain_profile.cfm?d=bucfe&amp;e=com)</v>
+      </c>
+      <c r="E110" t="s">
+        <v>318</v>
+      </c>
+      <c r="F110" t="s">
+        <v>519</v>
+      </c>
+      <c r="G110" t="s">
         <v>317</v>
-      </c>
-      <c r="D110" t="str">
-        <f t="shared" si="2"/>
-        <v>* [BU Student Incubation Centre (BUSI)](https://www.hugedomains.com/domain_profile.cfm?d=bucfe&amp;e=com)</v>
-      </c>
-      <c r="E110" t="s">
-        <v>319</v>
-      </c>
-      <c r="F110" t="s">
-        <v>520</v>
-      </c>
-      <c r="G110" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111"/>
       <c r="B111" t="s">
+        <v>319</v>
+      </c>
+      <c r="C111" t="s">
         <v>320</v>
-      </c>
-      <c r="C111" t="s">
-        <v>321</v>
       </c>
       <c r="D111" t="str">
         <f t="shared" si="2"/>
@@ -4945,7 +4952,7 @@
         <v>73</v>
       </c>
       <c r="F111" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G111" t="s">
         <v>54</v>
@@ -4954,10 +4961,10 @@
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112"/>
       <c r="B112" t="s">
+        <v>321</v>
+      </c>
+      <c r="C112" t="s">
         <v>322</v>
-      </c>
-      <c r="C112" t="s">
-        <v>323</v>
       </c>
       <c r="D112" t="str">
         <f t="shared" si="2"/>
@@ -4967,7 +4974,7 @@
         <v>73</v>
       </c>
       <c r="F112" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G112" t="s">
         <v>54</v>
@@ -4976,32 +4983,32 @@
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113"/>
       <c r="B113" t="s">
+        <v>323</v>
+      </c>
+      <c r="C113" t="s">
         <v>324</v>
       </c>
-      <c r="C113" t="s">
+      <c r="D113" t="str">
+        <f t="shared" si="2"/>
+        <v>* [Live Lab](https://www.livelab.co.uk/)</v>
+      </c>
+      <c r="E113" t="s">
+        <v>326</v>
+      </c>
+      <c r="F113" t="s">
+        <v>579</v>
+      </c>
+      <c r="G113" t="s">
         <v>325</v>
-      </c>
-      <c r="D113" t="str">
-        <f t="shared" si="2"/>
-        <v>* [Live Lab](https://www.livelab.co.uk/)</v>
-      </c>
-      <c r="E113" t="s">
-        <v>327</v>
-      </c>
-      <c r="F113" t="s">
-        <v>580</v>
-      </c>
-      <c r="G113" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114"/>
       <c r="B114" t="s">
+        <v>327</v>
+      </c>
+      <c r="C114" t="s">
         <v>328</v>
-      </c>
-      <c r="C114" t="s">
-        <v>329</v>
       </c>
       <c r="D114" t="str">
         <f t="shared" si="2"/>
@@ -5011,19 +5018,19 @@
         <v>59</v>
       </c>
       <c r="F114" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G114" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115"/>
       <c r="B115" t="s">
+        <v>330</v>
+      </c>
+      <c r="C115" t="s">
         <v>331</v>
-      </c>
-      <c r="C115" t="s">
-        <v>332</v>
       </c>
       <c r="D115" t="str">
         <f t="shared" si="2"/>
@@ -5031,19 +5038,19 @@
       </c>
       <c r="E115"/>
       <c r="F115" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G115" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116"/>
       <c r="B116" t="s">
+        <v>333</v>
+      </c>
+      <c r="C116" t="s">
         <v>334</v>
-      </c>
-      <c r="C116" t="s">
-        <v>335</v>
       </c>
       <c r="D116" t="str">
         <f t="shared" si="2"/>
@@ -5053,19 +5060,19 @@
         <v>8</v>
       </c>
       <c r="F116" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G116" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117"/>
       <c r="B117" t="s">
+        <v>336</v>
+      </c>
+      <c r="C117" t="s">
         <v>337</v>
-      </c>
-      <c r="C117" t="s">
-        <v>338</v>
       </c>
       <c r="D117" t="str">
         <f t="shared" si="2"/>
@@ -5075,19 +5082,19 @@
         <v>73</v>
       </c>
       <c r="F117" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G117" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118"/>
       <c r="B118" t="s">
+        <v>339</v>
+      </c>
+      <c r="C118" t="s">
         <v>340</v>
-      </c>
-      <c r="C118" t="s">
-        <v>341</v>
       </c>
       <c r="D118" t="str">
         <f t="shared" si="2"/>
@@ -5097,7 +5104,7 @@
         <v>73</v>
       </c>
       <c r="F118" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G118" t="s">
         <v>54</v>
@@ -5106,10 +5113,10 @@
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119"/>
       <c r="B119" t="s">
+        <v>341</v>
+      </c>
+      <c r="C119" t="s">
         <v>342</v>
-      </c>
-      <c r="C119" t="s">
-        <v>343</v>
       </c>
       <c r="D119" t="str">
         <f t="shared" si="2"/>
@@ -5117,63 +5124,63 @@
       </c>
       <c r="E119"/>
       <c r="F119" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G119" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120"/>
       <c r="B120" t="s">
+        <v>344</v>
+      </c>
+      <c r="C120" t="s">
         <v>345</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D120" t="str">
+        <f t="shared" si="2"/>
+        <v>* [Momentum Business Incubator](http://www.worcesterenterprise.org/incubator-support-package/)</v>
+      </c>
+      <c r="E120" t="s">
+        <v>525</v>
+      </c>
+      <c r="F120" t="s">
+        <v>526</v>
+      </c>
+      <c r="G120" t="s">
         <v>346</v>
-      </c>
-      <c r="D120" t="str">
-        <f t="shared" si="2"/>
-        <v>* [Momentum Business Incubator](http://www.worcesterenterprise.org/incubator-support-package/)</v>
-      </c>
-      <c r="E120" t="s">
-        <v>526</v>
-      </c>
-      <c r="F120" t="s">
-        <v>527</v>
-      </c>
-      <c r="G120" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121"/>
       <c r="B121" t="s">
+        <v>347</v>
+      </c>
+      <c r="C121" t="s">
         <v>348</v>
       </c>
-      <c r="C121" t="s">
+      <c r="D121" t="str">
+        <f t="shared" si="2"/>
+        <v>* [NoWFOOD Centre](https://www1.chester.ac.uk/business-growth/nowfood)</v>
+      </c>
+      <c r="E121" t="s">
         <v>349</v>
       </c>
-      <c r="D121" t="str">
-        <f t="shared" si="2"/>
-        <v>* [NoWFOOD Centre](https://www1.chester.ac.uk/business-growth/nowfood)</v>
-      </c>
-      <c r="E121" t="s">
+      <c r="F121" t="s">
+        <v>582</v>
+      </c>
+      <c r="G121" t="s">
         <v>350</v>
-      </c>
-      <c r="F121" t="s">
-        <v>583</v>
-      </c>
-      <c r="G121" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122"/>
       <c r="B122" t="s">
+        <v>351</v>
+      </c>
+      <c r="C122" t="s">
         <v>352</v>
-      </c>
-      <c r="C122" t="s">
-        <v>353</v>
       </c>
       <c r="D122" t="str">
         <f t="shared" si="2"/>
@@ -5183,19 +5190,19 @@
         <v>76</v>
       </c>
       <c r="F122" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G122" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123"/>
       <c r="B123" t="s">
+        <v>354</v>
+      </c>
+      <c r="C123" t="s">
         <v>355</v>
-      </c>
-      <c r="C123" t="s">
-        <v>356</v>
       </c>
       <c r="D123" t="str">
         <f t="shared" si="2"/>
@@ -5203,38 +5210,38 @@
       </c>
       <c r="E123"/>
       <c r="F123" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G123" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124"/>
       <c r="B124" t="s">
+        <v>357</v>
+      </c>
+      <c r="C124" t="s">
         <v>358</v>
       </c>
-      <c r="C124" t="s">
+      <c r="D124" t="str">
+        <f t="shared" si="2"/>
+        <v>* [UHatch](https://www.gcu.ac.uk/uhatch/)</v>
+      </c>
+      <c r="E124" t="s">
+        <v>360</v>
+      </c>
+      <c r="F124" t="s">
+        <v>585</v>
+      </c>
+      <c r="G124" t="s">
         <v>359</v>
-      </c>
-      <c r="D124" t="str">
-        <f t="shared" si="2"/>
-        <v>* [UHatch](https://www.gcu.ac.uk/uhatch/)</v>
-      </c>
-      <c r="E124" t="s">
-        <v>361</v>
-      </c>
-      <c r="F124" t="s">
-        <v>586</v>
-      </c>
-      <c r="G124" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125"/>
       <c r="B125" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C125" t="s">
         <v>21</v>
@@ -5247,93 +5254,93 @@
         <v>21</v>
       </c>
       <c r="F125" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G125"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126"/>
       <c r="B126" t="s">
+        <v>362</v>
+      </c>
+      <c r="C126" t="s">
         <v>363</v>
       </c>
-      <c r="C126" t="s">
+      <c r="D126" t="str">
+        <f t="shared" si="2"/>
+        <v>* [Fareham Innovation Centre](https://www.fareham-ic.co.uk/)</v>
+      </c>
+      <c r="E126" t="s">
         <v>364</v>
       </c>
-      <c r="D126" t="str">
-        <f t="shared" si="2"/>
-        <v>* [Fareham Innovation Centre](https://www.fareham-ic.co.uk/)</v>
-      </c>
-      <c r="E126" t="s">
+      <c r="F126" t="s">
+        <v>586</v>
+      </c>
+      <c r="G126" t="s">
         <v>365</v>
-      </c>
-      <c r="F126" t="s">
-        <v>587</v>
-      </c>
-      <c r="G126" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127"/>
       <c r="B127" t="s">
+        <v>366</v>
+      </c>
+      <c r="C127" t="s">
         <v>367</v>
       </c>
-      <c r="C127" t="s">
+      <c r="D127" t="str">
+        <f t="shared" si="2"/>
+        <v>* [High Growth Centre](https://www1.chester.ac.uk/business-growth/thornton-science-park)</v>
+      </c>
+      <c r="E127" t="s">
         <v>368</v>
       </c>
-      <c r="D127" t="str">
-        <f t="shared" si="2"/>
-        <v>* [High Growth Centre](https://www1.chester.ac.uk/business-growth/thornton-science-park)</v>
-      </c>
-      <c r="E127" t="s">
-        <v>369</v>
-      </c>
       <c r="F127" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G127" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128"/>
       <c r="B128" t="s">
+        <v>369</v>
+      </c>
+      <c r="C128" t="s">
         <v>370</v>
       </c>
-      <c r="C128" t="s">
+      <c r="D128" t="str">
+        <f t="shared" si="2"/>
+        <v>* [Ideas Factory Incubation Centre](https://www.nua.ac.uk/for-business/incubation-centre-facility-hire/)</v>
+      </c>
+      <c r="E128" t="s">
+        <v>372</v>
+      </c>
+      <c r="F128" t="s">
+        <v>587</v>
+      </c>
+      <c r="G128" t="s">
         <v>371</v>
-      </c>
-      <c r="D128" t="str">
-        <f t="shared" si="2"/>
-        <v>* [Ideas Factory Incubation Centre](https://www.nua.ac.uk/for-business/incubation-centre-facility-hire/)</v>
-      </c>
-      <c r="E128" t="s">
-        <v>373</v>
-      </c>
-      <c r="F128" t="s">
-        <v>588</v>
-      </c>
-      <c r="G128" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129"/>
       <c r="B129" t="s">
+        <v>373</v>
+      </c>
+      <c r="C129" t="s">
         <v>374</v>
       </c>
-      <c r="C129" t="s">
+      <c r="D129" t="str">
+        <f t="shared" si="2"/>
+        <v>* [InTechnology Enterprise incubator](https://www.leeds.ac.uk/news/article/3668/young_entrepreneurs_get_a_chance_to_shine)</v>
+      </c>
+      <c r="E129" t="s">
         <v>375</v>
       </c>
-      <c r="D129" t="str">
-        <f t="shared" si="2"/>
-        <v>* [InTechnology Enterprise incubator](https://www.leeds.ac.uk/news/article/3668/young_entrepreneurs_get_a_chance_to_shine)</v>
-      </c>
-      <c r="E129" t="s">
-        <v>376</v>
-      </c>
       <c r="F129" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G129" t="s">
         <v>54</v>
@@ -5342,32 +5349,32 @@
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130"/>
       <c r="B130" t="s">
+        <v>376</v>
+      </c>
+      <c r="C130" t="s">
         <v>377</v>
       </c>
-      <c r="C130" t="s">
+      <c r="D130" t="str">
+        <f t="shared" si="2"/>
+        <v>* [Marine Robotics Innovation Centre Hub](https://noc-innovations.co.uk/marine-robotics-innovation-centre)</v>
+      </c>
+      <c r="E130" t="s">
         <v>378</v>
       </c>
-      <c r="D130" t="str">
-        <f t="shared" si="2"/>
-        <v>* [Marine Robotics Innovation Centre Hub](https://noc-innovations.co.uk/marine-robotics-innovation-centre)</v>
-      </c>
-      <c r="E130" t="s">
+      <c r="F130" t="s">
+        <v>529</v>
+      </c>
+      <c r="G130" t="s">
         <v>379</v>
-      </c>
-      <c r="F130" t="s">
-        <v>530</v>
-      </c>
-      <c r="G130" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131"/>
       <c r="B131" t="s">
+        <v>380</v>
+      </c>
+      <c r="C131" t="s">
         <v>381</v>
-      </c>
-      <c r="C131" t="s">
-        <v>382</v>
       </c>
       <c r="D131" t="str">
         <f t="shared" si="2"/>
@@ -5375,95 +5382,95 @@
       </c>
       <c r="E131"/>
       <c r="F131" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G131" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132"/>
       <c r="B132" t="s">
+        <v>383</v>
+      </c>
+      <c r="C132" t="s">
         <v>384</v>
       </c>
-      <c r="C132" t="s">
+      <c r="D132" t="str">
+        <f t="shared" si="2"/>
+        <v>* [The BioHub Birmingham](https://www.birminghamresearchpark.co.uk/biohub/)</v>
+      </c>
+      <c r="E132" t="s">
         <v>385</v>
       </c>
-      <c r="D132" t="str">
-        <f t="shared" si="2"/>
-        <v>* [The BioHub Birmingham](https://www.birminghamresearchpark.co.uk/biohub/)</v>
-      </c>
-      <c r="E132" t="s">
+      <c r="F132" t="s">
+        <v>588</v>
+      </c>
+      <c r="G132" t="s">
         <v>386</v>
-      </c>
-      <c r="F132" t="s">
-        <v>589</v>
-      </c>
-      <c r="G132" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133"/>
       <c r="B133" t="s">
+        <v>387</v>
+      </c>
+      <c r="C133" t="s">
         <v>388</v>
       </c>
-      <c r="C133" t="s">
+      <c r="D133" t="str">
+        <f t="shared" si="2"/>
+        <v>* [The Ingenuity Lab](https://www.nottingham.ac.uk/business/businesscentres/hgi/ingenuity-lab/about-the-ingenuity-lab.aspx)</v>
+      </c>
+      <c r="E133" t="s">
+        <v>390</v>
+      </c>
+      <c r="F133" t="s">
+        <v>589</v>
+      </c>
+      <c r="G133" t="s">
         <v>389</v>
-      </c>
-      <c r="D133" t="str">
-        <f t="shared" si="2"/>
-        <v>* [The Ingenuity Lab](https://www.nottingham.ac.uk/business/businesscentres/hgi/ingenuity-lab/about-the-ingenuity-lab.aspx)</v>
-      </c>
-      <c r="E133" t="s">
-        <v>391</v>
-      </c>
-      <c r="F133" t="s">
-        <v>590</v>
-      </c>
-      <c r="G133" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134"/>
       <c r="B134" t="s">
+        <v>391</v>
+      </c>
+      <c r="C134" t="s">
+        <v>394</v>
+      </c>
+      <c r="D134" t="str">
+        <f t="shared" si="2"/>
+        <v>* [UBC Leeds Digital Hub](https://leeds.tech/workspace/the-digital-hub/)</v>
+      </c>
+      <c r="E134" t="s">
+        <v>395</v>
+      </c>
+      <c r="F134" t="s">
         <v>392</v>
       </c>
-      <c r="C134" t="s">
-        <v>395</v>
-      </c>
-      <c r="D134" t="str">
-        <f t="shared" si="2"/>
-        <v>* [UBC Leeds Digital Hub](https://leeds.tech/workspace/the-digital-hub/)</v>
-      </c>
-      <c r="E134" t="s">
-        <v>396</v>
-      </c>
-      <c r="F134" t="s">
+      <c r="G134" t="s">
         <v>393</v>
-      </c>
-      <c r="G134" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135"/>
       <c r="B135" t="s">
+        <v>396</v>
+      </c>
+      <c r="C135" t="s">
         <v>397</v>
       </c>
-      <c r="C135" t="s">
-        <v>398</v>
-      </c>
       <c r="D135" t="str">
         <f t="shared" si="2"/>
         <v>* [WB100](http://wosskowbrownfoundation.org.uk/)</v>
       </c>
       <c r="E135" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F135" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G135" t="s">
         <v>54</v>
@@ -5472,20 +5479,20 @@
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136"/>
       <c r="B136" t="s">
+        <v>398</v>
+      </c>
+      <c r="C136" t="s">
         <v>399</v>
       </c>
-      <c r="C136" t="s">
+      <c r="D136" t="str">
+        <f t="shared" si="2"/>
+        <v>* [BioData Innovation Centre](https://www.sanger.ac.uk/about/campus)</v>
+      </c>
+      <c r="E136" t="s">
         <v>400</v>
       </c>
-      <c r="D136" t="str">
-        <f t="shared" si="2"/>
-        <v>* [BioData Innovation Centre](https://www.sanger.ac.uk/about/campus)</v>
-      </c>
-      <c r="E136" t="s">
-        <v>401</v>
-      </c>
       <c r="F136" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G136" t="s">
         <v>54</v>
@@ -5494,32 +5501,32 @@
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137"/>
       <c r="B137" t="s">
+        <v>401</v>
+      </c>
+      <c r="C137" t="s">
         <v>402</v>
       </c>
-      <c r="C137" t="s">
-        <v>403</v>
-      </c>
       <c r="D137" t="str">
         <f t="shared" si="2"/>
         <v>* [Canopy Exeter](https://www.exetersciencepark.co.uk/)</v>
       </c>
       <c r="E137" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F137" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G137" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138"/>
       <c r="B138" t="s">
+        <v>403</v>
+      </c>
+      <c r="C138" t="s">
         <v>404</v>
-      </c>
-      <c r="C138" t="s">
-        <v>405</v>
       </c>
       <c r="D138" t="str">
         <f t="shared" si="2"/>
@@ -5529,107 +5536,107 @@
         <v>8</v>
       </c>
       <c r="F138" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G138" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139"/>
       <c r="B139" t="s">
+        <v>406</v>
+      </c>
+      <c r="C139" t="s">
         <v>407</v>
-      </c>
-      <c r="C139" t="s">
-        <v>408</v>
       </c>
       <c r="D139" t="str">
         <f t="shared" ref="D139:D156" si="3">CONCATENATE("* [",B139,"](",C139,")")</f>
         <v>* [Londoneast](https://www.londoneast-uk.com/)</v>
       </c>
       <c r="E139" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F139" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G139" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140"/>
       <c r="B140" t="s">
+        <v>410</v>
+      </c>
+      <c r="C140" t="s">
         <v>411</v>
-      </c>
-      <c r="C140" t="s">
-        <v>412</v>
       </c>
       <c r="D140" t="str">
         <f t="shared" si="3"/>
         <v>* [North East Space Incubation Programme](https://www.northeasttechnologypark.com/)</v>
       </c>
       <c r="E140" t="s">
+        <v>412</v>
+      </c>
+      <c r="F140" t="s">
+        <v>593</v>
+      </c>
+      <c r="G140" t="s">
         <v>413</v>
-      </c>
-      <c r="F140" t="s">
-        <v>594</v>
-      </c>
-      <c r="G140" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141"/>
       <c r="B141" t="s">
+        <v>414</v>
+      </c>
+      <c r="C141" t="s">
         <v>415</v>
-      </c>
-      <c r="C141" t="s">
-        <v>416</v>
       </c>
       <c r="D141" t="str">
         <f t="shared" si="3"/>
         <v>* [OpTIC Space Industry Incubation Programme](http://www.glyndwrinnovations.co.uk/incubation/)</v>
       </c>
       <c r="E141" t="s">
+        <v>416</v>
+      </c>
+      <c r="F141" t="s">
+        <v>594</v>
+      </c>
+      <c r="G141" t="s">
         <v>417</v>
-      </c>
-      <c r="F141" t="s">
-        <v>595</v>
-      </c>
-      <c r="G141" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142"/>
       <c r="B142" t="s">
+        <v>418</v>
+      </c>
+      <c r="C142" t="s">
         <v>419</v>
-      </c>
-      <c r="C142" t="s">
-        <v>420</v>
       </c>
       <c r="D142" t="str">
         <f t="shared" si="3"/>
         <v>* [Roslin Innovation Centre](https://www.roslininnovationcentre.com/)</v>
       </c>
       <c r="E142" t="s">
+        <v>420</v>
+      </c>
+      <c r="F142" t="s">
+        <v>595</v>
+      </c>
+      <c r="G142" t="s">
         <v>421</v>
-      </c>
-      <c r="F142" t="s">
-        <v>596</v>
-      </c>
-      <c r="G142" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143"/>
       <c r="B143" t="s">
+        <v>422</v>
+      </c>
+      <c r="C143" t="s">
         <v>423</v>
-      </c>
-      <c r="C143" t="s">
-        <v>424</v>
       </c>
       <c r="D143" t="str">
         <f t="shared" si="3"/>
@@ -5639,16 +5646,16 @@
         <v>21</v>
       </c>
       <c r="F143" t="s">
-        <v>21</v>
+        <v>466</v>
       </c>
       <c r="G143" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144"/>
       <c r="B144" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C144" t="s">
         <v>18</v>
@@ -5658,10 +5665,10 @@
         <v>* [Space Incubator](https://www.lusep.co.uk/)</v>
       </c>
       <c r="E144" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F144" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G144" t="s">
         <v>54</v>
@@ -5670,10 +5677,10 @@
     <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145"/>
       <c r="B145" t="s">
+        <v>426</v>
+      </c>
+      <c r="C145" t="s">
         <v>427</v>
-      </c>
-      <c r="C145" t="s">
-        <v>428</v>
       </c>
       <c r="D145" t="str">
         <f t="shared" si="3"/>
@@ -5683,7 +5690,7 @@
         <v>8</v>
       </c>
       <c r="F145" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G145" t="s">
         <v>54</v>
@@ -5692,64 +5699,64 @@
     <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146"/>
       <c r="B146" t="s">
+        <v>428</v>
+      </c>
+      <c r="C146" t="s">
         <v>429</v>
-      </c>
-      <c r="C146" t="s">
-        <v>430</v>
       </c>
       <c r="D146" t="str">
         <f t="shared" si="3"/>
         <v>* [Ashton Old Baths Innovation Centre](https://www.ashtonoldbaths.co.uk/)</v>
       </c>
       <c r="E146" t="s">
+        <v>430</v>
+      </c>
+      <c r="F146" t="s">
+        <v>535</v>
+      </c>
+      <c r="G146" t="s">
         <v>431</v>
-      </c>
-      <c r="F146" t="s">
-        <v>536</v>
-      </c>
-      <c r="G146" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147"/>
       <c r="B147" t="s">
+        <v>432</v>
+      </c>
+      <c r="C147" t="s">
         <v>433</v>
-      </c>
-      <c r="C147" t="s">
-        <v>434</v>
       </c>
       <c r="D147" t="str">
         <f t="shared" si="3"/>
         <v>* [Aurora Cambridge](https://www.bas.ac.uk/science/science-and-innovation/aurora-cambridge/)</v>
       </c>
       <c r="E147" t="s">
+        <v>434</v>
+      </c>
+      <c r="F147" t="s">
+        <v>596</v>
+      </c>
+      <c r="G147" t="s">
         <v>435</v>
-      </c>
-      <c r="F147" t="s">
-        <v>597</v>
-      </c>
-      <c r="G147" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148"/>
       <c r="B148" t="s">
+        <v>436</v>
+      </c>
+      <c r="C148" t="s">
         <v>437</v>
-      </c>
-      <c r="C148" t="s">
-        <v>438</v>
       </c>
       <c r="D148" t="str">
         <f t="shared" si="3"/>
         <v>* [Charnwood Campus](http://charnwoodcampus.com/)</v>
       </c>
       <c r="E148" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F148" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="G148" t="s">
         <v>54</v>
@@ -5758,20 +5765,20 @@
     <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149"/>
       <c r="B149" t="s">
+        <v>438</v>
+      </c>
+      <c r="C149" t="s">
         <v>439</v>
-      </c>
-      <c r="C149" t="s">
-        <v>440</v>
       </c>
       <c r="D149" t="str">
         <f t="shared" si="3"/>
         <v>* [The Spot Hive](https://www.sportingchanceinitiative.co.uk/the-sport-hive)</v>
       </c>
       <c r="E149" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F149" t="s">
-        <v>21</v>
+        <v>466</v>
       </c>
       <c r="G149" t="s">
         <v>54</v>
@@ -5780,20 +5787,20 @@
     <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150"/>
       <c r="B150" t="s">
+        <v>441</v>
+      </c>
+      <c r="C150" t="s">
         <v>442</v>
-      </c>
-      <c r="C150" t="s">
-        <v>443</v>
       </c>
       <c r="D150" t="str">
         <f t="shared" si="3"/>
         <v>* [STEAMHouse](https://www.bcu.ac.uk/business/steam/steamhouse)</v>
       </c>
       <c r="E150" t="s">
+        <v>598</v>
+      </c>
+      <c r="F150" t="s">
         <v>599</v>
-      </c>
-      <c r="F150" t="s">
-        <v>600</v>
       </c>
       <c r="G150" t="s">
         <v>54</v>
@@ -5802,10 +5809,10 @@
     <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151"/>
       <c r="B151" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C151" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D151" t="str">
         <f t="shared" si="3"/>
@@ -5815,7 +5822,7 @@
         <v>156</v>
       </c>
       <c r="F151" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G151" t="s">
         <v>54</v>
@@ -5824,20 +5831,20 @@
     <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152"/>
       <c r="B152" t="s">
+        <v>445</v>
+      </c>
+      <c r="C152" t="s">
         <v>446</v>
-      </c>
-      <c r="C152" t="s">
-        <v>447</v>
       </c>
       <c r="D152" t="str">
         <f t="shared" si="3"/>
         <v>* [UNIT DX](https://sciencecreates.co.uk/)</v>
       </c>
       <c r="E152" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F152" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G152" t="s">
         <v>54</v>
@@ -5846,20 +5853,20 @@
     <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153"/>
       <c r="B153" t="s">
+        <v>448</v>
+      </c>
+      <c r="C153" t="s">
         <v>449</v>
-      </c>
-      <c r="C153" t="s">
-        <v>450</v>
       </c>
       <c r="D153" t="str">
         <f t="shared" si="3"/>
         <v>* [Guildhall Creative Entrepreneurs](https://www.gsmd.ac.uk/youth_adult_learning/creative_business_support/guildhall_creative_entrepreneurs/)</v>
       </c>
       <c r="E153" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F153" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G153" t="s">
         <v>54</v>
@@ -5868,20 +5875,20 @@
     <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154"/>
       <c r="B154" t="s">
+        <v>451</v>
+      </c>
+      <c r="C154" t="s">
         <v>452</v>
-      </c>
-      <c r="C154" t="s">
-        <v>453</v>
       </c>
       <c r="D154" t="str">
         <f t="shared" si="3"/>
         <v>* [C11 Cyber Security and Digital Centre](https://www.glos.ac.uk/business-and-partnerships/c11-cyber-security-and-digital-innovation-centre/)</v>
       </c>
       <c r="E154" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F154" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G154" t="s">
         <v>54</v>
@@ -5890,10 +5897,10 @@
     <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155"/>
       <c r="B155" t="s">
+        <v>454</v>
+      </c>
+      <c r="C155" t="s">
         <v>455</v>
-      </c>
-      <c r="C155" t="s">
-        <v>456</v>
       </c>
       <c r="D155" t="str">
         <f t="shared" si="3"/>
@@ -5903,7 +5910,7 @@
         <v>73</v>
       </c>
       <c r="F155" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G155" t="s">
         <v>54</v>
@@ -5911,32 +5918,32 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D156" s="2" t="str">
         <f t="shared" si="3"/>
         <v>* [Founders Institute London](https://fi.co/overview)</v>
       </c>
       <c r="E156" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="F156" s="2" t="s">
         <v>466</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>467</v>
       </c>
       <c r="G156" t="s">
         <v>54</v>
       </c>
       <c r="H156" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.2">
@@ -5961,32 +5968,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB0D6E3D-312B-D943-BFDE-8DF8AE29187A}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B2:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>656</v>
+      </c>
+      <c r="C2" t="s">
+        <v>657</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/data/20210219_innovation_hubs-Almasi-v1.xlsx
+++ b/data/20210219_innovation_hubs-Almasi-v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sirvan/sites/startups/psychi/innovation-hubs/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316FEDAE-DE3A-F446-A9A3-26AAB95A9B99}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40BA022-4824-4D45-9703-59FEB9CB122E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="50380" yWindow="500" windowWidth="28400" windowHeight="28200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="663">
   <si>
     <t>Google Campus London</t>
   </si>
@@ -230,15 +230,9 @@
     <t> +44 (0)203752 2200</t>
   </si>
   <si>
-    <t>Imperial College White City Incubator</t>
-  </si>
-  <si>
     <t>https://www.ncl.ac.uk/london/</t>
   </si>
   <si>
-    <t>http://www.imperial.ac.uk/enterprise/business/incubator/</t>
-  </si>
-  <si>
     <t>MedTech Incubator</t>
   </si>
   <si>
@@ -2010,13 +2004,31 @@
   </si>
   <si>
     <t>Stevenage Bioscience Catalyst; Gunnels Wood Road; Stevenage Herts SG1 2FX</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>lng</t>
+  </si>
+  <si>
+    <t>Oxford, United Kingdom</t>
+  </si>
+  <si>
+    <t>Imperial College London Enterprise and innovation</t>
+  </si>
+  <si>
+    <t>https://www.imperial.ac.uk/white-city-campus/enterprise-innovation/</t>
+  </si>
+  <si>
+    <t>Includes: I-Hub; Scale Space; Imperial White City Incubator; Advanced Hacks Space; Imperial.tech and Imperial Enterprise Lab</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2053,6 +2065,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2075,7 +2119,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2090,6 +2134,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2429,17 +2481,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I157"/>
+  <dimension ref="A1:K157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" zoomScale="109" workbookViewId="0">
-      <selection activeCell="C149" sqref="C149"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="109" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.33203125" style="2" customWidth="1"/>
-    <col min="3" max="4" width="44.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="44.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="44.5" style="10" customWidth="1"/>
     <col min="5" max="5" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="47.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="36.33203125" style="2" bestFit="1" customWidth="1"/>
@@ -2448,9 +2501,9 @@
     <col min="10" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>2</v>
@@ -2458,9 +2511,9 @@
       <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4"/>
+      <c r="D1" s="8"/>
       <c r="E1" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>6</v>
@@ -2469,15 +2522,21 @@
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>615</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -2485,7 +2544,7 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="str">
+      <c r="D2" s="9" t="str">
         <f t="shared" ref="D2:D10" si="0">CONCATENATE("* [",B2,"](",C2,")")</f>
         <v>* [Google Campus London](https://www.campus.co/london/)</v>
       </c>
@@ -2493,26 +2552,32 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="G2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>644</v>
+      </c>
+      <c r="J2" s="6">
+        <v>51.52261</v>
+      </c>
+      <c r="K2" s="6">
+        <v>-8.5699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="D3" t="str">
+        <v>600</v>
+      </c>
+      <c r="D3" s="9" t="str">
         <f t="shared" si="0"/>
         <v>* [CyberASAP](https://ktn-uk.org/programme/cyberasap/)</v>
       </c>
@@ -2520,247 +2585,301 @@
         <v>9</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="G3" t="s">
         <v>54</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="J3" s="6">
+        <v>51.7377672</v>
+      </c>
+      <c r="K3" s="6">
+        <v>-1.0817931000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>607</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="D4" t="str">
+        <v>606</v>
+      </c>
+      <c r="D4" s="9" t="str">
         <f t="shared" si="0"/>
         <v>* [Digital Catapult](https://www.digicatapult.org.uk/)</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="J4" s="6">
+        <v>51.528449999999999</v>
+      </c>
+      <c r="K4" s="6">
+        <v>-0.1275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>609</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="5" t="s">
         <v>614</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>616</v>
-      </c>
-      <c r="D5" s="2" t="str">
+      <c r="D5" s="10" t="str">
         <f t="shared" si="0"/>
         <v>* [ktn](https://ktn-uk.org/)</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="J5" s="6">
+        <v>51.53528</v>
+      </c>
+      <c r="K5" s="6">
+        <v>-0.10527</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>622</v>
-      </c>
       <c r="B6" s="2" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>625</v>
-      </c>
-      <c r="D6" s="2" t="str">
+        <v>623</v>
+      </c>
+      <c r="D6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>* [Innovate UK (part of UKRI)](https://www.gov.uk/government/organisations/innovate-uk)</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="G6" t="s">
         <v>54</v>
       </c>
       <c r="H6" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="J6" s="6">
+        <v>51.566569999999999</v>
+      </c>
+      <c r="K6" s="6">
+        <v>-1.7846200000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="D7" s="2" t="str">
+      <c r="D7" s="10" t="str">
         <f t="shared" si="0"/>
         <v>* [UK Research and Innovation (UKRI)](https://www.ukri.org/)</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="G7" t="s">
         <v>54</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>628</v>
+      </c>
+      <c r="J7" s="6">
+        <v>51.566569999999999</v>
+      </c>
+      <c r="K7" s="6">
+        <v>-1.7846200000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="D8" s="2" t="str">
+        <v>624</v>
+      </c>
+      <c r="D8" s="10" t="str">
         <f t="shared" si="0"/>
         <v>* [UKRI London Office](https://www.ukri.org/)</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G8" t="s">
         <v>54</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>628</v>
+      </c>
+      <c r="J8" s="6">
+        <v>51.511279999999999</v>
+      </c>
+      <c r="K8" s="6">
+        <v>-0.10759000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="D9" s="2" t="str">
+        <v>624</v>
+      </c>
+      <c r="D9" s="10" t="str">
         <f t="shared" si="0"/>
         <v>* [UKRI Bristol Office](https://www.ukri.org/)</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="G9" t="s">
         <v>54</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>628</v>
+      </c>
+      <c r="J9" s="6">
+        <v>51.508800000000001</v>
+      </c>
+      <c r="K9" s="6">
+        <v>-2.5486300000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>636</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>638</v>
-      </c>
-      <c r="D10" s="2" t="str">
+      <c r="D10" s="10" t="str">
         <f t="shared" si="0"/>
         <v>* [UK Business Angels](https://www.ukbaa.org.uk/)</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>640</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10" s="6">
+        <v>51.51755</v>
+      </c>
+      <c r="K10" s="6">
+        <v>-0.11275</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" t="str">
+        <v>70</v>
+      </c>
+      <c r="D11" s="9" t="str">
         <f t="shared" ref="D11:D74" si="1">CONCATENATE("* [",B11,"](",C11,")")</f>
         <v>* [Level39](https://www.level39.co/)</v>
       </c>
       <c r="E11" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F11" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="G11"/>
       <c r="I11" s="2" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+        <v>645</v>
+      </c>
+      <c r="J11" s="6">
+        <v>51.5047</v>
+      </c>
+      <c r="K11" s="6">
+        <v>-1.9720000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -2768,7 +2887,7 @@
       <c r="C12" t="s">
         <v>14</v>
       </c>
-      <c r="D12" t="str">
+      <c r="D12" s="9" t="str">
         <f t="shared" si="1"/>
         <v>* [White Bear Yard(WBY)](http://wbyspace.com/)</v>
       </c>
@@ -2776,11 +2895,17 @@
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="G12"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J12" s="6">
+        <v>51.522039999999997</v>
+      </c>
+      <c r="K12" s="6">
+        <v>-0.10735</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A13"/>
       <c r="B13" t="s">
         <v>12</v>
@@ -2788,7 +2913,7 @@
       <c r="C13" t="s">
         <v>15</v>
       </c>
-      <c r="D13" t="str">
+      <c r="D13" s="9" t="str">
         <f t="shared" si="1"/>
         <v>* [IDEALondon](https://www.idealondon.co.uk/)</v>
       </c>
@@ -2802,37 +2927,49 @@
       <c r="I13" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J13" s="6">
+        <v>51.522047000000001</v>
+      </c>
+      <c r="K13" s="6">
+        <v>-8.4640199999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>454</v>
+      </c>
+      <c r="B14" t="s">
+        <v>455</v>
+      </c>
+      <c r="C14" t="s">
         <v>456</v>
       </c>
-      <c r="B14" t="s">
-        <v>457</v>
-      </c>
-      <c r="C14" t="s">
-        <v>458</v>
-      </c>
-      <c r="D14" t="str">
+      <c r="D14" s="9" t="str">
         <f t="shared" si="1"/>
         <v>* [ConceptionX](https://conceptionx.org/)</v>
       </c>
       <c r="E14" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F14" t="s">
         <v>16</v>
       </c>
       <c r="G14" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+        <v>641</v>
+      </c>
+      <c r="J14" s="6">
+        <v>51.522047000000001</v>
+      </c>
+      <c r="K14" s="6">
+        <v>-8.4640199999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
@@ -2840,7 +2977,7 @@
       <c r="C15" t="s">
         <v>18</v>
       </c>
-      <c r="D15" t="str">
+      <c r="D15" s="9" t="str">
         <f t="shared" si="1"/>
         <v>* [LU Inc.](https://www.lusep.co.uk/)</v>
       </c>
@@ -2848,13 +2985,19 @@
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G15"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J15" s="6">
+        <v>52.761279999999999</v>
+      </c>
+      <c r="K15" s="6">
+        <v>-1.24719</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
@@ -2862,21 +3005,27 @@
       <c r="C16" t="s">
         <v>20</v>
       </c>
-      <c r="D16" t="str">
+      <c r="D16" s="9" t="str">
         <f t="shared" si="1"/>
         <v>* [Cardiff Medicentre](http://www.cardiffmedicentre.co.uk/)</v>
       </c>
       <c r="E16" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F16" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G16" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J16" s="6">
+        <v>51.510089999999998</v>
+      </c>
+      <c r="K16" s="6">
+        <v>-3.1838099999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A17"/>
       <c r="B17" t="s">
         <v>22</v>
@@ -2884,7 +3033,7 @@
       <c r="C17" t="s">
         <v>23</v>
       </c>
-      <c r="D17" t="str">
+      <c r="D17" s="9" t="str">
         <f t="shared" si="1"/>
         <v>* [London BioScience Innovation Centre (LBIC)](https://www.lbic.com/)</v>
       </c>
@@ -2897,8 +3046,14 @@
       <c r="G17" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J17" s="6">
+        <v>51.536239999999999</v>
+      </c>
+      <c r="K17" s="6">
+        <v>-0.13355</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A18"/>
       <c r="B18" t="s">
         <v>27</v>
@@ -2906,19 +3061,25 @@
       <c r="C18" t="s">
         <v>28</v>
       </c>
-      <c r="D18" t="str">
+      <c r="D18" s="9" t="str">
         <f t="shared" si="1"/>
         <v>* [The Hive](https://www.ntu.ac.uk/ntu-enterprise)</v>
       </c>
       <c r="E18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G18"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J18" s="6">
+        <v>52.932600000000001</v>
+      </c>
+      <c r="K18" s="6">
+        <v>-1.2026999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A19"/>
       <c r="B19" t="s">
         <v>29</v>
@@ -2926,7 +3087,7 @@
       <c r="C19" t="s">
         <v>30</v>
       </c>
-      <c r="D19" t="str">
+      <c r="D19" s="9" t="str">
         <f t="shared" si="1"/>
         <v>* [European Marine Science Park](http://www.europeanmarinesciencepark.co.uk/)</v>
       </c>
@@ -2939,8 +3100,14 @@
       <c r="G19" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J19" s="6">
+        <v>56.451219999999999</v>
+      </c>
+      <c r="K19" s="6">
+        <v>-5.4418899999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A20"/>
       <c r="B20" t="s">
         <v>34</v>
@@ -2948,7 +3115,7 @@
       <c r="C20" t="s">
         <v>35</v>
       </c>
-      <c r="D20" t="str">
+      <c r="D20" s="9" t="str">
         <f t="shared" si="1"/>
         <v>* [Institute of Life Science Incubator](https://www.swansea.ac.uk/medicine/enterprise-and-innovation/)</v>
       </c>
@@ -2956,13 +3123,19 @@
         <v>36</v>
       </c>
       <c r="F20" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="G20" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J20" s="6">
+        <v>51.609819999999999</v>
+      </c>
+      <c r="K20" s="6">
+        <v>-3.9808300000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A21"/>
       <c r="B21" t="s">
         <v>38</v>
@@ -2970,7 +3143,7 @@
       <c r="C21" t="s">
         <v>39</v>
       </c>
-      <c r="D21" t="str">
+      <c r="D21" s="9" t="str">
         <f t="shared" si="1"/>
         <v>* [Centre for Secure Information Technologies (CSIT)](https://www.csitlabs.com/)</v>
       </c>
@@ -2978,11 +3151,17 @@
         <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="G21"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J21" s="6">
+        <v>54.584499999999998</v>
+      </c>
+      <c r="K21" s="6">
+        <v>-5.9351200000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="B22" t="s">
         <v>40</v>
@@ -2990,7 +3169,7 @@
       <c r="C22" t="s">
         <v>41</v>
       </c>
-      <c r="D22" t="str">
+      <c r="D22" s="9" t="str">
         <f t="shared" si="1"/>
         <v>* [3M Buckley Innovation Centre (3MBIC)](https://3mbic.com/)</v>
       </c>
@@ -2998,13 +3177,19 @@
         <v>42</v>
       </c>
       <c r="F22" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G22" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J22" s="6">
+        <v>53.641395000000003</v>
+      </c>
+      <c r="K22" s="6">
+        <v>-1.7774927</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A23"/>
       <c r="B23" t="s">
         <v>44</v>
@@ -3012,7 +3197,7 @@
       <c r="C23" t="s">
         <v>45</v>
       </c>
-      <c r="D23" t="str">
+      <c r="D23" s="9" t="str">
         <f t="shared" si="1"/>
         <v>* [London Cleantech Cluster](https://www.londoncleantechcluster.co.uk/)</v>
       </c>
@@ -3020,13 +3205,15 @@
         <v>46</v>
       </c>
       <c r="F23" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G23" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+    </row>
+    <row r="24" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A24"/>
       <c r="B24" t="s">
         <v>48</v>
@@ -3034,7 +3221,7 @@
       <c r="C24" t="s">
         <v>50</v>
       </c>
-      <c r="D24" t="str">
+      <c r="D24" s="9" t="str">
         <f t="shared" si="1"/>
         <v>* [Evolve Derby](https://www.derby.ac.uk/business-services/facilities-and-services/starting-a-new-business/)</v>
       </c>
@@ -3042,13 +3229,19 @@
         <v>51</v>
       </c>
       <c r="F24" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G24" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J24" s="6">
+        <v>52.909230000000001</v>
+      </c>
+      <c r="K24" s="6">
+        <v>-1.4562900000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A25"/>
       <c r="B25" t="s">
         <v>52</v>
@@ -3056,12 +3249,12 @@
       <c r="C25" t="s">
         <v>53</v>
       </c>
-      <c r="D25" t="str">
+      <c r="D25" s="9" t="str">
         <f t="shared" si="1"/>
         <v>* [Seedcloud](https://www.seedcloud.com/)</v>
       </c>
       <c r="E25" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F25" t="s">
         <v>55</v>
@@ -3069,8 +3262,14 @@
       <c r="G25" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J25" s="6">
+        <v>51.471500200000001</v>
+      </c>
+      <c r="K25" s="6">
+        <v>-0.2060246</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A26"/>
       <c r="B26" t="s">
         <v>56</v>
@@ -3078,7 +3277,7 @@
       <c r="C26" t="s">
         <v>57</v>
       </c>
-      <c r="D26" t="str">
+      <c r="D26" s="9" t="str">
         <f t="shared" si="1"/>
         <v>* [Innovation Factory](https://www.innovationfactoryni.com/)</v>
       </c>
@@ -3086,13 +3285,19 @@
         <v>59</v>
       </c>
       <c r="F26" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G26" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J26" s="6">
+        <v>54.603529999999999</v>
+      </c>
+      <c r="K26" s="6">
+        <v>-5.9673999999999996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A27"/>
       <c r="B27" t="s">
         <v>60</v>
@@ -3100,29 +3305,35 @@
       <c r="C27" t="s">
         <v>61</v>
       </c>
-      <c r="D27" t="str">
+      <c r="D27" s="9" t="str">
         <f t="shared" si="1"/>
         <v>* [Seed Haus](https://thisisseedhaus.com/)</v>
       </c>
       <c r="E27" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F27" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G27" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J27" s="6">
+        <v>55.975434399999997</v>
+      </c>
+      <c r="K27" s="6">
+        <v>-3.1676774000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A28"/>
       <c r="B28" t="s">
         <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" t="str">
+        <v>65</v>
+      </c>
+      <c r="D28" s="9" t="str">
         <f t="shared" si="1"/>
         <v>* [Newcastle Bio-Incubator](https://www.ncl.ac.uk/london/)</v>
       </c>
@@ -3130,263 +3341,338 @@
         <v>36</v>
       </c>
       <c r="F28" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="G28" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J28" s="6">
+        <v>54.98019</v>
+      </c>
+      <c r="K28" s="6">
+        <v>-1.6161399999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>651</v>
+      </c>
+      <c r="B29" t="s">
+        <v>660</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>661</v>
+      </c>
+      <c r="D29" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>* [Imperial College London Enterprise and innovation](https://www.imperial.ac.uk/white-city-campus/enterprise-innovation/)</v>
+      </c>
+      <c r="E29" t="s">
         <v>653</v>
       </c>
-      <c r="B29" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" t="s">
-        <v>67</v>
-      </c>
-      <c r="D29" t="str">
-        <f t="shared" si="1"/>
-        <v>* [Imperial College White City Incubator](http://www.imperial.ac.uk/enterprise/business/incubator/)</v>
-      </c>
-      <c r="E29" t="s">
-        <v>655</v>
-      </c>
       <c r="F29" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="G29" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H29" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="J29" s="6">
+        <v>51.515981099999998</v>
+      </c>
+      <c r="K29" s="6">
+        <v>-0.22505320000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A30"/>
       <c r="B30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" t="s">
         <v>68</v>
       </c>
-      <c r="C30" t="s">
-        <v>70</v>
-      </c>
-      <c r="D30" t="str">
+      <c r="D30" s="9" t="str">
         <f t="shared" si="1"/>
         <v>* [MedTech Incubator](http://www.manchestertechtrust.com/directory/workspace/msp-medtech/)</v>
       </c>
       <c r="E30" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G30" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J30" s="6">
+        <v>53.463949999999997</v>
+      </c>
+      <c r="K30" s="6">
+        <v>-2.23814</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A31"/>
       <c r="B31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" t="s">
         <v>75</v>
       </c>
-      <c r="C31" t="s">
-        <v>77</v>
-      </c>
-      <c r="D31" t="str">
+      <c r="D31" s="9" t="str">
         <f t="shared" si="1"/>
         <v>* [Techtopia](https://www.crunchbase.com/organization/techtopia/technology)</v>
       </c>
       <c r="E31" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F31" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="G31"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J31" s="6">
+        <v>51.519930000000002</v>
+      </c>
+      <c r="K31" s="6">
+        <v>-0.14269000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A32"/>
       <c r="B32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C32" t="s">
-        <v>79</v>
-      </c>
-      <c r="D32" t="str">
+        <v>77</v>
+      </c>
+      <c r="D32" s="9" t="str">
         <f t="shared" si="1"/>
         <v>* [Centre for Nanohealth Incubator](https://www.swansea.ac.uk/nanohealth/)</v>
       </c>
       <c r="E32" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F32" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G32" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="J32" s="6">
+        <v>51.609819999999999</v>
+      </c>
+      <c r="K32" s="6">
+        <v>-3.9808300000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A33"/>
       <c r="B33" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C33" t="s">
-        <v>83</v>
-      </c>
-      <c r="D33" t="str">
+        <v>81</v>
+      </c>
+      <c r="D33" s="9" t="str">
         <f t="shared" si="1"/>
         <v>* [Cloud Innovation Centre](http://www.cloudcentres.co.uk/)</v>
       </c>
       <c r="E33" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F33" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G33" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="J33" s="6">
+        <v>51.563685700000001</v>
+      </c>
+      <c r="K33" s="6">
+        <v>-3.3193003000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A34"/>
       <c r="B34" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C34" t="s">
-        <v>87</v>
-      </c>
-      <c r="D34" t="str">
+        <v>85</v>
+      </c>
+      <c r="D34" s="9" t="str">
         <f t="shared" si="1"/>
         <v>* [Nest](https://myport.port.ac.uk/guidance-and-support/careers-support/student-startup-support)</v>
       </c>
       <c r="E34" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F34" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="G34" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="J34" s="6">
+        <v>50.795388699999997</v>
+      </c>
+      <c r="K34" s="6">
+        <v>-1.0889735</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A35"/>
       <c r="B35" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C35" t="s">
-        <v>91</v>
-      </c>
-      <c r="D35" t="str">
+        <v>89</v>
+      </c>
+      <c r="D35" s="9" t="str">
         <f t="shared" si="1"/>
         <v>* [Tetricus Incubator](https://completelyoffice.co.uk/scheme/Tetricus-Science-Park-Salisbury/)</v>
       </c>
       <c r="E35" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F35" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G35" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J35" s="6">
+        <v>51.133920000000003</v>
+      </c>
+      <c r="K35" s="6">
+        <v>-1.69974</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A36"/>
       <c r="B36" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C36" t="s">
-        <v>94</v>
-      </c>
-      <c r="D36" t="str">
+        <v>92</v>
+      </c>
+      <c r="D36" s="9" t="str">
         <f t="shared" si="1"/>
         <v>* [Tech Hub](https://london.techhub.com/)</v>
       </c>
       <c r="E36" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F36" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G36" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+      <c r="J36" s="6">
+        <v>51.523789999999998</v>
+      </c>
+      <c r="K36" s="6">
+        <v>-8.4589999999999999E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A37"/>
       <c r="B37" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C37" t="s">
-        <v>97</v>
-      </c>
-      <c r="D37" t="str">
+        <v>95</v>
+      </c>
+      <c r="D37" s="9" t="str">
         <f t="shared" si="1"/>
         <v>* [Innovation Warehouse](https://innovationwarehouse.org/)</v>
       </c>
       <c r="E37" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F37" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G37" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+      <c r="J37" s="6">
+        <v>51.518799999999999</v>
+      </c>
+      <c r="K37" s="6">
+        <v>-0.10263</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A38"/>
       <c r="B38" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C38" t="s">
-        <v>100</v>
-      </c>
-      <c r="D38" t="str">
+        <v>98</v>
+      </c>
+      <c r="D38" s="9" t="str">
         <f t="shared" si="1"/>
         <v>* [MyIncubator](https://wenta.co.uk/about-wenta/)</v>
       </c>
       <c r="E38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F38" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G38" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="J38" s="6">
+        <v>51.67445</v>
+      </c>
+      <c r="K38" s="6">
+        <v>-2.2179999999999998E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A39"/>
       <c r="B39" t="s">
+        <v>100</v>
+      </c>
+      <c r="C39" t="s">
         <v>102</v>
       </c>
-      <c r="C39" t="s">
-        <v>104</v>
-      </c>
-      <c r="D39" t="str">
+      <c r="D39" s="9" t="str">
         <f t="shared" si="1"/>
         <v>* [ICE Accelerator](https://welshice.org/blog/welsh-ice-launch-accelerator)</v>
       </c>
       <c r="E39" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F39" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="G39" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J39" s="6">
+        <v>51.571269999999998</v>
+      </c>
+      <c r="K39" s="6">
+        <v>-3.2040199999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A40"/>
       <c r="B40" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C40" t="s">
-        <v>106</v>
-      </c>
-      <c r="D40" t="str">
+        <v>104</v>
+      </c>
+      <c r="D40" s="9" t="str">
         <f t="shared" si="1"/>
         <v>* [Entrepreneurs for the future](https://e4f.co.uk/)</v>
       </c>
@@ -3394,259 +3680,331 @@
         <v>8</v>
       </c>
       <c r="F40" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G40" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+      <c r="J40" s="6">
+        <v>52.453690000000002</v>
+      </c>
+      <c r="K40" s="6">
+        <v>-1.93251</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A41"/>
       <c r="B41" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C41" t="s">
-        <v>109</v>
-      </c>
-      <c r="D41" t="str">
+        <v>107</v>
+      </c>
+      <c r="D41" s="9" t="str">
         <f t="shared" si="1"/>
         <v>* [London Business School Incubator](https://www.london.edu/faculty-and-research/institute-of-innovation-and-entrepreneurship/opportunities-and-resources/scale/incubator-programme)</v>
       </c>
       <c r="E41" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F41" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G41" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="J41" s="6">
+        <v>51.526319999999998</v>
+      </c>
+      <c r="K41" s="6">
+        <v>-0.16136</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A42"/>
       <c r="B42" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" t="s">
         <v>112</v>
       </c>
-      <c r="C42" t="s">
-        <v>114</v>
-      </c>
-      <c r="D42" t="str">
+      <c r="D42" s="9" t="str">
         <f t="shared" si="1"/>
         <v>* [Edinburgh Business School Incubator](https://www.hw.ac.uk/ebs/business/incubator.htm)</v>
       </c>
       <c r="E42" t="s">
+        <v>109</v>
+      </c>
+      <c r="F42" t="s">
+        <v>537</v>
+      </c>
+      <c r="G42" t="s">
         <v>111</v>
       </c>
-      <c r="F42" t="s">
-        <v>539</v>
-      </c>
-      <c r="G42" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J42" s="6">
+        <v>55.909120000000001</v>
+      </c>
+      <c r="K42" s="6">
+        <v>-3.3199200000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A43"/>
       <c r="B43" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C43" t="s">
-        <v>116</v>
-      </c>
-      <c r="D43" t="str">
+        <v>114</v>
+      </c>
+      <c r="D43" s="9" t="str">
         <f t="shared" si="1"/>
         <v>* [Royal Academy of Engineering’s Enterprise Hub](https://enterprisehub.raeng.org.uk/)</v>
       </c>
       <c r="E43" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F43" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="G43" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+      <c r="J43" s="6">
+        <v>51.505800000000001</v>
+      </c>
+      <c r="K43" s="6">
+        <v>-0.1331</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A44"/>
       <c r="B44" t="s">
+        <v>117</v>
+      </c>
+      <c r="C44" t="s">
         <v>119</v>
       </c>
-      <c r="C44" t="s">
-        <v>121</v>
-      </c>
-      <c r="D44" t="str">
+      <c r="D44" s="9" t="str">
         <f t="shared" si="1"/>
         <v>* [Bathtub 2 Boardroom](https://www.bathtub2boardroom.com/)</v>
       </c>
       <c r="E44" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F44" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="G44" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+      <c r="J44" s="6">
+        <v>51.530059999999999</v>
+      </c>
+      <c r="K44" s="6">
+        <v>-9.7850000000000006E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A45"/>
       <c r="B45" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C45" t="s">
-        <v>123</v>
-      </c>
-      <c r="D45" t="str">
+        <v>121</v>
+      </c>
+      <c r="D45" s="9" t="str">
         <f t="shared" si="1"/>
         <v>* [CodeBase](https://www.thisiscodebase.com/)</v>
       </c>
       <c r="E45" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F45" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G45" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+        <v>488</v>
+      </c>
+      <c r="J45" s="6">
+        <v>55.946899700000003</v>
+      </c>
+      <c r="K45" s="6">
+        <v>-3.2022081</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A46"/>
       <c r="B46" t="s">
+        <v>123</v>
+      </c>
+      <c r="C46" t="s">
         <v>125</v>
       </c>
-      <c r="C46" t="s">
-        <v>127</v>
-      </c>
-      <c r="D46" t="str">
+      <c r="D46" s="9" t="str">
         <f t="shared" si="1"/>
         <v>* [Health Foundry](http://www.healthfoundry.org/)</v>
       </c>
       <c r="E46" t="s">
+        <v>124</v>
+      </c>
+      <c r="F46" t="s">
+        <v>489</v>
+      </c>
+      <c r="G46" t="s">
         <v>126</v>
       </c>
-      <c r="F46" t="s">
-        <v>491</v>
-      </c>
-      <c r="G46" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J46" s="6">
+        <v>51.498759999999997</v>
+      </c>
+      <c r="K46" s="6">
+        <v>-0.11637</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A47"/>
       <c r="B47" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C47" t="s">
-        <v>130</v>
-      </c>
-      <c r="D47" t="str">
+        <v>128</v>
+      </c>
+      <c r="D47" s="9" t="str">
         <f t="shared" si="1"/>
         <v>* [Sussex Innovation Croydon](https://www.sinc.co.uk/)</v>
       </c>
       <c r="E47" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F47" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G47" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+      <c r="J47" s="6">
+        <v>51.3750979</v>
+      </c>
+      <c r="K47" s="6">
+        <v>-9.0276999999999996E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A48"/>
       <c r="B48" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C48" t="s">
-        <v>134</v>
-      </c>
-      <c r="D48" t="str">
+        <v>132</v>
+      </c>
+      <c r="D48" s="9" t="str">
         <f t="shared" si="1"/>
         <v>* [Manchester Incubator Building](https://www.umic.co.uk/)</v>
       </c>
       <c r="E48" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F48" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G48" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+      <c r="J48" s="6">
+        <v>53.463900000000002</v>
+      </c>
+      <c r="K48" s="6">
+        <v>-2.2278699999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A49"/>
       <c r="B49" t="s">
+        <v>134</v>
+      </c>
+      <c r="C49" t="s">
         <v>136</v>
       </c>
-      <c r="C49" t="s">
-        <v>138</v>
-      </c>
-      <c r="D49" t="str">
+      <c r="D49" s="9" t="str">
         <f t="shared" si="1"/>
         <v>* [Genesis](https://www.barnsleybic.co.uk/)</v>
       </c>
       <c r="E49" t="s">
+        <v>135</v>
+      </c>
+      <c r="F49" t="s">
+        <v>491</v>
+      </c>
+      <c r="G49" t="s">
         <v>137</v>
       </c>
-      <c r="F49" t="s">
-        <v>493</v>
-      </c>
-      <c r="G49" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J49" s="6">
+        <v>53.564579999999999</v>
+      </c>
+      <c r="K49" s="6">
+        <v>-1.5035400000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A50"/>
       <c r="B50" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C50" t="s">
-        <v>141</v>
-      </c>
-      <c r="D50" t="str">
+        <v>139</v>
+      </c>
+      <c r="D50" s="9" t="str">
         <f t="shared" si="1"/>
         <v>* [Bright Red Triangle](https://brightredtriangle.co.uk/)</v>
       </c>
       <c r="E50" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F50" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G50" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+      <c r="J50" s="6">
+        <v>55.924642800000001</v>
+      </c>
+      <c r="K50" s="6">
+        <v>-3.2877474000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A51"/>
       <c r="B51" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C51" t="s">
-        <v>144</v>
-      </c>
-      <c r="D51" t="str">
+        <v>142</v>
+      </c>
+      <c r="D51" s="9" t="str">
         <f t="shared" si="1"/>
         <v>* [The Duke of York Young Entrepreneur Centre](https://students.hud.ac.uk/opportunities/enterprise/duke-of-york-centre/)</v>
       </c>
       <c r="E51"/>
       <c r="F51" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="G51"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J51" s="6">
+        <v>53.641756200000003</v>
+      </c>
+      <c r="K51" s="6">
+        <v>-1.7769451000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A52"/>
       <c r="B52" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C52" t="s">
-        <v>146</v>
-      </c>
-      <c r="D52" t="str">
+        <v>144</v>
+      </c>
+      <c r="D52" s="9" t="str">
         <f t="shared" si="1"/>
         <v>* [Portsmouth Technopole](https://www.port.ac.uk/collaborate/coworking-and-office-space)</v>
       </c>
@@ -3654,483 +4012,607 @@
         <v>59</v>
       </c>
       <c r="F52" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="G52" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+      <c r="J52" s="6">
+        <v>50.795388699999997</v>
+      </c>
+      <c r="K52" s="6">
+        <v>-1.0889735</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B53" t="s">
+        <v>146</v>
+      </c>
+      <c r="C53" t="s">
         <v>148</v>
       </c>
-      <c r="C53" t="s">
-        <v>150</v>
-      </c>
-      <c r="D53" t="str">
+      <c r="D53" s="9" t="str">
         <f t="shared" si="1"/>
         <v>* [UCL BaseKX](https://www.ucl.ac.uk/enterprise/)</v>
       </c>
       <c r="E53" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F53" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G53" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+      <c r="J53" s="6">
+        <v>51.52458</v>
+      </c>
+      <c r="K53" s="6">
+        <v>-0.13478000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A54"/>
       <c r="B54" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C54" t="s">
-        <v>461</v>
-      </c>
-      <c r="D54" t="str">
+        <v>459</v>
+      </c>
+      <c r="D54" s="9" t="str">
         <f t="shared" si="1"/>
         <v>* [Oxford Startup Incubator](https://innovation.ox.ac.uk/startupincubator/)</v>
       </c>
       <c r="E54" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F54" t="s">
-        <v>496</v>
+        <v>659</v>
       </c>
       <c r="G54" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J54" s="6">
+        <v>51.751528</v>
+      </c>
+      <c r="K54" s="6">
+        <v>-1.257503</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B55" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C55" t="s">
-        <v>462</v>
-      </c>
-      <c r="D55" t="str">
+        <v>460</v>
+      </c>
+      <c r="D55" s="9" t="str">
         <f t="shared" si="1"/>
         <v>* [Oxford Accelerator](http://www.oxfordaccelerator.com/)</v>
       </c>
       <c r="E55" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F55" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G55" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+    </row>
+    <row r="56" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A56"/>
       <c r="B56" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C56" t="s">
-        <v>153</v>
-      </c>
-      <c r="D56" t="str">
+        <v>151</v>
+      </c>
+      <c r="D56" s="9" t="str">
         <f t="shared" si="1"/>
         <v>* [RGU Incubator](https://www.comp.rgu.ac.uk/digital-incubator/)</v>
       </c>
       <c r="E56" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F56" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="G56" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="J56" s="6">
+        <v>57.119419999999998</v>
+      </c>
+      <c r="K56" s="6">
+        <v>-2.1409899999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A57"/>
       <c r="B57" t="s">
+        <v>153</v>
+      </c>
+      <c r="C57" t="s">
         <v>155</v>
       </c>
-      <c r="C57" t="s">
-        <v>157</v>
-      </c>
-      <c r="D57" t="str">
+      <c r="D57" s="9" t="str">
         <f t="shared" si="1"/>
         <v>* [Open Education Challenge](https://www.startus.cc/company/open-education-challenge)</v>
       </c>
       <c r="E57" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F57" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G57" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+    </row>
+    <row r="58" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A58"/>
       <c r="B58" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C58" t="s">
-        <v>159</v>
-      </c>
-      <c r="D58" t="str">
+        <v>157</v>
+      </c>
+      <c r="D58" s="9" t="str">
         <f t="shared" si="1"/>
         <v>* [Surrey Research Park](https://surrey-research-park.com/)</v>
       </c>
       <c r="E58" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F58" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G58" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+      <c r="J58" s="6">
+        <v>51.24</v>
+      </c>
+      <c r="K58" s="6">
+        <v>-0.61238999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A59"/>
       <c r="B59" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C59" t="s">
-        <v>162</v>
-      </c>
-      <c r="D59" t="str">
+        <v>160</v>
+      </c>
+      <c r="D59" s="9" t="str">
         <f t="shared" si="1"/>
         <v>* [Oxford Centre for Innovation](https://www.ocfi.co.uk/)</v>
       </c>
       <c r="E59" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F59" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G59" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J59" s="6">
+        <v>51.752290000000002</v>
+      </c>
+      <c r="K59" s="6">
+        <v>-1.26386</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A60"/>
       <c r="B60" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C60" t="s">
-        <v>165</v>
-      </c>
-      <c r="D60" t="str">
+        <v>163</v>
+      </c>
+      <c r="D60" s="9" t="str">
         <f t="shared" si="1"/>
         <v>* [St Johns Innovation Centre](https://stjohns.co.uk/)</v>
       </c>
       <c r="E60" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F60" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G60" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+      <c r="J60" s="6">
+        <v>52.23603</v>
+      </c>
+      <c r="K60" s="6">
+        <v>0.15372</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A61"/>
       <c r="B61" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C61" t="s">
-        <v>169</v>
-      </c>
-      <c r="D61" t="str">
+        <v>167</v>
+      </c>
+      <c r="D61" s="9" t="str">
         <f t="shared" si="1"/>
         <v>* [Strathclyde University Incubator](http://www.suilimited.com/)</v>
       </c>
       <c r="E61"/>
       <c r="F61" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G61" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+      <c r="J61" s="6">
+        <v>55.861128700000002</v>
+      </c>
+      <c r="K61" s="6">
+        <v>-4.2418836000000004</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A62"/>
       <c r="B62" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C62" t="s">
-        <v>172</v>
-      </c>
-      <c r="D62" t="str">
+        <v>170</v>
+      </c>
+      <c r="D62" s="9" t="str">
         <f t="shared" si="1"/>
         <v>* [Magdalen Centre](https://oxfordsp.com/)</v>
       </c>
       <c r="E62" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F62" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="G62" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+      <c r="J62" s="6">
+        <v>51.716334799999998</v>
+      </c>
+      <c r="K62" s="6">
+        <v>-1.2163672999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A63"/>
       <c r="B63" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C63" t="s">
-        <v>175</v>
-      </c>
-      <c r="D63" t="str">
+        <v>173</v>
+      </c>
+      <c r="D63" s="9" t="str">
         <f t="shared" si="1"/>
         <v>* [Norwich Research Park Accelerator](https://www.norwichresearchpark.com/property-and-park/accommodation-types/accelerator)</v>
       </c>
       <c r="E63" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F63" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G63" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J63" s="6">
+        <v>52.622669399999999</v>
+      </c>
+      <c r="K63" s="6">
+        <v>1.2235109099999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A64"/>
       <c r="B64" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C64" t="s">
-        <v>178</v>
-      </c>
-      <c r="D64" t="str">
+        <v>176</v>
+      </c>
+      <c r="D64" s="9" t="str">
         <f t="shared" si="1"/>
         <v>* [Edinburgh Research and Innovation](https://edinburgh-innovations.ed.ac.uk/)</v>
       </c>
       <c r="E64" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F64" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G64" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+      <c r="J64" s="6">
+        <v>55.924280000000003</v>
+      </c>
+      <c r="K64" s="6">
+        <v>-3.1771699999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A65"/>
       <c r="B65" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C65" t="s">
-        <v>181</v>
-      </c>
-      <c r="D65" t="str">
+        <v>179</v>
+      </c>
+      <c r="D65" s="9" t="str">
         <f t="shared" si="1"/>
         <v>* [Granta Park](https://www.babraham.ac.uk/)</v>
       </c>
       <c r="E65" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F65" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G65" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J65" s="6">
+        <v>52.132910000000003</v>
+      </c>
+      <c r="K65" s="6">
+        <v>0.20860999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A66"/>
       <c r="B66" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C66" t="s">
-        <v>184</v>
-      </c>
-      <c r="D66" t="str">
+        <v>182</v>
+      </c>
+      <c r="D66" s="9" t="str">
         <f t="shared" si="1"/>
         <v>* [Cherwell Innovation Centre](https://www.heyfordpark-ic.co.uk/)</v>
       </c>
       <c r="E66"/>
       <c r="F66" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G66" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+      <c r="J66" s="6">
+        <v>51.939929999999997</v>
+      </c>
+      <c r="K66" s="6">
+        <v>-1.2598100000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A67"/>
       <c r="B67" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C67" t="s">
-        <v>187</v>
-      </c>
-      <c r="D67" t="str">
+        <v>185</v>
+      </c>
+      <c r="D67" s="9" t="str">
         <f t="shared" si="1"/>
         <v>* [Malvern Hills Science Park](https://www.mhsp.co.uk/)</v>
       </c>
       <c r="E67" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F67" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G67" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J67" s="6">
+        <v>52.104239999999997</v>
+      </c>
+      <c r="K67" s="6">
+        <v>-2.3108900000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A68"/>
       <c r="B68" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C68" t="s">
-        <v>189</v>
-      </c>
-      <c r="D68" t="str">
+        <v>187</v>
+      </c>
+      <c r="D68" s="9" t="str">
         <f t="shared" si="1"/>
         <v>* [Roslin BioCentre](https://midlothiansciencezone.com/)</v>
       </c>
       <c r="E68" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F68" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G68" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+      <c r="J68" s="6">
+        <v>55.86553</v>
+      </c>
+      <c r="K68" s="6">
+        <v>-3.2013400000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A69"/>
       <c r="B69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C69" t="s">
-        <v>192</v>
-      </c>
-      <c r="D69" t="str">
+        <v>190</v>
+      </c>
+      <c r="D69" s="9" t="str">
         <f t="shared" si="1"/>
         <v>* [Harwell Innovation Centre](https://www.harwell-ic.co.uk/)</v>
       </c>
       <c r="E69" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F69" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G69" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+      <c r="J69" s="6">
+        <v>51.583150000000003</v>
+      </c>
+      <c r="K69" s="6">
+        <v>-1.31152</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A70"/>
       <c r="B70" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C70" t="s">
-        <v>195</v>
-      </c>
-      <c r="D70" t="str">
+        <v>193</v>
+      </c>
+      <c r="D70" s="9" t="str">
         <f t="shared" si="1"/>
         <v>* [i-SE – Women’s Enterprise Hub](http://www.i-se.co.uk/)</v>
       </c>
       <c r="E70" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F70" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="G70" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="J70" s="6">
+        <v>52.471020000000003</v>
+      </c>
+      <c r="K70" s="6">
+        <v>-1.8813599999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A71"/>
       <c r="B71" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C71" t="s">
-        <v>199</v>
-      </c>
-      <c r="D71" t="str">
+        <v>197</v>
+      </c>
+      <c r="D71" s="9" t="str">
         <f t="shared" si="1"/>
         <v>* [Scottish Microelectronics Centre](https://www.eng.ed.ac.uk/research/facilities-and-resources/resources/scottish-microelectronics-centre)</v>
       </c>
       <c r="E71" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F71" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G71" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J71" s="6">
+        <v>55.924280000000003</v>
+      </c>
+      <c r="K71" s="6">
+        <v>-3.1771699999999998</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A72"/>
       <c r="B72" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C72" t="s">
-        <v>202</v>
-      </c>
-      <c r="D72" t="str">
+        <v>200</v>
+      </c>
+      <c r="D72" s="9" t="str">
         <f t="shared" si="1"/>
         <v>* [Bicester Innovation Centre](https://www.bicester-ic.co.uk/)</v>
       </c>
       <c r="E72" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F72" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G72" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+      <c r="J72" s="6">
+        <v>51.903129999999997</v>
+      </c>
+      <c r="K72" s="6">
+        <v>-1.1312199999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A73"/>
       <c r="B73" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C73" t="s">
-        <v>205</v>
-      </c>
-      <c r="D73" t="str">
+        <v>203</v>
+      </c>
+      <c r="D73" s="9" t="str">
         <f t="shared" si="1"/>
         <v>* [Culham Science Centre](http://www.culham.org.uk/)</v>
       </c>
       <c r="E73" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F73" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="G73" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+      <c r="J73" s="6">
+        <v>51.653564000000003</v>
+      </c>
+      <c r="K73" s="6">
+        <v>-1.2284134</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A74"/>
       <c r="B74" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C74" t="s">
-        <v>208</v>
-      </c>
-      <c r="D74" t="str">
+        <v>206</v>
+      </c>
+      <c r="D74" s="9" t="str">
         <f t="shared" si="1"/>
         <v>* [Staffordshire BIC](https://thebic.co.uk/)</v>
       </c>
@@ -4138,21 +4620,27 @@
         <v>8</v>
       </c>
       <c r="F74" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G74" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+      <c r="J74" s="6">
+        <v>52.979030399999999</v>
+      </c>
+      <c r="K74" s="6">
+        <v>-2.1391439000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A75"/>
       <c r="B75" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C75" t="s">
-        <v>211</v>
-      </c>
-      <c r="D75" t="str">
+        <v>209</v>
+      </c>
+      <c r="D75" s="9" t="str">
         <f t="shared" ref="D75:D138" si="2">CONCATENATE("* [",B75,"](",C75,")")</f>
         <v>* [Sparkhouse](https://www.sparkhouselincoln.co.uk/)</v>
       </c>
@@ -4160,219 +4648,279 @@
         <v>8</v>
       </c>
       <c r="F75" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G75" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+      <c r="J75" s="6">
+        <v>53.214815000000002</v>
+      </c>
+      <c r="K75" s="6">
+        <v>-0.55923049999999996</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A76"/>
       <c r="B76" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C76" t="s">
-        <v>214</v>
-      </c>
-      <c r="D76" t="str">
+        <v>212</v>
+      </c>
+      <c r="D76" s="9" t="str">
         <f t="shared" si="2"/>
         <v>* [Sussex Innovation Centre](https://www.sinc.co.uk)</v>
       </c>
       <c r="E76" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F76" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G76" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+      <c r="J76" s="6">
+        <v>-32.984805999999999</v>
+      </c>
+      <c r="K76" s="6">
+        <v>27.8853662</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A77"/>
       <c r="B77" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C77" t="s">
-        <v>217</v>
-      </c>
-      <c r="D77" t="str">
+        <v>215</v>
+      </c>
+      <c r="D77" s="9" t="str">
         <f t="shared" si="2"/>
         <v>* [SPARK Business Incubation Centre](https://www.sparkspace.co.uk/)</v>
       </c>
       <c r="E77" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F77" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="G77" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+        <v>216</v>
+      </c>
+      <c r="J77" s="6">
+        <v>52.601869999999998</v>
+      </c>
+      <c r="K77" s="6">
+        <v>-2.1269200000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A78"/>
       <c r="B78" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C78" t="s">
-        <v>220</v>
-      </c>
-      <c r="D78" t="str">
+        <v>218</v>
+      </c>
+      <c r="D78" s="9" t="str">
         <f t="shared" si="2"/>
         <v>* [BRL Technology Business Incubator](https://www.bristolroboticslab.com/)</v>
       </c>
       <c r="E78" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F78" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G78" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+        <v>219</v>
+      </c>
+      <c r="J78" s="6">
+        <v>51.501150000000003</v>
+      </c>
+      <c r="K78" s="6">
+        <v>-2.5468500000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A79"/>
       <c r="B79" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C79" t="s">
-        <v>223</v>
-      </c>
-      <c r="D79" t="str">
+        <v>221</v>
+      </c>
+      <c r="D79" s="9" t="str">
         <f t="shared" si="2"/>
         <v>* [Cranfield University Business Incubation Centre (CUBIC)](https://www.cranfield.ac.uk/business/access-our-world-class-facilities/business-incubation)</v>
       </c>
       <c r="E79" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F79" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G79" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J79" s="6">
+        <v>52.0752217</v>
+      </c>
+      <c r="K79" s="6">
+        <v>-0.6262432</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A80"/>
       <c r="B80" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C80" t="s">
-        <v>227</v>
-      </c>
-      <c r="D80" t="str">
+        <v>225</v>
+      </c>
+      <c r="D80" s="9" t="str">
         <f t="shared" si="2"/>
         <v>* [Culham Innovation Centre](https://www.culham-ic.co.uk/)</v>
       </c>
       <c r="E80" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F80" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="G80" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+      <c r="J80" s="6">
+        <v>51.680980599999998</v>
+      </c>
+      <c r="K80" s="6">
+        <v>-1.2725557999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A81"/>
       <c r="B81" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C81" t="s">
-        <v>230</v>
-      </c>
-      <c r="D81" t="str">
+        <v>228</v>
+      </c>
+      <c r="D81" s="9" t="str">
         <f t="shared" si="2"/>
         <v>* [Hub for Innovation and Enterprise](https://www.kent.ac.uk/enterprise/student-talent)</v>
       </c>
       <c r="E81" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F81" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="G81" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J81" s="6">
+        <v>51.298470000000002</v>
+      </c>
+      <c r="K81" s="6">
+        <v>1.0684899999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A82"/>
       <c r="B82" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C82" t="s">
-        <v>232</v>
-      </c>
-      <c r="D82" t="str">
+        <v>230</v>
+      </c>
+      <c r="D82" s="9" t="str">
         <f t="shared" si="2"/>
         <v>* [Sci-Tech Daresbury](https://www.sci-techdaresbury.com/)</v>
       </c>
       <c r="E82" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F82" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="G82" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+      <c r="J82" s="6">
+        <v>53.34469</v>
+      </c>
+      <c r="K82" s="6">
+        <v>-2.6390799999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A83"/>
       <c r="B83" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C83" t="s">
-        <v>236</v>
-      </c>
-      <c r="D83" t="str">
+        <v>234</v>
+      </c>
+      <c r="D83" s="9" t="str">
         <f t="shared" si="2"/>
         <v>* [Sheffield Bioincubator](http://www.innovation.group.shef.ac.uk/)</v>
       </c>
       <c r="E83" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F83" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G83" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J83" s="6">
+        <v>53.383890000000001</v>
+      </c>
+      <c r="K83" s="6">
+        <v>-1.47912</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A84"/>
       <c r="B84" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C84" t="s">
-        <v>237</v>
-      </c>
-      <c r="D84" t="str">
+        <v>235</v>
+      </c>
+      <c r="D84" s="9" t="str">
         <f t="shared" si="2"/>
         <v>* [Bridge Innovation Centre](https://www.bridgeinnovation.co.uk/)</v>
       </c>
       <c r="E84" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F84" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G84" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+        <v>236</v>
+      </c>
+      <c r="J84" s="6">
+        <v>51.700049999999997</v>
+      </c>
+      <c r="K84" s="6">
+        <v>-4.9240000000000004</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A85"/>
       <c r="B85" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C85" t="s">
-        <v>240</v>
-      </c>
-      <c r="D85" t="str">
+        <v>238</v>
+      </c>
+      <c r="D85" s="9" t="str">
         <f t="shared" si="2"/>
         <v>* [Dundee University Incubator](https://www.dundeeincubator.com/)</v>
       </c>
@@ -4380,65 +4928,83 @@
         <v>8</v>
       </c>
       <c r="F85" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="G85" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+      <c r="J85" s="6">
+        <v>56.458240000000004</v>
+      </c>
+      <c r="K85" s="6">
+        <v>-2.99</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A86"/>
       <c r="B86" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C86" t="s">
-        <v>244</v>
-      </c>
-      <c r="D86" t="str">
+        <v>242</v>
+      </c>
+      <c r="D86" s="9" t="str">
         <f t="shared" si="2"/>
         <v>* [Hayes Business Studios](http://www.hayesbusinessstudios.co.uk/)</v>
       </c>
       <c r="E86" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F86" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G86" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J86" s="6">
+        <v>51.515520000000002</v>
+      </c>
+      <c r="K86" s="6">
+        <v>-0.41176000000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A87"/>
       <c r="B87" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C87" t="s">
-        <v>246</v>
-      </c>
-      <c r="D87" t="str">
+        <v>244</v>
+      </c>
+      <c r="D87" s="9" t="str">
         <f t="shared" si="2"/>
         <v>* [Creative Enterprise](https://www.uca.ac.uk/creative-enterprise-development/)</v>
       </c>
       <c r="E87" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F87" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="G87" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J87" s="6">
+        <v>51.2746</v>
+      </c>
+      <c r="K87" s="6">
+        <v>1.0903099999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A88"/>
       <c r="B88" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C88" t="s">
-        <v>248</v>
-      </c>
-      <c r="D88" t="str">
+        <v>246</v>
+      </c>
+      <c r="D88" s="9" t="str">
         <f t="shared" si="2"/>
         <v>* [Nucleus Business &amp; Innovation Centre](https://www.nucleus-dartford.co.uk/)</v>
       </c>
@@ -4446,373 +5012,475 @@
         <v>8</v>
       </c>
       <c r="F88" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G88" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+      <c r="J88" s="6">
+        <v>51.460900000000002</v>
+      </c>
+      <c r="K88" s="6">
+        <v>0.23075002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A89"/>
       <c r="B89" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C89" t="s">
-        <v>250</v>
-      </c>
-      <c r="D89" t="str">
+        <v>248</v>
+      </c>
+      <c r="D89" s="9" t="str">
         <f t="shared" si="2"/>
         <v>* [Cornwall Innovation](http://cornwallinnovation.co.uk/health-wellbeing-centre)</v>
       </c>
       <c r="E89" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F89" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G89" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+      <c r="J89" s="6">
+        <v>50.266359999999999</v>
+      </c>
+      <c r="K89" s="6">
+        <v>-5.0974599999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A90"/>
       <c r="B90" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C90" t="s">
-        <v>255</v>
-      </c>
-      <c r="D90" t="str">
+        <v>253</v>
+      </c>
+      <c r="D90" s="9" t="str">
         <f t="shared" si="2"/>
         <v>* [Enterprise Incubation Centre](https://www.herts.ac.uk/enterprise-zone/grow-your-business/business-support/business-incubation)</v>
       </c>
       <c r="E90" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F90" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G90" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+        <v>254</v>
+      </c>
+      <c r="J90" s="6">
+        <v>51.760689999999997</v>
+      </c>
+      <c r="K90" s="6">
+        <v>-0.25101000000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A91"/>
       <c r="B91" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C91" t="s">
-        <v>258</v>
-      </c>
-      <c r="D91" t="str">
+        <v>256</v>
+      </c>
+      <c r="D91" s="9" t="str">
         <f t="shared" si="2"/>
         <v>* [Ocean Village Innovation Centre](https://www.oceanvillage-ic.co.uk/)</v>
       </c>
       <c r="E91" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F91" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="G91" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+      <c r="J91" s="6">
+        <v>50.8946574</v>
+      </c>
+      <c r="K91" s="6">
+        <v>-1.3952195999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A92"/>
       <c r="B92" t="s">
+        <v>258</v>
+      </c>
+      <c r="C92" t="s">
         <v>260</v>
       </c>
-      <c r="C92" t="s">
-        <v>262</v>
-      </c>
-      <c r="D92" t="str">
+      <c r="D92" s="9" t="str">
         <f t="shared" si="2"/>
         <v>* [Retford Enterprise Centre](https://www.retfordenterprise.co.uk/)</v>
       </c>
       <c r="E92" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F92" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G92" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+        <v>259</v>
+      </c>
+      <c r="J92" s="6">
+        <v>53.321167600000003</v>
+      </c>
+      <c r="K92" s="6">
+        <v>-0.94196429999999998</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A93"/>
       <c r="B93" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C93" t="s">
-        <v>264</v>
-      </c>
-      <c r="D93" t="str">
+        <v>262</v>
+      </c>
+      <c r="D93" s="9" t="str">
         <f t="shared" si="2"/>
         <v>* [Good Ideas Academy](https://www.themeltingpotedinburgh.org.uk/good-ideas/)</v>
       </c>
       <c r="E93" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F93" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="G93" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J93" s="6">
+        <v>55.953239600000003</v>
+      </c>
+      <c r="K93" s="6">
+        <v>-3.1946310000000002</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A94"/>
       <c r="B94" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C94" t="s">
-        <v>266</v>
-      </c>
-      <c r="D94" t="str">
+        <v>264</v>
+      </c>
+      <c r="D94" s="9" t="str">
         <f t="shared" si="2"/>
         <v>* [Harborough Innovation Centre](https://www.harborough-ic.co.uk/)</v>
       </c>
       <c r="E94" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F94" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G94" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+      <c r="J94" s="6">
+        <v>52.495260000000002</v>
+      </c>
+      <c r="K94" s="6">
+        <v>-0.93879000000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A95"/>
       <c r="B95" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C95" t="s">
-        <v>269</v>
-      </c>
-      <c r="D95" t="str">
+        <v>267</v>
+      </c>
+      <c r="D95" s="9" t="str">
         <f t="shared" si="2"/>
         <v>* [Hethel Innovation](https://hethelinnovation.com/)</v>
       </c>
       <c r="E95" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F95" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G95" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+        <v>268</v>
+      </c>
+      <c r="J95" s="6">
+        <v>52.554835099999998</v>
+      </c>
+      <c r="K95" s="6">
+        <v>1.17823009</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A96"/>
       <c r="B96" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C96" t="s">
-        <v>274</v>
-      </c>
-      <c r="D96" t="str">
+        <v>272</v>
+      </c>
+      <c r="D96" s="9" t="str">
         <f t="shared" si="2"/>
         <v>* [Innovation Martlesham Incubator Facility](https://atadastral.co.uk/)</v>
       </c>
       <c r="E96" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F96" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G96" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+        <v>273</v>
+      </c>
+      <c r="J96" s="6">
+        <v>52.058959999999999</v>
+      </c>
+      <c r="K96" s="6">
+        <v>1.27935</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A97"/>
       <c r="B97" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C97" t="s">
-        <v>277</v>
-      </c>
-      <c r="D97" t="str">
+        <v>275</v>
+      </c>
+      <c r="D97" s="9" t="str">
         <f t="shared" si="2"/>
         <v>* [Mansfield i-Centre](https://www.mansfield-ic.co.uk/)</v>
       </c>
       <c r="E97" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F97" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G97" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+        <v>276</v>
+      </c>
+      <c r="J97" s="6">
+        <v>53.131659999999997</v>
+      </c>
+      <c r="K97" s="6">
+        <v>-1.2111000000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A98"/>
       <c r="B98" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C98" t="s">
-        <v>281</v>
-      </c>
-      <c r="D98" t="str">
+        <v>279</v>
+      </c>
+      <c r="D98" s="9" t="str">
         <f t="shared" si="2"/>
         <v>* [Newark Beacon](http://www.newark-beacon.co.uk/)</v>
       </c>
       <c r="E98" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F98" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G98" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+        <v>280</v>
+      </c>
+      <c r="J98" s="6">
+        <v>53.077669999999998</v>
+      </c>
+      <c r="K98" s="6">
+        <v>-0.79169999999999996</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A99"/>
       <c r="B99" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C99" t="s">
-        <v>284</v>
-      </c>
-      <c r="D99" t="str">
+        <v>282</v>
+      </c>
+      <c r="D99" s="9" t="str">
         <f t="shared" si="2"/>
         <v>* [Queen Mary BioEnterprises Innovation Centre](https://www.qmbioenterprises.com/)</v>
       </c>
       <c r="E99" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F99" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G99" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+        <v>283</v>
+      </c>
+      <c r="J99" s="6">
+        <v>51.516335699999999</v>
+      </c>
+      <c r="K99" s="6">
+        <v>-6.2130299999999999E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A100"/>
       <c r="B100" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C100" t="s">
-        <v>287</v>
-      </c>
-      <c r="D100" t="str">
+        <v>285</v>
+      </c>
+      <c r="D100" s="9" t="str">
         <f t="shared" si="2"/>
         <v>* [Scott Bader Innovation Centre](https://www.scottbader-ic.co.uk/)</v>
       </c>
       <c r="E100" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F100" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="G100" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+        <v>570</v>
+      </c>
+      <c r="J100" s="6">
+        <v>52.2560298</v>
+      </c>
+      <c r="K100" s="6">
+        <v>-0.67261280000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A101"/>
       <c r="B101" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C101" t="s">
-        <v>289</v>
-      </c>
-      <c r="D101" t="str">
+        <v>287</v>
+      </c>
+      <c r="D101" s="9" t="str">
         <f t="shared" si="2"/>
         <v>* [The Studio](https://www.lboro.ac.uk/services/the-studio/)</v>
       </c>
       <c r="E101" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F101" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="G101" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+        <v>288</v>
+      </c>
+      <c r="J101" s="6">
+        <v>52.767169799999998</v>
+      </c>
+      <c r="K101" s="6">
+        <v>-1.2217899000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A102"/>
       <c r="B102" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C102" t="s">
-        <v>292</v>
-      </c>
-      <c r="D102" t="str">
+        <v>290</v>
+      </c>
+      <c r="D102" s="9" t="str">
         <f t="shared" si="2"/>
         <v>* [Worksop Turbine Innovation Centre](https://worksopturbine.nottinghamshire.gov.uk/)</v>
       </c>
       <c r="E102" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F102" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G102" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+        <v>291</v>
+      </c>
+      <c r="J102" s="6">
+        <v>53.322749999999999</v>
+      </c>
+      <c r="K102" s="6">
+        <v>-1.1575299999999999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A103"/>
       <c r="B103" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C103" t="s">
-        <v>295</v>
-      </c>
-      <c r="D103" t="str">
+        <v>293</v>
+      </c>
+      <c r="D103" s="9" t="str">
         <f t="shared" si="2"/>
         <v>* [Bracknell Enterprise &amp; Innovation Hub](https://www.bracknell-hub.co.uk/)</v>
       </c>
       <c r="E103" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F103" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="G103" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+      <c r="J103" s="6">
+        <v>51.416170000000001</v>
+      </c>
+      <c r="K103" s="6">
+        <v>-0.75160000000000005</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A104"/>
       <c r="B104" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C104" t="s">
-        <v>298</v>
-      </c>
-      <c r="D104" t="str">
+        <v>296</v>
+      </c>
+      <c r="D104" s="9" t="str">
         <f t="shared" si="2"/>
         <v>* [Innovation Programme](https://www.ne-bic.co.uk/)</v>
       </c>
       <c r="E104" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F104" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="G104" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+      <c r="J104" s="6">
+        <v>54.918390000000002</v>
+      </c>
+      <c r="K104" s="6">
+        <v>-1.41537</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A105"/>
       <c r="B105" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C105" t="s">
-        <v>301</v>
-      </c>
-      <c r="D105" t="str">
+        <v>299</v>
+      </c>
+      <c r="D105" s="9" t="str">
         <f t="shared" si="2"/>
         <v>* [Stevenage BioCatalyst](https://www.stevenagecatalyst.com/)</v>
       </c>
@@ -4820,197 +5488,251 @@
         <v>36</v>
       </c>
       <c r="F105" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G105" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="J105" s="6">
+        <v>51.885060000000003</v>
+      </c>
+      <c r="K105" s="6">
+        <v>-0.20207</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A106"/>
       <c r="B106" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C106" t="s">
-        <v>304</v>
-      </c>
-      <c r="D106" t="str">
+        <v>302</v>
+      </c>
+      <c r="D106" s="9" t="str">
         <f t="shared" si="2"/>
         <v>* [The Nova Centre](https://www.keele.ac.uk/business/scienceandinnovationpark/)</v>
       </c>
       <c r="E106" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F106" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="G106" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+      <c r="J106" s="6">
+        <v>53.003059999999998</v>
+      </c>
+      <c r="K106" s="6">
+        <v>-2.27102</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A107"/>
       <c r="B107" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C107" t="s">
-        <v>308</v>
-      </c>
-      <c r="D107" t="str">
+        <v>306</v>
+      </c>
+      <c r="D107" s="9" t="str">
         <f t="shared" si="2"/>
         <v>* [Tremough Innovation Centre](https://cornwallinnovation.co.uk/centre/tremough-innovation-centre/)</v>
       </c>
       <c r="E107" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F107" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G107" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+        <v>307</v>
+      </c>
+      <c r="J107" s="6">
+        <v>50.266359999999999</v>
+      </c>
+      <c r="K107" s="6">
+        <v>-5.0974599999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A108"/>
       <c r="B108" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C108" t="s">
-        <v>311</v>
-      </c>
-      <c r="D108" t="str">
+        <v>309</v>
+      </c>
+      <c r="D108" s="9" t="str">
         <f t="shared" si="2"/>
         <v>* [Witney Business &amp; Innovation Centre](https://www.witney-bic.co.uk/)</v>
       </c>
       <c r="E108" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F108" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G108" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+        <v>310</v>
+      </c>
+      <c r="J108" s="6">
+        <v>51.792020000000001</v>
+      </c>
+      <c r="K108" s="6">
+        <v>-1.5164</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A109"/>
       <c r="B109" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C109" t="s">
-        <v>314</v>
-      </c>
-      <c r="D109" t="str">
+        <v>312</v>
+      </c>
+      <c r="D109" s="9" t="str">
         <f t="shared" si="2"/>
         <v>* [BizzInn Business Incubator](https://www.birmingham.ac.uk/partners/enterprise/businesssupport.aspx/)</v>
       </c>
       <c r="E109" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F109" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="G109" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J109" s="6">
+        <v>52.453130000000002</v>
+      </c>
+      <c r="K109" s="6">
+        <v>-1.92807</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A110"/>
       <c r="B110" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C110" t="s">
-        <v>316</v>
-      </c>
-      <c r="D110" t="str">
+        <v>314</v>
+      </c>
+      <c r="D110" s="9" t="str">
         <f t="shared" si="2"/>
         <v>* [BU Student Incubation Centre (BUSI)](https://www.hugedomains.com/domain_profile.cfm?d=bucfe&amp;e=com)</v>
       </c>
       <c r="E110" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F110" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="G110" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+      <c r="J110" s="6">
+        <v>50.743169999999999</v>
+      </c>
+      <c r="K110" s="6">
+        <v>-1.89862</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A111"/>
       <c r="B111" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C111" t="s">
-        <v>320</v>
-      </c>
-      <c r="D111" t="str">
+        <v>318</v>
+      </c>
+      <c r="D111" s="9" t="str">
         <f t="shared" si="2"/>
         <v>* [Haatch](https://haatch.com/)</v>
       </c>
       <c r="E111" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F111" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G111" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J111" s="6">
+        <v>52.651609999999998</v>
+      </c>
+      <c r="K111" s="6">
+        <v>-0.47505999999999998</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A112"/>
       <c r="B112" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C112" t="s">
-        <v>322</v>
-      </c>
-      <c r="D112" t="str">
+        <v>320</v>
+      </c>
+      <c r="D112" s="9" t="str">
         <f t="shared" si="2"/>
         <v>* [Henley Start-up Business Incubator](https://www.escapethecity.org/organisation/henley-start-up-business-incubator)</v>
       </c>
       <c r="E112" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F112" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G112" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J112" s="6">
+        <v>50.827710000000003</v>
+      </c>
+      <c r="K112" s="6">
+        <v>-0.17054</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A113"/>
       <c r="B113" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C113" t="s">
-        <v>324</v>
-      </c>
-      <c r="D113" t="str">
+        <v>322</v>
+      </c>
+      <c r="D113" s="9" t="str">
         <f t="shared" si="2"/>
         <v>* [Live Lab](https://www.livelab.co.uk/)</v>
       </c>
       <c r="E113" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F113" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G113" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+        <v>323</v>
+      </c>
+      <c r="J113" s="6">
+        <v>52.634549999999997</v>
+      </c>
+      <c r="K113" s="6">
+        <v>-0.74309000000000003</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A114"/>
       <c r="B114" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C114" t="s">
-        <v>328</v>
-      </c>
-      <c r="D114" t="str">
+        <v>326</v>
+      </c>
+      <c r="D114" s="9" t="str">
         <f t="shared" si="2"/>
         <v>* [Stockport Business &amp; Innovation Centre](https://www.stockport-bic.co.uk/)</v>
       </c>
@@ -5018,41 +5740,53 @@
         <v>59</v>
       </c>
       <c r="F114" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G114" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+        <v>327</v>
+      </c>
+      <c r="J114" s="6">
+        <v>53.4345</v>
+      </c>
+      <c r="K114" s="6">
+        <v>-2.16472</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A115"/>
       <c r="B115" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C115" t="s">
-        <v>331</v>
-      </c>
-      <c r="D115" t="str">
+        <v>329</v>
+      </c>
+      <c r="D115" s="9" t="str">
         <f t="shared" si="2"/>
         <v>* [The Enterprise Network](https://www.theenterprisenetwork.co.uk/)</v>
       </c>
       <c r="E115"/>
       <c r="F115" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="G115" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+      <c r="J115" s="6">
+        <v>51.25459</v>
+      </c>
+      <c r="K115" s="6">
+        <v>-1.6289899999999999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A116"/>
       <c r="B116" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C116" t="s">
-        <v>334</v>
-      </c>
-      <c r="D116" t="str">
+        <v>332</v>
+      </c>
+      <c r="D116" s="9" t="str">
         <f t="shared" si="2"/>
         <v>* [Warwick Ventures Software Incubator](https://warwick.ac.uk/services/innovations/softwareincubator)</v>
       </c>
@@ -5060,193 +5794,247 @@
         <v>8</v>
       </c>
       <c r="F116" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="G116" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+        <v>333</v>
+      </c>
+      <c r="J116" s="6">
+        <v>52.386040000000001</v>
+      </c>
+      <c r="K116" s="6">
+        <v>-1.56491</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A117"/>
       <c r="B117" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C117" t="s">
-        <v>337</v>
-      </c>
-      <c r="D117" t="str">
+        <v>335</v>
+      </c>
+      <c r="D117" s="9" t="str">
         <f t="shared" si="2"/>
         <v>* [Centre for Digital Innovation (C4DI)](http://www.c4di.co.uk/)</v>
       </c>
       <c r="E117" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F117" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G117" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+        <v>336</v>
+      </c>
+      <c r="J117" s="6">
+        <v>53.738889999999998</v>
+      </c>
+      <c r="K117" s="6">
+        <v>-0.33328999999999998</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A118"/>
       <c r="B118" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C118" t="s">
-        <v>340</v>
-      </c>
-      <c r="D118" t="str">
+        <v>338</v>
+      </c>
+      <c r="D118" s="9" t="str">
         <f t="shared" si="2"/>
         <v>* [Innospace](http://www.innospace.co.uk/)</v>
       </c>
       <c r="E118" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F118" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="G118" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J118" s="6">
+        <v>53.464269999999999</v>
+      </c>
+      <c r="K118" s="6">
+        <v>-2.2475100000000001</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A119"/>
       <c r="B119" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C119" t="s">
-        <v>342</v>
-      </c>
-      <c r="D119" t="str">
+        <v>340</v>
+      </c>
+      <c r="D119" s="9" t="str">
         <f t="shared" si="2"/>
         <v>* [MedBIC](https://aru.ac.uk/arise)</v>
       </c>
       <c r="E119"/>
       <c r="F119" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G119" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+      <c r="J119" s="6">
+        <v>51.742893199999997</v>
+      </c>
+      <c r="K119" s="6">
+        <v>0.47209192999999999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A120"/>
       <c r="B120" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C120" t="s">
-        <v>345</v>
-      </c>
-      <c r="D120" t="str">
+        <v>343</v>
+      </c>
+      <c r="D120" s="9" t="str">
         <f t="shared" si="2"/>
         <v>* [Momentum Business Incubator](http://www.worcesterenterprise.org/incubator-support-package/)</v>
       </c>
       <c r="E120" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F120" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G120" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+        <v>344</v>
+      </c>
+      <c r="J120" s="6">
+        <v>52.195889999999999</v>
+      </c>
+      <c r="K120" s="6">
+        <v>-2.22627</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A121"/>
       <c r="B121" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C121" t="s">
-        <v>348</v>
-      </c>
-      <c r="D121" t="str">
+        <v>346</v>
+      </c>
+      <c r="D121" s="9" t="str">
         <f t="shared" si="2"/>
         <v>* [NoWFOOD Centre](https://www1.chester.ac.uk/business-growth/nowfood)</v>
       </c>
       <c r="E121" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F121" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G121" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+        <v>348</v>
+      </c>
+      <c r="J121" s="6">
+        <v>53.208889999999997</v>
+      </c>
+      <c r="K121" s="6">
+        <v>-2.9063300000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A122"/>
       <c r="B122" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C122" t="s">
-        <v>352</v>
-      </c>
-      <c r="D122" t="str">
+        <v>350</v>
+      </c>
+      <c r="D122" s="9" t="str">
         <f t="shared" si="2"/>
         <v>* [One St. Aldates](https://www.onestaldates.co.uk/)</v>
       </c>
       <c r="E122" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F122" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="G122" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+        <v>351</v>
+      </c>
+      <c r="J122" s="6">
+        <v>51.751779999999997</v>
+      </c>
+      <c r="K122" s="6">
+        <v>-1.2575700000000001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A123"/>
       <c r="B123" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C123" t="s">
-        <v>355</v>
-      </c>
-      <c r="D123" t="str">
+        <v>353</v>
+      </c>
+      <c r="D123" s="9" t="str">
         <f t="shared" si="2"/>
         <v>* [SPACE at Hoo Farm](http://www.wyreforestspace.co.uk/space-at-hoo-farm.aspx)</v>
       </c>
       <c r="E123"/>
       <c r="F123" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="G123" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+        <v>354</v>
+      </c>
+      <c r="J123" s="6">
+        <v>52.360259999999997</v>
+      </c>
+      <c r="K123" s="6">
+        <v>-2.2691400000000002</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A124"/>
       <c r="B124" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C124" t="s">
-        <v>358</v>
-      </c>
-      <c r="D124" t="str">
+        <v>356</v>
+      </c>
+      <c r="D124" s="9" t="str">
         <f t="shared" si="2"/>
         <v>* [UHatch](https://www.gcu.ac.uk/uhatch/)</v>
       </c>
       <c r="E124" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F124" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="G124" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+        <v>357</v>
+      </c>
+      <c r="J124" s="6">
+        <v>55.867910000000002</v>
+      </c>
+      <c r="K124" s="6">
+        <v>-4.2507000000000001</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A125"/>
       <c r="B125" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C125" t="s">
         <v>21</v>
       </c>
-      <c r="D125" t="str">
+      <c r="D125" s="9" t="str">
         <f t="shared" si="2"/>
         <v>* [Digital Exchange](NA)</v>
       </c>
@@ -5254,281 +6042,359 @@
         <v>21</v>
       </c>
       <c r="F125" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="G125"/>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J125" s="6">
+        <v>53.794989399999999</v>
+      </c>
+      <c r="K125" s="6">
+        <v>-1.7459163</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A126"/>
       <c r="B126" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C126" t="s">
-        <v>363</v>
-      </c>
-      <c r="D126" t="str">
+        <v>361</v>
+      </c>
+      <c r="D126" s="9" t="str">
         <f t="shared" si="2"/>
         <v>* [Fareham Innovation Centre](https://www.fareham-ic.co.uk/)</v>
       </c>
       <c r="E126" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F126" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="G126" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+        <v>363</v>
+      </c>
+      <c r="J126" s="6">
+        <v>50.812449999999998</v>
+      </c>
+      <c r="K126" s="6">
+        <v>-1.1942299999999999</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A127"/>
       <c r="B127" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C127" t="s">
-        <v>367</v>
-      </c>
-      <c r="D127" t="str">
+        <v>365</v>
+      </c>
+      <c r="D127" s="9" t="str">
         <f t="shared" si="2"/>
         <v>* [High Growth Centre](https://www1.chester.ac.uk/business-growth/thornton-science-park)</v>
       </c>
       <c r="E127" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F127" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G127" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+        <v>348</v>
+      </c>
+      <c r="J127" s="6">
+        <v>53.208889999999997</v>
+      </c>
+      <c r="K127" s="6">
+        <v>-2.9063300000000001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A128"/>
       <c r="B128" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C128" t="s">
-        <v>370</v>
-      </c>
-      <c r="D128" t="str">
+        <v>368</v>
+      </c>
+      <c r="D128" s="9" t="str">
         <f t="shared" si="2"/>
         <v>* [Ideas Factory Incubation Centre](https://www.nua.ac.uk/for-business/incubation-centre-facility-hire/)</v>
       </c>
       <c r="E128" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F128" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="G128" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+        <v>369</v>
+      </c>
+      <c r="J128" s="6">
+        <v>52.630523500000002</v>
+      </c>
+      <c r="K128" s="6">
+        <v>1.2947637299999999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A129"/>
       <c r="B129" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C129" t="s">
-        <v>374</v>
-      </c>
-      <c r="D129" t="str">
+        <v>372</v>
+      </c>
+      <c r="D129" s="9" t="str">
         <f t="shared" si="2"/>
         <v>* [InTechnology Enterprise incubator](https://www.leeds.ac.uk/news/article/3668/young_entrepreneurs_get_a_chance_to_shine)</v>
       </c>
       <c r="E129" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F129" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G129" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J129" s="6">
+        <v>53.807279999999999</v>
+      </c>
+      <c r="K129" s="6">
+        <v>-1.5522899999999999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A130"/>
       <c r="B130" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C130" t="s">
-        <v>377</v>
-      </c>
-      <c r="D130" t="str">
+        <v>375</v>
+      </c>
+      <c r="D130" s="9" t="str">
         <f t="shared" si="2"/>
         <v>* [Marine Robotics Innovation Centre Hub](https://noc-innovations.co.uk/marine-robotics-innovation-centre)</v>
       </c>
       <c r="E130" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F130" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G130" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+        <v>377</v>
+      </c>
+      <c r="J130" s="6">
+        <v>50.8935508</v>
+      </c>
+      <c r="K130" s="6">
+        <v>-1.3934694000000001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A131"/>
       <c r="B131" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C131" t="s">
-        <v>381</v>
-      </c>
-      <c r="D131" t="str">
+        <v>379</v>
+      </c>
+      <c r="D131" s="9" t="str">
         <f t="shared" si="2"/>
         <v>* [Rothamsted Centre for Research and Enterprise](https://www.rothamstedenterprises.com/)</v>
       </c>
       <c r="E131"/>
       <c r="F131" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G131" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+        <v>380</v>
+      </c>
+      <c r="J131" s="6">
+        <v>51.809399999999997</v>
+      </c>
+      <c r="K131" s="6">
+        <v>-0.35446</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A132"/>
       <c r="B132" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C132" t="s">
-        <v>384</v>
-      </c>
-      <c r="D132" t="str">
+        <v>382</v>
+      </c>
+      <c r="D132" s="9" t="str">
         <f t="shared" si="2"/>
         <v>* [The BioHub Birmingham](https://www.birminghamresearchpark.co.uk/biohub/)</v>
       </c>
       <c r="E132" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F132" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G132" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+        <v>384</v>
+      </c>
+      <c r="J132" s="6">
+        <v>52.453690000000002</v>
+      </c>
+      <c r="K132" s="6">
+        <v>-1.93251</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A133"/>
       <c r="B133" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C133" t="s">
-        <v>388</v>
-      </c>
-      <c r="D133" t="str">
+        <v>386</v>
+      </c>
+      <c r="D133" s="9" t="str">
         <f t="shared" si="2"/>
         <v>* [The Ingenuity Lab](https://www.nottingham.ac.uk/business/businesscentres/hgi/ingenuity-lab/about-the-ingenuity-lab.aspx)</v>
       </c>
       <c r="E133" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F133" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="G133" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+      <c r="J133" s="6">
+        <v>52.952979999999997</v>
+      </c>
+      <c r="K133" s="6">
+        <v>-1.1874499999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A134"/>
       <c r="B134" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C134" t="s">
-        <v>394</v>
-      </c>
-      <c r="D134" t="str">
+        <v>392</v>
+      </c>
+      <c r="D134" s="9" t="str">
         <f t="shared" si="2"/>
         <v>* [UBC Leeds Digital Hub](https://leeds.tech/workspace/the-digital-hub/)</v>
       </c>
       <c r="E134" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F134" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G134" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+        <v>391</v>
+      </c>
+      <c r="J134" s="6">
+        <v>53.793458800000003</v>
+      </c>
+      <c r="K134" s="6">
+        <v>-1.5590626000000001</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A135"/>
       <c r="B135" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C135" t="s">
-        <v>397</v>
-      </c>
-      <c r="D135" t="str">
+        <v>395</v>
+      </c>
+      <c r="D135" s="9" t="str">
         <f t="shared" si="2"/>
         <v>* [WB100](http://wosskowbrownfoundation.org.uk/)</v>
       </c>
       <c r="E135" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F135" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="G135" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J135" s="6">
+        <v>53.392575000000001</v>
+      </c>
+      <c r="K135" s="6">
+        <v>-1.4329599</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A136"/>
       <c r="B136" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C136" t="s">
-        <v>399</v>
-      </c>
-      <c r="D136" t="str">
+        <v>397</v>
+      </c>
+      <c r="D136" s="9" t="str">
         <f t="shared" si="2"/>
         <v>* [BioData Innovation Centre](https://www.sanger.ac.uk/about/campus)</v>
       </c>
       <c r="E136" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F136" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="G136" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J136" s="6">
+        <v>52.079259999999998</v>
+      </c>
+      <c r="K136" s="6">
+        <v>0.18566996999999999</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A137"/>
       <c r="B137" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C137" t="s">
-        <v>402</v>
-      </c>
-      <c r="D137" t="str">
+        <v>400</v>
+      </c>
+      <c r="D137" s="9" t="str">
         <f t="shared" si="2"/>
         <v>* [Canopy Exeter](https://www.exetersciencepark.co.uk/)</v>
       </c>
       <c r="E137" t="s">
+        <v>398</v>
+      </c>
+      <c r="F137" t="s">
+        <v>530</v>
+      </c>
+      <c r="G137" t="s">
         <v>400</v>
       </c>
-      <c r="F137" t="s">
-        <v>532</v>
-      </c>
-      <c r="G137" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J137" s="6">
+        <v>50.731639999999999</v>
+      </c>
+      <c r="K137" s="6">
+        <v>-3.45641</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A138"/>
       <c r="B138" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C138" t="s">
-        <v>404</v>
-      </c>
-      <c r="D138" t="str">
+        <v>402</v>
+      </c>
+      <c r="D138" s="9" t="str">
         <f t="shared" si="2"/>
         <v>* [Future Space](https://www.futurespacebristol.co.uk/)</v>
       </c>
@@ -5536,109 +6402,139 @@
         <v>8</v>
       </c>
       <c r="F138" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="G138" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+        <v>403</v>
+      </c>
+      <c r="J138" s="6">
+        <v>51.501289999999997</v>
+      </c>
+      <c r="K138" s="6">
+        <v>-2.55131</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A139"/>
       <c r="B139" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C139" t="s">
-        <v>407</v>
-      </c>
-      <c r="D139" t="str">
+        <v>405</v>
+      </c>
+      <c r="D139" s="9" t="str">
         <f t="shared" ref="D139:D156" si="3">CONCATENATE("* [",B139,"](",C139,")")</f>
         <v>* [Londoneast](https://www.londoneast-uk.com/)</v>
       </c>
       <c r="E139" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F139" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="G139" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+        <v>406</v>
+      </c>
+      <c r="J139" s="6">
+        <v>51.546059999999997</v>
+      </c>
+      <c r="K139" s="6">
+        <v>0.16567997000000001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A140"/>
       <c r="B140" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C140" t="s">
-        <v>411</v>
-      </c>
-      <c r="D140" t="str">
+        <v>409</v>
+      </c>
+      <c r="D140" s="9" t="str">
         <f t="shared" si="3"/>
         <v>* [North East Space Incubation Programme](https://www.northeasttechnologypark.com/)</v>
       </c>
       <c r="E140" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F140" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="G140" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+        <v>411</v>
+      </c>
+      <c r="J140" s="6">
+        <v>54.670140000000004</v>
+      </c>
+      <c r="K140" s="6">
+        <v>-1.45133</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A141"/>
       <c r="B141" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C141" t="s">
-        <v>415</v>
-      </c>
-      <c r="D141" t="str">
+        <v>413</v>
+      </c>
+      <c r="D141" s="9" t="str">
         <f t="shared" si="3"/>
         <v>* [OpTIC Space Industry Incubation Programme](http://www.glyndwrinnovations.co.uk/incubation/)</v>
       </c>
       <c r="E141" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F141" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G141" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+        <v>415</v>
+      </c>
+      <c r="J141" s="6">
+        <v>53.255760000000002</v>
+      </c>
+      <c r="K141" s="6">
+        <v>-3.4757899999999999</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A142"/>
       <c r="B142" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C142" t="s">
-        <v>419</v>
-      </c>
-      <c r="D142" t="str">
+        <v>417</v>
+      </c>
+      <c r="D142" s="9" t="str">
         <f t="shared" si="3"/>
         <v>* [Roslin Innovation Centre](https://www.roslininnovationcentre.com/)</v>
       </c>
       <c r="E142" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F142" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="G142" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+        <v>419</v>
+      </c>
+      <c r="J142" s="6">
+        <v>55.865385099999997</v>
+      </c>
+      <c r="K142" s="6">
+        <v>-3.2025556000000002</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A143"/>
       <c r="B143" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C143" t="s">
-        <v>423</v>
-      </c>
-      <c r="D143" t="str">
+        <v>421</v>
+      </c>
+      <c r="D143" s="9" t="str">
         <f t="shared" si="3"/>
         <v>* [Serendip](https://serendip.co/)</v>
       </c>
@@ -5646,43 +6542,51 @@
         <v>21</v>
       </c>
       <c r="F143" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G143" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+      <c r="J143" s="6"/>
+      <c r="K143" s="6"/>
+    </row>
+    <row r="144" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A144"/>
       <c r="B144" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C144" t="s">
         <v>18</v>
       </c>
-      <c r="D144" t="str">
+      <c r="D144" s="9" t="str">
         <f t="shared" si="3"/>
         <v>* [Space Incubator](https://www.lusep.co.uk/)</v>
       </c>
       <c r="E144" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F144" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="G144" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J144" s="6">
+        <v>52.761279999999999</v>
+      </c>
+      <c r="K144" s="6">
+        <v>-1.24719</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A145"/>
       <c r="B145" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C145" t="s">
-        <v>427</v>
-      </c>
-      <c r="D145" t="str">
+        <v>425</v>
+      </c>
+      <c r="D145" s="9" t="str">
         <f t="shared" si="3"/>
         <v>* [The Tontine](https://www.tontineglasgow.co.uk/)</v>
       </c>
@@ -5690,263 +6594,327 @@
         <v>8</v>
       </c>
       <c r="F145" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G145" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J145" s="6">
+        <v>55.856999999999999</v>
+      </c>
+      <c r="K145" s="6">
+        <v>-4.2441399999999998</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A146"/>
       <c r="B146" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C146" t="s">
-        <v>429</v>
-      </c>
-      <c r="D146" t="str">
+        <v>427</v>
+      </c>
+      <c r="D146" s="9" t="str">
         <f t="shared" si="3"/>
         <v>* [Ashton Old Baths Innovation Centre](https://www.ashtonoldbaths.co.uk/)</v>
       </c>
       <c r="E146" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F146" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="G146" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+        <v>429</v>
+      </c>
+      <c r="J146" s="6">
+        <v>53.484850000000002</v>
+      </c>
+      <c r="K146" s="6">
+        <v>-2.1013999999999999</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A147"/>
       <c r="B147" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C147" t="s">
-        <v>433</v>
-      </c>
-      <c r="D147" t="str">
+        <v>431</v>
+      </c>
+      <c r="D147" s="9" t="str">
         <f t="shared" si="3"/>
         <v>* [Aurora Cambridge](https://www.bas.ac.uk/science/science-and-innovation/aurora-cambridge/)</v>
       </c>
       <c r="E147" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F147" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="G147" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+        <v>433</v>
+      </c>
+      <c r="J147" s="6">
+        <v>52.213839999999998</v>
+      </c>
+      <c r="K147" s="6">
+        <v>8.0589999999999995E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A148"/>
       <c r="B148" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C148" t="s">
-        <v>437</v>
-      </c>
-      <c r="D148" t="str">
+        <v>435</v>
+      </c>
+      <c r="D148" s="9" t="str">
         <f t="shared" si="3"/>
         <v>* [Charnwood Campus](http://charnwoodcampus.com/)</v>
       </c>
       <c r="E148" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F148" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="G148" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J148" s="6">
+        <v>52.789319999999996</v>
+      </c>
+      <c r="K148" s="6">
+        <v>-1.22603</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A149"/>
       <c r="B149" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C149" t="s">
-        <v>439</v>
-      </c>
-      <c r="D149" t="str">
+        <v>437</v>
+      </c>
+      <c r="D149" s="9" t="str">
         <f t="shared" si="3"/>
         <v>* [The Spot Hive](https://www.sportingchanceinitiative.co.uk/the-sport-hive)</v>
       </c>
       <c r="E149" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F149" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G149" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J149" s="6"/>
+      <c r="K149" s="6"/>
+    </row>
+    <row r="150" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A150"/>
       <c r="B150" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C150" t="s">
-        <v>442</v>
-      </c>
-      <c r="D150" t="str">
+        <v>440</v>
+      </c>
+      <c r="D150" s="9" t="str">
         <f t="shared" si="3"/>
         <v>* [STEAMHouse](https://www.bcu.ac.uk/business/steam/steamhouse)</v>
       </c>
       <c r="E150" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="F150" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="G150" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J150" s="6">
+        <v>52.481909999999999</v>
+      </c>
+      <c r="K150" s="6">
+        <v>-1.88889</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A151"/>
       <c r="B151" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C151" t="s">
-        <v>443</v>
-      </c>
-      <c r="D151" t="str">
+        <v>441</v>
+      </c>
+      <c r="D151" s="9" t="str">
         <f t="shared" si="3"/>
         <v>* [UBC Creative Fashion and Textile Hub](https://www.leedsbeckett.ac.uk/)</v>
       </c>
       <c r="E151" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F151" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G151" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J151" s="6">
+        <v>53.803330000000003</v>
+      </c>
+      <c r="K151" s="6">
+        <v>-1.54827</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A152"/>
       <c r="B152" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C152" t="s">
-        <v>446</v>
-      </c>
-      <c r="D152" t="str">
+        <v>444</v>
+      </c>
+      <c r="D152" s="9" t="str">
         <f t="shared" si="3"/>
         <v>* [UNIT DX](https://sciencecreates.co.uk/)</v>
       </c>
       <c r="E152" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F152" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G152" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J152" s="6">
+        <v>51.44688</v>
+      </c>
+      <c r="K152" s="6">
+        <v>-2.5740099999999999</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A153"/>
       <c r="B153" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C153" t="s">
-        <v>449</v>
-      </c>
-      <c r="D153" t="str">
+        <v>447</v>
+      </c>
+      <c r="D153" s="9" t="str">
         <f t="shared" si="3"/>
         <v>* [Guildhall Creative Entrepreneurs](https://www.gsmd.ac.uk/youth_adult_learning/creative_business_support/guildhall_creative_entrepreneurs/)</v>
       </c>
       <c r="E153" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F153" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="G153" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J153" s="6">
+        <v>51.520069999999997</v>
+      </c>
+      <c r="K153" s="6">
+        <v>-9.3530000000000002E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A154"/>
       <c r="B154" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C154" t="s">
-        <v>452</v>
-      </c>
-      <c r="D154" t="str">
+        <v>450</v>
+      </c>
+      <c r="D154" s="9" t="str">
         <f t="shared" si="3"/>
         <v>* [C11 Cyber Security and Digital Centre](https://www.glos.ac.uk/business-and-partnerships/c11-cyber-security-and-digital-innovation-centre/)</v>
       </c>
       <c r="E154" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F154" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="G154" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J154" s="6">
+        <v>51.886279999999999</v>
+      </c>
+      <c r="K154" s="6">
+        <v>-2.0912799999999998</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A155"/>
       <c r="B155" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C155" t="s">
-        <v>455</v>
-      </c>
-      <c r="D155" t="str">
+        <v>453</v>
+      </c>
+      <c r="D155" s="9" t="str">
         <f t="shared" si="3"/>
         <v>* [Barclays Labs](https://labs.uk.barclays/)</v>
       </c>
       <c r="E155" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F155" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G155" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J155" s="6">
+        <v>53.479790000000001</v>
+      </c>
+      <c r="K155" s="6">
+        <v>-2.2454299999999998</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>648</v>
-      </c>
-      <c r="D156" s="2" t="str">
+        <v>646</v>
+      </c>
+      <c r="D156" s="10" t="str">
         <f t="shared" si="3"/>
         <v>* [Founders Institute London](https://fi.co/overview)</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G156" t="s">
         <v>54</v>
       </c>
       <c r="H156" s="2" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+        <v>649</v>
+      </c>
+      <c r="J156" s="6"/>
+      <c r="K156" s="6"/>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G157"/>
     </row>
   </sheetData>
@@ -5961,9 +6929,10 @@
     <hyperlink ref="G10" r:id="rId8" xr:uid="{693D2C18-D32F-6043-81C1-485C2ADE2807}"/>
     <hyperlink ref="B156" r:id="rId9" display="https://fi.co/overview" xr:uid="{227F239B-D453-2341-8396-ADA1A068571F}"/>
     <hyperlink ref="C156" r:id="rId10" xr:uid="{002C2069-BE7C-A04F-89CE-F870C479440F}"/>
+    <hyperlink ref="C29" r:id="rId11" xr:uid="{25DD77E7-4732-9F49-A249-12B396B32AA0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
 
@@ -5982,10 +6951,10 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C2" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
   </sheetData>

--- a/data/20210219_innovation_hubs-Almasi-v1.xlsx
+++ b/data/20210219_innovation_hubs-Almasi-v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sirvan/sites/startups/psychi/innovation-hubs/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40BA022-4824-4D45-9703-59FEB9CB122E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9913C4B0-524F-CF4E-8710-02310147678A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50380" yWindow="500" windowWidth="28400" windowHeight="28200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="44180" yWindow="500" windowWidth="34600" windowHeight="28200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="670">
   <si>
     <t>Google Campus London</t>
   </si>
@@ -2022,6 +2022,27 @@
   </si>
   <si>
     <t>Includes: I-Hub; Scale Space; Imperial White City Incubator; Advanced Hacks Space; Imperial.tech and Imperial Enterprise Lab</t>
+  </si>
+  <si>
+    <t>LORCA</t>
+  </si>
+  <si>
+    <t>https://www.lorca.co.uk/</t>
+  </si>
+  <si>
+    <t>Cyber security</t>
+  </si>
+  <si>
+    <t>Plexal; 14 East Bay Lane; Queen Elizabeth Olympic Park; London; E20 3BS</t>
+  </si>
+  <si>
+    <t>0203 909 7763; info@lorca.co.uk</t>
+  </si>
+  <si>
+    <t>LORCACyber</t>
+  </si>
+  <si>
+    <t>The cybersecurity innovation ecosystem that's funded by @DCMS and delivered by @plexalcity; @deloitte and @CSIT_QUB</t>
   </si>
 </sst>
 </file>
@@ -2483,8 +2504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="109" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="B119" zoomScale="109" workbookViewId="0">
+      <selection activeCell="G156" sqref="G156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6423,7 +6444,7 @@
         <v>405</v>
       </c>
       <c r="D139" s="9" t="str">
-        <f t="shared" ref="D139:D156" si="3">CONCATENATE("* [",B139,"](",C139,")")</f>
+        <f t="shared" ref="D139:D157" si="3">CONCATENATE("* [",B139,"](",C139,")")</f>
         <v>* [Londoneast](https://www.londoneast-uk.com/)</v>
       </c>
       <c r="E139" t="s">
@@ -6882,7 +6903,7 @@
         <v>-2.2454299999999998</v>
       </c>
     </row>
-    <row r="156" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>648</v>
       </c>
@@ -6911,11 +6932,42 @@
       <c r="I156" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="J156" s="6"/>
-      <c r="K156" s="6"/>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G157"/>
+    </row>
+    <row r="157" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A157" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="D157" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>* [LORCA](https://www.lorca.co.uk/)</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="H157" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="I157" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="J157" s="6">
+        <v>51.547581000000001</v>
+      </c>
+      <c r="K157" s="6">
+        <v>-2.3050999999999999E-2</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
